--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28005"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3311D574-425A-4E4B-AB6F-FAB788DB2B00}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98547BA0-078C-4D7D-B935-629D627B1AC3}"/>
   <bookViews>
-    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
   <si>
     <t>電卓アプリ</t>
   </si>
@@ -260,26 +260,128 @@
     <t>計算結果表示欄</t>
   </si>
   <si>
+    <t>テキストボックス</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>半角文字列</t>
+  </si>
+  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>数値を3桁ごとにカンマで区切って表示する。</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>クリアボタン</t>
+  </si>
+  <si>
+    <t>ボタン</t>
   </si>
   <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カンマ</t>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールクリアボタン</t>
   </si>
   <si>
     <t>④</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字ボタン（1）</t>
+  </si>
+  <si>
+    <t>⑤</t>
+  </si>
+  <si>
+    <t>数字ボタン（2）</t>
+  </si>
+  <si>
+    <t>⑥</t>
+  </si>
+  <si>
+    <t>数字ボタン（3）</t>
+  </si>
+  <si>
+    <t>⑦</t>
+  </si>
+  <si>
+    <t>数字ボタン（4）</t>
+  </si>
+  <si>
+    <t>⑧</t>
+  </si>
+  <si>
+    <t>数字ボタン（5）</t>
+  </si>
+  <si>
+    <t>⑨</t>
+  </si>
+  <si>
+    <t>数字ボタン（6）</t>
+  </si>
+  <si>
+    <t>⑩</t>
+  </si>
+  <si>
+    <t>数字ボタン（7）</t>
+  </si>
+  <si>
+    <t>⑪</t>
+  </si>
+  <si>
+    <t>数字ボタン（8）</t>
+  </si>
+  <si>
+    <t>⑫</t>
+  </si>
+  <si>
+    <t>数字ボタン（9）</t>
+  </si>
+  <si>
+    <t>⑬</t>
+  </si>
+  <si>
+    <t>数字ボタン（0）</t>
+  </si>
+  <si>
+    <t>⑭</t>
+  </si>
+  <si>
+    <t>等号ボタン</t>
+  </si>
+  <si>
+    <t>⑮</t>
+  </si>
+  <si>
+    <t>除算ボタン</t>
+  </si>
+  <si>
+    <t>⑯</t>
+  </si>
+  <si>
+    <t>乗算ボタン</t>
+  </si>
+  <si>
+    <t>⑰</t>
+  </si>
+  <si>
+    <t>減算ボタン</t>
+  </si>
+  <si>
+    <t>⑱</t>
+  </si>
+  <si>
+    <t>加算ボタン</t>
   </si>
   <si>
     <t>処理説明</t>
@@ -289,51 +391,74 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0ボタン</t>
-  </si>
-  <si>
-    <t>1に、0のみが入力されている場合
-何も処理を行わない
-1に、0以外の数値が入力されている場合
-1に表示されている数値の末尾に、0を結合する
-事前に演算系のボタンを押している場合
-1に、0のみを表示する</t>
-  </si>
-  <si>
-    <t>1ボタン</t>
-  </si>
-  <si>
-    <t>1に、0のみが入力されている場合
-0を上書きして、1を出力
-1に、0以外の数値が入力されている場合
-1に表示されている数値の末尾に、0を結合
-事前に演算系のボタンを押している場合
-1に、1のみを表示する</t>
-  </si>
-  <si>
-    <t>加算ボタン</t>
-  </si>
-  <si>
-    <t>加算ボタン押下前に1に入力されている値と、加算ボタン押下後に、入力した値を、加算ボタンまたは等号ボタンを押下することで1に出力
-1に、0のみが入力されている場合
-何も処理をおこなわない
-連続して、演算系のボタンを押下した場合
-何も行わない</t>
-  </si>
-  <si>
-    <t>等号ボタン</t>
-  </si>
-  <si>
-    <t>演算ボタンおうかまえにー、と演算ボタン押下後にー、の演算結果を、等号ボタン押下することで、出力する
-それ以外の場合、何も処理を行わない</t>
-  </si>
-  <si>
-    <t>小数点ボタン</t>
-  </si>
-  <si>
-    <t>数値の末尾に、小数点を追加
-既に小数点がある場合、
-何も処理を行わない</t>
+    <t>④～⑫数字ボタン押下</t>
+  </si>
+  <si>
+    <t>＜①計算結果表示欄に、「0」のみが入力されている場合＞
+→「0」を上書きして、「押下した数字ボタンの値」を出力する。
+＜①計算結果表示欄に、「0」以外の数値が入力されている場合＞
+→①計算結果表示欄に表示されている数値の末尾に、「押下した数字ボタンの値」を結合して出力する。
+＜事前に⑮～⑱の演算系のボタンを押下した場合＞
+→①計算結果表示欄に、「押下した数字ボタンの値」を出力する。</t>
+  </si>
+  <si>
+    <t>⑬数字ボタン（0）押下</t>
+  </si>
+  <si>
+    <t>＜①計算結果表示欄に、「0」のみが入力されている場合＞
+→何も処理を行わない。
+＜①計算結果表示欄に、「0」以外の数値が入力されている場合＞
+→①計算結果表示欄に表示されている数値の末尾に、「0」を結合して出力する。
+＜事前に⑮～⑱の演算系のボタンを押下した場合＞
+→①計算結果表示欄に、「0」を出力する。</t>
+  </si>
+  <si>
+    <t>⑭等号ボタン押下</t>
+  </si>
+  <si>
+    <t>〇①計算結果表示欄に入力されている値と、⑮～⑱の演算系のボタン押下後に入力した値の演算結果を、等号ボタン押下することで、①計算結果表示欄に出力する。
+＜上記以外の場合＞
+→何も処理を行わない。</t>
+  </si>
+  <si>
+    <t>⑮除算ボタン押下</t>
+  </si>
+  <si>
+    <t>〇①計算結果表示欄に入力されている値と、除算ボタン押下後に入力した値を加算した結果を、除算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+＜①計算結果表示欄に、「0」のみが入力されている場合＞
+→何も処理を行わない。
+＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+→何も処理を行わない。</t>
+  </si>
+  <si>
+    <t>⑯乗算ボタン押下</t>
+  </si>
+  <si>
+    <t>〇①計算結果表示欄に入力されている値と、乗算ボタン押下後に入力した値を加算した結果を、乗算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+＜①計算結果表示欄に、「0」のみが入力されている場合＞
+→何も処理を行わない。
+＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+→何も処理を行わない。</t>
+  </si>
+  <si>
+    <t>⑰減算ボタン押下</t>
+  </si>
+  <si>
+    <t>〇①計算結果表示欄に入力されている値と、減算ボタン押下後に入力した値を加算した結果を、減算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+＜①計算結果表示欄に、「0」のみが入力されている場合＞
+→何も処理を行わない。
+＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+→何も処理を行わない。</t>
+  </si>
+  <si>
+    <t>⑱加算ボタン押下</t>
+  </si>
+  <si>
+    <t>〇①計算結果表示欄に入力されている値と、加算ボタン押下後に入力した値を加算した結果を、加算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+＜①計算結果表示欄に、「0」のみが入力されている場合＞
+→何も処理を行わない。
+＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+→何も処理を行わない。</t>
   </si>
 </sst>
 </file>
@@ -344,7 +469,7 @@
     <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +568,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -458,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -865,11 +995,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -982,6 +1151,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,29 +1189,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,31 +1225,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,22 +1274,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>36196</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1891D29A-55B1-97F0-4FA3-94E2F787BA5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4577A418-3073-819D-2861-12C379A8E637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,20 +1299,1573 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="2000" r="836" b="333"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2486025" y="1619250"/>
-          <a:ext cx="3657600" cy="4572000"/>
+          <a:off x="2514600" y="2025015"/>
+          <a:ext cx="3617596" cy="4465321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B0CD57-3CC6-B6E0-8CD2-1B59F8DB32D9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4577A418-3073-819D-2861-12C379A8E637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="2543175"/>
+          <a:ext cx="3133725" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151ABC61-0168-4C39-9F92-CE196DF883A3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E8B0CD57-3CC6-B6E0-8CD2-1B59F8DB32D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="5191125"/>
+          <a:ext cx="800100" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F2525A-2E60-4C18-A8B6-59E098A08BD3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{151ABC61-0168-4C39-9F92-CE196DF883A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="3448050"/>
+          <a:ext cx="828675" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8319ABFE-CD89-42A6-8957-53FCF7BE27DD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37F2525A-2E60-4C18-A8B6-59E098A08BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="4038600"/>
+          <a:ext cx="2486025" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4EA114-1998-4D00-A103-F14578F02355}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8319ABFE-CD89-42A6-8957-53FCF7BE27DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="5800725"/>
+          <a:ext cx="828675" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3760B2C-AB6F-4230-B9F4-9700B3E5722F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10DDF7C7-DA13-4723-86F7-0E98E46F5B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="5800725"/>
+          <a:ext cx="819150" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312CC07F-4694-4FB7-AFE3-369639FA9AB2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{664806D6-A80A-45A9-9F04-7913DE72D550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="3448050"/>
+          <a:ext cx="828675" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3484063E-E4F7-4CBD-8199-288889664658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="4086225"/>
+          <a:ext cx="828675" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FAF68E-6C66-4547-89A7-1C3EB9C9AA75}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="4600575"/>
+          <a:ext cx="828675" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6FC492D-966D-4844-9670-348B7B5ECC41}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68FAF68E-6C66-4547-89A7-1C3EB9C9AA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="3438525"/>
+          <a:ext cx="828675" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1707,27 +3426,27 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="42"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="46"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -1745,25 +3464,25 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="45"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="49"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -1781,25 +3500,25 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="49"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -1817,25 +3536,25 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="45"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="49"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -1853,25 +3572,25 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="48"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="52"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -1930,17 +3649,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1968,15 +3687,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2004,15 +3723,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -2784,30 +4503,30 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="74">
+      <c r="B5" s="42">
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="B6" s="74">
+      <c r="B6" s="42">
         <f t="shared" ref="B6:B13" si="0">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="74">
+      <c r="B7" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="15"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -2830,12 +4549,12 @@
       <c r="Z7" s="23"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="74">
+      <c r="B8" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="15"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -2858,12 +4577,12 @@
       <c r="Z8" s="23"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="74">
+      <c r="B9" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="15"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -2886,12 +4605,12 @@
       <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="74">
+      <c r="B10" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="75"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="15"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -2914,12 +4633,12 @@
       <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:26" ht="18.75">
-      <c r="B11" s="74">
+      <c r="B11" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="75"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="15"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -3005,10 +4724,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX46"/>
+  <dimension ref="A1:AX65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AX34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
@@ -3017,228 +4736,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="70" t="str">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="str">
         <f>画面一覧表!C4</f>
         <v>電卓画面</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="68" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="70" t="str">
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="54" t="str">
         <f>画面一覧表!D4</f>
         <v>calculator</v>
       </c>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="64"/>
@@ -3352,25 +5071,25 @@
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
       <c r="G7" s="64"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
       <c r="AA7" s="64"/>
       <c r="AB7" s="64"/>
       <c r="AC7" s="64"/>
@@ -3404,25 +5123,25 @@
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
       <c r="G8" s="64"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
       <c r="AA8" s="64"/>
       <c r="AB8" s="64"/>
       <c r="AC8" s="64"/>
@@ -3456,25 +5175,25 @@
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
       <c r="AA9" s="64"/>
       <c r="AB9" s="64"/>
       <c r="AC9" s="64"/>
@@ -3508,25 +5227,25 @@
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
       <c r="AA10" s="64"/>
       <c r="AB10" s="64"/>
       <c r="AC10" s="64"/>
@@ -3560,25 +5279,25 @@
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
       <c r="G11" s="64"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
       <c r="AA11" s="64"/>
       <c r="AB11" s="64"/>
       <c r="AC11" s="64"/>
@@ -3669,15 +5388,15 @@
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
       <c r="L13" s="64"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="64"/>
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
@@ -3721,15 +5440,15 @@
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
       <c r="L14" s="64"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="64"/>
       <c r="W14" s="64"/>
       <c r="X14" s="64"/>
@@ -3773,15 +5492,15 @@
       <c r="J15" s="64"/>
       <c r="K15" s="64"/>
       <c r="L15" s="64"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
       <c r="X15" s="64"/>
@@ -4801,93 +6520,93 @@
       <c r="AX34" s="64"/>
     </row>
     <row r="35" spans="1:50">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="50"/>
-      <c r="AK35" s="50"/>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="50"/>
-      <c r="AT35" s="50"/>
-      <c r="AU35" s="50"/>
-      <c r="AV35" s="50"/>
-      <c r="AW35" s="50"/>
-      <c r="AX35" s="50"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
     </row>
     <row r="36" spans="1:50">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68" t="s">
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68" t="s">
+      <c r="S36" s="56"/>
+      <c r="T36" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
       <c r="X36" s="69" t="s">
         <v>27</v>
       </c>
@@ -4898,33 +6617,33 @@
       </c>
       <c r="AB36" s="69"/>
       <c r="AC36" s="69"/>
-      <c r="AD36" s="68" t="s">
+      <c r="AD36" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68" t="s">
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="68" t="s">
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AK36" s="68"/>
-      <c r="AL36" s="68"/>
-      <c r="AM36" s="68"/>
-      <c r="AN36" s="68"/>
-      <c r="AO36" s="68"/>
-      <c r="AP36" s="68"/>
-      <c r="AQ36" s="68"/>
-      <c r="AR36" s="68"/>
-      <c r="AS36" s="68"/>
-      <c r="AT36" s="68"/>
-      <c r="AU36" s="68"/>
-      <c r="AV36" s="68"/>
-      <c r="AW36" s="68"/>
-      <c r="AX36" s="68"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="56"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
+      <c r="AX36" s="56"/>
     </row>
     <row r="37" spans="1:50" ht="30" customHeight="1">
       <c r="A37" s="58" t="s">
@@ -4942,66 +6661,68 @@
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
-      <c r="L37" s="60"/>
+      <c r="L37" s="60" t="s">
+        <v>34</v>
+      </c>
       <c r="M37" s="60"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="60"/>
       <c r="R37" s="60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S37" s="60"/>
       <c r="T37" s="61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U37" s="62"/>
       <c r="V37" s="62"/>
       <c r="W37" s="63"/>
-      <c r="X37" s="64" t="s">
-        <v>35</v>
-      </c>
+      <c r="X37" s="64"/>
       <c r="Y37" s="64"/>
       <c r="Z37" s="64"/>
-      <c r="AA37" s="64" t="s">
-        <v>35</v>
+      <c r="AA37" s="64">
+        <v>1</v>
       </c>
       <c r="AB37" s="64"/>
       <c r="AC37" s="64"/>
       <c r="AD37" s="65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE37" s="65"/>
-      <c r="AF37" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="57"/>
-      <c r="AM37" s="57"/>
-      <c r="AN37" s="57"/>
-      <c r="AO37" s="57"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="57"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
-      <c r="AU37" s="57"/>
-      <c r="AV37" s="57"/>
-      <c r="AW37" s="57"/>
-      <c r="AX37" s="57"/>
+      <c r="AF37" s="66">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="67"/>
+      <c r="AR37" s="67"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="67"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="67"/>
+      <c r="AX37" s="67"/>
     </row>
     <row r="38" spans="1:50" ht="30" customHeight="1">
       <c r="A38" s="58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
+      <c r="C38" s="59" t="s">
+        <v>40</v>
+      </c>
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
       <c r="F38" s="59"/>
@@ -5010,64 +6731,68 @@
       <c r="I38" s="59"/>
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
-      <c r="L38" s="60"/>
+      <c r="L38" s="60" t="s">
+        <v>41</v>
+      </c>
       <c r="M38" s="60"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="60"/>
       <c r="R38" s="60" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S38" s="60"/>
       <c r="T38" s="61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U38" s="62"/>
       <c r="V38" s="62"/>
       <c r="W38" s="63"/>
       <c r="X38" s="64" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Y38" s="64"/>
       <c r="Z38" s="64"/>
       <c r="AA38" s="64" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AB38" s="64"/>
       <c r="AC38" s="64"/>
       <c r="AD38" s="65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE38" s="65"/>
-      <c r="AF38" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="57"/>
-      <c r="AK38" s="57"/>
-      <c r="AL38" s="57"/>
-      <c r="AM38" s="57"/>
-      <c r="AN38" s="57"/>
-      <c r="AO38" s="57"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="57"/>
-      <c r="AT38" s="57"/>
-      <c r="AU38" s="57"/>
-      <c r="AV38" s="57"/>
-      <c r="AW38" s="57"/>
-      <c r="AX38" s="57"/>
+      <c r="AF38" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="67"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="67"/>
+      <c r="AN38" s="67"/>
+      <c r="AO38" s="67"/>
+      <c r="AP38" s="67"/>
+      <c r="AQ38" s="67"/>
+      <c r="AR38" s="67"/>
+      <c r="AS38" s="67"/>
+      <c r="AT38" s="67"/>
+      <c r="AU38" s="67"/>
+      <c r="AV38" s="67"/>
+      <c r="AW38" s="67"/>
+      <c r="AX38" s="67"/>
     </row>
     <row r="39" spans="1:50" ht="30" customHeight="1">
       <c r="A39" s="58" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
+      <c r="C39" s="59" t="s">
+        <v>44</v>
+      </c>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
@@ -5076,64 +6801,68 @@
       <c r="I39" s="59"/>
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
+      <c r="L39" s="60" t="s">
+        <v>41</v>
+      </c>
       <c r="M39" s="60"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="60"/>
       <c r="R39" s="60" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S39" s="60"/>
       <c r="T39" s="61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U39" s="62"/>
       <c r="V39" s="62"/>
       <c r="W39" s="63"/>
       <c r="X39" s="64" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Y39" s="64"/>
       <c r="Z39" s="64"/>
       <c r="AA39" s="64" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AB39" s="64"/>
       <c r="AC39" s="64"/>
       <c r="AD39" s="65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE39" s="65"/>
-      <c r="AF39" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="57"/>
-      <c r="AK39" s="57"/>
-      <c r="AL39" s="57"/>
-      <c r="AM39" s="57"/>
-      <c r="AN39" s="57"/>
-      <c r="AO39" s="57"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="57"/>
-      <c r="AR39" s="57"/>
-      <c r="AS39" s="57"/>
-      <c r="AT39" s="57"/>
-      <c r="AU39" s="57"/>
-      <c r="AV39" s="57"/>
-      <c r="AW39" s="57"/>
-      <c r="AX39" s="57"/>
+      <c r="AF39" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="67"/>
+      <c r="AR39" s="67"/>
+      <c r="AS39" s="67"/>
+      <c r="AT39" s="67"/>
+      <c r="AU39" s="67"/>
+      <c r="AV39" s="67"/>
+      <c r="AW39" s="67"/>
+      <c r="AX39" s="67"/>
     </row>
     <row r="40" spans="1:50" ht="30" customHeight="1">
       <c r="A40" s="58" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B40" s="58"/>
-      <c r="C40" s="59"/>
+      <c r="C40" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
@@ -5142,454 +6871,1629 @@
       <c r="I40" s="59"/>
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
+      <c r="L40" s="60" t="s">
+        <v>41</v>
+      </c>
       <c r="M40" s="60"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="60"/>
       <c r="R40" s="60" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S40" s="60"/>
       <c r="T40" s="61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U40" s="62"/>
       <c r="V40" s="62"/>
       <c r="W40" s="63"/>
       <c r="X40" s="64" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Y40" s="64"/>
       <c r="Z40" s="64"/>
       <c r="AA40" s="64" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AB40" s="64"/>
       <c r="AC40" s="64"/>
       <c r="AD40" s="65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE40" s="65"/>
-      <c r="AF40" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG40" s="56"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="56"/>
-      <c r="AJ40" s="57"/>
-      <c r="AK40" s="57"/>
-      <c r="AL40" s="57"/>
-      <c r="AM40" s="57"/>
-      <c r="AN40" s="57"/>
-      <c r="AO40" s="57"/>
-      <c r="AP40" s="57"/>
-      <c r="AQ40" s="57"/>
-      <c r="AR40" s="57"/>
-      <c r="AS40" s="57"/>
-      <c r="AT40" s="57"/>
-      <c r="AU40" s="57"/>
-      <c r="AV40" s="57"/>
-      <c r="AW40" s="57"/>
-      <c r="AX40" s="57"/>
-    </row>
-    <row r="41" spans="1:50">
-      <c r="A41" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="50"/>
-      <c r="AJ41" s="50"/>
-      <c r="AK41" s="50"/>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="50"/>
-      <c r="AN41" s="50"/>
-      <c r="AO41" s="50"/>
-      <c r="AP41" s="50"/>
-      <c r="AQ41" s="50"/>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
-      <c r="AT41" s="50"/>
-      <c r="AU41" s="50"/>
-      <c r="AV41" s="50"/>
-      <c r="AW41" s="50"/>
-      <c r="AX41" s="50"/>
-    </row>
-    <row r="42" spans="1:50" ht="129" customHeight="1">
-      <c r="A42" s="51" t="s">
+      <c r="AF40" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="67"/>
+      <c r="AN40" s="67"/>
+      <c r="AO40" s="67"/>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="67"/>
+      <c r="AS40" s="67"/>
+      <c r="AT40" s="67"/>
+      <c r="AU40" s="67"/>
+      <c r="AV40" s="67"/>
+      <c r="AW40" s="67"/>
+      <c r="AX40" s="67"/>
+    </row>
+    <row r="41" spans="1:50" ht="30" customHeight="1">
+      <c r="A41" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="53" t="s">
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="60"/>
+      <c r="T41" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="54"/>
-      <c r="AG42" s="54"/>
-      <c r="AH42" s="54"/>
-      <c r="AI42" s="54"/>
-      <c r="AJ42" s="54"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="54"/>
-      <c r="AM42" s="54"/>
-      <c r="AN42" s="54"/>
-      <c r="AO42" s="54"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="54"/>
-      <c r="AS42" s="54"/>
-      <c r="AT42" s="54"/>
-      <c r="AU42" s="54"/>
-      <c r="AV42" s="54"/>
-      <c r="AW42" s="54"/>
-      <c r="AX42" s="55"/>
-    </row>
-    <row r="43" spans="1:50" ht="145.5" customHeight="1">
-      <c r="A43" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
-      <c r="AT43" s="54"/>
-      <c r="AU43" s="54"/>
-      <c r="AV43" s="54"/>
-      <c r="AW43" s="54"/>
-      <c r="AX43" s="55"/>
-    </row>
-    <row r="44" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A44" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="54"/>
-      <c r="AI44" s="54"/>
-      <c r="AJ44" s="54"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="54"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="54"/>
-      <c r="AU44" s="54"/>
-      <c r="AV44" s="54"/>
-      <c r="AW44" s="54"/>
-      <c r="AX44" s="55"/>
-    </row>
-    <row r="45" spans="1:50" ht="76.5" customHeight="1">
-      <c r="A45" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="54"/>
-      <c r="AI45" s="54"/>
-      <c r="AJ45" s="54"/>
-      <c r="AK45" s="54"/>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
-      <c r="AT45" s="54"/>
-      <c r="AU45" s="54"/>
-      <c r="AV45" s="54"/>
-      <c r="AW45" s="54"/>
-      <c r="AX45" s="55"/>
-    </row>
-    <row r="46" spans="1:50" ht="69.75" customHeight="1">
-      <c r="A46" s="51" t="s">
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="67"/>
+      <c r="AP41" s="67"/>
+      <c r="AQ41" s="67"/>
+      <c r="AR41" s="67"/>
+      <c r="AS41" s="67"/>
+      <c r="AT41" s="67"/>
+      <c r="AU41" s="67"/>
+      <c r="AV41" s="67"/>
+      <c r="AW41" s="67"/>
+      <c r="AX41" s="67"/>
+    </row>
+    <row r="42" spans="1:50" ht="30" customHeight="1">
+      <c r="A42" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="51" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52"/>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="52"/>
-      <c r="AL46" s="52"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="52"/>
-      <c r="AO46" s="52"/>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52"/>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52"/>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52"/>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="52"/>
-      <c r="AX46" s="66"/>
-    </row>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" s="60"/>
+      <c r="T42" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="67"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="67"/>
+      <c r="AN42" s="67"/>
+      <c r="AO42" s="67"/>
+      <c r="AP42" s="67"/>
+      <c r="AQ42" s="67"/>
+      <c r="AR42" s="67"/>
+      <c r="AS42" s="67"/>
+      <c r="AT42" s="67"/>
+      <c r="AU42" s="67"/>
+      <c r="AV42" s="67"/>
+      <c r="AW42" s="67"/>
+      <c r="AX42" s="67"/>
+    </row>
+    <row r="43" spans="1:50" ht="30" customHeight="1">
+      <c r="A43" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="60"/>
+      <c r="T43" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" s="62"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE43" s="65"/>
+      <c r="AF43" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="67"/>
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="67"/>
+      <c r="AN43" s="67"/>
+      <c r="AO43" s="67"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67"/>
+      <c r="AR43" s="67"/>
+      <c r="AS43" s="67"/>
+      <c r="AT43" s="67"/>
+      <c r="AU43" s="67"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="67"/>
+      <c r="AX43" s="67"/>
+    </row>
+    <row r="44" spans="1:50" ht="30" customHeight="1">
+      <c r="A44" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="60"/>
+      <c r="T44" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="67"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="67"/>
+      <c r="AM44" s="67"/>
+      <c r="AN44" s="67"/>
+      <c r="AO44" s="67"/>
+      <c r="AP44" s="67"/>
+      <c r="AQ44" s="67"/>
+      <c r="AR44" s="67"/>
+      <c r="AS44" s="67"/>
+      <c r="AT44" s="67"/>
+      <c r="AU44" s="67"/>
+      <c r="AV44" s="67"/>
+      <c r="AW44" s="67"/>
+      <c r="AX44" s="67"/>
+    </row>
+    <row r="45" spans="1:50" ht="30" customHeight="1">
+      <c r="A45" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" s="60"/>
+      <c r="T45" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="67"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="67"/>
+      <c r="AM45" s="67"/>
+      <c r="AN45" s="67"/>
+      <c r="AO45" s="67"/>
+      <c r="AP45" s="67"/>
+      <c r="AQ45" s="67"/>
+      <c r="AR45" s="67"/>
+      <c r="AS45" s="67"/>
+      <c r="AT45" s="67"/>
+      <c r="AU45" s="67"/>
+      <c r="AV45" s="67"/>
+      <c r="AW45" s="67"/>
+      <c r="AX45" s="67"/>
+    </row>
+    <row r="46" spans="1:50" ht="30" customHeight="1">
+      <c r="A46" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" s="60"/>
+      <c r="T46" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="67"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="67"/>
+      <c r="AM46" s="67"/>
+      <c r="AN46" s="67"/>
+      <c r="AO46" s="67"/>
+      <c r="AP46" s="67"/>
+      <c r="AQ46" s="67"/>
+      <c r="AR46" s="67"/>
+      <c r="AS46" s="67"/>
+      <c r="AT46" s="67"/>
+      <c r="AU46" s="67"/>
+      <c r="AV46" s="67"/>
+      <c r="AW46" s="67"/>
+      <c r="AX46" s="67"/>
+    </row>
+    <row r="47" spans="1:50" ht="30" customHeight="1">
+      <c r="A47" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="60"/>
+      <c r="T47" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE47" s="65"/>
+      <c r="AF47" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="67"/>
+      <c r="AK47" s="67"/>
+      <c r="AL47" s="67"/>
+      <c r="AM47" s="67"/>
+      <c r="AN47" s="67"/>
+      <c r="AO47" s="67"/>
+      <c r="AP47" s="67"/>
+      <c r="AQ47" s="67"/>
+      <c r="AR47" s="67"/>
+      <c r="AS47" s="67"/>
+      <c r="AT47" s="67"/>
+      <c r="AU47" s="67"/>
+      <c r="AV47" s="67"/>
+      <c r="AW47" s="67"/>
+      <c r="AX47" s="67"/>
+    </row>
+    <row r="48" spans="1:50" ht="30" customHeight="1">
+      <c r="A48" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="60"/>
+      <c r="T48" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="64"/>
+      <c r="AD48" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="67"/>
+      <c r="AM48" s="67"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="67"/>
+      <c r="AP48" s="67"/>
+      <c r="AQ48" s="67"/>
+      <c r="AR48" s="67"/>
+      <c r="AS48" s="67"/>
+      <c r="AT48" s="67"/>
+      <c r="AU48" s="67"/>
+      <c r="AV48" s="67"/>
+      <c r="AW48" s="67"/>
+      <c r="AX48" s="67"/>
+    </row>
+    <row r="49" spans="1:50" ht="30" customHeight="1">
+      <c r="A49" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" s="60"/>
+      <c r="T49" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="64"/>
+      <c r="AD49" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE49" s="65"/>
+      <c r="AF49" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="67"/>
+      <c r="AN49" s="67"/>
+      <c r="AO49" s="67"/>
+      <c r="AP49" s="67"/>
+      <c r="AQ49" s="67"/>
+      <c r="AR49" s="67"/>
+      <c r="AS49" s="67"/>
+      <c r="AT49" s="67"/>
+      <c r="AU49" s="67"/>
+      <c r="AV49" s="67"/>
+      <c r="AW49" s="67"/>
+      <c r="AX49" s="67"/>
+    </row>
+    <row r="50" spans="1:50" ht="30" customHeight="1">
+      <c r="A50" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S50" s="60"/>
+      <c r="T50" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB50" s="64"/>
+      <c r="AC50" s="64"/>
+      <c r="AD50" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE50" s="65"/>
+      <c r="AF50" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="67"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="67"/>
+      <c r="AM50" s="67"/>
+      <c r="AN50" s="67"/>
+      <c r="AO50" s="67"/>
+      <c r="AP50" s="67"/>
+      <c r="AQ50" s="67"/>
+      <c r="AR50" s="67"/>
+      <c r="AS50" s="67"/>
+      <c r="AT50" s="67"/>
+      <c r="AU50" s="67"/>
+      <c r="AV50" s="67"/>
+      <c r="AW50" s="67"/>
+      <c r="AX50" s="67"/>
+    </row>
+    <row r="51" spans="1:50" ht="30" customHeight="1">
+      <c r="A51" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="60"/>
+      <c r="T51" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE51" s="65"/>
+      <c r="AF51" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="67"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="67"/>
+      <c r="AM51" s="67"/>
+      <c r="AN51" s="67"/>
+      <c r="AO51" s="67"/>
+      <c r="AP51" s="67"/>
+      <c r="AQ51" s="67"/>
+      <c r="AR51" s="67"/>
+      <c r="AS51" s="67"/>
+      <c r="AT51" s="67"/>
+      <c r="AU51" s="67"/>
+      <c r="AV51" s="67"/>
+      <c r="AW51" s="67"/>
+      <c r="AX51" s="67"/>
+    </row>
+    <row r="52" spans="1:50" ht="30" customHeight="1">
+      <c r="A52" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="60"/>
+      <c r="T52" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE52" s="65"/>
+      <c r="AF52" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="66"/>
+      <c r="AJ52" s="67"/>
+      <c r="AK52" s="67"/>
+      <c r="AL52" s="67"/>
+      <c r="AM52" s="67"/>
+      <c r="AN52" s="67"/>
+      <c r="AO52" s="67"/>
+      <c r="AP52" s="67"/>
+      <c r="AQ52" s="67"/>
+      <c r="AR52" s="67"/>
+      <c r="AS52" s="67"/>
+      <c r="AT52" s="67"/>
+      <c r="AU52" s="67"/>
+      <c r="AV52" s="67"/>
+      <c r="AW52" s="67"/>
+      <c r="AX52" s="67"/>
+    </row>
+    <row r="53" spans="1:50" ht="30" customHeight="1">
+      <c r="A53" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="60"/>
+      <c r="T53" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
+      <c r="AA53" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="64"/>
+      <c r="AD53" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE53" s="65"/>
+      <c r="AF53" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="66"/>
+      <c r="AJ53" s="67"/>
+      <c r="AK53" s="67"/>
+      <c r="AL53" s="67"/>
+      <c r="AM53" s="67"/>
+      <c r="AN53" s="67"/>
+      <c r="AO53" s="67"/>
+      <c r="AP53" s="67"/>
+      <c r="AQ53" s="67"/>
+      <c r="AR53" s="67"/>
+      <c r="AS53" s="67"/>
+      <c r="AT53" s="67"/>
+      <c r="AU53" s="67"/>
+      <c r="AV53" s="67"/>
+      <c r="AW53" s="67"/>
+      <c r="AX53" s="67"/>
+    </row>
+    <row r="54" spans="1:50" ht="30" customHeight="1">
+      <c r="A54" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="58"/>
+      <c r="C54" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="60"/>
+      <c r="T54" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y54" s="64"/>
+      <c r="Z54" s="64"/>
+      <c r="AA54" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB54" s="64"/>
+      <c r="AC54" s="64"/>
+      <c r="AD54" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE54" s="65"/>
+      <c r="AF54" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="66"/>
+      <c r="AJ54" s="67"/>
+      <c r="AK54" s="67"/>
+      <c r="AL54" s="67"/>
+      <c r="AM54" s="67"/>
+      <c r="AN54" s="67"/>
+      <c r="AO54" s="67"/>
+      <c r="AP54" s="67"/>
+      <c r="AQ54" s="67"/>
+      <c r="AR54" s="67"/>
+      <c r="AS54" s="67"/>
+      <c r="AT54" s="67"/>
+      <c r="AU54" s="67"/>
+      <c r="AV54" s="67"/>
+      <c r="AW54" s="67"/>
+      <c r="AX54" s="67"/>
+    </row>
+    <row r="55" spans="1:50" ht="18.75">
+      <c r="A55" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
+      <c r="W55" s="72"/>
+      <c r="X55" s="72"/>
+      <c r="Y55" s="72"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="72"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="72"/>
+      <c r="AE55" s="72"/>
+      <c r="AF55" s="72"/>
+      <c r="AG55" s="72"/>
+      <c r="AH55" s="72"/>
+      <c r="AI55" s="72"/>
+      <c r="AJ55" s="72"/>
+      <c r="AK55" s="72"/>
+      <c r="AL55" s="72"/>
+      <c r="AM55" s="72"/>
+      <c r="AN55" s="72"/>
+      <c r="AO55" s="72"/>
+      <c r="AP55" s="72"/>
+      <c r="AQ55" s="72"/>
+      <c r="AR55" s="72"/>
+      <c r="AS55" s="72"/>
+      <c r="AT55" s="72"/>
+      <c r="AU55" s="72"/>
+      <c r="AV55" s="72"/>
+      <c r="AW55" s="72"/>
+      <c r="AX55" s="72"/>
+    </row>
+    <row r="56" spans="1:50" ht="161.25" customHeight="1">
+      <c r="A56" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="74"/>
+      <c r="U56" s="74"/>
+      <c r="V56" s="74"/>
+      <c r="W56" s="74"/>
+      <c r="X56" s="74"/>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="74"/>
+      <c r="AA56" s="74"/>
+      <c r="AB56" s="74"/>
+      <c r="AC56" s="74"/>
+      <c r="AD56" s="74"/>
+      <c r="AE56" s="74"/>
+      <c r="AF56" s="74"/>
+      <c r="AG56" s="74"/>
+      <c r="AH56" s="74"/>
+      <c r="AI56" s="74"/>
+      <c r="AJ56" s="74"/>
+      <c r="AK56" s="74"/>
+      <c r="AL56" s="74"/>
+      <c r="AM56" s="74"/>
+      <c r="AN56" s="74"/>
+      <c r="AO56" s="74"/>
+      <c r="AP56" s="74"/>
+      <c r="AQ56" s="74"/>
+      <c r="AR56" s="74"/>
+      <c r="AS56" s="74"/>
+      <c r="AT56" s="74"/>
+      <c r="AU56" s="74"/>
+      <c r="AV56" s="74"/>
+      <c r="AW56" s="74"/>
+      <c r="AX56" s="74"/>
+    </row>
+    <row r="57" spans="1:50" ht="145.5" customHeight="1">
+      <c r="A57" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="70"/>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="70"/>
+      <c r="AA57" s="70"/>
+      <c r="AB57" s="70"/>
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="70"/>
+      <c r="AE57" s="70"/>
+      <c r="AF57" s="70"/>
+      <c r="AG57" s="70"/>
+      <c r="AH57" s="70"/>
+      <c r="AI57" s="70"/>
+      <c r="AJ57" s="70"/>
+      <c r="AK57" s="70"/>
+      <c r="AL57" s="70"/>
+      <c r="AM57" s="70"/>
+      <c r="AN57" s="70"/>
+      <c r="AO57" s="70"/>
+      <c r="AP57" s="70"/>
+      <c r="AQ57" s="70"/>
+      <c r="AR57" s="70"/>
+      <c r="AS57" s="70"/>
+      <c r="AT57" s="70"/>
+      <c r="AU57" s="70"/>
+      <c r="AV57" s="70"/>
+      <c r="AW57" s="70"/>
+      <c r="AX57" s="70"/>
+    </row>
+    <row r="58" spans="1:50" ht="117" customHeight="1">
+      <c r="A58" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="70"/>
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="70"/>
+      <c r="Z58" s="70"/>
+      <c r="AA58" s="70"/>
+      <c r="AB58" s="70"/>
+      <c r="AC58" s="70"/>
+      <c r="AD58" s="70"/>
+      <c r="AE58" s="70"/>
+      <c r="AF58" s="70"/>
+      <c r="AG58" s="70"/>
+      <c r="AH58" s="70"/>
+      <c r="AI58" s="70"/>
+      <c r="AJ58" s="70"/>
+      <c r="AK58" s="70"/>
+      <c r="AL58" s="70"/>
+      <c r="AM58" s="70"/>
+      <c r="AN58" s="70"/>
+      <c r="AO58" s="70"/>
+      <c r="AP58" s="70"/>
+      <c r="AQ58" s="70"/>
+      <c r="AR58" s="70"/>
+      <c r="AS58" s="70"/>
+      <c r="AT58" s="70"/>
+      <c r="AU58" s="70"/>
+      <c r="AV58" s="70"/>
+      <c r="AW58" s="70"/>
+      <c r="AX58" s="70"/>
+    </row>
+    <row r="59" spans="1:50" ht="153.75" customHeight="1">
+      <c r="A59" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="70"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="70"/>
+      <c r="X59" s="70"/>
+      <c r="Y59" s="70"/>
+      <c r="Z59" s="70"/>
+      <c r="AA59" s="70"/>
+      <c r="AB59" s="70"/>
+      <c r="AC59" s="70"/>
+      <c r="AD59" s="70"/>
+      <c r="AE59" s="70"/>
+      <c r="AF59" s="70"/>
+      <c r="AG59" s="70"/>
+      <c r="AH59" s="70"/>
+      <c r="AI59" s="70"/>
+      <c r="AJ59" s="70"/>
+      <c r="AK59" s="70"/>
+      <c r="AL59" s="70"/>
+      <c r="AM59" s="70"/>
+      <c r="AN59" s="70"/>
+      <c r="AO59" s="70"/>
+      <c r="AP59" s="70"/>
+      <c r="AQ59" s="70"/>
+      <c r="AR59" s="70"/>
+      <c r="AS59" s="70"/>
+      <c r="AT59" s="70"/>
+      <c r="AU59" s="70"/>
+      <c r="AV59" s="70"/>
+      <c r="AW59" s="70"/>
+      <c r="AX59" s="70"/>
+    </row>
+    <row r="60" spans="1:50" ht="153.75" customHeight="1">
+      <c r="A60" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
+      <c r="AD60" s="70"/>
+      <c r="AE60" s="70"/>
+      <c r="AF60" s="70"/>
+      <c r="AG60" s="70"/>
+      <c r="AH60" s="70"/>
+      <c r="AI60" s="70"/>
+      <c r="AJ60" s="70"/>
+      <c r="AK60" s="70"/>
+      <c r="AL60" s="70"/>
+      <c r="AM60" s="70"/>
+      <c r="AN60" s="70"/>
+      <c r="AO60" s="70"/>
+      <c r="AP60" s="70"/>
+      <c r="AQ60" s="70"/>
+      <c r="AR60" s="70"/>
+      <c r="AS60" s="70"/>
+      <c r="AT60" s="70"/>
+      <c r="AU60" s="70"/>
+      <c r="AV60" s="70"/>
+      <c r="AW60" s="70"/>
+      <c r="AX60" s="70"/>
+    </row>
+    <row r="61" spans="1:50" ht="153.75" customHeight="1">
+      <c r="A61" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+      <c r="X61" s="70"/>
+      <c r="Y61" s="70"/>
+      <c r="Z61" s="70"/>
+      <c r="AA61" s="70"/>
+      <c r="AB61" s="70"/>
+      <c r="AC61" s="70"/>
+      <c r="AD61" s="70"/>
+      <c r="AE61" s="70"/>
+      <c r="AF61" s="70"/>
+      <c r="AG61" s="70"/>
+      <c r="AH61" s="70"/>
+      <c r="AI61" s="70"/>
+      <c r="AJ61" s="70"/>
+      <c r="AK61" s="70"/>
+      <c r="AL61" s="70"/>
+      <c r="AM61" s="70"/>
+      <c r="AN61" s="70"/>
+      <c r="AO61" s="70"/>
+      <c r="AP61" s="70"/>
+      <c r="AQ61" s="70"/>
+      <c r="AR61" s="70"/>
+      <c r="AS61" s="70"/>
+      <c r="AT61" s="70"/>
+      <c r="AU61" s="70"/>
+      <c r="AV61" s="70"/>
+      <c r="AW61" s="70"/>
+      <c r="AX61" s="70"/>
+    </row>
+    <row r="62" spans="1:50" ht="153.75" customHeight="1">
+      <c r="A62" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="70"/>
+      <c r="AD62" s="70"/>
+      <c r="AE62" s="70"/>
+      <c r="AF62" s="70"/>
+      <c r="AG62" s="70"/>
+      <c r="AH62" s="70"/>
+      <c r="AI62" s="70"/>
+      <c r="AJ62" s="70"/>
+      <c r="AK62" s="70"/>
+      <c r="AL62" s="70"/>
+      <c r="AM62" s="70"/>
+      <c r="AN62" s="70"/>
+      <c r="AO62" s="70"/>
+      <c r="AP62" s="70"/>
+      <c r="AQ62" s="70"/>
+      <c r="AR62" s="70"/>
+      <c r="AS62" s="70"/>
+      <c r="AT62" s="70"/>
+      <c r="AU62" s="70"/>
+      <c r="AV62" s="70"/>
+      <c r="AW62" s="70"/>
+      <c r="AX62" s="70"/>
+    </row>
+    <row r="63" spans="1:50" ht="18.75"/>
+    <row r="64" spans="1:50" ht="18.75"/>
+    <row r="65" ht="18.75"/>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="AJ39:AX39"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="A3:AX3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AX1"/>
-    <mergeCell ref="A2:AX2"/>
-    <mergeCell ref="A4:AX4"/>
-    <mergeCell ref="A5:AX34"/>
-    <mergeCell ref="A35:AX35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AJ36:AX36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AJ37:AX37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AJ38:AX38"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="L43:AX43"/>
-    <mergeCell ref="L44:AX44"/>
-    <mergeCell ref="L45:AX45"/>
-    <mergeCell ref="L46:AX46"/>
-    <mergeCell ref="A41:AX41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:AX42"/>
+  <mergeCells count="214">
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="L58:AX58"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="L60:AX60"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="L59:AX59"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="L61:AX61"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="AJ54:AX54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AJ53:AX53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AJ52:AX52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AI51"/>
+    <mergeCell ref="AJ51:AX51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AI50"/>
+    <mergeCell ref="AJ50:AX50"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AF49:AI49"/>
+    <mergeCell ref="AJ49:AX49"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AI48"/>
+    <mergeCell ref="AJ48:AX48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="L48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AJ47:AX47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="L47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AJ46:AX46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="AJ44:AX44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="AJ45:AX45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AF42:AI42"/>
+    <mergeCell ref="AJ42:AX42"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AJ43:AX43"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="L56:AX56"/>
     <mergeCell ref="AF40:AI40"/>
     <mergeCell ref="AJ40:AX40"/>
     <mergeCell ref="A40:B40"/>
@@ -5600,19 +8504,85 @@
     <mergeCell ref="X40:Z40"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AJ41:AX41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L57:AX57"/>
+    <mergeCell ref="L62:AX62"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AJ38:AX38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A55:AX55"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AJ36:AX36"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AJ37:AX37"/>
+    <mergeCell ref="A3:AX3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AX1"/>
+    <mergeCell ref="A2:AX2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="AJ39:AX39"/>
+    <mergeCell ref="A4:AX4"/>
+    <mergeCell ref="A5:AX34"/>
+    <mergeCell ref="A35:AX35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:W36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:Q40" xr:uid="{F24F39D4-4BA3-4A39-88C7-FF6A3C30C493}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:Q54" xr:uid="{F24F39D4-4BA3-4A39-88C7-FF6A3C30C493}">
       <formula1>"テキストボックス,パスワードボックス,プルダウン,ラジオボタン,チェックボックス,ボタン,リンク,その他,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="R37:S40" xr:uid="{F64BAE96-527A-4B10-B40B-A3CBB9B1AE4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="R37:S54" xr:uid="{F64BAE96-527A-4B10-B40B-A3CBB9B1AE4D}">
       <formula1>"I,O,IO,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T37:W40" xr:uid="{2ED97478-D6AD-4D56-886D-F85E55D7E1C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T37:W54" xr:uid="{2ED97478-D6AD-4D56-886D-F85E55D7E1C8}">
       <formula1>"全角文字列,半角文字列,全角半角文字列,整数,小数,日付,時刻,その他,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AD37:AE40" xr:uid="{27AA91BD-0E59-41D8-A2F2-CF2E17D303BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AD37:AE54" xr:uid="{27AA91BD-0E59-41D8-A2F2-CF2E17D303BC}">
       <formula1>"〇,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28005"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98547BA0-078C-4D7D-B935-629D627B1AC3}"/>
+  <xr:revisionPtr revIDLastSave="571" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3250E4BF-661A-45DF-9D8F-25B689F3FE14}"/>
   <bookViews>
     <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
   <si>
     <t>電卓アプリ</t>
   </si>
@@ -278,7 +278,7 @@
     <t>②</t>
   </si>
   <si>
-    <t>クリアボタン</t>
+    <t>オールクリアボタン</t>
   </si>
   <si>
     <t>ボタン</t>
@@ -291,7 +291,7 @@
     <t>③</t>
   </si>
   <si>
-    <t>オールクリアボタン</t>
+    <t>クリアボタン</t>
   </si>
   <si>
     <t>④</t>
@@ -300,85 +300,61 @@
     <t>数字ボタン（1）</t>
   </si>
   <si>
+    <t>数字ボタン（2）</t>
+  </si>
+  <si>
+    <t>数字ボタン（3）</t>
+  </si>
+  <si>
+    <t>数字ボタン（4）</t>
+  </si>
+  <si>
+    <t>数字ボタン（5）</t>
+  </si>
+  <si>
+    <t>数字ボタン（6）</t>
+  </si>
+  <si>
+    <t>数字ボタン（7）</t>
+  </si>
+  <si>
+    <t>数字ボタン（8）</t>
+  </si>
+  <si>
+    <t>数字ボタン（9）</t>
+  </si>
+  <si>
+    <t>数字ボタン（0）</t>
+  </si>
+  <si>
     <t>⑤</t>
   </si>
   <si>
-    <t>数字ボタン（2）</t>
+    <t>等号ボタン</t>
   </si>
   <si>
     <t>⑥</t>
   </si>
   <si>
-    <t>数字ボタン（3）</t>
+    <t>除算ボタン</t>
+  </si>
+  <si>
+    <t>「0」で除算を行なった場合、①計算結果表示欄に、「Error」を表示する。</t>
   </si>
   <si>
     <t>⑦</t>
   </si>
   <si>
-    <t>数字ボタン（4）</t>
+    <t>乗算ボタン</t>
   </si>
   <si>
     <t>⑧</t>
   </si>
   <si>
-    <t>数字ボタン（5）</t>
+    <t>減算ボタン</t>
   </si>
   <si>
     <t>⑨</t>
-  </si>
-  <si>
-    <t>数字ボタン（6）</t>
-  </si>
-  <si>
-    <t>⑩</t>
-  </si>
-  <si>
-    <t>数字ボタン（7）</t>
-  </si>
-  <si>
-    <t>⑪</t>
-  </si>
-  <si>
-    <t>数字ボタン（8）</t>
-  </si>
-  <si>
-    <t>⑫</t>
-  </si>
-  <si>
-    <t>数字ボタン（9）</t>
-  </si>
-  <si>
-    <t>⑬</t>
-  </si>
-  <si>
-    <t>数字ボタン（0）</t>
-  </si>
-  <si>
-    <t>⑭</t>
-  </si>
-  <si>
-    <t>等号ボタン</t>
-  </si>
-  <si>
-    <t>⑮</t>
-  </si>
-  <si>
-    <t>除算ボタン</t>
-  </si>
-  <si>
-    <t>⑯</t>
-  </si>
-  <si>
-    <t>乗算ボタン</t>
-  </si>
-  <si>
-    <t>⑰</t>
-  </si>
-  <si>
-    <t>減算ボタン</t>
-  </si>
-  <si>
-    <t>⑱</t>
   </si>
   <si>
     <t>加算ボタン</t>
@@ -391,7 +367,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④～⑫数字ボタン押下</t>
+    <t>②オールクリアボタン押下</t>
+  </si>
+  <si>
+    <t>①計算結果表示欄に表示されている数値、計算過程を全て消去する。</t>
+  </si>
+  <si>
+    <t>③クリアボタン押下</t>
+  </si>
+  <si>
+    <t>①計算結果表示欄に表示されている数値のみを消去する。</t>
+  </si>
+  <si>
+    <t>④数字ボタン押下</t>
   </si>
   <si>
     <t>＜①計算結果表示欄に、「0」のみが入力されている場合＞
@@ -402,59 +390,48 @@
 →①計算結果表示欄に、「押下した数字ボタンの値」を出力する。</t>
   </si>
   <si>
-    <t>⑬数字ボタン（0）押下</t>
+    <t>⑤等号ボタン押下</t>
   </si>
   <si>
-    <t>＜①計算結果表示欄に、「0」のみが入力されている場合＞
-→何も処理を行わない。
-＜①計算結果表示欄に、「0」以外の数値が入力されている場合＞
-→①計算結果表示欄に表示されている数値の末尾に、「0」を結合して出力する。
-＜事前に⑮～⑱の演算系のボタンを押下した場合＞
-→①計算結果表示欄に、「0」を出力する。</t>
-  </si>
-  <si>
-    <t>⑭等号ボタン押下</t>
-  </si>
-  <si>
-    <t>〇①計算結果表示欄に入力されている値と、⑮～⑱の演算系のボタン押下後に入力した値の演算結果を、等号ボタン押下することで、①計算結果表示欄に出力する。
+    <t>①計算結果表示欄に入力されている値と、⑮～⑱の演算系のボタン押下後に入力した値の演算結果を、等号ボタン押下することで、①計算結果表示欄に出力する。
 ＜上記以外の場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑮除算ボタン押下</t>
+    <t>⑥除算ボタン押下</t>
   </si>
   <si>
-    <t>〇①計算結果表示欄に入力されている値と、除算ボタン押下後に入力した値を加算した結果を、除算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+    <t>①計算結果表示欄に入力されている値と、除算ボタン押下後に入力した値を加算した結果を、除算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
 ＜①計算結果表示欄に、「0」のみが入力されている場合＞
 →何も処理を行わない。
 ＜事前に⑮～⑲の演算系のボタンを押下した場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑯乗算ボタン押下</t>
+    <t>⑦乗算ボタン押下</t>
   </si>
   <si>
-    <t>〇①計算結果表示欄に入力されている値と、乗算ボタン押下後に入力した値を加算した結果を、乗算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+    <t>①計算結果表示欄に入力されている値と、乗算ボタン押下後に入力した値を加算した結果を、乗算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
 ＜①計算結果表示欄に、「0」のみが入力されている場合＞
 →何も処理を行わない。
 ＜事前に⑮～⑲の演算系のボタンを押下した場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑰減算ボタン押下</t>
+    <t>⑧減算ボタン押下</t>
   </si>
   <si>
-    <t>〇①計算結果表示欄に入力されている値と、減算ボタン押下後に入力した値を加算した結果を、減算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+    <t>①計算結果表示欄に入力されている値と、減算ボタン押下後に入力した値を加算した結果を、減算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
 ＜①計算結果表示欄に、「0」のみが入力されている場合＞
 →何も処理を行わない。
 ＜事前に⑮～⑲の演算系のボタンを押下した場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑱加算ボタン押下</t>
+    <t>⑨加算ボタン押下</t>
   </si>
   <si>
-    <t>〇①計算結果表示欄に入力されている値と、加算ボタン押下後に入力した値を加算した結果を、加算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
+    <t>①計算結果表示欄に入力されている値と、加算ボタン押下後に入力した値を加算した結果を、加算ボタンまたは等号ボタンを押下することで、①計算結果表示欄に出力する。
 ＜①計算結果表示欄に、「0」のみが入力されている場合＞
 →何も処理を行わない。
 ＜事前に⑮～⑲の演算系のボタンを押下した場合＞
@@ -1038,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1246,6 +1223,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,22 +1269,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>196215</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>36196</xdr:colOff>
+      <xdr:colOff>32385</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>89536</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="48" name="図 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4577A418-3073-819D-2861-12C379A8E637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B577E7F5-0892-CC08-0B6E-6D645FA2B3BD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{60DAEAC0-2AC2-4911-8A54-6B3FD9A10A68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,13 +1297,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="2000" r="836" b="333"/>
+        <a:srcRect l="416" r="416"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="2025015"/>
-          <a:ext cx="3617596" cy="4465321"/>
+          <a:off x="2491740" y="1943100"/>
+          <a:ext cx="3636645" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,13 +1317,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1343,8 +1341,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="2543175"/>
-          <a:ext cx="3133725" cy="628650"/>
+          <a:off x="2781300" y="2609850"/>
+          <a:ext cx="3067050" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,13 +1384,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1412,8 +1410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="5191125"/>
-          <a:ext cx="800100" cy="1152525"/>
+          <a:off x="5191125" y="5219700"/>
+          <a:ext cx="781050" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,14 +1548,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1577,338 +1575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="3448050"/>
-          <a:ext cx="828675" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8319ABFE-CD89-42A6-8957-53FCF7BE27DD}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37F2525A-2E60-4C18-A8B6-59E098A08BD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2647950" y="4038600"/>
-          <a:ext cx="2486025" cy="1704975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="四角形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4EA114-1998-4D00-A103-F14578F02355}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8319ABFE-CD89-42A6-8957-53FCF7BE27DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2647950" y="5800725"/>
-          <a:ext cx="828675" cy="533400"/>
+          <a:off x="2676525" y="3448050"/>
+          <a:ext cx="762000" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2217,7 +1885,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2229,7 +1897,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312CC07F-4694-4FB7-AFE3-369639FA9AB2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{664806D6-A80A-45A9-9F04-7913DE72D550}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A3760B2C-AB6F-4230-B9F4-9700B3E5722F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +1906,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3495675" y="3448050"/>
-          <a:ext cx="828675" cy="533400"/>
+          <a:ext cx="800100" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2376,15 +2044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2394,7 +2062,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3484063E-E4F7-4CBD-8199-288889664658}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{312CC07F-4694-4FB7-AFE3-369639FA9AB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,8 +2070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172075" y="4086225"/>
-          <a:ext cx="828675" cy="533400"/>
+          <a:off x="5191125" y="4048125"/>
+          <a:ext cx="781050" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2541,13 +2209,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -2567,8 +2235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="4600575"/>
-          <a:ext cx="828675" cy="533400"/>
+          <a:off x="5191125" y="4648200"/>
+          <a:ext cx="781050" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2706,13 +2374,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -2732,8 +2400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172075" y="3438525"/>
-          <a:ext cx="828675" cy="533400"/>
+          <a:off x="5200650" y="3467100"/>
+          <a:ext cx="771525" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2866,6 +2534,2393 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BE59C8-9211-F201-40A0-2124ED04D2D3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B6FC492D-966D-4844-9670-348B7B5ECC41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="17" idx="3"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{E8B0CD57-3CC6-B6E0-8CD2-1B59F8DB32D9}" end="{CC068746-79A8-0F3E-CC9A-BFC2D446951E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2305050" y="2614613"/>
+          <a:ext cx="476250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC068746-79A8-0F3E-CC9A-BFC2D446951E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B0BE59C8-9211-F201-40A0-2124ED04D2D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2476500"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EC699D-5AD9-4565-ACA1-1E21812F9B87}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC068746-79A8-0F3E-CC9A-BFC2D446951E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="3371850"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23421715-F1DB-4501-93F9-5F56B95DCB3F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E2EC699D-5AD9-4565-ACA1-1E21812F9B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{2E24235C-E95E-4C87-810C-4EE319F3FFC6}" end="{37F2525A-2E60-4C18-A8B6-59E098A08BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="3671888"/>
+          <a:ext cx="381000" cy="42862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DCE116-703B-483A-B626-3C72C64FA4C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23421715-F1DB-4501-93F9-5F56B95DCB3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{151ABC61-0168-4C39-9F92-CE196DF883A3}" end="{C54ED043-8253-4B14-9854-12E0C3EF1CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5972175" y="5586413"/>
+          <a:ext cx="447675" cy="195262"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872395AA-F210-42A9-B77A-29A6A1619EE9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{56DCE116-703B-483A-B626-3C72C64FA4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{68FAF68E-6C66-4547-89A7-1C3EB9C9AA75}" end="{5CEC3B88-69F2-48E3-9CEE-1DCC5F726CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5972175" y="4729163"/>
+          <a:ext cx="428625" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBFBB48-A1E5-4151-8C44-42528D956801}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{872395AA-F210-42A9-B77A-29A6A1619EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}" end="{F105A86A-BD93-40F9-BB5C-C5CEFC42C0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5972175" y="4119563"/>
+          <a:ext cx="419100" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C1DFA7-0540-41DB-A43B-2306B05C09C1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CBBFBB48-A1E5-4151-8C44-42528D956801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{E2EC699D-5AD9-4565-ACA1-1E21812F9B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5972175" y="3509963"/>
+          <a:ext cx="409575" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F105A86A-BD93-40F9-BB5C-C5CEFC42C0B1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{62C1DFA7-0540-41DB-A43B-2306B05C09C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="3981450"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEC3B88-69F2-48E3-9CEE-1DCC5F726CD1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F105A86A-BD93-40F9-BB5C-C5CEFC42C0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="4591050"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54ED043-8253-4B14-9854-12E0C3EF1CEA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5CEC3B88-69F2-48E3-9CEE-1DCC5F726CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="5448300"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E24235C-E95E-4C87-810C-4EE319F3FFC6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C54ED043-8253-4B14-9854-12E0C3EF1CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="3533775"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103732D3-57B0-429C-9A02-EDEEF93858A9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2E24235C-E95E-4C87-810C-4EE319F3FFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="5886450"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C177BC7-B3F7-4212-BC09-EA6D2D82C592}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{103732D3-57B0-429C-9A02-EDEEF93858A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="4762500"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DF63B9-9615-482D-9613-6DEB66021391}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F195888E-9565-47C5-87AB-5BB7233CE6DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{103732D3-57B0-429C-9A02-EDEEF93858A9}" end="{A3760B2C-AB6F-4230-B9F4-9700B3E5722F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="6024563"/>
+          <a:ext cx="266700" cy="42862"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A246A248-880C-4E75-81D5-28341A2D8C9B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{52DF63B9-9615-482D-9613-6DEB66021391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="34" idx="3"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{3C177BC7-B3F7-4212-BC09-EA6D2D82C592}" end="{8319ABFE-CD89-42A6-8957-53FCF7BE27DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="4905375"/>
+          <a:ext cx="352425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BD54CF-1072-40ED-8494-74803E57DD28}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A246A248-880C-4E75-81D5-28341A2D8C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="3467100"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4865BB5E-54FD-402C-9AA9-7AEA55AD1356}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D6BD54CF-1072-40ED-8494-74803E57DD28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="39" idx="1"/>
+          <a:endCxn id="16" idx="3"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D6BD54CF-1072-40ED-8494-74803E57DD28}" end="{312CC07F-4694-4FB7-AFE3-369639FA9AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4295775" y="3605213"/>
+          <a:ext cx="295275" cy="109537"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD63D4DB-0B73-3242-22AC-07103B2263AC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4865BB5E-54FD-402C-9AA9-7AEA55AD1356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2657475" y="4038600"/>
+          <a:ext cx="9525" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39A12B1-C17F-4794-A260-E407DE22C352}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CD63D4DB-0B73-3242-22AC-07103B2263AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="4038600"/>
+          <a:ext cx="9525" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2723F2-6F1C-4DFF-B559-8ED3A0FFBE57}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A39A12B1-C17F-4794-A260-E407DE22C352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2657475" y="6296025"/>
+          <a:ext cx="800100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ED321B-8549-4E3F-9C32-742AC0783028}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1D2723F2-6F1C-4DFF-B559-8ED3A0FFBE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="5743575"/>
+          <a:ext cx="0" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DDAE09-E2B8-4735-B0D0-7CF877D6029D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{99ED321B-8549-4E3F-9C32-742AC0783028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3448050" y="5734050"/>
+          <a:ext cx="1666875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DAEAC0-2AC2-4911-8A54-6B3FD9A10A68}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{12DDAE09-E2B8-4735-B0D0-7CF877D6029D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2657475" y="4029075"/>
+          <a:ext cx="2466975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4724,10 +6779,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX65"/>
+  <dimension ref="A1:AX67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
@@ -6856,10 +8911,10 @@
       <c r="AX39" s="67"/>
     </row>
     <row r="40" spans="1:50" ht="30" customHeight="1">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="58"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="59" t="s">
         <v>46</v>
       </c>
@@ -6926,12 +8981,10 @@
       <c r="AX40" s="67"/>
     </row>
     <row r="41" spans="1:50" ht="30" customHeight="1">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="59" t="s">
         <v>47</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59" t="s">
-        <v>48</v>
       </c>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
@@ -6996,12 +9049,10 @@
       <c r="AX41" s="67"/>
     </row>
     <row r="42" spans="1:50" ht="30" customHeight="1">
-      <c r="A42" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="58"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
@@ -7066,12 +9117,10 @@
       <c r="AX42" s="67"/>
     </row>
     <row r="43" spans="1:50" ht="30" customHeight="1">
-      <c r="A43" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="58"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
@@ -7136,12 +9185,10 @@
       <c r="AX43" s="67"/>
     </row>
     <row r="44" spans="1:50" ht="30" customHeight="1">
-      <c r="A44" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="58"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
       <c r="C44" s="59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
@@ -7206,12 +9253,10 @@
       <c r="AX44" s="67"/>
     </row>
     <row r="45" spans="1:50" ht="30" customHeight="1">
-      <c r="A45" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="58"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="59" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
@@ -7276,12 +9321,10 @@
       <c r="AX45" s="67"/>
     </row>
     <row r="46" spans="1:50" ht="30" customHeight="1">
-      <c r="A46" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="58"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="59" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
@@ -7346,12 +9389,10 @@
       <c r="AX46" s="67"/>
     </row>
     <row r="47" spans="1:50" ht="30" customHeight="1">
-      <c r="A47" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="58"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="59" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
@@ -7416,12 +9457,10 @@
       <c r="AX47" s="67"/>
     </row>
     <row r="48" spans="1:50" ht="30" customHeight="1">
-      <c r="A48" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="58"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="59" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
@@ -7486,12 +9525,10 @@
       <c r="AX48" s="67"/>
     </row>
     <row r="49" spans="1:50" ht="30" customHeight="1">
-      <c r="A49" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="58"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="59" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
@@ -7557,11 +9594,11 @@
     </row>
     <row r="50" spans="1:50" ht="30" customHeight="1">
       <c r="A50" s="58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B50" s="58"/>
       <c r="C50" s="59" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
@@ -7625,13 +9662,13 @@
       <c r="AW50" s="67"/>
       <c r="AX50" s="67"/>
     </row>
-    <row r="51" spans="1:50" ht="30" customHeight="1">
+    <row r="51" spans="1:50" ht="41.25" customHeight="1">
       <c r="A51" s="58" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B51" s="58"/>
       <c r="C51" s="59" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
@@ -7679,7 +9716,9 @@
       <c r="AG51" s="66"/>
       <c r="AH51" s="66"/>
       <c r="AI51" s="66"/>
-      <c r="AJ51" s="67"/>
+      <c r="AJ51" s="67" t="s">
+        <v>60</v>
+      </c>
       <c r="AK51" s="67"/>
       <c r="AL51" s="67"/>
       <c r="AM51" s="67"/>
@@ -7697,11 +9736,11 @@
     </row>
     <row r="52" spans="1:50" ht="30" customHeight="1">
       <c r="A52" s="58" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B52" s="58"/>
       <c r="C52" s="59" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
@@ -7767,11 +9806,11 @@
     </row>
     <row r="53" spans="1:50" ht="30" customHeight="1">
       <c r="A53" s="58" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B53" s="58"/>
       <c r="C53" s="59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
@@ -7837,11 +9876,11 @@
     </row>
     <row r="54" spans="1:50" ht="30" customHeight="1">
       <c r="A54" s="58" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B54" s="58"/>
       <c r="C54" s="59" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
@@ -7907,7 +9946,7 @@
     </row>
     <row r="55" spans="1:50" ht="18.75">
       <c r="A55" s="72" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B55" s="72"/>
       <c r="C55" s="72"/>
@@ -7959,9 +9998,9 @@
       <c r="AW55" s="72"/>
       <c r="AX55" s="72"/>
     </row>
-    <row r="56" spans="1:50" ht="161.25" customHeight="1">
+    <row r="56" spans="1:50" ht="18.75">
       <c r="A56" s="70" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" s="70"/>
@@ -7972,52 +10011,52 @@
       <c r="H56" s="70"/>
       <c r="I56" s="70"/>
       <c r="J56" s="70"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="74"/>
-      <c r="R56" s="74"/>
-      <c r="S56" s="74"/>
-      <c r="T56" s="74"/>
-      <c r="U56" s="74"/>
-      <c r="V56" s="74"/>
-      <c r="W56" s="74"/>
-      <c r="X56" s="74"/>
-      <c r="Y56" s="74"/>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="74"/>
-      <c r="AB56" s="74"/>
-      <c r="AC56" s="74"/>
-      <c r="AD56" s="74"/>
-      <c r="AE56" s="74"/>
-      <c r="AF56" s="74"/>
-      <c r="AG56" s="74"/>
-      <c r="AH56" s="74"/>
-      <c r="AI56" s="74"/>
-      <c r="AJ56" s="74"/>
-      <c r="AK56" s="74"/>
-      <c r="AL56" s="74"/>
-      <c r="AM56" s="74"/>
-      <c r="AN56" s="74"/>
-      <c r="AO56" s="74"/>
-      <c r="AP56" s="74"/>
-      <c r="AQ56" s="74"/>
-      <c r="AR56" s="74"/>
-      <c r="AS56" s="74"/>
-      <c r="AT56" s="74"/>
-      <c r="AU56" s="74"/>
-      <c r="AV56" s="74"/>
-      <c r="AW56" s="74"/>
-      <c r="AX56" s="74"/>
-    </row>
-    <row r="57" spans="1:50" ht="145.5" customHeight="1">
+      <c r="K56" s="79"/>
+      <c r="L56" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="80"/>
+      <c r="AC56" s="80"/>
+      <c r="AD56" s="80"/>
+      <c r="AE56" s="80"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="80"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="80"/>
+      <c r="AL56" s="80"/>
+      <c r="AM56" s="80"/>
+      <c r="AN56" s="80"/>
+      <c r="AO56" s="80"/>
+      <c r="AP56" s="80"/>
+      <c r="AQ56" s="80"/>
+      <c r="AR56" s="80"/>
+      <c r="AS56" s="80"/>
+      <c r="AT56" s="80"/>
+      <c r="AU56" s="80"/>
+      <c r="AV56" s="80"/>
+      <c r="AW56" s="80"/>
+      <c r="AX56" s="80"/>
+    </row>
+    <row r="57" spans="1:50" ht="18.75">
       <c r="A57" s="70" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B57" s="70"/>
       <c r="C57" s="70"/>
@@ -8028,52 +10067,52 @@
       <c r="H57" s="70"/>
       <c r="I57" s="70"/>
       <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="70"/>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="70"/>
-      <c r="AG57" s="70"/>
-      <c r="AH57" s="70"/>
-      <c r="AI57" s="70"/>
-      <c r="AJ57" s="70"/>
-      <c r="AK57" s="70"/>
-      <c r="AL57" s="70"/>
-      <c r="AM57" s="70"/>
-      <c r="AN57" s="70"/>
-      <c r="AO57" s="70"/>
-      <c r="AP57" s="70"/>
-      <c r="AQ57" s="70"/>
-      <c r="AR57" s="70"/>
-      <c r="AS57" s="70"/>
-      <c r="AT57" s="70"/>
-      <c r="AU57" s="70"/>
-      <c r="AV57" s="70"/>
-      <c r="AW57" s="70"/>
-      <c r="AX57" s="70"/>
-    </row>
-    <row r="58" spans="1:50" ht="117" customHeight="1">
+      <c r="K57" s="79"/>
+      <c r="L57" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="80"/>
+      <c r="AC57" s="80"/>
+      <c r="AD57" s="80"/>
+      <c r="AE57" s="80"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
+      <c r="AH57" s="80"/>
+      <c r="AI57" s="80"/>
+      <c r="AJ57" s="80"/>
+      <c r="AK57" s="80"/>
+      <c r="AL57" s="80"/>
+      <c r="AM57" s="80"/>
+      <c r="AN57" s="80"/>
+      <c r="AO57" s="80"/>
+      <c r="AP57" s="80"/>
+      <c r="AQ57" s="80"/>
+      <c r="AR57" s="80"/>
+      <c r="AS57" s="80"/>
+      <c r="AT57" s="80"/>
+      <c r="AU57" s="80"/>
+      <c r="AV57" s="80"/>
+      <c r="AW57" s="80"/>
+      <c r="AX57" s="80"/>
+    </row>
+    <row r="58" spans="1:50" ht="161.25" customHeight="1">
       <c r="A58" s="70" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B58" s="70"/>
       <c r="C58" s="70"/>
@@ -8084,52 +10123,52 @@
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
       <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="70"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="70"/>
-      <c r="AG58" s="70"/>
-      <c r="AH58" s="70"/>
-      <c r="AI58" s="70"/>
-      <c r="AJ58" s="70"/>
-      <c r="AK58" s="70"/>
-      <c r="AL58" s="70"/>
-      <c r="AM58" s="70"/>
-      <c r="AN58" s="70"/>
-      <c r="AO58" s="70"/>
-      <c r="AP58" s="70"/>
-      <c r="AQ58" s="70"/>
-      <c r="AR58" s="70"/>
-      <c r="AS58" s="70"/>
-      <c r="AT58" s="70"/>
-      <c r="AU58" s="70"/>
-      <c r="AV58" s="70"/>
-      <c r="AW58" s="70"/>
-      <c r="AX58" s="70"/>
-    </row>
-    <row r="59" spans="1:50" ht="153.75" customHeight="1">
+      <c r="K58" s="79"/>
+      <c r="L58" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="80"/>
+      <c r="AA58" s="80"/>
+      <c r="AB58" s="80"/>
+      <c r="AC58" s="80"/>
+      <c r="AD58" s="80"/>
+      <c r="AE58" s="80"/>
+      <c r="AF58" s="80"/>
+      <c r="AG58" s="80"/>
+      <c r="AH58" s="80"/>
+      <c r="AI58" s="80"/>
+      <c r="AJ58" s="80"/>
+      <c r="AK58" s="80"/>
+      <c r="AL58" s="80"/>
+      <c r="AM58" s="80"/>
+      <c r="AN58" s="80"/>
+      <c r="AO58" s="80"/>
+      <c r="AP58" s="80"/>
+      <c r="AQ58" s="80"/>
+      <c r="AR58" s="80"/>
+      <c r="AS58" s="80"/>
+      <c r="AT58" s="80"/>
+      <c r="AU58" s="80"/>
+      <c r="AV58" s="80"/>
+      <c r="AW58" s="80"/>
+      <c r="AX58" s="80"/>
+    </row>
+    <row r="59" spans="1:50" ht="117" customHeight="1">
       <c r="A59" s="70" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B59" s="70"/>
       <c r="C59" s="70"/>
@@ -8141,8 +10180,8 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="K59" s="70"/>
-      <c r="L59" s="71" t="s">
-        <v>83</v>
+      <c r="L59" s="70" t="s">
+        <v>75</v>
       </c>
       <c r="M59" s="70"/>
       <c r="N59" s="70"/>
@@ -8185,7 +10224,7 @@
     </row>
     <row r="60" spans="1:50" ht="153.75" customHeight="1">
       <c r="A60" s="70" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
@@ -8198,7 +10237,7 @@
       <c r="J60" s="70"/>
       <c r="K60" s="70"/>
       <c r="L60" s="71" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M60" s="70"/>
       <c r="N60" s="70"/>
@@ -8241,7 +10280,7 @@
     </row>
     <row r="61" spans="1:50" ht="153.75" customHeight="1">
       <c r="A61" s="70" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
@@ -8254,7 +10293,7 @@
       <c r="J61" s="70"/>
       <c r="K61" s="70"/>
       <c r="L61" s="71" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M61" s="70"/>
       <c r="N61" s="70"/>
@@ -8297,7 +10336,7 @@
     </row>
     <row r="62" spans="1:50" ht="153.75" customHeight="1">
       <c r="A62" s="70" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B62" s="70"/>
       <c r="C62" s="70"/>
@@ -8310,7 +10349,7 @@
       <c r="J62" s="70"/>
       <c r="K62" s="70"/>
       <c r="L62" s="71" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M62" s="70"/>
       <c r="N62" s="70"/>
@@ -8351,19 +10390,76 @@
       <c r="AW62" s="70"/>
       <c r="AX62" s="70"/>
     </row>
-    <row r="63" spans="1:50" ht="18.75"/>
+    <row r="63" spans="1:50" ht="153.75" customHeight="1">
+      <c r="A63" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="70"/>
+      <c r="AC63" s="70"/>
+      <c r="AD63" s="70"/>
+      <c r="AE63" s="70"/>
+      <c r="AF63" s="70"/>
+      <c r="AG63" s="70"/>
+      <c r="AH63" s="70"/>
+      <c r="AI63" s="70"/>
+      <c r="AJ63" s="70"/>
+      <c r="AK63" s="70"/>
+      <c r="AL63" s="70"/>
+      <c r="AM63" s="70"/>
+      <c r="AN63" s="70"/>
+      <c r="AO63" s="70"/>
+      <c r="AP63" s="70"/>
+      <c r="AQ63" s="70"/>
+      <c r="AR63" s="70"/>
+      <c r="AS63" s="70"/>
+      <c r="AT63" s="70"/>
+      <c r="AU63" s="70"/>
+      <c r="AV63" s="70"/>
+      <c r="AW63" s="70"/>
+      <c r="AX63" s="70"/>
+    </row>
     <row r="64" spans="1:50" ht="18.75"/>
     <row r="65" ht="18.75"/>
+    <row r="66" ht="18.75"/>
+    <row r="67" ht="18.75"/>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="L58:AX58"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="L60:AX60"/>
+  <mergeCells count="207">
     <mergeCell ref="A59:K59"/>
     <mergeCell ref="L59:AX59"/>
     <mergeCell ref="A61:K61"/>
     <mergeCell ref="L61:AX61"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="L60:AX60"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:AX62"/>
     <mergeCell ref="X54:Z54"/>
     <mergeCell ref="AA54:AC54"/>
     <mergeCell ref="AD54:AE54"/>
@@ -8374,6 +10470,9 @@
     <mergeCell ref="L54:Q54"/>
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="T54:W54"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="L58:AX58"/>
+    <mergeCell ref="L57:AX57"/>
     <mergeCell ref="X53:Z53"/>
     <mergeCell ref="AA53:AC53"/>
     <mergeCell ref="AD53:AE53"/>
@@ -8419,17 +10518,16 @@
     <mergeCell ref="AD49:AE49"/>
     <mergeCell ref="AF49:AI49"/>
     <mergeCell ref="AJ49:AX49"/>
-    <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="L49:Q49"/>
     <mergeCell ref="R49:S49"/>
     <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A40:B49"/>
     <mergeCell ref="X48:Z48"/>
     <mergeCell ref="AA48:AC48"/>
     <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="AF48:AI48"/>
     <mergeCell ref="AJ48:AX48"/>
-    <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:K48"/>
     <mergeCell ref="L48:Q48"/>
     <mergeCell ref="R48:S48"/>
@@ -8439,7 +10537,6 @@
     <mergeCell ref="AD47:AE47"/>
     <mergeCell ref="AF47:AI47"/>
     <mergeCell ref="AJ47:AX47"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:K47"/>
     <mergeCell ref="L47:Q47"/>
     <mergeCell ref="R47:S47"/>
@@ -8449,36 +10546,56 @@
     <mergeCell ref="AD46:AE46"/>
     <mergeCell ref="AF46:AI46"/>
     <mergeCell ref="AJ46:AX46"/>
-    <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:K46"/>
     <mergeCell ref="L46:Q46"/>
     <mergeCell ref="R46:S46"/>
     <mergeCell ref="T46:W46"/>
-    <mergeCell ref="AJ44:AX44"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:W44"/>
     <mergeCell ref="X45:Z45"/>
     <mergeCell ref="AA45:AC45"/>
     <mergeCell ref="AD45:AE45"/>
     <mergeCell ref="AF45:AI45"/>
     <mergeCell ref="AJ45:AX45"/>
-    <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="L45:Q45"/>
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="T45:W45"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AJ44:AX44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AJ43:AX43"/>
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="L43:Q43"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AJ40:AX40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AJ41:AX41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
     <mergeCell ref="AD42:AE42"/>
     <mergeCell ref="AF42:AI42"/>
     <mergeCell ref="AJ42:AX42"/>
@@ -8487,44 +10604,13 @@
     <mergeCell ref="X41:Z41"/>
     <mergeCell ref="AA41:AC41"/>
     <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AJ43:AX43"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="L56:AX56"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AJ40:AX40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="AJ41:AX41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AC42"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:K37"/>
     <mergeCell ref="L37:Q37"/>
     <mergeCell ref="R37:S37"/>
     <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L57:AX57"/>
-    <mergeCell ref="L62:AX62"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="L63:AX63"/>
     <mergeCell ref="X38:Z38"/>
     <mergeCell ref="AA38:AC38"/>
     <mergeCell ref="AD38:AE38"/>
@@ -8536,6 +10622,9 @@
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="T38:W38"/>
     <mergeCell ref="A55:AX55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="L56:AX56"/>
+    <mergeCell ref="A57:K57"/>
     <mergeCell ref="X36:Z36"/>
     <mergeCell ref="AA36:AC36"/>
     <mergeCell ref="AD36:AE36"/>

--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28007"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="571" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3250E4BF-661A-45DF-9D8F-25B689F3FE14}"/>
+  <xr:revisionPtr revIDLastSave="606" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0796C3-6608-4F54-B474-2BD5E182A6E3}"/>
   <bookViews>
     <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>電卓アプリ</t>
   </si>
@@ -179,6 +179,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2回目の「＝」は✖</t>
+  </si>
+  <si>
     <t>項目説明</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -266,9 +269,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>半角文字列</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -330,10 +330,16 @@
     <t>⑤</t>
   </si>
   <si>
+    <t>小数点ボタン</t>
+  </si>
+  <si>
+    <t>⑥</t>
+  </si>
+  <si>
     <t>等号ボタン</t>
   </si>
   <si>
-    <t>⑥</t>
+    <t>⑦</t>
   </si>
   <si>
     <t>除算ボタン</t>
@@ -342,19 +348,23 @@
     <t>「0」で除算を行なった場合、①計算結果表示欄に、「Error」を表示する。</t>
   </si>
   <si>
-    <t>⑦</t>
+    <t>⑧</t>
   </si>
   <si>
     <t>乗算ボタン</t>
   </si>
   <si>
-    <t>⑧</t>
+    <t>計算式を計算するタイプではない。
+除算・割り算を優先しない。</t>
+  </si>
+  <si>
+    <t>⑨</t>
   </si>
   <si>
     <t>減算ボタン</t>
   </si>
   <si>
-    <t>⑨</t>
+    <t>⑩</t>
   </si>
   <si>
     <t>加算ボタン</t>
@@ -388,6 +398,14 @@
 →①計算結果表示欄に表示されている数値の末尾に、「押下した数字ボタンの値」を結合して出力する。
 ＜事前に⑮～⑱の演算系のボタンを押下した場合＞
 →①計算結果表示欄に、「押下した数字ボタンの値」を出力する。</t>
+  </si>
+  <si>
+    <t>⑤小数点ボタン押下</t>
+  </si>
+  <si>
+    <t>①計算結果表示欄に表示されている数値の末尾に、「.」を結合して出力する。
+＜①計算結果表示欄の値に、小数点ボタン押下によって結合された小数点が存在する場合＞
+→何も処理を行わない。</t>
   </si>
   <si>
     <t>⑤等号ボタン押下</t>
@@ -443,10 +461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +566,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
     </font>
   </fonts>
@@ -1015,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1024,7 +1047,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1091,7 +1114,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1126,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,7 +1138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1166,17 +1189,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,23 +1222,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,11 +1252,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2839,7 +2865,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑥</a:t>
+            <a:t>⑦</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3320,7 +3346,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑦</a:t>
+            <a:t>⑧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3491,7 +3517,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑧</a:t>
+            <a:t>⑨</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3662,7 +3688,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑨</a:t>
+            <a:t>⑩</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3842,16 +3868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3869,7 +3895,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="5886450"/>
+          <a:off x="4572000" y="6629400"/>
           <a:ext cx="323850" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4004,7 +4030,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑤</a:t>
+            <a:t>⑥</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4184,16 +4210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4203,14 +4229,14 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DF63B9-9615-482D-9613-6DEB66021391}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F195888E-9565-47C5-87AB-5BB7233CE6DA}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3C177BC7-B3F7-4212-BC09-EA6D2D82C592}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="33" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:stCxn id="33" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{103732D3-57B0-429C-9A02-EDEEF93858A9}" end="{A3760B2C-AB6F-4230-B9F4-9700B3E5722F}"/>
@@ -4219,9 +4245,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4067175" y="6024563"/>
-          <a:ext cx="266700" cy="42862"/>
+        <a:xfrm flipV="1">
+          <a:off x="4733925" y="6334125"/>
+          <a:ext cx="9525" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4923,6 +4949,342 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0487DD4C-C79B-4CCE-A59A-B397FDAA1D73}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{60DAEAC0-2AC2-4911-8A54-6B3FD9A10A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="5800725"/>
+          <a:ext cx="819150" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1BC074-0F8A-4A9F-B272-4271FA0704EF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0487DD4C-C79B-4CCE-A59A-B397FDAA1D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="6772275"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6779,3749 +7141,3923 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX67"/>
+  <dimension ref="A1:BA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP8" sqref="BP8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA34" sqref="BA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="6"/>
+    <col min="1" max="52" width="2.5" style="6"/>
+    <col min="53" max="53" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="2.5" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54" t="str">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78" t="str">
         <f>画面一覧表!C4</f>
         <v>電卓画面</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="56" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="54" t="str">
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="78" t="str">
         <f>画面一覧表!D4</f>
         <v>calculator</v>
       </c>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="80"/>
+      <c r="AX2" s="80"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
     </row>
     <row r="5" spans="1:50">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
     </row>
     <row r="6" spans="1:50">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="62"/>
     </row>
     <row r="7" spans="1:50">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
     </row>
     <row r="8" spans="1:50">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="64"/>
-      <c r="AQ8" s="64"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="64"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
     </row>
     <row r="9" spans="1:50">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="64"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62"/>
     </row>
     <row r="10" spans="1:50">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
     </row>
     <row r="11" spans="1:50">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="62"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="62"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62"/>
     </row>
     <row r="12" spans="1:50">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="64"/>
-      <c r="AX12" s="64"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="62"/>
+      <c r="AM12" s="62"/>
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="62"/>
+      <c r="AP12" s="62"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="62"/>
+      <c r="AT12" s="62"/>
+      <c r="AU12" s="62"/>
+      <c r="AV12" s="62"/>
+      <c r="AW12" s="62"/>
+      <c r="AX12" s="62"/>
     </row>
     <row r="13" spans="1:50">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="64"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="62"/>
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="62"/>
+      <c r="AV13" s="62"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="62"/>
     </row>
     <row r="14" spans="1:50">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
     </row>
     <row r="15" spans="1:50">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="64"/>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="64"/>
-      <c r="AR15" s="64"/>
-      <c r="AS15" s="64"/>
-      <c r="AT15" s="64"/>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="64"/>
-      <c r="AX15" s="64"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
     </row>
     <row r="16" spans="1:50">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="64"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="64"/>
-      <c r="AO16" s="64"/>
-      <c r="AP16" s="64"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="64"/>
-      <c r="AU16" s="64"/>
-      <c r="AV16" s="64"/>
-      <c r="AW16" s="64"/>
-      <c r="AX16" s="64"/>
-    </row>
-    <row r="17" spans="1:50">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="64"/>
-      <c r="AI17" s="64"/>
-      <c r="AJ17" s="64"/>
-      <c r="AK17" s="64"/>
-      <c r="AL17" s="64"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="64"/>
-      <c r="AO17" s="64"/>
-      <c r="AP17" s="64"/>
-      <c r="AQ17" s="64"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="64"/>
-      <c r="AU17" s="64"/>
-      <c r="AV17" s="64"/>
-      <c r="AW17" s="64"/>
-      <c r="AX17" s="64"/>
-    </row>
-    <row r="18" spans="1:50">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="64"/>
-      <c r="AO18" s="64"/>
-      <c r="AP18" s="64"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="64"/>
-      <c r="AV18" s="64"/>
-      <c r="AW18" s="64"/>
-      <c r="AX18" s="64"/>
-    </row>
-    <row r="19" spans="1:50">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-      <c r="AP19" s="64"/>
-      <c r="AQ19" s="64"/>
-      <c r="AR19" s="64"/>
-      <c r="AS19" s="64"/>
-      <c r="AT19" s="64"/>
-      <c r="AU19" s="64"/>
-      <c r="AV19" s="64"/>
-      <c r="AW19" s="64"/>
-      <c r="AX19" s="64"/>
-    </row>
-    <row r="20" spans="1:50">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="64"/>
-      <c r="AO20" s="64"/>
-      <c r="AP20" s="64"/>
-      <c r="AQ20" s="64"/>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="64"/>
-      <c r="AT20" s="64"/>
-      <c r="AU20" s="64"/>
-      <c r="AV20" s="64"/>
-      <c r="AW20" s="64"/>
-      <c r="AX20" s="64"/>
-    </row>
-    <row r="21" spans="1:50">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="64"/>
-      <c r="AI21" s="64"/>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="64"/>
-      <c r="AL21" s="64"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="64"/>
-      <c r="AO21" s="64"/>
-      <c r="AP21" s="64"/>
-      <c r="AQ21" s="64"/>
-      <c r="AR21" s="64"/>
-      <c r="AS21" s="64"/>
-      <c r="AT21" s="64"/>
-      <c r="AU21" s="64"/>
-      <c r="AV21" s="64"/>
-      <c r="AW21" s="64"/>
-      <c r="AX21" s="64"/>
-    </row>
-    <row r="22" spans="1:50">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="64"/>
-      <c r="AL22" s="64"/>
-      <c r="AM22" s="64"/>
-      <c r="AN22" s="64"/>
-      <c r="AO22" s="64"/>
-      <c r="AP22" s="64"/>
-      <c r="AQ22" s="64"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="64"/>
-      <c r="AU22" s="64"/>
-      <c r="AV22" s="64"/>
-      <c r="AW22" s="64"/>
-      <c r="AX22" s="64"/>
-    </row>
-    <row r="23" spans="1:50">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="64"/>
-      <c r="AO23" s="64"/>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="64"/>
-      <c r="AR23" s="64"/>
-      <c r="AS23" s="64"/>
-      <c r="AT23" s="64"/>
-      <c r="AU23" s="64"/>
-      <c r="AV23" s="64"/>
-      <c r="AW23" s="64"/>
-      <c r="AX23" s="64"/>
-    </row>
-    <row r="24" spans="1:50">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="64"/>
-      <c r="AO24" s="64"/>
-      <c r="AP24" s="64"/>
-      <c r="AQ24" s="64"/>
-      <c r="AR24" s="64"/>
-      <c r="AS24" s="64"/>
-      <c r="AT24" s="64"/>
-      <c r="AU24" s="64"/>
-      <c r="AV24" s="64"/>
-      <c r="AW24" s="64"/>
-      <c r="AX24" s="64"/>
-    </row>
-    <row r="25" spans="1:50">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="64"/>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="64"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="64"/>
-      <c r="AO25" s="64"/>
-      <c r="AP25" s="64"/>
-      <c r="AQ25" s="64"/>
-      <c r="AR25" s="64"/>
-      <c r="AS25" s="64"/>
-      <c r="AT25" s="64"/>
-      <c r="AU25" s="64"/>
-      <c r="AV25" s="64"/>
-      <c r="AW25" s="64"/>
-      <c r="AX25" s="64"/>
-    </row>
-    <row r="26" spans="1:50">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="64"/>
-      <c r="AX26" s="64"/>
-    </row>
-    <row r="27" spans="1:50">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
-    </row>
-    <row r="28" spans="1:50">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-    </row>
-    <row r="29" spans="1:50">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-    </row>
-    <row r="30" spans="1:50">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="64"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
-      <c r="AO30" s="64"/>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="64"/>
-      <c r="AR30" s="64"/>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="64"/>
-      <c r="AU30" s="64"/>
-      <c r="AV30" s="64"/>
-      <c r="AW30" s="64"/>
-      <c r="AX30" s="64"/>
-    </row>
-    <row r="31" spans="1:50">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="64"/>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="64"/>
-      <c r="AR31" s="64"/>
-      <c r="AS31" s="64"/>
-      <c r="AT31" s="64"/>
-      <c r="AU31" s="64"/>
-      <c r="AV31" s="64"/>
-      <c r="AW31" s="64"/>
-      <c r="AX31" s="64"/>
-    </row>
-    <row r="32" spans="1:50">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="64"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="64"/>
-      <c r="AU32" s="64"/>
-      <c r="AV32" s="64"/>
-      <c r="AW32" s="64"/>
-      <c r="AX32" s="64"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+    </row>
+    <row r="17" spans="1:53">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="62"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+    </row>
+    <row r="18" spans="1:53">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+    </row>
+    <row r="19" spans="1:53">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="62"/>
+    </row>
+    <row r="21" spans="1:53">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+    </row>
+    <row r="22" spans="1:53">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="62"/>
+    </row>
+    <row r="23" spans="1:53">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="62"/>
+    </row>
+    <row r="24" spans="1:53">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="62"/>
+      <c r="AX24" s="62"/>
+    </row>
+    <row r="25" spans="1:53">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="62"/>
+      <c r="AX25" s="62"/>
+    </row>
+    <row r="26" spans="1:53">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="62"/>
+    </row>
+    <row r="27" spans="1:53">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+    </row>
+    <row r="28" spans="1:53">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="62"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="62"/>
+    </row>
+    <row r="29" spans="1:53">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="62"/>
+    </row>
+    <row r="30" spans="1:53">
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+      <c r="AT30" s="62"/>
+      <c r="AU30" s="62"/>
+      <c r="AV30" s="62"/>
+      <c r="AW30" s="62"/>
+      <c r="AX30" s="62"/>
+    </row>
+    <row r="31" spans="1:53">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="62"/>
+    </row>
+    <row r="32" spans="1:53">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="62"/>
+      <c r="AK32" s="62"/>
+      <c r="AL32" s="62"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="62"/>
+      <c r="AX32" s="62"/>
+      <c r="BA32" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="33" spans="1:50">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="64"/>
-      <c r="AX33" s="64"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="62"/>
+      <c r="AX33" s="62"/>
     </row>
     <row r="34" spans="1:50">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="64"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="62"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="62"/>
+      <c r="AM34" s="62"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="62"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="62"/>
+      <c r="AX34" s="62"/>
     </row>
     <row r="35" spans="1:50">
-      <c r="A35" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="57"/>
+      <c r="A35" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="80"/>
+      <c r="AL35" s="80"/>
+      <c r="AM35" s="80"/>
+      <c r="AN35" s="80"/>
+      <c r="AO35" s="80"/>
+      <c r="AP35" s="80"/>
+      <c r="AQ35" s="80"/>
+      <c r="AR35" s="80"/>
+      <c r="AS35" s="80"/>
+      <c r="AT35" s="80"/>
+      <c r="AU35" s="80"/>
+      <c r="AV35" s="80"/>
+      <c r="AW35" s="80"/>
+      <c r="AX35" s="80"/>
     </row>
     <row r="36" spans="1:50">
-      <c r="A36" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56" t="s">
+      <c r="A36" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56" t="s">
+      <c r="B36" s="77"/>
+      <c r="C36" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56" t="s">
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56" t="s">
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="69" t="s">
+      <c r="S36" s="77"/>
+      <c r="T36" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69" t="s">
+      <c r="U36" s="77"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="56" t="s">
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56" t="s">
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56" t="s">
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
+      <c r="AG36" s="77"/>
+      <c r="AH36" s="77"/>
+      <c r="AI36" s="77"/>
+      <c r="AJ36" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK36" s="77"/>
+      <c r="AL36" s="77"/>
+      <c r="AM36" s="77"/>
+      <c r="AN36" s="77"/>
+      <c r="AO36" s="77"/>
+      <c r="AP36" s="77"/>
+      <c r="AQ36" s="77"/>
+      <c r="AR36" s="77"/>
+      <c r="AS36" s="77"/>
+      <c r="AT36" s="77"/>
+      <c r="AU36" s="77"/>
+      <c r="AV36" s="77"/>
+      <c r="AW36" s="77"/>
+      <c r="AX36" s="77"/>
     </row>
     <row r="37" spans="1:50" ht="30" customHeight="1">
-      <c r="A37" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59" t="s">
+      <c r="A37" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="60" t="s">
+      <c r="B37" s="56"/>
+      <c r="C37" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60" t="s">
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="S37" s="60"/>
-      <c r="T37" s="61" t="s">
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64">
+      <c r="S37" s="58"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62">
         <v>1</v>
       </c>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="65" t="s">
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="66">
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="64">
         <v>0</v>
       </c>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="67" t="s">
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
+      <c r="AK37" s="54"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="54"/>
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="54"/>
+      <c r="AU37" s="54"/>
+      <c r="AV37" s="54"/>
+      <c r="AW37" s="54"/>
+      <c r="AX37" s="54"/>
     </row>
     <row r="38" spans="1:50" ht="30" customHeight="1">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59" t="s">
+      <c r="B38" s="56"/>
+      <c r="C38" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="60" t="s">
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60" t="s">
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S38" s="60"/>
-      <c r="T38" s="61" t="s">
+      <c r="S38" s="58"/>
+      <c r="T38" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="64" t="s">
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64" t="s">
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="65" t="s">
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="66" t="s">
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="67"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="67"/>
-      <c r="AQ38" s="67"/>
-      <c r="AR38" s="67"/>
-      <c r="AS38" s="67"/>
-      <c r="AT38" s="67"/>
-      <c r="AU38" s="67"/>
-      <c r="AV38" s="67"/>
-      <c r="AW38" s="67"/>
-      <c r="AX38" s="67"/>
+      <c r="AG38" s="64"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="54"/>
+      <c r="AP38" s="54"/>
+      <c r="AQ38" s="54"/>
+      <c r="AR38" s="54"/>
+      <c r="AS38" s="54"/>
+      <c r="AT38" s="54"/>
+      <c r="AU38" s="54"/>
+      <c r="AV38" s="54"/>
+      <c r="AW38" s="54"/>
+      <c r="AX38" s="54"/>
     </row>
     <row r="39" spans="1:50" ht="30" customHeight="1">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59" t="s">
+      <c r="B39" s="56"/>
+      <c r="C39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60" t="s">
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S39" s="60"/>
-      <c r="T39" s="61" t="s">
+      <c r="S39" s="58"/>
+      <c r="T39" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="64" t="s">
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="64" t="s">
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="65" t="s">
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="66" t="s">
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="67"/>
-      <c r="AR39" s="67"/>
-      <c r="AS39" s="67"/>
-      <c r="AT39" s="67"/>
-      <c r="AU39" s="67"/>
-      <c r="AV39" s="67"/>
-      <c r="AW39" s="67"/>
-      <c r="AX39" s="67"/>
+      <c r="AG39" s="64"/>
+      <c r="AH39" s="64"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="54"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="54"/>
+      <c r="AT39" s="54"/>
+      <c r="AU39" s="54"/>
+      <c r="AV39" s="54"/>
+      <c r="AW39" s="54"/>
+      <c r="AX39" s="54"/>
     </row>
     <row r="40" spans="1:50" ht="30" customHeight="1">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="59" t="s">
+      <c r="B40" s="70"/>
+      <c r="C40" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60" t="s">
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60" t="s">
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S40" s="60"/>
-      <c r="T40" s="61" t="s">
+      <c r="S40" s="58"/>
+      <c r="T40" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="64" t="s">
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64" t="s">
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB40" s="64"/>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="65" t="s">
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="66" t="s">
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="67"/>
-      <c r="AL40" s="67"/>
-      <c r="AM40" s="67"/>
-      <c r="AN40" s="67"/>
-      <c r="AO40" s="67"/>
-      <c r="AP40" s="67"/>
-      <c r="AQ40" s="67"/>
-      <c r="AR40" s="67"/>
-      <c r="AS40" s="67"/>
-      <c r="AT40" s="67"/>
-      <c r="AU40" s="67"/>
-      <c r="AV40" s="67"/>
-      <c r="AW40" s="67"/>
-      <c r="AX40" s="67"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54"/>
+      <c r="AN40" s="54"/>
+      <c r="AO40" s="54"/>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="54"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="54"/>
+      <c r="AT40" s="54"/>
+      <c r="AU40" s="54"/>
+      <c r="AV40" s="54"/>
+      <c r="AW40" s="54"/>
+      <c r="AX40" s="54"/>
     </row>
     <row r="41" spans="1:50" ht="30" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="59" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="60" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60" t="s">
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S41" s="60"/>
-      <c r="T41" s="61" t="s">
+      <c r="S41" s="58"/>
+      <c r="T41" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="64" t="s">
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="64"/>
-      <c r="AA41" s="64" t="s">
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB41" s="64"/>
-      <c r="AC41" s="64"/>
-      <c r="AD41" s="65" t="s">
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="66" t="s">
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="67"/>
-      <c r="AL41" s="67"/>
-      <c r="AM41" s="67"/>
-      <c r="AN41" s="67"/>
-      <c r="AO41" s="67"/>
-      <c r="AP41" s="67"/>
-      <c r="AQ41" s="67"/>
-      <c r="AR41" s="67"/>
-      <c r="AS41" s="67"/>
-      <c r="AT41" s="67"/>
-      <c r="AU41" s="67"/>
-      <c r="AV41" s="67"/>
-      <c r="AW41" s="67"/>
-      <c r="AX41" s="67"/>
+      <c r="AG41" s="64"/>
+      <c r="AH41" s="64"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="54"/>
+      <c r="AO41" s="54"/>
+      <c r="AP41" s="54"/>
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
+      <c r="AT41" s="54"/>
+      <c r="AU41" s="54"/>
+      <c r="AV41" s="54"/>
+      <c r="AW41" s="54"/>
+      <c r="AX41" s="54"/>
     </row>
     <row r="42" spans="1:50" ht="30" customHeight="1">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="59" t="s">
+      <c r="A42" s="71"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="60" t="s">
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60" t="s">
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S42" s="60"/>
-      <c r="T42" s="61" t="s">
+      <c r="S42" s="58"/>
+      <c r="T42" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="64" t="s">
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64" t="s">
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="65" t="s">
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="66" t="s">
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="67"/>
-      <c r="AM42" s="67"/>
-      <c r="AN42" s="67"/>
-      <c r="AO42" s="67"/>
-      <c r="AP42" s="67"/>
-      <c r="AQ42" s="67"/>
-      <c r="AR42" s="67"/>
-      <c r="AS42" s="67"/>
-      <c r="AT42" s="67"/>
-      <c r="AU42" s="67"/>
-      <c r="AV42" s="67"/>
-      <c r="AW42" s="67"/>
-      <c r="AX42" s="67"/>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="64"/>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="54"/>
+      <c r="AR42" s="54"/>
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="54"/>
+      <c r="AU42" s="54"/>
+      <c r="AV42" s="54"/>
+      <c r="AW42" s="54"/>
+      <c r="AX42" s="54"/>
     </row>
     <row r="43" spans="1:50" ht="30" customHeight="1">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="59" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="60" t="s">
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60" t="s">
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="60"/>
-      <c r="T43" s="61" t="s">
+      <c r="S43" s="58"/>
+      <c r="T43" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="64" t="s">
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="64"/>
-      <c r="AA43" s="64" t="s">
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB43" s="64"/>
-      <c r="AC43" s="64"/>
-      <c r="AD43" s="65" t="s">
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE43" s="65"/>
-      <c r="AF43" s="66" t="s">
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="67"/>
-      <c r="AU43" s="67"/>
-      <c r="AV43" s="67"/>
-      <c r="AW43" s="67"/>
-      <c r="AX43" s="67"/>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="64"/>
+      <c r="AI43" s="64"/>
+      <c r="AJ43" s="54"/>
+      <c r="AK43" s="54"/>
+      <c r="AL43" s="54"/>
+      <c r="AM43" s="54"/>
+      <c r="AN43" s="54"/>
+      <c r="AO43" s="54"/>
+      <c r="AP43" s="54"/>
+      <c r="AQ43" s="54"/>
+      <c r="AR43" s="54"/>
+      <c r="AS43" s="54"/>
+      <c r="AT43" s="54"/>
+      <c r="AU43" s="54"/>
+      <c r="AV43" s="54"/>
+      <c r="AW43" s="54"/>
+      <c r="AX43" s="54"/>
     </row>
     <row r="44" spans="1:50" ht="30" customHeight="1">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="59" t="s">
+      <c r="A44" s="71"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="60" t="s">
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60" t="s">
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S44" s="60"/>
-      <c r="T44" s="61" t="s">
+      <c r="S44" s="58"/>
+      <c r="T44" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="64" t="s">
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64" t="s">
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="65" t="s">
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="66" t="s">
+      <c r="AE44" s="63"/>
+      <c r="AF44" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="67"/>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="67"/>
-      <c r="AO44" s="67"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="67"/>
-      <c r="AR44" s="67"/>
-      <c r="AS44" s="67"/>
-      <c r="AT44" s="67"/>
-      <c r="AU44" s="67"/>
-      <c r="AV44" s="67"/>
-      <c r="AW44" s="67"/>
-      <c r="AX44" s="67"/>
+      <c r="AG44" s="64"/>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="54"/>
+      <c r="AK44" s="54"/>
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="54"/>
+      <c r="AN44" s="54"/>
+      <c r="AO44" s="54"/>
+      <c r="AP44" s="54"/>
+      <c r="AQ44" s="54"/>
+      <c r="AR44" s="54"/>
+      <c r="AS44" s="54"/>
+      <c r="AT44" s="54"/>
+      <c r="AU44" s="54"/>
+      <c r="AV44" s="54"/>
+      <c r="AW44" s="54"/>
+      <c r="AX44" s="54"/>
     </row>
     <row r="45" spans="1:50" ht="30" customHeight="1">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="59" t="s">
+      <c r="A45" s="71"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="60" t="s">
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60" t="s">
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S45" s="60"/>
-      <c r="T45" s="61" t="s">
+      <c r="S45" s="58"/>
+      <c r="T45" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="64" t="s">
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
-      <c r="AA45" s="64" t="s">
+      <c r="Y45" s="62"/>
+      <c r="Z45" s="62"/>
+      <c r="AA45" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="65" t="s">
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="66" t="s">
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="67"/>
-      <c r="AM45" s="67"/>
-      <c r="AN45" s="67"/>
-      <c r="AO45" s="67"/>
-      <c r="AP45" s="67"/>
-      <c r="AQ45" s="67"/>
-      <c r="AR45" s="67"/>
-      <c r="AS45" s="67"/>
-      <c r="AT45" s="67"/>
-      <c r="AU45" s="67"/>
-      <c r="AV45" s="67"/>
-      <c r="AW45" s="67"/>
-      <c r="AX45" s="67"/>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="64"/>
+      <c r="AI45" s="64"/>
+      <c r="AJ45" s="54"/>
+      <c r="AK45" s="54"/>
+      <c r="AL45" s="54"/>
+      <c r="AM45" s="54"/>
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="54"/>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="54"/>
+      <c r="AR45" s="54"/>
+      <c r="AS45" s="54"/>
+      <c r="AT45" s="54"/>
+      <c r="AU45" s="54"/>
+      <c r="AV45" s="54"/>
+      <c r="AW45" s="54"/>
+      <c r="AX45" s="54"/>
     </row>
     <row r="46" spans="1:50" ht="30" customHeight="1">
-      <c r="A46" s="75"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="59" t="s">
+      <c r="A46" s="71"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="60" t="s">
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60" t="s">
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S46" s="60"/>
-      <c r="T46" s="61" t="s">
+      <c r="S46" s="58"/>
+      <c r="T46" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="64" t="s">
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64"/>
-      <c r="AA46" s="64" t="s">
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB46" s="64"/>
-      <c r="AC46" s="64"/>
-      <c r="AD46" s="65" t="s">
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE46" s="65"/>
-      <c r="AF46" s="66" t="s">
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="67"/>
-      <c r="AM46" s="67"/>
-      <c r="AN46" s="67"/>
-      <c r="AO46" s="67"/>
-      <c r="AP46" s="67"/>
-      <c r="AQ46" s="67"/>
-      <c r="AR46" s="67"/>
-      <c r="AS46" s="67"/>
-      <c r="AT46" s="67"/>
-      <c r="AU46" s="67"/>
-      <c r="AV46" s="67"/>
-      <c r="AW46" s="67"/>
-      <c r="AX46" s="67"/>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="64"/>
+      <c r="AI46" s="64"/>
+      <c r="AJ46" s="54"/>
+      <c r="AK46" s="54"/>
+      <c r="AL46" s="54"/>
+      <c r="AM46" s="54"/>
+      <c r="AN46" s="54"/>
+      <c r="AO46" s="54"/>
+      <c r="AP46" s="54"/>
+      <c r="AQ46" s="54"/>
+      <c r="AR46" s="54"/>
+      <c r="AS46" s="54"/>
+      <c r="AT46" s="54"/>
+      <c r="AU46" s="54"/>
+      <c r="AV46" s="54"/>
+      <c r="AW46" s="54"/>
+      <c r="AX46" s="54"/>
     </row>
     <row r="47" spans="1:50" ht="30" customHeight="1">
-      <c r="A47" s="75"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="59" t="s">
+      <c r="A47" s="71"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60" t="s">
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S47" s="60"/>
-      <c r="T47" s="61" t="s">
+      <c r="S47" s="58"/>
+      <c r="T47" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="64" t="s">
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="61"/>
+      <c r="X47" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y47" s="64"/>
-      <c r="Z47" s="64"/>
-      <c r="AA47" s="64" t="s">
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB47" s="64"/>
-      <c r="AC47" s="64"/>
-      <c r="AD47" s="65" t="s">
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="62"/>
+      <c r="AD47" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE47" s="65"/>
-      <c r="AF47" s="66" t="s">
+      <c r="AE47" s="63"/>
+      <c r="AF47" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="67"/>
-      <c r="AM47" s="67"/>
-      <c r="AN47" s="67"/>
-      <c r="AO47" s="67"/>
-      <c r="AP47" s="67"/>
-      <c r="AQ47" s="67"/>
-      <c r="AR47" s="67"/>
-      <c r="AS47" s="67"/>
-      <c r="AT47" s="67"/>
-      <c r="AU47" s="67"/>
-      <c r="AV47" s="67"/>
-      <c r="AW47" s="67"/>
-      <c r="AX47" s="67"/>
+      <c r="AG47" s="64"/>
+      <c r="AH47" s="64"/>
+      <c r="AI47" s="64"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54"/>
+      <c r="AR47" s="54"/>
+      <c r="AS47" s="54"/>
+      <c r="AT47" s="54"/>
+      <c r="AU47" s="54"/>
+      <c r="AV47" s="54"/>
+      <c r="AW47" s="54"/>
+      <c r="AX47" s="54"/>
     </row>
     <row r="48" spans="1:50" ht="30" customHeight="1">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="59" t="s">
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="60" t="s">
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60" t="s">
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S48" s="60"/>
-      <c r="T48" s="61" t="s">
+      <c r="S48" s="58"/>
+      <c r="T48" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="64" t="s">
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y48" s="64"/>
-      <c r="Z48" s="64"/>
-      <c r="AA48" s="64" t="s">
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB48" s="64"/>
-      <c r="AC48" s="64"/>
-      <c r="AD48" s="65" t="s">
+      <c r="AB48" s="62"/>
+      <c r="AC48" s="62"/>
+      <c r="AD48" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE48" s="65"/>
-      <c r="AF48" s="66" t="s">
+      <c r="AE48" s="63"/>
+      <c r="AF48" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="67"/>
-      <c r="AM48" s="67"/>
-      <c r="AN48" s="67"/>
-      <c r="AO48" s="67"/>
-      <c r="AP48" s="67"/>
-      <c r="AQ48" s="67"/>
-      <c r="AR48" s="67"/>
-      <c r="AS48" s="67"/>
-      <c r="AT48" s="67"/>
-      <c r="AU48" s="67"/>
-      <c r="AV48" s="67"/>
-      <c r="AW48" s="67"/>
-      <c r="AX48" s="67"/>
+      <c r="AG48" s="64"/>
+      <c r="AH48" s="64"/>
+      <c r="AI48" s="64"/>
+      <c r="AJ48" s="54"/>
+      <c r="AK48" s="54"/>
+      <c r="AL48" s="54"/>
+      <c r="AM48" s="54"/>
+      <c r="AN48" s="54"/>
+      <c r="AO48" s="54"/>
+      <c r="AP48" s="54"/>
+      <c r="AQ48" s="54"/>
+      <c r="AR48" s="54"/>
+      <c r="AS48" s="54"/>
+      <c r="AT48" s="54"/>
+      <c r="AU48" s="54"/>
+      <c r="AV48" s="54"/>
+      <c r="AW48" s="54"/>
+      <c r="AX48" s="54"/>
     </row>
     <row r="49" spans="1:50" ht="30" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="59" t="s">
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="60" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60" t="s">
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S49" s="60"/>
-      <c r="T49" s="61" t="s">
+      <c r="S49" s="58"/>
+      <c r="T49" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="64" t="s">
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="64"/>
-      <c r="AA49" s="64" t="s">
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
+      <c r="AA49" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB49" s="64"/>
-      <c r="AC49" s="64"/>
-      <c r="AD49" s="65" t="s">
+      <c r="AB49" s="62"/>
+      <c r="AC49" s="62"/>
+      <c r="AD49" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE49" s="65"/>
-      <c r="AF49" s="66" t="s">
+      <c r="AE49" s="63"/>
+      <c r="AF49" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="67"/>
-      <c r="AR49" s="67"/>
-      <c r="AS49" s="67"/>
-      <c r="AT49" s="67"/>
-      <c r="AU49" s="67"/>
-      <c r="AV49" s="67"/>
-      <c r="AW49" s="67"/>
-      <c r="AX49" s="67"/>
+      <c r="AG49" s="64"/>
+      <c r="AH49" s="64"/>
+      <c r="AI49" s="64"/>
+      <c r="AJ49" s="54"/>
+      <c r="AK49" s="54"/>
+      <c r="AL49" s="54"/>
+      <c r="AM49" s="54"/>
+      <c r="AN49" s="54"/>
+      <c r="AO49" s="54"/>
+      <c r="AP49" s="54"/>
+      <c r="AQ49" s="54"/>
+      <c r="AR49" s="54"/>
+      <c r="AS49" s="54"/>
+      <c r="AT49" s="54"/>
+      <c r="AU49" s="54"/>
+      <c r="AV49" s="54"/>
+      <c r="AW49" s="54"/>
+      <c r="AX49" s="54"/>
     </row>
     <row r="50" spans="1:50" ht="30" customHeight="1">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="59" t="s">
+      <c r="B50" s="56"/>
+      <c r="C50" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="60" t="s">
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
-      <c r="R50" s="60" t="s">
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S50" s="60"/>
-      <c r="T50" s="61" t="s">
+      <c r="S50" s="58"/>
+      <c r="T50" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="64" t="s">
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="64" t="s">
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="65" t="s">
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE50" s="65"/>
-      <c r="AF50" s="66" t="s">
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="67"/>
-      <c r="AN50" s="67"/>
-      <c r="AO50" s="67"/>
-      <c r="AP50" s="67"/>
-      <c r="AQ50" s="67"/>
-      <c r="AR50" s="67"/>
-      <c r="AS50" s="67"/>
-      <c r="AT50" s="67"/>
-      <c r="AU50" s="67"/>
-      <c r="AV50" s="67"/>
-      <c r="AW50" s="67"/>
-      <c r="AX50" s="67"/>
-    </row>
-    <row r="51" spans="1:50" ht="41.25" customHeight="1">
-      <c r="A51" s="58" t="s">
+      <c r="AG50" s="64"/>
+      <c r="AH50" s="64"/>
+      <c r="AI50" s="64"/>
+      <c r="AJ50" s="54"/>
+      <c r="AK50" s="54"/>
+      <c r="AL50" s="54"/>
+      <c r="AM50" s="54"/>
+      <c r="AN50" s="54"/>
+      <c r="AO50" s="54"/>
+      <c r="AP50" s="54"/>
+      <c r="AQ50" s="54"/>
+      <c r="AR50" s="54"/>
+      <c r="AS50" s="54"/>
+      <c r="AT50" s="54"/>
+      <c r="AU50" s="54"/>
+      <c r="AV50" s="54"/>
+      <c r="AW50" s="54"/>
+      <c r="AX50" s="54"/>
+    </row>
+    <row r="51" spans="1:50" ht="30" customHeight="1">
+      <c r="A51" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59" t="s">
+      <c r="B51" s="56"/>
+      <c r="C51" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60" t="s">
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60" t="s">
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="60"/>
-      <c r="T51" s="61" t="s">
+      <c r="S51" s="58"/>
+      <c r="T51" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="63"/>
-      <c r="X51" s="64" t="s">
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="64" t="s">
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="62"/>
+      <c r="AA51" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="65" t="s">
+      <c r="AB51" s="62"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE51" s="65"/>
-      <c r="AF51" s="66" t="s">
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG51" s="66"/>
-      <c r="AH51" s="66"/>
-      <c r="AI51" s="66"/>
-      <c r="AJ51" s="67" t="s">
+      <c r="AG51" s="64"/>
+      <c r="AH51" s="64"/>
+      <c r="AI51" s="64"/>
+      <c r="AJ51" s="54"/>
+      <c r="AK51" s="54"/>
+      <c r="AL51" s="54"/>
+      <c r="AM51" s="54"/>
+      <c r="AN51" s="54"/>
+      <c r="AO51" s="54"/>
+      <c r="AP51" s="54"/>
+      <c r="AQ51" s="54"/>
+      <c r="AR51" s="54"/>
+      <c r="AS51" s="54"/>
+      <c r="AT51" s="54"/>
+      <c r="AU51" s="54"/>
+      <c r="AV51" s="54"/>
+      <c r="AW51" s="54"/>
+      <c r="AX51" s="54"/>
+    </row>
+    <row r="52" spans="1:50" ht="41.25" customHeight="1">
+      <c r="A52" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="67"/>
-      <c r="AM51" s="67"/>
-      <c r="AN51" s="67"/>
-      <c r="AO51" s="67"/>
-      <c r="AP51" s="67"/>
-      <c r="AQ51" s="67"/>
-      <c r="AR51" s="67"/>
-      <c r="AS51" s="67"/>
-      <c r="AT51" s="67"/>
-      <c r="AU51" s="67"/>
-      <c r="AV51" s="67"/>
-      <c r="AW51" s="67"/>
-      <c r="AX51" s="67"/>
-    </row>
-    <row r="52" spans="1:50" ht="30" customHeight="1">
-      <c r="A52" s="58" t="s">
+      <c r="B52" s="56"/>
+      <c r="C52" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="59" t="s">
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="58"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="58"/>
+      <c r="T52" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y52" s="62"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB52" s="62"/>
+      <c r="AC52" s="62"/>
+      <c r="AD52" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG52" s="64"/>
+      <c r="AH52" s="64"/>
+      <c r="AI52" s="64"/>
+      <c r="AJ52" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="60" t="s">
+      <c r="AK52" s="54"/>
+      <c r="AL52" s="54"/>
+      <c r="AM52" s="54"/>
+      <c r="AN52" s="54"/>
+      <c r="AO52" s="54"/>
+      <c r="AP52" s="54"/>
+      <c r="AQ52" s="54"/>
+      <c r="AR52" s="54"/>
+      <c r="AS52" s="54"/>
+      <c r="AT52" s="54"/>
+      <c r="AU52" s="54"/>
+      <c r="AV52" s="54"/>
+      <c r="AW52" s="54"/>
+      <c r="AX52" s="54"/>
+    </row>
+    <row r="53" spans="1:50" ht="37.5" customHeight="1">
+      <c r="A53" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60" t="s">
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S52" s="60"/>
-      <c r="T52" s="61" t="s">
+      <c r="S53" s="58"/>
+      <c r="T53" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="64" t="s">
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y52" s="64"/>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="64" t="s">
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="64"/>
-      <c r="AD52" s="65" t="s">
+      <c r="AB53" s="62"/>
+      <c r="AC53" s="62"/>
+      <c r="AD53" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE52" s="65"/>
-      <c r="AF52" s="66" t="s">
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG52" s="66"/>
-      <c r="AH52" s="66"/>
-      <c r="AI52" s="66"/>
-      <c r="AJ52" s="67"/>
-      <c r="AK52" s="67"/>
-      <c r="AL52" s="67"/>
-      <c r="AM52" s="67"/>
-      <c r="AN52" s="67"/>
-      <c r="AO52" s="67"/>
-      <c r="AP52" s="67"/>
-      <c r="AQ52" s="67"/>
-      <c r="AR52" s="67"/>
-      <c r="AS52" s="67"/>
-      <c r="AT52" s="67"/>
-      <c r="AU52" s="67"/>
-      <c r="AV52" s="67"/>
-      <c r="AW52" s="67"/>
-      <c r="AX52" s="67"/>
-    </row>
-    <row r="53" spans="1:50" ht="30" customHeight="1">
-      <c r="A53" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="60" t="s">
+      <c r="AG53" s="64"/>
+      <c r="AH53" s="64"/>
+      <c r="AI53" s="64"/>
+      <c r="AJ53" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK53" s="54"/>
+      <c r="AL53" s="54"/>
+      <c r="AM53" s="54"/>
+      <c r="AN53" s="54"/>
+      <c r="AO53" s="54"/>
+      <c r="AP53" s="54"/>
+      <c r="AQ53" s="54"/>
+      <c r="AR53" s="54"/>
+      <c r="AS53" s="54"/>
+      <c r="AT53" s="54"/>
+      <c r="AU53" s="54"/>
+      <c r="AV53" s="54"/>
+      <c r="AW53" s="54"/>
+      <c r="AX53" s="54"/>
+    </row>
+    <row r="54" spans="1:50" ht="30" customHeight="1">
+      <c r="A54" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60" t="s">
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S53" s="60"/>
-      <c r="T53" s="61" t="s">
+      <c r="S54" s="58"/>
+      <c r="T54" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="63"/>
-      <c r="X53" s="64" t="s">
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y53" s="64"/>
-      <c r="Z53" s="64"/>
-      <c r="AA53" s="64" t="s">
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB53" s="64"/>
-      <c r="AC53" s="64"/>
-      <c r="AD53" s="65" t="s">
+      <c r="AB54" s="62"/>
+      <c r="AC54" s="62"/>
+      <c r="AD54" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE53" s="65"/>
-      <c r="AF53" s="66" t="s">
+      <c r="AE54" s="63"/>
+      <c r="AF54" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG53" s="66"/>
-      <c r="AH53" s="66"/>
-      <c r="AI53" s="66"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="67"/>
-      <c r="AM53" s="67"/>
-      <c r="AN53" s="67"/>
-      <c r="AO53" s="67"/>
-      <c r="AP53" s="67"/>
-      <c r="AQ53" s="67"/>
-      <c r="AR53" s="67"/>
-      <c r="AS53" s="67"/>
-      <c r="AT53" s="67"/>
-      <c r="AU53" s="67"/>
-      <c r="AV53" s="67"/>
-      <c r="AW53" s="67"/>
-      <c r="AX53" s="67"/>
-    </row>
-    <row r="54" spans="1:50" ht="30" customHeight="1">
-      <c r="A54" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="58"/>
-      <c r="C54" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="60" t="s">
+      <c r="AG54" s="64"/>
+      <c r="AH54" s="64"/>
+      <c r="AI54" s="64"/>
+      <c r="AJ54" s="54"/>
+      <c r="AK54" s="54"/>
+      <c r="AL54" s="54"/>
+      <c r="AM54" s="54"/>
+      <c r="AN54" s="54"/>
+      <c r="AO54" s="54"/>
+      <c r="AP54" s="54"/>
+      <c r="AQ54" s="54"/>
+      <c r="AR54" s="54"/>
+      <c r="AS54" s="54"/>
+      <c r="AT54" s="54"/>
+      <c r="AU54" s="54"/>
+      <c r="AV54" s="54"/>
+      <c r="AW54" s="54"/>
+      <c r="AX54" s="54"/>
+    </row>
+    <row r="55" spans="1:50" ht="30" customHeight="1">
+      <c r="A55" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60" t="s">
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="S54" s="60"/>
-      <c r="T54" s="61" t="s">
+      <c r="S55" s="58"/>
+      <c r="T55" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="63"/>
-      <c r="X54" s="64" t="s">
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="61"/>
+      <c r="X55" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Y54" s="64"/>
-      <c r="Z54" s="64"/>
-      <c r="AA54" s="64" t="s">
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB54" s="64"/>
-      <c r="AC54" s="64"/>
-      <c r="AD54" s="65" t="s">
+      <c r="AB55" s="62"/>
+      <c r="AC55" s="62"/>
+      <c r="AD55" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AE54" s="65"/>
-      <c r="AF54" s="66" t="s">
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AG54" s="66"/>
-      <c r="AH54" s="66"/>
-      <c r="AI54" s="66"/>
-      <c r="AJ54" s="67"/>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="67"/>
-      <c r="AM54" s="67"/>
-      <c r="AN54" s="67"/>
-      <c r="AO54" s="67"/>
-      <c r="AP54" s="67"/>
-      <c r="AQ54" s="67"/>
-      <c r="AR54" s="67"/>
-      <c r="AS54" s="67"/>
-      <c r="AT54" s="67"/>
-      <c r="AU54" s="67"/>
-      <c r="AV54" s="67"/>
-      <c r="AW54" s="67"/>
-      <c r="AX54" s="67"/>
-    </row>
-    <row r="55" spans="1:50" ht="18.75">
-      <c r="A55" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="72"/>
-      <c r="Z55" s="72"/>
-      <c r="AA55" s="72"/>
-      <c r="AB55" s="72"/>
-      <c r="AC55" s="72"/>
-      <c r="AD55" s="72"/>
-      <c r="AE55" s="72"/>
-      <c r="AF55" s="72"/>
-      <c r="AG55" s="72"/>
-      <c r="AH55" s="72"/>
-      <c r="AI55" s="72"/>
-      <c r="AJ55" s="72"/>
-      <c r="AK55" s="72"/>
-      <c r="AL55" s="72"/>
-      <c r="AM55" s="72"/>
-      <c r="AN55" s="72"/>
-      <c r="AO55" s="72"/>
-      <c r="AP55" s="72"/>
-      <c r="AQ55" s="72"/>
-      <c r="AR55" s="72"/>
-      <c r="AS55" s="72"/>
-      <c r="AT55" s="72"/>
-      <c r="AU55" s="72"/>
-      <c r="AV55" s="72"/>
-      <c r="AW55" s="72"/>
-      <c r="AX55" s="72"/>
+      <c r="AG55" s="64"/>
+      <c r="AH55" s="64"/>
+      <c r="AI55" s="64"/>
+      <c r="AJ55" s="54"/>
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="54"/>
+      <c r="AM55" s="54"/>
+      <c r="AN55" s="54"/>
+      <c r="AO55" s="54"/>
+      <c r="AP55" s="54"/>
+      <c r="AQ55" s="54"/>
+      <c r="AR55" s="54"/>
+      <c r="AS55" s="54"/>
+      <c r="AT55" s="54"/>
+      <c r="AU55" s="54"/>
+      <c r="AV55" s="54"/>
+      <c r="AW55" s="54"/>
+      <c r="AX55" s="54"/>
     </row>
     <row r="56" spans="1:50" ht="18.75">
-      <c r="A56" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="80"/>
-      <c r="S56" s="80"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="80"/>
-      <c r="AA56" s="80"/>
-      <c r="AB56" s="80"/>
-      <c r="AC56" s="80"/>
-      <c r="AD56" s="80"/>
-      <c r="AE56" s="80"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
-      <c r="AH56" s="80"/>
-      <c r="AI56" s="80"/>
-      <c r="AJ56" s="80"/>
-      <c r="AK56" s="80"/>
-      <c r="AL56" s="80"/>
-      <c r="AM56" s="80"/>
-      <c r="AN56" s="80"/>
-      <c r="AO56" s="80"/>
-      <c r="AP56" s="80"/>
-      <c r="AQ56" s="80"/>
-      <c r="AR56" s="80"/>
-      <c r="AS56" s="80"/>
-      <c r="AT56" s="80"/>
-      <c r="AU56" s="80"/>
-      <c r="AV56" s="80"/>
-      <c r="AW56" s="80"/>
-      <c r="AX56" s="80"/>
+      <c r="A56" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="75"/>
+      <c r="U56" s="75"/>
+      <c r="V56" s="75"/>
+      <c r="W56" s="75"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="75"/>
+      <c r="Z56" s="75"/>
+      <c r="AA56" s="75"/>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="75"/>
+      <c r="AD56" s="75"/>
+      <c r="AE56" s="75"/>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75"/>
+      <c r="AH56" s="75"/>
+      <c r="AI56" s="75"/>
+      <c r="AJ56" s="75"/>
+      <c r="AK56" s="75"/>
+      <c r="AL56" s="75"/>
+      <c r="AM56" s="75"/>
+      <c r="AN56" s="75"/>
+      <c r="AO56" s="75"/>
+      <c r="AP56" s="75"/>
+      <c r="AQ56" s="75"/>
+      <c r="AR56" s="75"/>
+      <c r="AS56" s="75"/>
+      <c r="AT56" s="75"/>
+      <c r="AU56" s="75"/>
+      <c r="AV56" s="75"/>
+      <c r="AW56" s="75"/>
+      <c r="AX56" s="75"/>
     </row>
     <row r="57" spans="1:50" ht="18.75">
-      <c r="A57" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="80" t="s">
+      <c r="A57" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
-      <c r="S57" s="80"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
-      <c r="AA57" s="80"/>
-      <c r="AB57" s="80"/>
-      <c r="AC57" s="80"/>
-      <c r="AD57" s="80"/>
-      <c r="AE57" s="80"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="80"/>
-      <c r="AH57" s="80"/>
-      <c r="AI57" s="80"/>
-      <c r="AJ57" s="80"/>
-      <c r="AK57" s="80"/>
-      <c r="AL57" s="80"/>
-      <c r="AM57" s="80"/>
-      <c r="AN57" s="80"/>
-      <c r="AO57" s="80"/>
-      <c r="AP57" s="80"/>
-      <c r="AQ57" s="80"/>
-      <c r="AR57" s="80"/>
-      <c r="AS57" s="80"/>
-      <c r="AT57" s="80"/>
-      <c r="AU57" s="80"/>
-      <c r="AV57" s="80"/>
-      <c r="AW57" s="80"/>
-      <c r="AX57" s="80"/>
-    </row>
-    <row r="58" spans="1:50" ht="161.25" customHeight="1">
-      <c r="A58" s="70" t="s">
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="80" t="s">
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
+      <c r="AE57" s="67"/>
+      <c r="AF57" s="67"/>
+      <c r="AG57" s="67"/>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+      <c r="AJ57" s="67"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="67"/>
+      <c r="AM57" s="67"/>
+      <c r="AN57" s="67"/>
+      <c r="AO57" s="67"/>
+      <c r="AP57" s="67"/>
+      <c r="AQ57" s="67"/>
+      <c r="AR57" s="67"/>
+      <c r="AS57" s="67"/>
+      <c r="AT57" s="67"/>
+      <c r="AU57" s="67"/>
+      <c r="AV57" s="67"/>
+      <c r="AW57" s="67"/>
+      <c r="AX57" s="67"/>
+    </row>
+    <row r="58" spans="1:50" ht="18.75">
+      <c r="A58" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
-      <c r="AA58" s="80"/>
-      <c r="AB58" s="80"/>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="80"/>
-      <c r="AE58" s="80"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="80"/>
-      <c r="AH58" s="80"/>
-      <c r="AI58" s="80"/>
-      <c r="AJ58" s="80"/>
-      <c r="AK58" s="80"/>
-      <c r="AL58" s="80"/>
-      <c r="AM58" s="80"/>
-      <c r="AN58" s="80"/>
-      <c r="AO58" s="80"/>
-      <c r="AP58" s="80"/>
-      <c r="AQ58" s="80"/>
-      <c r="AR58" s="80"/>
-      <c r="AS58" s="80"/>
-      <c r="AT58" s="80"/>
-      <c r="AU58" s="80"/>
-      <c r="AV58" s="80"/>
-      <c r="AW58" s="80"/>
-      <c r="AX58" s="80"/>
-    </row>
-    <row r="59" spans="1:50" ht="117" customHeight="1">
-      <c r="A59" s="70" t="s">
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70" t="s">
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
+      <c r="AE58" s="67"/>
+      <c r="AF58" s="67"/>
+      <c r="AG58" s="67"/>
+      <c r="AH58" s="67"/>
+      <c r="AI58" s="67"/>
+      <c r="AJ58" s="67"/>
+      <c r="AK58" s="67"/>
+      <c r="AL58" s="67"/>
+      <c r="AM58" s="67"/>
+      <c r="AN58" s="67"/>
+      <c r="AO58" s="67"/>
+      <c r="AP58" s="67"/>
+      <c r="AQ58" s="67"/>
+      <c r="AR58" s="67"/>
+      <c r="AS58" s="67"/>
+      <c r="AT58" s="67"/>
+      <c r="AU58" s="67"/>
+      <c r="AV58" s="67"/>
+      <c r="AW58" s="67"/>
+      <c r="AX58" s="67"/>
+    </row>
+    <row r="59" spans="1:50" ht="161.25" customHeight="1">
+      <c r="A59" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="70"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="70"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="70"/>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="70"/>
-      <c r="AG59" s="70"/>
-      <c r="AH59" s="70"/>
-      <c r="AI59" s="70"/>
-      <c r="AJ59" s="70"/>
-      <c r="AK59" s="70"/>
-      <c r="AL59" s="70"/>
-      <c r="AM59" s="70"/>
-      <c r="AN59" s="70"/>
-      <c r="AO59" s="70"/>
-      <c r="AP59" s="70"/>
-      <c r="AQ59" s="70"/>
-      <c r="AR59" s="70"/>
-      <c r="AS59" s="70"/>
-      <c r="AT59" s="70"/>
-      <c r="AU59" s="70"/>
-      <c r="AV59" s="70"/>
-      <c r="AW59" s="70"/>
-      <c r="AX59" s="70"/>
-    </row>
-    <row r="60" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A60" s="70" t="s">
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="71" t="s">
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
+      <c r="AE59" s="67"/>
+      <c r="AF59" s="67"/>
+      <c r="AG59" s="67"/>
+      <c r="AH59" s="67"/>
+      <c r="AI59" s="67"/>
+      <c r="AJ59" s="67"/>
+      <c r="AK59" s="67"/>
+      <c r="AL59" s="67"/>
+      <c r="AM59" s="67"/>
+      <c r="AN59" s="67"/>
+      <c r="AO59" s="67"/>
+      <c r="AP59" s="67"/>
+      <c r="AQ59" s="67"/>
+      <c r="AR59" s="67"/>
+      <c r="AS59" s="67"/>
+      <c r="AT59" s="67"/>
+      <c r="AU59" s="67"/>
+      <c r="AV59" s="67"/>
+      <c r="AW59" s="67"/>
+      <c r="AX59" s="67"/>
+    </row>
+    <row r="60" spans="1:50" ht="98.25" customHeight="1">
+      <c r="A60" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="70"/>
-      <c r="S60" s="70"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="70"/>
-      <c r="AE60" s="70"/>
-      <c r="AF60" s="70"/>
-      <c r="AG60" s="70"/>
-      <c r="AH60" s="70"/>
-      <c r="AI60" s="70"/>
-      <c r="AJ60" s="70"/>
-      <c r="AK60" s="70"/>
-      <c r="AL60" s="70"/>
-      <c r="AM60" s="70"/>
-      <c r="AN60" s="70"/>
-      <c r="AO60" s="70"/>
-      <c r="AP60" s="70"/>
-      <c r="AQ60" s="70"/>
-      <c r="AR60" s="70"/>
-      <c r="AS60" s="70"/>
-      <c r="AT60" s="70"/>
-      <c r="AU60" s="70"/>
-      <c r="AV60" s="70"/>
-      <c r="AW60" s="70"/>
-      <c r="AX60" s="70"/>
-    </row>
-    <row r="61" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A61" s="70" t="s">
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="71" t="s">
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="55"/>
+      <c r="AJ60" s="55"/>
+      <c r="AK60" s="55"/>
+      <c r="AL60" s="55"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="55"/>
+      <c r="AQ60" s="55"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="55"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="55"/>
+      <c r="AW60" s="55"/>
+      <c r="AX60" s="55"/>
+    </row>
+    <row r="61" spans="1:50" ht="117" customHeight="1">
+      <c r="A61" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="70"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="70"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="70"/>
-      <c r="AE61" s="70"/>
-      <c r="AF61" s="70"/>
-      <c r="AG61" s="70"/>
-      <c r="AH61" s="70"/>
-      <c r="AI61" s="70"/>
-      <c r="AJ61" s="70"/>
-      <c r="AK61" s="70"/>
-      <c r="AL61" s="70"/>
-      <c r="AM61" s="70"/>
-      <c r="AN61" s="70"/>
-      <c r="AO61" s="70"/>
-      <c r="AP61" s="70"/>
-      <c r="AQ61" s="70"/>
-      <c r="AR61" s="70"/>
-      <c r="AS61" s="70"/>
-      <c r="AT61" s="70"/>
-      <c r="AU61" s="70"/>
-      <c r="AV61" s="70"/>
-      <c r="AW61" s="70"/>
-      <c r="AX61" s="70"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="55"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="55"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="55"/>
+      <c r="AE61" s="55"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="55"/>
+      <c r="AJ61" s="55"/>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="55"/>
+      <c r="AP61" s="55"/>
+      <c r="AQ61" s="55"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="55"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="55"/>
+      <c r="AV61" s="55"/>
+      <c r="AW61" s="55"/>
+      <c r="AX61" s="55"/>
     </row>
     <row r="62" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A62" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="71" t="s">
+      <c r="A62" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="70"/>
-      <c r="S62" s="70"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="70"/>
-      <c r="AE62" s="70"/>
-      <c r="AF62" s="70"/>
-      <c r="AG62" s="70"/>
-      <c r="AH62" s="70"/>
-      <c r="AI62" s="70"/>
-      <c r="AJ62" s="70"/>
-      <c r="AK62" s="70"/>
-      <c r="AL62" s="70"/>
-      <c r="AM62" s="70"/>
-      <c r="AN62" s="70"/>
-      <c r="AO62" s="70"/>
-      <c r="AP62" s="70"/>
-      <c r="AQ62" s="70"/>
-      <c r="AR62" s="70"/>
-      <c r="AS62" s="70"/>
-      <c r="AT62" s="70"/>
-      <c r="AU62" s="70"/>
-      <c r="AV62" s="70"/>
-      <c r="AW62" s="70"/>
-      <c r="AX62" s="70"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="55"/>
+      <c r="AK62" s="55"/>
+      <c r="AL62" s="55"/>
+      <c r="AM62" s="55"/>
+      <c r="AN62" s="55"/>
+      <c r="AO62" s="55"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="55"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="55"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="55"/>
+      <c r="AV62" s="55"/>
+      <c r="AW62" s="55"/>
+      <c r="AX62" s="55"/>
     </row>
     <row r="63" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A63" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="71" t="s">
+      <c r="A63" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="70"/>
-      <c r="S63" s="70"/>
-      <c r="T63" s="70"/>
-      <c r="U63" s="70"/>
-      <c r="V63" s="70"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="70"/>
-      <c r="Y63" s="70"/>
-      <c r="Z63" s="70"/>
-      <c r="AA63" s="70"/>
-      <c r="AB63" s="70"/>
-      <c r="AC63" s="70"/>
-      <c r="AD63" s="70"/>
-      <c r="AE63" s="70"/>
-      <c r="AF63" s="70"/>
-      <c r="AG63" s="70"/>
-      <c r="AH63" s="70"/>
-      <c r="AI63" s="70"/>
-      <c r="AJ63" s="70"/>
-      <c r="AK63" s="70"/>
-      <c r="AL63" s="70"/>
-      <c r="AM63" s="70"/>
-      <c r="AN63" s="70"/>
-      <c r="AO63" s="70"/>
-      <c r="AP63" s="70"/>
-      <c r="AQ63" s="70"/>
-      <c r="AR63" s="70"/>
-      <c r="AS63" s="70"/>
-      <c r="AT63" s="70"/>
-      <c r="AU63" s="70"/>
-      <c r="AV63" s="70"/>
-      <c r="AW63" s="70"/>
-      <c r="AX63" s="70"/>
-    </row>
-    <row r="64" spans="1:50" ht="18.75"/>
-    <row r="65" ht="18.75"/>
-    <row r="66" ht="18.75"/>
-    <row r="67" ht="18.75"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="55"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="55"/>
+      <c r="AX63" s="55"/>
+    </row>
+    <row r="64" spans="1:50" ht="153.75" customHeight="1">
+      <c r="A64" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="55"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="55"/>
+      <c r="AD64" s="55"/>
+      <c r="AE64" s="55"/>
+      <c r="AF64" s="55"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="55"/>
+      <c r="AJ64" s="55"/>
+      <c r="AK64" s="55"/>
+      <c r="AL64" s="55"/>
+      <c r="AM64" s="55"/>
+      <c r="AN64" s="55"/>
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="55"/>
+      <c r="AX64" s="55"/>
+    </row>
+    <row r="65" spans="1:50" ht="153.75" customHeight="1">
+      <c r="A65" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="55"/>
+      <c r="Y65" s="55"/>
+      <c r="Z65" s="55"/>
+      <c r="AA65" s="55"/>
+      <c r="AB65" s="55"/>
+      <c r="AC65" s="55"/>
+      <c r="AD65" s="55"/>
+      <c r="AE65" s="55"/>
+      <c r="AF65" s="55"/>
+      <c r="AG65" s="55"/>
+      <c r="AH65" s="55"/>
+      <c r="AI65" s="55"/>
+      <c r="AJ65" s="55"/>
+      <c r="AK65" s="55"/>
+      <c r="AL65" s="55"/>
+      <c r="AM65" s="55"/>
+      <c r="AN65" s="55"/>
+      <c r="AO65" s="55"/>
+      <c r="AP65" s="55"/>
+      <c r="AQ65" s="55"/>
+      <c r="AR65" s="55"/>
+      <c r="AS65" s="55"/>
+      <c r="AT65" s="55"/>
+      <c r="AU65" s="55"/>
+      <c r="AV65" s="55"/>
+      <c r="AW65" s="55"/>
+      <c r="AX65" s="55"/>
+    </row>
+    <row r="66" spans="1:50" ht="18.75"/>
+    <row r="67" spans="1:50" ht="18.75"/>
+    <row r="68" spans="1:50" ht="18.75"/>
+    <row r="69" spans="1:50" ht="18.75"/>
   </sheetData>
-  <mergeCells count="207">
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="L59:AX59"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="L61:AX61"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="L60:AX60"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L62:AX62"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AE54"/>
-    <mergeCell ref="AF54:AI54"/>
-    <mergeCell ref="AJ54:AX54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:W54"/>
+  <mergeCells count="219">
+    <mergeCell ref="A3:AX3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AX1"/>
+    <mergeCell ref="A2:AX2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="AJ39:AX39"/>
+    <mergeCell ref="A4:AX4"/>
+    <mergeCell ref="A5:AX34"/>
+    <mergeCell ref="A35:AX35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AJ36:AX36"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AJ37:AX37"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="L65:AX65"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AJ38:AX38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A56:AX56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="L57:AX57"/>
     <mergeCell ref="A58:K58"/>
-    <mergeCell ref="L58:AX58"/>
-    <mergeCell ref="L57:AX57"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="AD53:AE53"/>
-    <mergeCell ref="AF53:AI53"/>
-    <mergeCell ref="AJ53:AX53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AF52:AI52"/>
-    <mergeCell ref="AJ52:AX52"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AI51"/>
-    <mergeCell ref="AJ51:AX51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="L51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AI50"/>
-    <mergeCell ref="AJ50:AX50"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AF49:AI49"/>
-    <mergeCell ref="AJ49:AX49"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AJ41:AX41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AF42:AI42"/>
+    <mergeCell ref="AJ42:AX42"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AJ40:AX40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AJ43:AX43"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AJ44:AX44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="AJ45:AX45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:W45"/>
     <mergeCell ref="A40:B49"/>
     <mergeCell ref="X48:Z48"/>
     <mergeCell ref="AA48:AC48"/>
@@ -10546,132 +11082,101 @@
     <mergeCell ref="AD46:AE46"/>
     <mergeCell ref="AF46:AI46"/>
     <mergeCell ref="AJ46:AX46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="AJ45:AX45"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AJ44:AX44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AJ43:AX43"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AJ40:AX40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="AJ41:AX41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AF42:AI42"/>
-    <mergeCell ref="AJ42:AX42"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AF49:AI49"/>
+    <mergeCell ref="AJ49:AX49"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AI51"/>
+    <mergeCell ref="AJ51:AX51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AJ53:AX53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AJ52:AX52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="L61:AX61"/>
     <mergeCell ref="A63:K63"/>
     <mergeCell ref="L63:AX63"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AJ38:AX38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A55:AX55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="L56:AX56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AJ36:AX36"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AJ37:AX37"/>
-    <mergeCell ref="A3:AX3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AX1"/>
-    <mergeCell ref="A2:AX2"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="AJ39:AX39"/>
-    <mergeCell ref="A4:AX4"/>
-    <mergeCell ref="A5:AX34"/>
-    <mergeCell ref="A35:AX35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:AX62"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="L64:AX64"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AF55:AI55"/>
+    <mergeCell ref="AJ55:AX55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="L59:AX59"/>
+    <mergeCell ref="L58:AX58"/>
+    <mergeCell ref="AJ50:AX50"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="L60:AX60"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AI50"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="AJ54:AX54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AC53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:Q54" xr:uid="{F24F39D4-4BA3-4A39-88C7-FF6A3C30C493}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:Q55" xr:uid="{F24F39D4-4BA3-4A39-88C7-FF6A3C30C493}">
       <formula1>"テキストボックス,パスワードボックス,プルダウン,ラジオボタン,チェックボックス,ボタン,リンク,その他,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="R37:S54" xr:uid="{F64BAE96-527A-4B10-B40B-A3CBB9B1AE4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="R37:S55" xr:uid="{F64BAE96-527A-4B10-B40B-A3CBB9B1AE4D}">
       <formula1>"I,O,IO,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T37:W54" xr:uid="{2ED97478-D6AD-4D56-886D-F85E55D7E1C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T37:W55" xr:uid="{2ED97478-D6AD-4D56-886D-F85E55D7E1C8}">
       <formula1>"全角文字列,半角文字列,全角半角文字列,整数,小数,日付,時刻,その他,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AD37:AE54" xr:uid="{27AA91BD-0E59-41D8-A2F2-CF2E17D303BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AD37:AE55" xr:uid="{27AA91BD-0E59-41D8-A2F2-CF2E17D303BC}">
       <formula1>"〇,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="606" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0796C3-6608-4F54-B474-2BD5E182A6E3}"/>
+  <xr:revisionPtr revIDLastSave="704" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF1AEC65-2E26-4523-B44C-A2313B0EC8E5}"/>
   <bookViews>
-    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
   <si>
     <t>電卓アプリ</t>
   </si>
@@ -96,6 +96,15 @@
       <t>タントウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全て</t>
+  </si>
+  <si>
+    <t>新規作成</t>
+  </si>
+  <si>
+    <t>松永</t>
   </si>
   <si>
     <t>画面一覧表</t>
@@ -177,9 +186,6 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2回目の「＝」は✖</t>
   </si>
   <si>
     <t>項目説明</t>
@@ -269,6 +275,9 @@
     <t>O</t>
   </si>
   <si>
+    <t>半角文字列</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -354,10 +363,6 @@
     <t>乗算ボタン</t>
   </si>
   <si>
-    <t>計算式を計算するタイプではない。
-除算・割り算を優先しない。</t>
-  </si>
-  <si>
     <t>⑨</t>
   </si>
   <si>
@@ -396,7 +401,7 @@
 →「0」を上書きして、「押下した数字ボタンの値」を出力する。
 ＜①計算結果表示欄に、「0」以外の数値が入力されている場合＞
 →①計算結果表示欄に表示されている数値の末尾に、「押下した数字ボタンの値」を結合して出力する。
-＜事前に⑮～⑱の演算系のボタンを押下した場合＞
+＜事前に⑥～⑩のいずれかのボタンを押下している場合＞
 →①計算結果表示欄に、「押下した数字ボタンの値」を出力する。</t>
   </si>
   <si>
@@ -404,55 +409,47 @@
   </si>
   <si>
     <t>①計算結果表示欄に表示されている数値の末尾に、「.」を結合して出力する。
-＜①計算結果表示欄の値に、小数点ボタン押下によって結合された小数点が存在する場合＞
+＜①計算結果表示欄の値に、小数点ボタン押下によって結合された小数点が含まれている場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑤等号ボタン押下</t>
+    <t>⑥等号ボタン押下</t>
   </si>
   <si>
-    <t>①計算結果表示欄に入力されている値と、⑮～⑱の演算系のボタン押下後に入力した値の演算結果を、等号ボタン押下することで、①計算結果表示欄に出力する。
+    <t>①計算結果表示欄に入力されている値と、⑥～⑨のいずれかのボタン押下後に、①計算結果表示欄に入力した値の演算結果を、等号ボタン押下することで、①計算結果表示欄に出力する。
 ＜上記以外の場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑥除算ボタン押下</t>
+    <t>⑦除算ボタン押下</t>
   </si>
   <si>
-    <t>①計算結果表示欄に入力されている値と、除算ボタン押下後に入力した値を加算した結果を、除算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
-＜①計算結果表示欄に、「0」のみが入力されている場合＞
-→何も処理を行わない。
-＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+    <t>①計算結果表示欄に入力されている値を、除算ボタン押下後に、①計算結果表示欄に入力した値で除算した結果を、⑥～⑩のいずれかのボタンを押下することで、①計算結果表示欄に出力する。
+＜事前に⑥～⑩のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑦乗算ボタン押下</t>
+    <t>⑧乗算ボタン押下</t>
   </si>
   <si>
-    <t>①計算結果表示欄に入力されている値と、乗算ボタン押下後に入力した値を加算した結果を、乗算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
-＜①計算結果表示欄に、「0」のみが入力されている場合＞
-→何も処理を行わない。
-＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+    <t>①計算結果表示欄に入力されている値と、乗算ボタン押下後に、①計算結果表示欄に入力した値を乗算した結果を、⑥～⑩のいずれかのボタンを押下することで、①計算結果表示欄に出力する。
+＜事前に⑥～⑩のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑧減算ボタン押下</t>
+    <t>⑨減算ボタン押下</t>
   </si>
   <si>
-    <t>①計算結果表示欄に入力されている値と、減算ボタン押下後に入力した値を加算した結果を、減算ボタン、または等号ボタンを押下することで、①計算結果表示欄に出力する。
-＜①計算結果表示欄に、「0」のみが入力されている場合＞
-→何も処理を行わない。
-＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+    <t>①計算結果表示欄に入力されている値と、減算ボタン押下後に、①計算結果表示欄に入力した値を減算した結果を、⑥～⑩のいずれかのボタンを押下することで、①計算結果表示欄に出力する。
+＜事前に⑥～⑩のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑨加算ボタン押下</t>
+    <t>⑩加算ボタン押下</t>
   </si>
   <si>
-    <t>①計算結果表示欄に入力されている値と、加算ボタン押下後に入力した値を加算した結果を、加算ボタンまたは等号ボタンを押下することで、①計算結果表示欄に出力する。
-＜①計算結果表示欄に、「0」のみが入力されている場合＞
-→何も処理を行わない。
-＜事前に⑮～⑲の演算系のボタンを押下した場合＞
+    <t>①計算結果表示欄に入力されている値と、加算ボタン押下後に、①計算結果表示欄に入力した値を加算した結果を、⑥～⑩のいずれかのボタンを押下することで、①計算結果表示欄に出力する。
+＜事前に⑥～⑩のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
 </sst>
@@ -1038,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1189,11 +1186,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,16 +1225,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1252,26 +1267,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,25 +1301,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>32385</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B577E7F5-0892-CC08-0B6E-6D645FA2B3BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323FDD3B-E2AE-AD20-024D-60AF30431047}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{60DAEAC0-2AC2-4911-8A54-6B3FD9A10A68}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E1BC074-0F8A-4A9F-B272-4271FA0704EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,13 +1329,14 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="416" r="416"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491740" y="1943100"/>
-          <a:ext cx="3636645" cy="4572000"/>
+          <a:off x="2486025" y="1952625"/>
+          <a:ext cx="3676650" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,15 +1747,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1758,7 +1765,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3760B2C-AB6F-4230-B9F4-9700B3E5722F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{10DDF7C7-DA13-4723-86F7-0E98E46F5B78}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37F2525A-2E60-4C18-A8B6-59E098A08BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1773,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="5800725"/>
+          <a:off x="4324350" y="5838825"/>
           <a:ext cx="819150" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3868,177 +3875,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="四角形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103732D3-57B0-429C-9A02-EDEEF93858A9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2E24235C-E95E-4C87-810C-4EE319F3FFC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="6629400"/>
-          <a:ext cx="323850" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>⑥</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -4213,13 +4049,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4235,19 +4071,19 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="33" idx="0"/>
+          <a:stCxn id="7" idx="0"/>
           <a:endCxn id="13" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{103732D3-57B0-429C-9A02-EDEEF93858A9}" end="{A3760B2C-AB6F-4230-B9F4-9700B3E5722F}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{4E1BC074-0F8A-4A9F-B272-4271FA0704EF}" end="{A3760B2C-AB6F-4230-B9F4-9700B3E5722F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4733925" y="6334125"/>
-          <a:ext cx="9525" cy="295275"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4733925" y="6372225"/>
+          <a:ext cx="9525" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4566,16 +4402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4595,8 +4431,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2657475" y="4038600"/>
-          <a:ext cx="9525" cy="2266950"/>
+          <a:off x="2667000" y="4048125"/>
+          <a:ext cx="0" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4694,13 +4530,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4725,73 +4561,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2657475" y="6296025"/>
+          <a:off x="2657475" y="6362700"/>
           <a:ext cx="800100" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線コネクタ 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ED321B-8549-4E3F-9C32-742AC0783028}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1D2723F2-6F1C-4DFF-B559-8ED3A0FFBE57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3457575" y="5743575"/>
-          <a:ext cx="0" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4824,13 +4595,78 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ED321B-8549-4E3F-9C32-742AC0783028}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1D2723F2-6F1C-4DFF-B559-8ED3A0FFBE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3448050" y="5743575"/>
+          <a:ext cx="0" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4848,15 +4684,15 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{0487DD4C-C79B-4CCE-A59A-B397FDAA1D73}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3448050" y="5734050"/>
-          <a:ext cx="1666875" cy="0"/>
+          <a:off x="3429000" y="5753100"/>
+          <a:ext cx="1704975" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4889,13 +4725,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4920,7 +4756,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2657475" y="4029075"/>
+          <a:off x="2657475" y="4048125"/>
           <a:ext cx="2466975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4954,13 +4790,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4978,8 +4814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3495675" y="5800725"/>
-          <a:ext cx="819150" cy="533400"/>
+          <a:off x="3495675" y="5838825"/>
+          <a:ext cx="790575" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5117,15 +4953,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5143,7 +4979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="6772275"/>
+          <a:off x="4581525" y="6715125"/>
           <a:ext cx="323850" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5283,6 +5119,239 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B35B94-48DD-4CBA-85B6-4A6D457B854B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E1BC074-0F8A-4A9F-B272-4271FA0704EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="6753225"/>
+          <a:ext cx="323850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EA337A-3E85-4A13-B15B-6DF8B1E66298}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C4B35B94-48DD-4CBA-85B6-4A6D457B854B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{C4B35B94-48DD-4CBA-85B6-4A6D457B854B}" end="{0487DD4C-C79B-4CCE-A59A-B397FDAA1D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3867150" y="6372225"/>
+          <a:ext cx="23813" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6691,7 +6760,9 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
   <cols>
@@ -6747,11 +6818,21 @@
     </row>
     <row r="4" spans="1:28" ht="18.600000000000001" thickTop="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>45522</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -6868,9 +6949,9 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6878,7 +6959,7 @@
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.5" style="6"/>
-    <col min="2" max="2" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="65.5" style="6" customWidth="1"/>
@@ -6888,22 +6969,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="19.899999999999999">
       <c r="A1" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="18.600000000000001" thickBot="1"/>
     <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="18.600000000000001" thickTop="1">
@@ -6912,10 +6993,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -7141,3803 +7222,3802 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BA69"/>
+  <dimension ref="A1:AX69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA34" sqref="BA34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="52" width="2.5" style="6"/>
-    <col min="53" max="53" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2.5" style="6" customWidth="1"/>
     <col min="54" max="16384" width="2.5" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="str">
+      <c r="A1" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="str">
         <f>画面一覧表!C4</f>
         <v>電卓画面</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="78" t="str">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="54" t="str">
         <f>画面一覧表!D4</f>
         <v>calculator</v>
       </c>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
+      <c r="A2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
+      <c r="A3" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
+      <c r="A4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
     </row>
     <row r="5" spans="1:50">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
     </row>
     <row r="6" spans="1:50">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
     </row>
     <row r="7" spans="1:50">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
     </row>
     <row r="8" spans="1:50">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
     </row>
     <row r="9" spans="1:50">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
     </row>
     <row r="10" spans="1:50">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
     </row>
     <row r="11" spans="1:50">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
     </row>
     <row r="12" spans="1:50">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="62"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="62"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
     </row>
     <row r="13" spans="1:50">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
     </row>
     <row r="14" spans="1:50">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
     </row>
     <row r="15" spans="1:50">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="64"/>
     </row>
     <row r="16" spans="1:50">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-    </row>
-    <row r="17" spans="1:53">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-    </row>
-    <row r="18" spans="1:53">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-    </row>
-    <row r="19" spans="1:53">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-    </row>
-    <row r="20" spans="1:53">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-    </row>
-    <row r="21" spans="1:53">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="62"/>
-    </row>
-    <row r="22" spans="1:53">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="62"/>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="62"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
-      <c r="AT24" s="62"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="62"/>
-      <c r="AX24" s="62"/>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-    </row>
-    <row r="26" spans="1:53">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="62"/>
-    </row>
-    <row r="27" spans="1:53">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-    </row>
-    <row r="28" spans="1:53">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="62"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="62"/>
-      <c r="AM28" s="62"/>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="62"/>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-      <c r="AX28" s="62"/>
-    </row>
-    <row r="29" spans="1:53">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="62"/>
-    </row>
-    <row r="30" spans="1:53">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-      <c r="AX30" s="62"/>
-    </row>
-    <row r="31" spans="1:53">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="62"/>
-    </row>
-    <row r="32" spans="1:53">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-      <c r="AX32" s="62"/>
-      <c r="BA32" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="64"/>
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="64"/>
+      <c r="AX16" s="64"/>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="64"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="64"/>
+      <c r="AX17" s="64"/>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
+      <c r="AX18" s="64"/>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="64"/>
+      <c r="AX19" s="64"/>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="64"/>
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="64"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="64"/>
+      <c r="AW20" s="64"/>
+      <c r="AX20" s="64"/>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="64"/>
+      <c r="AW21" s="64"/>
+      <c r="AX21" s="64"/>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="64"/>
+      <c r="AO22" s="64"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="64"/>
+      <c r="AV22" s="64"/>
+      <c r="AW22" s="64"/>
+      <c r="AX22" s="64"/>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="64"/>
+      <c r="AX23" s="64"/>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="64"/>
+      <c r="AW24" s="64"/>
+      <c r="AX24" s="64"/>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+    </row>
+    <row r="28" spans="1:50">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="64"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="64"/>
+      <c r="AX30" s="64"/>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="64"/>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="64"/>
+      <c r="AX32" s="64"/>
     </row>
     <row r="33" spans="1:50">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="62"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="64"/>
+      <c r="AX33" s="64"/>
     </row>
     <row r="34" spans="1:50">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="62"/>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="62"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="64"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="64"/>
+      <c r="AV34" s="64"/>
+      <c r="AW34" s="64"/>
+      <c r="AX34" s="64"/>
     </row>
     <row r="35" spans="1:50">
-      <c r="A35" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="80"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="80"/>
-      <c r="AD35" s="80"/>
-      <c r="AE35" s="80"/>
-      <c r="AF35" s="80"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="80"/>
-      <c r="AI35" s="80"/>
-      <c r="AJ35" s="80"/>
-      <c r="AK35" s="80"/>
-      <c r="AL35" s="80"/>
-      <c r="AM35" s="80"/>
-      <c r="AN35" s="80"/>
-      <c r="AO35" s="80"/>
-      <c r="AP35" s="80"/>
-      <c r="AQ35" s="80"/>
-      <c r="AR35" s="80"/>
-      <c r="AS35" s="80"/>
-      <c r="AT35" s="80"/>
-      <c r="AU35" s="80"/>
-      <c r="AV35" s="80"/>
-      <c r="AW35" s="80"/>
-      <c r="AX35" s="80"/>
+      <c r="A35" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
     </row>
     <row r="36" spans="1:50">
-      <c r="A36" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77" t="s">
+      <c r="A36" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="77" t="s">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="77"/>
-      <c r="T36" s="77" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="U36" s="77"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="77"/>
-      <c r="X36" s="76" t="s">
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76" t="s">
+      <c r="S36" s="56"/>
+      <c r="T36" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="77" t="s">
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AE36" s="77"/>
-      <c r="AF36" s="77" t="s">
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AG36" s="77"/>
-      <c r="AH36" s="77"/>
-      <c r="AI36" s="77"/>
-      <c r="AJ36" s="77" t="s">
+      <c r="AB36" s="69"/>
+      <c r="AC36" s="69"/>
+      <c r="AD36" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AK36" s="77"/>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="77"/>
-      <c r="AN36" s="77"/>
-      <c r="AO36" s="77"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="77"/>
-      <c r="AR36" s="77"/>
-      <c r="AS36" s="77"/>
-      <c r="AT36" s="77"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="77"/>
-      <c r="AW36" s="77"/>
-      <c r="AX36" s="77"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="56"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
+      <c r="AX36" s="56"/>
     </row>
     <row r="37" spans="1:50" ht="30" customHeight="1">
-      <c r="A37" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58" t="s">
+      <c r="A37" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="S37" s="58"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62">
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="S37" s="60"/>
+      <c r="T37" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="64">
+        <v>12</v>
+      </c>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64">
         <v>1</v>
       </c>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE37" s="63"/>
-      <c r="AF37" s="64">
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="66">
         <v>0</v>
       </c>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="54"/>
-      <c r="AS37" s="54"/>
-      <c r="AT37" s="54"/>
-      <c r="AU37" s="54"/>
-      <c r="AV37" s="54"/>
-      <c r="AW37" s="54"/>
-      <c r="AX37" s="54"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="67"/>
+      <c r="AR37" s="67"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="67"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="67"/>
+      <c r="AX37" s="67"/>
     </row>
     <row r="38" spans="1:50" ht="30" customHeight="1">
-      <c r="A38" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57" t="s">
+      <c r="A38" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S38" s="58"/>
-      <c r="T38" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE38" s="63"/>
-      <c r="AF38" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="64"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="54"/>
-      <c r="AN38" s="54"/>
-      <c r="AO38" s="54"/>
-      <c r="AP38" s="54"/>
-      <c r="AQ38" s="54"/>
-      <c r="AR38" s="54"/>
-      <c r="AS38" s="54"/>
-      <c r="AT38" s="54"/>
-      <c r="AU38" s="54"/>
-      <c r="AV38" s="54"/>
-      <c r="AW38" s="54"/>
-      <c r="AX38" s="54"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="67"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="67"/>
+      <c r="AN38" s="67"/>
+      <c r="AO38" s="67"/>
+      <c r="AP38" s="67"/>
+      <c r="AQ38" s="67"/>
+      <c r="AR38" s="67"/>
+      <c r="AS38" s="67"/>
+      <c r="AT38" s="67"/>
+      <c r="AU38" s="67"/>
+      <c r="AV38" s="67"/>
+      <c r="AW38" s="67"/>
+      <c r="AX38" s="67"/>
     </row>
     <row r="39" spans="1:50" ht="30" customHeight="1">
-      <c r="A39" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S39" s="58"/>
-      <c r="T39" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG39" s="64"/>
-      <c r="AH39" s="64"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="54"/>
-      <c r="AK39" s="54"/>
-      <c r="AL39" s="54"/>
-      <c r="AM39" s="54"/>
-      <c r="AN39" s="54"/>
-      <c r="AO39" s="54"/>
-      <c r="AP39" s="54"/>
-      <c r="AQ39" s="54"/>
-      <c r="AR39" s="54"/>
-      <c r="AS39" s="54"/>
-      <c r="AT39" s="54"/>
-      <c r="AU39" s="54"/>
-      <c r="AV39" s="54"/>
-      <c r="AW39" s="54"/>
-      <c r="AX39" s="54"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" s="60"/>
+      <c r="T39" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="67"/>
+      <c r="AR39" s="67"/>
+      <c r="AS39" s="67"/>
+      <c r="AT39" s="67"/>
+      <c r="AU39" s="67"/>
+      <c r="AV39" s="67"/>
+      <c r="AW39" s="67"/>
+      <c r="AX39" s="67"/>
     </row>
     <row r="40" spans="1:50" ht="30" customHeight="1">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="76"/>
+      <c r="C40" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S40" s="60"/>
+      <c r="T40" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S40" s="58"/>
-      <c r="T40" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE40" s="63"/>
-      <c r="AF40" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
-      <c r="AM40" s="54"/>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="54"/>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="54"/>
-      <c r="AS40" s="54"/>
-      <c r="AT40" s="54"/>
-      <c r="AU40" s="54"/>
-      <c r="AV40" s="54"/>
-      <c r="AW40" s="54"/>
-      <c r="AX40" s="54"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="67"/>
+      <c r="AN40" s="67"/>
+      <c r="AO40" s="67"/>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="67"/>
+      <c r="AR40" s="67"/>
+      <c r="AS40" s="67"/>
+      <c r="AT40" s="67"/>
+      <c r="AU40" s="67"/>
+      <c r="AV40" s="67"/>
+      <c r="AW40" s="67"/>
+      <c r="AX40" s="67"/>
     </row>
     <row r="41" spans="1:50" ht="30" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S41" s="58"/>
-      <c r="T41" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="61"/>
-      <c r="X41" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG41" s="64"/>
-      <c r="AH41" s="64"/>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="54"/>
-      <c r="AK41" s="54"/>
-      <c r="AL41" s="54"/>
-      <c r="AM41" s="54"/>
-      <c r="AN41" s="54"/>
-      <c r="AO41" s="54"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
-      <c r="AT41" s="54"/>
-      <c r="AU41" s="54"/>
-      <c r="AV41" s="54"/>
-      <c r="AW41" s="54"/>
-      <c r="AX41" s="54"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S41" s="60"/>
+      <c r="T41" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="67"/>
+      <c r="AP41" s="67"/>
+      <c r="AQ41" s="67"/>
+      <c r="AR41" s="67"/>
+      <c r="AS41" s="67"/>
+      <c r="AT41" s="67"/>
+      <c r="AU41" s="67"/>
+      <c r="AV41" s="67"/>
+      <c r="AW41" s="67"/>
+      <c r="AX41" s="67"/>
     </row>
     <row r="42" spans="1:50" ht="30" customHeight="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S42" s="58"/>
-      <c r="T42" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="61"/>
-      <c r="X42" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE42" s="63"/>
-      <c r="AF42" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="64"/>
-      <c r="AI42" s="64"/>
-      <c r="AJ42" s="54"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="54"/>
-      <c r="AM42" s="54"/>
-      <c r="AN42" s="54"/>
-      <c r="AO42" s="54"/>
-      <c r="AP42" s="54"/>
-      <c r="AQ42" s="54"/>
-      <c r="AR42" s="54"/>
-      <c r="AS42" s="54"/>
-      <c r="AT42" s="54"/>
-      <c r="AU42" s="54"/>
-      <c r="AV42" s="54"/>
-      <c r="AW42" s="54"/>
-      <c r="AX42" s="54"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" s="60"/>
+      <c r="T42" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U42" s="62"/>
+      <c r="V42" s="62"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="67"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="67"/>
+      <c r="AN42" s="67"/>
+      <c r="AO42" s="67"/>
+      <c r="AP42" s="67"/>
+      <c r="AQ42" s="67"/>
+      <c r="AR42" s="67"/>
+      <c r="AS42" s="67"/>
+      <c r="AT42" s="67"/>
+      <c r="AU42" s="67"/>
+      <c r="AV42" s="67"/>
+      <c r="AW42" s="67"/>
+      <c r="AX42" s="67"/>
     </row>
     <row r="43" spans="1:50" ht="30" customHeight="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S43" s="58"/>
-      <c r="T43" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U43" s="60"/>
-      <c r="V43" s="60"/>
-      <c r="W43" s="61"/>
-      <c r="X43" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE43" s="63"/>
-      <c r="AF43" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG43" s="64"/>
-      <c r="AH43" s="64"/>
-      <c r="AI43" s="64"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="54"/>
-      <c r="AS43" s="54"/>
-      <c r="AT43" s="54"/>
-      <c r="AU43" s="54"/>
-      <c r="AV43" s="54"/>
-      <c r="AW43" s="54"/>
-      <c r="AX43" s="54"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S43" s="60"/>
+      <c r="T43" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U43" s="62"/>
+      <c r="V43" s="62"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE43" s="65"/>
+      <c r="AF43" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="67"/>
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="67"/>
+      <c r="AN43" s="67"/>
+      <c r="AO43" s="67"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67"/>
+      <c r="AR43" s="67"/>
+      <c r="AS43" s="67"/>
+      <c r="AT43" s="67"/>
+      <c r="AU43" s="67"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="67"/>
+      <c r="AX43" s="67"/>
     </row>
     <row r="44" spans="1:50" ht="30" customHeight="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S44" s="58"/>
-      <c r="T44" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U44" s="60"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG44" s="64"/>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="64"/>
-      <c r="AJ44" s="54"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="54"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="54"/>
-      <c r="AU44" s="54"/>
-      <c r="AV44" s="54"/>
-      <c r="AW44" s="54"/>
-      <c r="AX44" s="54"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S44" s="60"/>
+      <c r="T44" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="67"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="67"/>
+      <c r="AM44" s="67"/>
+      <c r="AN44" s="67"/>
+      <c r="AO44" s="67"/>
+      <c r="AP44" s="67"/>
+      <c r="AQ44" s="67"/>
+      <c r="AR44" s="67"/>
+      <c r="AS44" s="67"/>
+      <c r="AT44" s="67"/>
+      <c r="AU44" s="67"/>
+      <c r="AV44" s="67"/>
+      <c r="AW44" s="67"/>
+      <c r="AX44" s="67"/>
     </row>
     <row r="45" spans="1:50" ht="30" customHeight="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S45" s="58"/>
-      <c r="T45" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U45" s="60"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="61"/>
-      <c r="X45" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="64"/>
-      <c r="AI45" s="64"/>
-      <c r="AJ45" s="54"/>
-      <c r="AK45" s="54"/>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
-      <c r="AT45" s="54"/>
-      <c r="AU45" s="54"/>
-      <c r="AV45" s="54"/>
-      <c r="AW45" s="54"/>
-      <c r="AX45" s="54"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S45" s="60"/>
+      <c r="T45" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U45" s="62"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="67"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="67"/>
+      <c r="AM45" s="67"/>
+      <c r="AN45" s="67"/>
+      <c r="AO45" s="67"/>
+      <c r="AP45" s="67"/>
+      <c r="AQ45" s="67"/>
+      <c r="AR45" s="67"/>
+      <c r="AS45" s="67"/>
+      <c r="AT45" s="67"/>
+      <c r="AU45" s="67"/>
+      <c r="AV45" s="67"/>
+      <c r="AW45" s="67"/>
+      <c r="AX45" s="67"/>
     </row>
     <row r="46" spans="1:50" ht="30" customHeight="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S46" s="58"/>
-      <c r="T46" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U46" s="60"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
-      <c r="AD46" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE46" s="63"/>
-      <c r="AF46" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="64"/>
-      <c r="AI46" s="64"/>
-      <c r="AJ46" s="54"/>
-      <c r="AK46" s="54"/>
-      <c r="AL46" s="54"/>
-      <c r="AM46" s="54"/>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="54"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54"/>
-      <c r="AR46" s="54"/>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="54"/>
-      <c r="AU46" s="54"/>
-      <c r="AV46" s="54"/>
-      <c r="AW46" s="54"/>
-      <c r="AX46" s="54"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S46" s="60"/>
+      <c r="T46" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="67"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="67"/>
+      <c r="AM46" s="67"/>
+      <c r="AN46" s="67"/>
+      <c r="AO46" s="67"/>
+      <c r="AP46" s="67"/>
+      <c r="AQ46" s="67"/>
+      <c r="AR46" s="67"/>
+      <c r="AS46" s="67"/>
+      <c r="AT46" s="67"/>
+      <c r="AU46" s="67"/>
+      <c r="AV46" s="67"/>
+      <c r="AW46" s="67"/>
+      <c r="AX46" s="67"/>
     </row>
     <row r="47" spans="1:50" ht="30" customHeight="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S47" s="58"/>
-      <c r="T47" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U47" s="60"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
-      <c r="AD47" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE47" s="63"/>
-      <c r="AF47" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG47" s="64"/>
-      <c r="AH47" s="64"/>
-      <c r="AI47" s="64"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="54"/>
-      <c r="AL47" s="54"/>
-      <c r="AM47" s="54"/>
-      <c r="AN47" s="54"/>
-      <c r="AO47" s="54"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="54"/>
-      <c r="AR47" s="54"/>
-      <c r="AS47" s="54"/>
-      <c r="AT47" s="54"/>
-      <c r="AU47" s="54"/>
-      <c r="AV47" s="54"/>
-      <c r="AW47" s="54"/>
-      <c r="AX47" s="54"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S47" s="60"/>
+      <c r="T47" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE47" s="65"/>
+      <c r="AF47" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="67"/>
+      <c r="AK47" s="67"/>
+      <c r="AL47" s="67"/>
+      <c r="AM47" s="67"/>
+      <c r="AN47" s="67"/>
+      <c r="AO47" s="67"/>
+      <c r="AP47" s="67"/>
+      <c r="AQ47" s="67"/>
+      <c r="AR47" s="67"/>
+      <c r="AS47" s="67"/>
+      <c r="AT47" s="67"/>
+      <c r="AU47" s="67"/>
+      <c r="AV47" s="67"/>
+      <c r="AW47" s="67"/>
+      <c r="AX47" s="67"/>
     </row>
     <row r="48" spans="1:50" ht="30" customHeight="1">
-      <c r="A48" s="71"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S48" s="58"/>
-      <c r="T48" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB48" s="62"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE48" s="63"/>
-      <c r="AF48" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG48" s="64"/>
-      <c r="AH48" s="64"/>
-      <c r="AI48" s="64"/>
-      <c r="AJ48" s="54"/>
-      <c r="AK48" s="54"/>
-      <c r="AL48" s="54"/>
-      <c r="AM48" s="54"/>
-      <c r="AN48" s="54"/>
-      <c r="AO48" s="54"/>
-      <c r="AP48" s="54"/>
-      <c r="AQ48" s="54"/>
-      <c r="AR48" s="54"/>
-      <c r="AS48" s="54"/>
-      <c r="AT48" s="54"/>
-      <c r="AU48" s="54"/>
-      <c r="AV48" s="54"/>
-      <c r="AW48" s="54"/>
-      <c r="AX48" s="54"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S48" s="60"/>
+      <c r="T48" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="64"/>
+      <c r="AD48" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="67"/>
+      <c r="AM48" s="67"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="67"/>
+      <c r="AP48" s="67"/>
+      <c r="AQ48" s="67"/>
+      <c r="AR48" s="67"/>
+      <c r="AS48" s="67"/>
+      <c r="AT48" s="67"/>
+      <c r="AU48" s="67"/>
+      <c r="AV48" s="67"/>
+      <c r="AW48" s="67"/>
+      <c r="AX48" s="67"/>
     </row>
     <row r="49" spans="1:50" ht="30" customHeight="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S49" s="58"/>
-      <c r="T49" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U49" s="60"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="62"/>
-      <c r="AA49" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB49" s="62"/>
-      <c r="AC49" s="62"/>
-      <c r="AD49" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE49" s="63"/>
-      <c r="AF49" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG49" s="64"/>
-      <c r="AH49" s="64"/>
-      <c r="AI49" s="64"/>
-      <c r="AJ49" s="54"/>
-      <c r="AK49" s="54"/>
-      <c r="AL49" s="54"/>
-      <c r="AM49" s="54"/>
-      <c r="AN49" s="54"/>
-      <c r="AO49" s="54"/>
-      <c r="AP49" s="54"/>
-      <c r="AQ49" s="54"/>
-      <c r="AR49" s="54"/>
-      <c r="AS49" s="54"/>
-      <c r="AT49" s="54"/>
-      <c r="AU49" s="54"/>
-      <c r="AV49" s="54"/>
-      <c r="AW49" s="54"/>
-      <c r="AX49" s="54"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S49" s="60"/>
+      <c r="T49" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="64"/>
+      <c r="AD49" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE49" s="65"/>
+      <c r="AF49" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="67"/>
+      <c r="AN49" s="67"/>
+      <c r="AO49" s="67"/>
+      <c r="AP49" s="67"/>
+      <c r="AQ49" s="67"/>
+      <c r="AR49" s="67"/>
+      <c r="AS49" s="67"/>
+      <c r="AT49" s="67"/>
+      <c r="AU49" s="67"/>
+      <c r="AV49" s="67"/>
+      <c r="AW49" s="67"/>
+      <c r="AX49" s="67"/>
     </row>
     <row r="50" spans="1:50" ht="30" customHeight="1">
-      <c r="A50" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S50" s="58"/>
-      <c r="T50" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U50" s="60"/>
-      <c r="V50" s="60"/>
-      <c r="W50" s="61"/>
-      <c r="X50" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
-      <c r="AA50" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG50" s="64"/>
-      <c r="AH50" s="64"/>
-      <c r="AI50" s="64"/>
-      <c r="AJ50" s="54"/>
-      <c r="AK50" s="54"/>
-      <c r="AL50" s="54"/>
-      <c r="AM50" s="54"/>
-      <c r="AN50" s="54"/>
-      <c r="AO50" s="54"/>
-      <c r="AP50" s="54"/>
-      <c r="AQ50" s="54"/>
-      <c r="AR50" s="54"/>
-      <c r="AS50" s="54"/>
-      <c r="AT50" s="54"/>
-      <c r="AU50" s="54"/>
-      <c r="AV50" s="54"/>
-      <c r="AW50" s="54"/>
-      <c r="AX50" s="54"/>
+      <c r="A50" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S50" s="60"/>
+      <c r="T50" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB50" s="64"/>
+      <c r="AC50" s="64"/>
+      <c r="AD50" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE50" s="65"/>
+      <c r="AF50" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="67"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="67"/>
+      <c r="AM50" s="67"/>
+      <c r="AN50" s="67"/>
+      <c r="AO50" s="67"/>
+      <c r="AP50" s="67"/>
+      <c r="AQ50" s="67"/>
+      <c r="AR50" s="67"/>
+      <c r="AS50" s="67"/>
+      <c r="AT50" s="67"/>
+      <c r="AU50" s="67"/>
+      <c r="AV50" s="67"/>
+      <c r="AW50" s="67"/>
+      <c r="AX50" s="67"/>
     </row>
     <row r="51" spans="1:50" ht="30" customHeight="1">
-      <c r="A51" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S51" s="58"/>
-      <c r="T51" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U51" s="60"/>
-      <c r="V51" s="60"/>
-      <c r="W51" s="61"/>
-      <c r="X51" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE51" s="63"/>
-      <c r="AF51" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="64"/>
-      <c r="AI51" s="64"/>
-      <c r="AJ51" s="54"/>
-      <c r="AK51" s="54"/>
-      <c r="AL51" s="54"/>
-      <c r="AM51" s="54"/>
-      <c r="AN51" s="54"/>
-      <c r="AO51" s="54"/>
-      <c r="AP51" s="54"/>
-      <c r="AQ51" s="54"/>
-      <c r="AR51" s="54"/>
-      <c r="AS51" s="54"/>
-      <c r="AT51" s="54"/>
-      <c r="AU51" s="54"/>
-      <c r="AV51" s="54"/>
-      <c r="AW51" s="54"/>
-      <c r="AX51" s="54"/>
+      <c r="A51" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S51" s="60"/>
+      <c r="T51" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE51" s="65"/>
+      <c r="AF51" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="67"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="67"/>
+      <c r="AM51" s="67"/>
+      <c r="AN51" s="67"/>
+      <c r="AO51" s="67"/>
+      <c r="AP51" s="67"/>
+      <c r="AQ51" s="67"/>
+      <c r="AR51" s="67"/>
+      <c r="AS51" s="67"/>
+      <c r="AT51" s="67"/>
+      <c r="AU51" s="67"/>
+      <c r="AV51" s="67"/>
+      <c r="AW51" s="67"/>
+      <c r="AX51" s="67"/>
     </row>
     <row r="52" spans="1:50" ht="41.25" customHeight="1">
-      <c r="A52" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S52" s="58"/>
-      <c r="T52" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U52" s="60"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="62"/>
-      <c r="AA52" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE52" s="63"/>
-      <c r="AF52" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG52" s="64"/>
-      <c r="AH52" s="64"/>
-      <c r="AI52" s="64"/>
-      <c r="AJ52" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK52" s="54"/>
-      <c r="AL52" s="54"/>
-      <c r="AM52" s="54"/>
-      <c r="AN52" s="54"/>
-      <c r="AO52" s="54"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="54"/>
-      <c r="AR52" s="54"/>
-      <c r="AS52" s="54"/>
-      <c r="AT52" s="54"/>
-      <c r="AU52" s="54"/>
-      <c r="AV52" s="54"/>
-      <c r="AW52" s="54"/>
-      <c r="AX52" s="54"/>
-    </row>
-    <row r="53" spans="1:50" ht="37.5" customHeight="1">
-      <c r="A53" s="56" t="s">
+      <c r="A52" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="57" t="s">
+      <c r="B52" s="58"/>
+      <c r="C52" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S53" s="58"/>
-      <c r="T53" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U53" s="60"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="62"/>
-      <c r="AA53" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE53" s="63"/>
-      <c r="AF53" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG53" s="64"/>
-      <c r="AH53" s="64"/>
-      <c r="AI53" s="64"/>
-      <c r="AJ53" s="68" t="s">
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S52" s="60"/>
+      <c r="T52" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE52" s="65"/>
+      <c r="AF52" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="66"/>
+      <c r="AJ52" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="AK53" s="54"/>
-      <c r="AL53" s="54"/>
-      <c r="AM53" s="54"/>
-      <c r="AN53" s="54"/>
-      <c r="AO53" s="54"/>
-      <c r="AP53" s="54"/>
-      <c r="AQ53" s="54"/>
-      <c r="AR53" s="54"/>
-      <c r="AS53" s="54"/>
-      <c r="AT53" s="54"/>
-      <c r="AU53" s="54"/>
-      <c r="AV53" s="54"/>
-      <c r="AW53" s="54"/>
-      <c r="AX53" s="54"/>
+      <c r="AK52" s="67"/>
+      <c r="AL52" s="67"/>
+      <c r="AM52" s="67"/>
+      <c r="AN52" s="67"/>
+      <c r="AO52" s="67"/>
+      <c r="AP52" s="67"/>
+      <c r="AQ52" s="67"/>
+      <c r="AR52" s="67"/>
+      <c r="AS52" s="67"/>
+      <c r="AT52" s="67"/>
+      <c r="AU52" s="67"/>
+      <c r="AV52" s="67"/>
+      <c r="AW52" s="67"/>
+      <c r="AX52" s="67"/>
+    </row>
+    <row r="53" spans="1:50" ht="30" customHeight="1">
+      <c r="A53" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="60"/>
+      <c r="T53" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
+      <c r="AA53" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="64"/>
+      <c r="AD53" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE53" s="65"/>
+      <c r="AF53" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="66"/>
+      <c r="AJ53" s="81"/>
+      <c r="AK53" s="67"/>
+      <c r="AL53" s="67"/>
+      <c r="AM53" s="67"/>
+      <c r="AN53" s="67"/>
+      <c r="AO53" s="67"/>
+      <c r="AP53" s="67"/>
+      <c r="AQ53" s="67"/>
+      <c r="AR53" s="67"/>
+      <c r="AS53" s="67"/>
+      <c r="AT53" s="67"/>
+      <c r="AU53" s="67"/>
+      <c r="AV53" s="67"/>
+      <c r="AW53" s="67"/>
+      <c r="AX53" s="67"/>
     </row>
     <row r="54" spans="1:50" ht="30" customHeight="1">
-      <c r="A54" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S54" s="58"/>
-      <c r="T54" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U54" s="60"/>
-      <c r="V54" s="60"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB54" s="62"/>
-      <c r="AC54" s="62"/>
-      <c r="AD54" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE54" s="63"/>
-      <c r="AF54" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG54" s="64"/>
-      <c r="AH54" s="64"/>
-      <c r="AI54" s="64"/>
-      <c r="AJ54" s="54"/>
-      <c r="AK54" s="54"/>
-      <c r="AL54" s="54"/>
-      <c r="AM54" s="54"/>
-      <c r="AN54" s="54"/>
-      <c r="AO54" s="54"/>
-      <c r="AP54" s="54"/>
-      <c r="AQ54" s="54"/>
-      <c r="AR54" s="54"/>
-      <c r="AS54" s="54"/>
-      <c r="AT54" s="54"/>
-      <c r="AU54" s="54"/>
-      <c r="AV54" s="54"/>
-      <c r="AW54" s="54"/>
-      <c r="AX54" s="54"/>
+      <c r="A54" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="58"/>
+      <c r="C54" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S54" s="60"/>
+      <c r="T54" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y54" s="64"/>
+      <c r="Z54" s="64"/>
+      <c r="AA54" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB54" s="64"/>
+      <c r="AC54" s="64"/>
+      <c r="AD54" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE54" s="65"/>
+      <c r="AF54" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="66"/>
+      <c r="AJ54" s="67"/>
+      <c r="AK54" s="67"/>
+      <c r="AL54" s="67"/>
+      <c r="AM54" s="67"/>
+      <c r="AN54" s="67"/>
+      <c r="AO54" s="67"/>
+      <c r="AP54" s="67"/>
+      <c r="AQ54" s="67"/>
+      <c r="AR54" s="67"/>
+      <c r="AS54" s="67"/>
+      <c r="AT54" s="67"/>
+      <c r="AU54" s="67"/>
+      <c r="AV54" s="67"/>
+      <c r="AW54" s="67"/>
+      <c r="AX54" s="67"/>
     </row>
     <row r="55" spans="1:50" ht="30" customHeight="1">
-      <c r="A55" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S55" s="58"/>
-      <c r="T55" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="U55" s="60"/>
-      <c r="V55" s="60"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y55" s="62"/>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB55" s="62"/>
-      <c r="AC55" s="62"/>
-      <c r="AD55" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE55" s="63"/>
-      <c r="AF55" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG55" s="64"/>
-      <c r="AH55" s="64"/>
-      <c r="AI55" s="64"/>
-      <c r="AJ55" s="54"/>
-      <c r="AK55" s="54"/>
-      <c r="AL55" s="54"/>
-      <c r="AM55" s="54"/>
-      <c r="AN55" s="54"/>
-      <c r="AO55" s="54"/>
-      <c r="AP55" s="54"/>
-      <c r="AQ55" s="54"/>
-      <c r="AR55" s="54"/>
-      <c r="AS55" s="54"/>
-      <c r="AT55" s="54"/>
-      <c r="AU55" s="54"/>
-      <c r="AV55" s="54"/>
-      <c r="AW55" s="54"/>
-      <c r="AX55" s="54"/>
+      <c r="A55" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S55" s="60"/>
+      <c r="T55" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y55" s="64"/>
+      <c r="Z55" s="64"/>
+      <c r="AA55" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB55" s="64"/>
+      <c r="AC55" s="64"/>
+      <c r="AD55" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE55" s="65"/>
+      <c r="AF55" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="66"/>
+      <c r="AJ55" s="67"/>
+      <c r="AK55" s="67"/>
+      <c r="AL55" s="67"/>
+      <c r="AM55" s="67"/>
+      <c r="AN55" s="67"/>
+      <c r="AO55" s="67"/>
+      <c r="AP55" s="67"/>
+      <c r="AQ55" s="67"/>
+      <c r="AR55" s="67"/>
+      <c r="AS55" s="67"/>
+      <c r="AT55" s="67"/>
+      <c r="AU55" s="67"/>
+      <c r="AV55" s="67"/>
+      <c r="AW55" s="67"/>
+      <c r="AX55" s="67"/>
     </row>
     <row r="56" spans="1:50" ht="18.75">
-      <c r="A56" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="75"/>
-      <c r="T56" s="75"/>
-      <c r="U56" s="75"/>
-      <c r="V56" s="75"/>
-      <c r="W56" s="75"/>
-      <c r="X56" s="75"/>
-      <c r="Y56" s="75"/>
-      <c r="Z56" s="75"/>
-      <c r="AA56" s="75"/>
-      <c r="AB56" s="75"/>
-      <c r="AC56" s="75"/>
-      <c r="AD56" s="75"/>
-      <c r="AE56" s="75"/>
-      <c r="AF56" s="75"/>
-      <c r="AG56" s="75"/>
-      <c r="AH56" s="75"/>
-      <c r="AI56" s="75"/>
-      <c r="AJ56" s="75"/>
-      <c r="AK56" s="75"/>
-      <c r="AL56" s="75"/>
-      <c r="AM56" s="75"/>
-      <c r="AN56" s="75"/>
-      <c r="AO56" s="75"/>
-      <c r="AP56" s="75"/>
-      <c r="AQ56" s="75"/>
-      <c r="AR56" s="75"/>
-      <c r="AS56" s="75"/>
-      <c r="AT56" s="75"/>
-      <c r="AU56" s="75"/>
-      <c r="AV56" s="75"/>
-      <c r="AW56" s="75"/>
-      <c r="AX56" s="75"/>
+      <c r="A56" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="72"/>
+      <c r="W56" s="72"/>
+      <c r="X56" s="72"/>
+      <c r="Y56" s="72"/>
+      <c r="Z56" s="72"/>
+      <c r="AA56" s="72"/>
+      <c r="AB56" s="72"/>
+      <c r="AC56" s="72"/>
+      <c r="AD56" s="72"/>
+      <c r="AE56" s="72"/>
+      <c r="AF56" s="72"/>
+      <c r="AG56" s="72"/>
+      <c r="AH56" s="72"/>
+      <c r="AI56" s="72"/>
+      <c r="AJ56" s="72"/>
+      <c r="AK56" s="72"/>
+      <c r="AL56" s="72"/>
+      <c r="AM56" s="72"/>
+      <c r="AN56" s="72"/>
+      <c r="AO56" s="72"/>
+      <c r="AP56" s="72"/>
+      <c r="AQ56" s="72"/>
+      <c r="AR56" s="72"/>
+      <c r="AS56" s="72"/>
+      <c r="AT56" s="72"/>
+      <c r="AU56" s="72"/>
+      <c r="AV56" s="72"/>
+      <c r="AW56" s="72"/>
+      <c r="AX56" s="72"/>
     </row>
     <row r="57" spans="1:50" ht="18.75">
-      <c r="A57" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="67"/>
-      <c r="AE57" s="67"/>
-      <c r="AF57" s="67"/>
-      <c r="AG57" s="67"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AJ57" s="67"/>
-      <c r="AK57" s="67"/>
-      <c r="AL57" s="67"/>
-      <c r="AM57" s="67"/>
-      <c r="AN57" s="67"/>
-      <c r="AO57" s="67"/>
-      <c r="AP57" s="67"/>
-      <c r="AQ57" s="67"/>
-      <c r="AR57" s="67"/>
-      <c r="AS57" s="67"/>
-      <c r="AT57" s="67"/>
-      <c r="AU57" s="67"/>
-      <c r="AV57" s="67"/>
-      <c r="AW57" s="67"/>
-      <c r="AX57" s="67"/>
+      <c r="A57" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="74"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
+      <c r="X57" s="74"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="74"/>
+      <c r="AA57" s="74"/>
+      <c r="AB57" s="74"/>
+      <c r="AC57" s="74"/>
+      <c r="AD57" s="74"/>
+      <c r="AE57" s="74"/>
+      <c r="AF57" s="74"/>
+      <c r="AG57" s="74"/>
+      <c r="AH57" s="74"/>
+      <c r="AI57" s="74"/>
+      <c r="AJ57" s="74"/>
+      <c r="AK57" s="74"/>
+      <c r="AL57" s="74"/>
+      <c r="AM57" s="74"/>
+      <c r="AN57" s="74"/>
+      <c r="AO57" s="74"/>
+      <c r="AP57" s="74"/>
+      <c r="AQ57" s="74"/>
+      <c r="AR57" s="74"/>
+      <c r="AS57" s="74"/>
+      <c r="AT57" s="74"/>
+      <c r="AU57" s="74"/>
+      <c r="AV57" s="74"/>
+      <c r="AW57" s="74"/>
+      <c r="AX57" s="74"/>
     </row>
     <row r="58" spans="1:50" ht="18.75">
-      <c r="A58" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="67"/>
-      <c r="U58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
-      <c r="Y58" s="67"/>
-      <c r="Z58" s="67"/>
-      <c r="AA58" s="67"/>
-      <c r="AB58" s="67"/>
-      <c r="AC58" s="67"/>
-      <c r="AD58" s="67"/>
-      <c r="AE58" s="67"/>
-      <c r="AF58" s="67"/>
-      <c r="AG58" s="67"/>
-      <c r="AH58" s="67"/>
-      <c r="AI58" s="67"/>
-      <c r="AJ58" s="67"/>
-      <c r="AK58" s="67"/>
-      <c r="AL58" s="67"/>
-      <c r="AM58" s="67"/>
-      <c r="AN58" s="67"/>
-      <c r="AO58" s="67"/>
-      <c r="AP58" s="67"/>
-      <c r="AQ58" s="67"/>
-      <c r="AR58" s="67"/>
-      <c r="AS58" s="67"/>
-      <c r="AT58" s="67"/>
-      <c r="AU58" s="67"/>
-      <c r="AV58" s="67"/>
-      <c r="AW58" s="67"/>
-      <c r="AX58" s="67"/>
+      <c r="A58" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="74"/>
+      <c r="AA58" s="74"/>
+      <c r="AB58" s="74"/>
+      <c r="AC58" s="74"/>
+      <c r="AD58" s="74"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="74"/>
+      <c r="AI58" s="74"/>
+      <c r="AJ58" s="74"/>
+      <c r="AK58" s="74"/>
+      <c r="AL58" s="74"/>
+      <c r="AM58" s="74"/>
+      <c r="AN58" s="74"/>
+      <c r="AO58" s="74"/>
+      <c r="AP58" s="74"/>
+      <c r="AQ58" s="74"/>
+      <c r="AR58" s="74"/>
+      <c r="AS58" s="74"/>
+      <c r="AT58" s="74"/>
+      <c r="AU58" s="74"/>
+      <c r="AV58" s="74"/>
+      <c r="AW58" s="74"/>
+      <c r="AX58" s="74"/>
     </row>
     <row r="59" spans="1:50" ht="161.25" customHeight="1">
-      <c r="A59" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="67"/>
-      <c r="Z59" s="67"/>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="67"/>
-      <c r="AD59" s="67"/>
-      <c r="AE59" s="67"/>
-      <c r="AF59" s="67"/>
-      <c r="AG59" s="67"/>
-      <c r="AH59" s="67"/>
-      <c r="AI59" s="67"/>
-      <c r="AJ59" s="67"/>
-      <c r="AK59" s="67"/>
-      <c r="AL59" s="67"/>
-      <c r="AM59" s="67"/>
-      <c r="AN59" s="67"/>
-      <c r="AO59" s="67"/>
-      <c r="AP59" s="67"/>
-      <c r="AQ59" s="67"/>
-      <c r="AR59" s="67"/>
-      <c r="AS59" s="67"/>
-      <c r="AT59" s="67"/>
-      <c r="AU59" s="67"/>
-      <c r="AV59" s="67"/>
-      <c r="AW59" s="67"/>
-      <c r="AX59" s="67"/>
+      <c r="A59" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="74"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="74"/>
+      <c r="AI59" s="74"/>
+      <c r="AJ59" s="74"/>
+      <c r="AK59" s="74"/>
+      <c r="AL59" s="74"/>
+      <c r="AM59" s="74"/>
+      <c r="AN59" s="74"/>
+      <c r="AO59" s="74"/>
+      <c r="AP59" s="74"/>
+      <c r="AQ59" s="74"/>
+      <c r="AR59" s="74"/>
+      <c r="AS59" s="74"/>
+      <c r="AT59" s="74"/>
+      <c r="AU59" s="74"/>
+      <c r="AV59" s="74"/>
+      <c r="AW59" s="74"/>
+      <c r="AX59" s="74"/>
     </row>
     <row r="60" spans="1:50" ht="98.25" customHeight="1">
-      <c r="A60" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="55"/>
-      <c r="AI60" s="55"/>
-      <c r="AJ60" s="55"/>
-      <c r="AK60" s="55"/>
-      <c r="AL60" s="55"/>
-      <c r="AM60" s="55"/>
-      <c r="AN60" s="55"/>
-      <c r="AO60" s="55"/>
-      <c r="AP60" s="55"/>
-      <c r="AQ60" s="55"/>
-      <c r="AR60" s="55"/>
-      <c r="AS60" s="55"/>
-      <c r="AT60" s="55"/>
-      <c r="AU60" s="55"/>
-      <c r="AV60" s="55"/>
-      <c r="AW60" s="55"/>
-      <c r="AX60" s="55"/>
+      <c r="A60" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
+      <c r="T60" s="70"/>
+      <c r="U60" s="70"/>
+      <c r="V60" s="70"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="70"/>
+      <c r="Y60" s="70"/>
+      <c r="Z60" s="70"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
+      <c r="AC60" s="70"/>
+      <c r="AD60" s="70"/>
+      <c r="AE60" s="70"/>
+      <c r="AF60" s="70"/>
+      <c r="AG60" s="70"/>
+      <c r="AH60" s="70"/>
+      <c r="AI60" s="70"/>
+      <c r="AJ60" s="70"/>
+      <c r="AK60" s="70"/>
+      <c r="AL60" s="70"/>
+      <c r="AM60" s="70"/>
+      <c r="AN60" s="70"/>
+      <c r="AO60" s="70"/>
+      <c r="AP60" s="70"/>
+      <c r="AQ60" s="70"/>
+      <c r="AR60" s="70"/>
+      <c r="AS60" s="70"/>
+      <c r="AT60" s="70"/>
+      <c r="AU60" s="70"/>
+      <c r="AV60" s="70"/>
+      <c r="AW60" s="70"/>
+      <c r="AX60" s="70"/>
     </row>
     <row r="61" spans="1:50" ht="117" customHeight="1">
-      <c r="A61" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="55"/>
-      <c r="AI61" s="55"/>
-      <c r="AJ61" s="55"/>
-      <c r="AK61" s="55"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="55"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="55"/>
-      <c r="AP61" s="55"/>
-      <c r="AQ61" s="55"/>
-      <c r="AR61" s="55"/>
-      <c r="AS61" s="55"/>
-      <c r="AT61" s="55"/>
-      <c r="AU61" s="55"/>
-      <c r="AV61" s="55"/>
-      <c r="AW61" s="55"/>
-      <c r="AX61" s="55"/>
-    </row>
-    <row r="62" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A62" s="55" t="s">
+      <c r="A61" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="65" t="s">
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="55"/>
-      <c r="AI62" s="55"/>
-      <c r="AJ62" s="55"/>
-      <c r="AK62" s="55"/>
-      <c r="AL62" s="55"/>
-      <c r="AM62" s="55"/>
-      <c r="AN62" s="55"/>
-      <c r="AO62" s="55"/>
-      <c r="AP62" s="55"/>
-      <c r="AQ62" s="55"/>
-      <c r="AR62" s="55"/>
-      <c r="AS62" s="55"/>
-      <c r="AT62" s="55"/>
-      <c r="AU62" s="55"/>
-      <c r="AV62" s="55"/>
-      <c r="AW62" s="55"/>
-      <c r="AX62" s="55"/>
-    </row>
-    <row r="63" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A63" s="55" t="s">
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+      <c r="X61" s="70"/>
+      <c r="Y61" s="70"/>
+      <c r="Z61" s="70"/>
+      <c r="AA61" s="70"/>
+      <c r="AB61" s="70"/>
+      <c r="AC61" s="70"/>
+      <c r="AD61" s="70"/>
+      <c r="AE61" s="70"/>
+      <c r="AF61" s="70"/>
+      <c r="AG61" s="70"/>
+      <c r="AH61" s="70"/>
+      <c r="AI61" s="70"/>
+      <c r="AJ61" s="70"/>
+      <c r="AK61" s="70"/>
+      <c r="AL61" s="70"/>
+      <c r="AM61" s="70"/>
+      <c r="AN61" s="70"/>
+      <c r="AO61" s="70"/>
+      <c r="AP61" s="70"/>
+      <c r="AQ61" s="70"/>
+      <c r="AR61" s="70"/>
+      <c r="AS61" s="70"/>
+      <c r="AT61" s="70"/>
+      <c r="AU61" s="70"/>
+      <c r="AV61" s="70"/>
+      <c r="AW61" s="70"/>
+      <c r="AX61" s="70"/>
+    </row>
+    <row r="62" spans="1:50" ht="107.25" customHeight="1">
+      <c r="A62" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="65" t="s">
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="55"/>
-      <c r="AA63" s="55"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="55"/>
-      <c r="AJ63" s="55"/>
-      <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="55"/>
-      <c r="AN63" s="55"/>
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="55"/>
-      <c r="AQ63" s="55"/>
-      <c r="AR63" s="55"/>
-      <c r="AS63" s="55"/>
-      <c r="AT63" s="55"/>
-      <c r="AU63" s="55"/>
-      <c r="AV63" s="55"/>
-      <c r="AW63" s="55"/>
-      <c r="AX63" s="55"/>
-    </row>
-    <row r="64" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A64" s="55" t="s">
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="70"/>
+      <c r="AD62" s="70"/>
+      <c r="AE62" s="70"/>
+      <c r="AF62" s="70"/>
+      <c r="AG62" s="70"/>
+      <c r="AH62" s="70"/>
+      <c r="AI62" s="70"/>
+      <c r="AJ62" s="70"/>
+      <c r="AK62" s="70"/>
+      <c r="AL62" s="70"/>
+      <c r="AM62" s="70"/>
+      <c r="AN62" s="70"/>
+      <c r="AO62" s="70"/>
+      <c r="AP62" s="70"/>
+      <c r="AQ62" s="70"/>
+      <c r="AR62" s="70"/>
+      <c r="AS62" s="70"/>
+      <c r="AT62" s="70"/>
+      <c r="AU62" s="70"/>
+      <c r="AV62" s="70"/>
+      <c r="AW62" s="70"/>
+      <c r="AX62" s="70"/>
+    </row>
+    <row r="63" spans="1:50" ht="107.25" customHeight="1">
+      <c r="A63" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="65" t="s">
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="55"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="55"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="55"/>
-      <c r="AI64" s="55"/>
-      <c r="AJ64" s="55"/>
-      <c r="AK64" s="55"/>
-      <c r="AL64" s="55"/>
-      <c r="AM64" s="55"/>
-      <c r="AN64" s="55"/>
-      <c r="AO64" s="55"/>
-      <c r="AP64" s="55"/>
-      <c r="AQ64" s="55"/>
-      <c r="AR64" s="55"/>
-      <c r="AS64" s="55"/>
-      <c r="AT64" s="55"/>
-      <c r="AU64" s="55"/>
-      <c r="AV64" s="55"/>
-      <c r="AW64" s="55"/>
-      <c r="AX64" s="55"/>
-    </row>
-    <row r="65" spans="1:50" ht="153.75" customHeight="1">
-      <c r="A65" s="55" t="s">
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="70"/>
+      <c r="AC63" s="70"/>
+      <c r="AD63" s="70"/>
+      <c r="AE63" s="70"/>
+      <c r="AF63" s="70"/>
+      <c r="AG63" s="70"/>
+      <c r="AH63" s="70"/>
+      <c r="AI63" s="70"/>
+      <c r="AJ63" s="70"/>
+      <c r="AK63" s="70"/>
+      <c r="AL63" s="70"/>
+      <c r="AM63" s="70"/>
+      <c r="AN63" s="70"/>
+      <c r="AO63" s="70"/>
+      <c r="AP63" s="70"/>
+      <c r="AQ63" s="70"/>
+      <c r="AR63" s="70"/>
+      <c r="AS63" s="70"/>
+      <c r="AT63" s="70"/>
+      <c r="AU63" s="70"/>
+      <c r="AV63" s="70"/>
+      <c r="AW63" s="70"/>
+      <c r="AX63" s="70"/>
+    </row>
+    <row r="64" spans="1:50" ht="107.25" customHeight="1">
+      <c r="A64" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="65" t="s">
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="55"/>
-      <c r="AA65" s="55"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="55"/>
-      <c r="AI65" s="55"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
-      <c r="AN65" s="55"/>
-      <c r="AO65" s="55"/>
-      <c r="AP65" s="55"/>
-      <c r="AQ65" s="55"/>
-      <c r="AR65" s="55"/>
-      <c r="AS65" s="55"/>
-      <c r="AT65" s="55"/>
-      <c r="AU65" s="55"/>
-      <c r="AV65" s="55"/>
-      <c r="AW65" s="55"/>
-      <c r="AX65" s="55"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="70"/>
+      <c r="X64" s="70"/>
+      <c r="Y64" s="70"/>
+      <c r="Z64" s="70"/>
+      <c r="AA64" s="70"/>
+      <c r="AB64" s="70"/>
+      <c r="AC64" s="70"/>
+      <c r="AD64" s="70"/>
+      <c r="AE64" s="70"/>
+      <c r="AF64" s="70"/>
+      <c r="AG64" s="70"/>
+      <c r="AH64" s="70"/>
+      <c r="AI64" s="70"/>
+      <c r="AJ64" s="70"/>
+      <c r="AK64" s="70"/>
+      <c r="AL64" s="70"/>
+      <c r="AM64" s="70"/>
+      <c r="AN64" s="70"/>
+      <c r="AO64" s="70"/>
+      <c r="AP64" s="70"/>
+      <c r="AQ64" s="70"/>
+      <c r="AR64" s="70"/>
+      <c r="AS64" s="70"/>
+      <c r="AT64" s="70"/>
+      <c r="AU64" s="70"/>
+      <c r="AV64" s="70"/>
+      <c r="AW64" s="70"/>
+      <c r="AX64" s="70"/>
+    </row>
+    <row r="65" spans="1:50" ht="107.25" customHeight="1">
+      <c r="A65" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="70"/>
+      <c r="P65" s="70"/>
+      <c r="Q65" s="70"/>
+      <c r="R65" s="70"/>
+      <c r="S65" s="70"/>
+      <c r="T65" s="70"/>
+      <c r="U65" s="70"/>
+      <c r="V65" s="70"/>
+      <c r="W65" s="70"/>
+      <c r="X65" s="70"/>
+      <c r="Y65" s="70"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="70"/>
+      <c r="AD65" s="70"/>
+      <c r="AE65" s="70"/>
+      <c r="AF65" s="70"/>
+      <c r="AG65" s="70"/>
+      <c r="AH65" s="70"/>
+      <c r="AI65" s="70"/>
+      <c r="AJ65" s="70"/>
+      <c r="AK65" s="70"/>
+      <c r="AL65" s="70"/>
+      <c r="AM65" s="70"/>
+      <c r="AN65" s="70"/>
+      <c r="AO65" s="70"/>
+      <c r="AP65" s="70"/>
+      <c r="AQ65" s="70"/>
+      <c r="AR65" s="70"/>
+      <c r="AS65" s="70"/>
+      <c r="AT65" s="70"/>
+      <c r="AU65" s="70"/>
+      <c r="AV65" s="70"/>
+      <c r="AW65" s="70"/>
+      <c r="AX65" s="70"/>
     </row>
     <row r="66" spans="1:50" ht="18.75"/>
     <row r="67" spans="1:50" ht="18.75"/>
@@ -10945,6 +11025,201 @@
     <row r="69" spans="1:50" ht="18.75"/>
   </sheetData>
   <mergeCells count="219">
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="AJ50:AX50"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="L60:AX60"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AI50"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="AJ54:AX54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="L61:AX61"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="L63:AX63"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:AX62"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="L64:AX64"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AF55:AI55"/>
+    <mergeCell ref="AJ55:AX55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="L59:AX59"/>
+    <mergeCell ref="L58:AX58"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AJ53:AX53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AJ52:AX52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AI51"/>
+    <mergeCell ref="AJ51:AX51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AF49:AI49"/>
+    <mergeCell ref="AJ49:AX49"/>
+    <mergeCell ref="L49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A40:B49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AI48"/>
+    <mergeCell ref="AJ48:AX48"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="L48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AJ47:AX47"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="L47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AJ46:AX46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="AJ45:AX45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AJ44:AX44"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AJ43:AX43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AJ40:AX40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AJ41:AX41"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AF42:AI42"/>
+    <mergeCell ref="AJ42:AX42"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="L65:AX65"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AJ38:AX38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A56:AX56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="L57:AX57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AJ36:AX36"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AJ37:AX37"/>
     <mergeCell ref="A3:AX3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:AG1"/>
@@ -10969,201 +11244,6 @@
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="R36:S36"/>
     <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AJ36:AX36"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AJ37:AX37"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="L65:AX65"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AJ38:AX38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A56:AX56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="L57:AX57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="AJ41:AX41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AF42:AI42"/>
-    <mergeCell ref="AJ42:AX42"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AJ40:AX40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AJ43:AX43"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AJ44:AX44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="AJ45:AX45"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="A40:B49"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AF48:AI48"/>
-    <mergeCell ref="AJ48:AX48"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="L48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="AJ47:AX47"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="L47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="AF46:AI46"/>
-    <mergeCell ref="AJ46:AX46"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AF49:AI49"/>
-    <mergeCell ref="AJ49:AX49"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AI51"/>
-    <mergeCell ref="AJ51:AX51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="L51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="AD53:AE53"/>
-    <mergeCell ref="AF53:AI53"/>
-    <mergeCell ref="AJ53:AX53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AF52:AI52"/>
-    <mergeCell ref="AJ52:AX52"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="L61:AX61"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="L63:AX63"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L62:AX62"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="L64:AX64"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="AF55:AI55"/>
-    <mergeCell ref="AJ55:AX55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="L55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="L59:AX59"/>
-    <mergeCell ref="L58:AX58"/>
-    <mergeCell ref="AJ50:AX50"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="L60:AX60"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AI50"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="AA54:AC54"/>
-    <mergeCell ref="AD54:AE54"/>
-    <mergeCell ref="AF54:AI54"/>
-    <mergeCell ref="AJ54:AX54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA53:AC53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">

--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="704" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF1AEC65-2E26-4523-B44C-A2313B0EC8E5}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AED3CB3-B4F5-4C26-9131-EE59C6B389B4}"/>
   <bookViews>
-    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -461,7 +461,7 @@
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +568,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
     </font>
   </fonts>
@@ -1147,7 +1152,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,17 +1190,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,28 +1232,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,18 +1262,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2572,9 +2577,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -2607,8 +2612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2305050" y="2614613"/>
-          <a:ext cx="476250" cy="247650"/>
+          <a:off x="2343150" y="2643188"/>
+          <a:ext cx="438150" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2640,9 +2645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2661,7 +2666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1981200" y="2476500"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:ext cx="361950" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2711,15 +2716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2737,8 +2742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381750" y="3371850"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:off x="6372225" y="3371850"/>
+          <a:ext cx="390525" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2882,9 +2887,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -2917,8 +2922,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295525" y="3671888"/>
-          <a:ext cx="381000" cy="42862"/>
+          <a:off x="2352675" y="3700463"/>
+          <a:ext cx="323850" cy="14287"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2946,11 +2951,11 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -2979,8 +2984,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5972175" y="5586413"/>
-          <a:ext cx="447675" cy="195262"/>
+          <a:off x="5972175" y="5614988"/>
+          <a:ext cx="504825" cy="166687"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3008,11 +3013,11 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
@@ -3041,8 +3046,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5972175" y="4729163"/>
-          <a:ext cx="428625" cy="161925"/>
+          <a:off x="5972175" y="4757738"/>
+          <a:ext cx="419100" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3070,11 +3075,11 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
@@ -3103,8 +3108,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5972175" y="4119563"/>
-          <a:ext cx="419100" cy="180975"/>
+          <a:off x="5972175" y="4157663"/>
+          <a:ext cx="409575" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3132,11 +3137,11 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
@@ -3165,8 +3170,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5972175" y="3509963"/>
-          <a:ext cx="409575" cy="209550"/>
+          <a:off x="5972175" y="3543300"/>
+          <a:ext cx="400050" cy="176213"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3192,15 +3197,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3218,8 +3223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391275" y="3981450"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:off x="6381750" y="3981450"/>
+          <a:ext cx="390525" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3363,15 +3368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3389,8 +3394,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="4591050"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:off x="6391275" y="4591050"/>
+          <a:ext cx="381000" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3533,16 +3538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3560,8 +3565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6419850" y="5448300"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:off x="6477000" y="5448300"/>
+          <a:ext cx="390525" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3711,9 +3716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3732,7 +3737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1971675" y="3533775"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:ext cx="381000" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3882,9 +3887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3894,7 +3899,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C177BC7-B3F7-4212-BC09-EA6D2D82C592}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{103732D3-57B0-429C-9A02-EDEEF93858A9}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2E24235C-E95E-4C87-810C-4EE319F3FFC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,7 +3908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1981200" y="4762500"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:ext cx="361950" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4052,8 +4057,8 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -4083,7 +4088,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="4733925" y="6372225"/>
-          <a:ext cx="9525" cy="342900"/>
+          <a:ext cx="42863" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4109,9 +4114,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4143,8 +4148,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="4905375"/>
-          <a:ext cx="352425" cy="371475"/>
+          <a:off x="2343150" y="4919663"/>
+          <a:ext cx="314325" cy="357187"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4175,10 +4180,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4197,7 +4202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4591050" y="3467100"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:ext cx="381000" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4343,7 +4348,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
@@ -4376,8 +4381,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4295775" y="3605213"/>
-          <a:ext cx="295275" cy="109537"/>
+          <a:off x="4295775" y="3638550"/>
+          <a:ext cx="295275" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4463,15 +4468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4489,15 +4494,15 @@
           <a:cxnSpLocks/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{D47E6B56-2730-47F2-98D1-39AA844FF5DD}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B6FC492D-966D-4844-9670-348B7B5ECC41}" end="{151ABC61-0168-4C39-9F92-CE196DF883A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5114925" y="4038600"/>
-          <a:ext cx="9525" cy="1695450"/>
+        <a:xfrm flipH="1">
+          <a:off x="5124450" y="4048125"/>
+          <a:ext cx="9525" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4658,7 +4663,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -4691,8 +4696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3429000" y="5753100"/>
-          <a:ext cx="1704975" cy="9525"/>
+          <a:off x="3457575" y="5753100"/>
+          <a:ext cx="1676400" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4725,13 +4730,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4756,7 +4761,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2657475" y="4048125"/>
+          <a:off x="2657475" y="4057650"/>
           <a:ext cx="2466975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4958,10 +4963,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4980,7 +4985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4581525" y="6715125"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:ext cx="390525" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5130,9 +5135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5151,7 +5156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3705225" y="6753225"/>
-          <a:ext cx="323850" cy="276225"/>
+          <a:ext cx="390525" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5295,13 +5300,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>80963</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
+      <xdr:colOff>90488</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -5329,9 +5334,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3867150" y="6372225"/>
-          <a:ext cx="23813" cy="381000"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3890963" y="6372225"/>
+          <a:ext cx="9525" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5680,9 +5685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239406D8-248F-4C31-A5B1-C0AF7D79A972}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
   <cols>
@@ -5912,27 +5915,27 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="46"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="45"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -5950,25 +5953,25 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="49"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="48"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -5986,25 +5989,25 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="49"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="48"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -6022,25 +6025,25 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="49"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="48"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -6058,25 +6061,25 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="52"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="51"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -6135,17 +6138,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -6173,15 +6176,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -6209,15 +6212,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -6761,14 +6764,14 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1"/>
     <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
@@ -6949,9 +6952,9 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -6987,12 +6990,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18.600000000000001" thickTop="1">
+    <row r="4" spans="1:26" ht="18.75">
       <c r="B4" s="10">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -7001,30 +7004,30 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="B6" s="42">
+      <c r="B6" s="41">
         <f t="shared" ref="B6:B13" si="0">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="15"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -7047,12 +7050,12 @@
       <c r="Z7" s="23"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="15"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -7075,12 +7078,12 @@
       <c r="Z8" s="23"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="42">
+      <c r="B9" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="15"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -7103,12 +7106,12 @@
       <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="15"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -7131,12 +7134,12 @@
       <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:26" ht="18.75">
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="15"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -7224,7 +7227,7 @@
   </sheetPr>
   <dimension ref="A1:AX69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -7236,228 +7239,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54" t="str">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="str">
         <f>画面一覧表!C4</f>
         <v>電卓画面</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="56" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="54" t="str">
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="80" t="str">
         <f>画面一覧表!D4</f>
         <v>calculator</v>
       </c>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
     </row>
     <row r="4" spans="1:50">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="82"/>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="64"/>
@@ -7571,25 +7574,25 @@
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
       <c r="G7" s="64"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
       <c r="AA7" s="64"/>
       <c r="AB7" s="64"/>
       <c r="AC7" s="64"/>
@@ -7623,25 +7626,25 @@
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
       <c r="G8" s="64"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
       <c r="AA8" s="64"/>
       <c r="AB8" s="64"/>
       <c r="AC8" s="64"/>
@@ -7675,25 +7678,25 @@
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
       <c r="AA9" s="64"/>
       <c r="AB9" s="64"/>
       <c r="AC9" s="64"/>
@@ -7727,25 +7730,25 @@
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="68"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
       <c r="AA10" s="64"/>
       <c r="AB10" s="64"/>
       <c r="AC10" s="64"/>
@@ -7779,25 +7782,25 @@
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
       <c r="G11" s="64"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
       <c r="AA11" s="64"/>
       <c r="AB11" s="64"/>
       <c r="AC11" s="64"/>
@@ -7888,15 +7891,15 @@
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
       <c r="L13" s="64"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="64"/>
       <c r="W13" s="64"/>
       <c r="X13" s="64"/>
@@ -7940,15 +7943,15 @@
       <c r="J14" s="64"/>
       <c r="K14" s="64"/>
       <c r="L14" s="64"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="64"/>
       <c r="W14" s="64"/>
       <c r="X14" s="64"/>
@@ -7992,15 +7995,15 @@
       <c r="J15" s="64"/>
       <c r="K15" s="64"/>
       <c r="L15" s="64"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
       <c r="X15" s="64"/>
@@ -9020,130 +9023,130 @@
       <c r="AX34" s="64"/>
     </row>
     <row r="35" spans="1:50">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="57"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="82"/>
+      <c r="AM35" s="82"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="82"/>
+      <c r="AQ35" s="82"/>
+      <c r="AR35" s="82"/>
+      <c r="AS35" s="82"/>
+      <c r="AT35" s="82"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="82"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="82"/>
     </row>
     <row r="36" spans="1:50">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="79"/>
+      <c r="C36" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56" t="s">
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56" t="s">
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56" t="s">
+      <c r="S36" s="79"/>
+      <c r="T36" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="69" t="s">
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69" t="s">
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="56" t="s">
+      <c r="AB36" s="78"/>
+      <c r="AC36" s="78"/>
+      <c r="AD36" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56" t="s">
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56" t="s">
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
+      <c r="AK36" s="79"/>
+      <c r="AL36" s="79"/>
+      <c r="AM36" s="79"/>
+      <c r="AN36" s="79"/>
+      <c r="AO36" s="79"/>
+      <c r="AP36" s="79"/>
+      <c r="AQ36" s="79"/>
+      <c r="AR36" s="79"/>
+      <c r="AS36" s="79"/>
+      <c r="AT36" s="79"/>
+      <c r="AU36" s="79"/>
+      <c r="AV36" s="79"/>
+      <c r="AW36" s="79"/>
+      <c r="AX36" s="79"/>
     </row>
     <row r="37" spans="1:50" ht="30" customHeight="1">
       <c r="A37" s="58" t="s">
@@ -9199,23 +9202,23 @@
       <c r="AG37" s="66"/>
       <c r="AH37" s="66"/>
       <c r="AI37" s="66"/>
-      <c r="AJ37" s="67" t="s">
+      <c r="AJ37" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="56"/>
+      <c r="AQ37" s="56"/>
+      <c r="AR37" s="56"/>
+      <c r="AS37" s="56"/>
+      <c r="AT37" s="56"/>
+      <c r="AU37" s="56"/>
+      <c r="AV37" s="56"/>
+      <c r="AW37" s="56"/>
+      <c r="AX37" s="56"/>
     </row>
     <row r="38" spans="1:50" ht="30" customHeight="1">
       <c r="A38" s="58" t="s">
@@ -9271,21 +9274,21 @@
       <c r="AG38" s="66"/>
       <c r="AH38" s="66"/>
       <c r="AI38" s="66"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="67"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="67"/>
-      <c r="AQ38" s="67"/>
-      <c r="AR38" s="67"/>
-      <c r="AS38" s="67"/>
-      <c r="AT38" s="67"/>
-      <c r="AU38" s="67"/>
-      <c r="AV38" s="67"/>
-      <c r="AW38" s="67"/>
-      <c r="AX38" s="67"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="56"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="56"/>
     </row>
     <row r="39" spans="1:50" ht="30" customHeight="1">
       <c r="A39" s="58" t="s">
@@ -9341,27 +9344,27 @@
       <c r="AG39" s="66"/>
       <c r="AH39" s="66"/>
       <c r="AI39" s="66"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="67"/>
-      <c r="AR39" s="67"/>
-      <c r="AS39" s="67"/>
-      <c r="AT39" s="67"/>
-      <c r="AU39" s="67"/>
-      <c r="AV39" s="67"/>
-      <c r="AW39" s="67"/>
-      <c r="AX39" s="67"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="56"/>
+      <c r="AQ39" s="56"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
+      <c r="AX39" s="56"/>
     </row>
     <row r="40" spans="1:50" ht="30" customHeight="1">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="76"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="59" t="s">
         <v>49</v>
       </c>
@@ -9411,36 +9414,36 @@
       <c r="AG40" s="66"/>
       <c r="AH40" s="66"/>
       <c r="AI40" s="66"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="67"/>
-      <c r="AL40" s="67"/>
-      <c r="AM40" s="67"/>
-      <c r="AN40" s="67"/>
-      <c r="AO40" s="67"/>
-      <c r="AP40" s="67"/>
-      <c r="AQ40" s="67"/>
-      <c r="AR40" s="67"/>
-      <c r="AS40" s="67"/>
-      <c r="AT40" s="67"/>
-      <c r="AU40" s="67"/>
-      <c r="AV40" s="67"/>
-      <c r="AW40" s="67"/>
-      <c r="AX40" s="67"/>
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="56"/>
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="56"/>
+      <c r="AP40" s="56"/>
+      <c r="AQ40" s="56"/>
+      <c r="AR40" s="56"/>
+      <c r="AS40" s="56"/>
+      <c r="AT40" s="56"/>
+      <c r="AU40" s="56"/>
+      <c r="AV40" s="56"/>
+      <c r="AW40" s="56"/>
+      <c r="AX40" s="56"/>
     </row>
     <row r="41" spans="1:50" ht="30" customHeight="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="82" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="84"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
       <c r="L41" s="60" t="s">
         <v>44</v>
       </c>
@@ -9479,36 +9482,36 @@
       <c r="AG41" s="66"/>
       <c r="AH41" s="66"/>
       <c r="AI41" s="66"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="67"/>
-      <c r="AL41" s="67"/>
-      <c r="AM41" s="67"/>
-      <c r="AN41" s="67"/>
-      <c r="AO41" s="67"/>
-      <c r="AP41" s="67"/>
-      <c r="AQ41" s="67"/>
-      <c r="AR41" s="67"/>
-      <c r="AS41" s="67"/>
-      <c r="AT41" s="67"/>
-      <c r="AU41" s="67"/>
-      <c r="AV41" s="67"/>
-      <c r="AW41" s="67"/>
-      <c r="AX41" s="67"/>
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="56"/>
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="56"/>
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
+      <c r="AT41" s="56"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="56"/>
+      <c r="AX41" s="56"/>
     </row>
     <row r="42" spans="1:50" ht="30" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="82" t="s">
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="84"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
       <c r="L42" s="60" t="s">
         <v>44</v>
       </c>
@@ -9547,36 +9550,36 @@
       <c r="AG42" s="66"/>
       <c r="AH42" s="66"/>
       <c r="AI42" s="66"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="67"/>
-      <c r="AM42" s="67"/>
-      <c r="AN42" s="67"/>
-      <c r="AO42" s="67"/>
-      <c r="AP42" s="67"/>
-      <c r="AQ42" s="67"/>
-      <c r="AR42" s="67"/>
-      <c r="AS42" s="67"/>
-      <c r="AT42" s="67"/>
-      <c r="AU42" s="67"/>
-      <c r="AV42" s="67"/>
-      <c r="AW42" s="67"/>
-      <c r="AX42" s="67"/>
+      <c r="AJ42" s="56"/>
+      <c r="AK42" s="56"/>
+      <c r="AL42" s="56"/>
+      <c r="AM42" s="56"/>
+      <c r="AN42" s="56"/>
+      <c r="AO42" s="56"/>
+      <c r="AP42" s="56"/>
+      <c r="AQ42" s="56"/>
+      <c r="AR42" s="56"/>
+      <c r="AS42" s="56"/>
+      <c r="AT42" s="56"/>
+      <c r="AU42" s="56"/>
+      <c r="AV42" s="56"/>
+      <c r="AW42" s="56"/>
+      <c r="AX42" s="56"/>
     </row>
     <row r="43" spans="1:50" ht="30" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="82" t="s">
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="84"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="55"/>
       <c r="L43" s="60" t="s">
         <v>44</v>
       </c>
@@ -9615,36 +9618,36 @@
       <c r="AG43" s="66"/>
       <c r="AH43" s="66"/>
       <c r="AI43" s="66"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="67"/>
-      <c r="AU43" s="67"/>
-      <c r="AV43" s="67"/>
-      <c r="AW43" s="67"/>
-      <c r="AX43" s="67"/>
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="56"/>
+      <c r="AL43" s="56"/>
+      <c r="AM43" s="56"/>
+      <c r="AN43" s="56"/>
+      <c r="AO43" s="56"/>
+      <c r="AP43" s="56"/>
+      <c r="AQ43" s="56"/>
+      <c r="AR43" s="56"/>
+      <c r="AS43" s="56"/>
+      <c r="AT43" s="56"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="56"/>
+      <c r="AX43" s="56"/>
     </row>
     <row r="44" spans="1:50" ht="30" customHeight="1">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="82" t="s">
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="84"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55"/>
       <c r="L44" s="60" t="s">
         <v>44</v>
       </c>
@@ -9683,36 +9686,36 @@
       <c r="AG44" s="66"/>
       <c r="AH44" s="66"/>
       <c r="AI44" s="66"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="67"/>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="67"/>
-      <c r="AO44" s="67"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="67"/>
-      <c r="AR44" s="67"/>
-      <c r="AS44" s="67"/>
-      <c r="AT44" s="67"/>
-      <c r="AU44" s="67"/>
-      <c r="AV44" s="67"/>
-      <c r="AW44" s="67"/>
-      <c r="AX44" s="67"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="56"/>
+      <c r="AO44" s="56"/>
+      <c r="AP44" s="56"/>
+      <c r="AQ44" s="56"/>
+      <c r="AR44" s="56"/>
+      <c r="AS44" s="56"/>
+      <c r="AT44" s="56"/>
+      <c r="AU44" s="56"/>
+      <c r="AV44" s="56"/>
+      <c r="AW44" s="56"/>
+      <c r="AX44" s="56"/>
     </row>
     <row r="45" spans="1:50" ht="30" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="82" t="s">
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="84"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55"/>
       <c r="L45" s="60" t="s">
         <v>44</v>
       </c>
@@ -9751,36 +9754,36 @@
       <c r="AG45" s="66"/>
       <c r="AH45" s="66"/>
       <c r="AI45" s="66"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="67"/>
-      <c r="AM45" s="67"/>
-      <c r="AN45" s="67"/>
-      <c r="AO45" s="67"/>
-      <c r="AP45" s="67"/>
-      <c r="AQ45" s="67"/>
-      <c r="AR45" s="67"/>
-      <c r="AS45" s="67"/>
-      <c r="AT45" s="67"/>
-      <c r="AU45" s="67"/>
-      <c r="AV45" s="67"/>
-      <c r="AW45" s="67"/>
-      <c r="AX45" s="67"/>
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="56"/>
+      <c r="AN45" s="56"/>
+      <c r="AO45" s="56"/>
+      <c r="AP45" s="56"/>
+      <c r="AQ45" s="56"/>
+      <c r="AR45" s="56"/>
+      <c r="AS45" s="56"/>
+      <c r="AT45" s="56"/>
+      <c r="AU45" s="56"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
+      <c r="AX45" s="56"/>
     </row>
     <row r="46" spans="1:50" ht="30" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="82" t="s">
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="84"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
       <c r="L46" s="60" t="s">
         <v>44</v>
       </c>
@@ -9819,36 +9822,36 @@
       <c r="AG46" s="66"/>
       <c r="AH46" s="66"/>
       <c r="AI46" s="66"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="67"/>
-      <c r="AM46" s="67"/>
-      <c r="AN46" s="67"/>
-      <c r="AO46" s="67"/>
-      <c r="AP46" s="67"/>
-      <c r="AQ46" s="67"/>
-      <c r="AR46" s="67"/>
-      <c r="AS46" s="67"/>
-      <c r="AT46" s="67"/>
-      <c r="AU46" s="67"/>
-      <c r="AV46" s="67"/>
-      <c r="AW46" s="67"/>
-      <c r="AX46" s="67"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="56"/>
+      <c r="AP46" s="56"/>
+      <c r="AQ46" s="56"/>
+      <c r="AR46" s="56"/>
+      <c r="AS46" s="56"/>
+      <c r="AT46" s="56"/>
+      <c r="AU46" s="56"/>
+      <c r="AV46" s="56"/>
+      <c r="AW46" s="56"/>
+      <c r="AX46" s="56"/>
     </row>
     <row r="47" spans="1:50" ht="30" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="82" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="84"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
       <c r="L47" s="60" t="s">
         <v>44</v>
       </c>
@@ -9887,36 +9890,36 @@
       <c r="AG47" s="66"/>
       <c r="AH47" s="66"/>
       <c r="AI47" s="66"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="67"/>
-      <c r="AM47" s="67"/>
-      <c r="AN47" s="67"/>
-      <c r="AO47" s="67"/>
-      <c r="AP47" s="67"/>
-      <c r="AQ47" s="67"/>
-      <c r="AR47" s="67"/>
-      <c r="AS47" s="67"/>
-      <c r="AT47" s="67"/>
-      <c r="AU47" s="67"/>
-      <c r="AV47" s="67"/>
-      <c r="AW47" s="67"/>
-      <c r="AX47" s="67"/>
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
+      <c r="AP47" s="56"/>
+      <c r="AQ47" s="56"/>
+      <c r="AR47" s="56"/>
+      <c r="AS47" s="56"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="56"/>
+      <c r="AV47" s="56"/>
+      <c r="AW47" s="56"/>
+      <c r="AX47" s="56"/>
     </row>
     <row r="48" spans="1:50" ht="30" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="82" t="s">
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="84"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55"/>
       <c r="L48" s="60" t="s">
         <v>44</v>
       </c>
@@ -9955,36 +9958,36 @@
       <c r="AG48" s="66"/>
       <c r="AH48" s="66"/>
       <c r="AI48" s="66"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="67"/>
-      <c r="AM48" s="67"/>
-      <c r="AN48" s="67"/>
-      <c r="AO48" s="67"/>
-      <c r="AP48" s="67"/>
-      <c r="AQ48" s="67"/>
-      <c r="AR48" s="67"/>
-      <c r="AS48" s="67"/>
-      <c r="AT48" s="67"/>
-      <c r="AU48" s="67"/>
-      <c r="AV48" s="67"/>
-      <c r="AW48" s="67"/>
-      <c r="AX48" s="67"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
+      <c r="AP48" s="56"/>
+      <c r="AQ48" s="56"/>
+      <c r="AR48" s="56"/>
+      <c r="AS48" s="56"/>
+      <c r="AT48" s="56"/>
+      <c r="AU48" s="56"/>
+      <c r="AV48" s="56"/>
+      <c r="AW48" s="56"/>
+      <c r="AX48" s="56"/>
     </row>
     <row r="49" spans="1:50" ht="30" customHeight="1">
-      <c r="A49" s="79"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="82" t="s">
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="84"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
       <c r="L49" s="60" t="s">
         <v>44</v>
       </c>
@@ -10023,21 +10026,21 @@
       <c r="AG49" s="66"/>
       <c r="AH49" s="66"/>
       <c r="AI49" s="66"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="67"/>
-      <c r="AR49" s="67"/>
-      <c r="AS49" s="67"/>
-      <c r="AT49" s="67"/>
-      <c r="AU49" s="67"/>
-      <c r="AV49" s="67"/>
-      <c r="AW49" s="67"/>
-      <c r="AX49" s="67"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="56"/>
+      <c r="AL49" s="56"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="56"/>
+      <c r="AP49" s="56"/>
+      <c r="AQ49" s="56"/>
+      <c r="AR49" s="56"/>
+      <c r="AS49" s="56"/>
+      <c r="AT49" s="56"/>
+      <c r="AU49" s="56"/>
+      <c r="AV49" s="56"/>
+      <c r="AW49" s="56"/>
+      <c r="AX49" s="56"/>
     </row>
     <row r="50" spans="1:50" ht="30" customHeight="1">
       <c r="A50" s="58" t="s">
@@ -10093,21 +10096,21 @@
       <c r="AG50" s="66"/>
       <c r="AH50" s="66"/>
       <c r="AI50" s="66"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="67"/>
-      <c r="AN50" s="67"/>
-      <c r="AO50" s="67"/>
-      <c r="AP50" s="67"/>
-      <c r="AQ50" s="67"/>
-      <c r="AR50" s="67"/>
-      <c r="AS50" s="67"/>
-      <c r="AT50" s="67"/>
-      <c r="AU50" s="67"/>
-      <c r="AV50" s="67"/>
-      <c r="AW50" s="67"/>
-      <c r="AX50" s="67"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="56"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="56"/>
+      <c r="AO50" s="56"/>
+      <c r="AP50" s="56"/>
+      <c r="AQ50" s="56"/>
+      <c r="AR50" s="56"/>
+      <c r="AS50" s="56"/>
+      <c r="AT50" s="56"/>
+      <c r="AU50" s="56"/>
+      <c r="AV50" s="56"/>
+      <c r="AW50" s="56"/>
+      <c r="AX50" s="56"/>
     </row>
     <row r="51" spans="1:50" ht="30" customHeight="1">
       <c r="A51" s="58" t="s">
@@ -10163,21 +10166,21 @@
       <c r="AG51" s="66"/>
       <c r="AH51" s="66"/>
       <c r="AI51" s="66"/>
-      <c r="AJ51" s="67"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="67"/>
-      <c r="AM51" s="67"/>
-      <c r="AN51" s="67"/>
-      <c r="AO51" s="67"/>
-      <c r="AP51" s="67"/>
-      <c r="AQ51" s="67"/>
-      <c r="AR51" s="67"/>
-      <c r="AS51" s="67"/>
-      <c r="AT51" s="67"/>
-      <c r="AU51" s="67"/>
-      <c r="AV51" s="67"/>
-      <c r="AW51" s="67"/>
-      <c r="AX51" s="67"/>
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="56"/>
+      <c r="AL51" s="56"/>
+      <c r="AM51" s="56"/>
+      <c r="AN51" s="56"/>
+      <c r="AO51" s="56"/>
+      <c r="AP51" s="56"/>
+      <c r="AQ51" s="56"/>
+      <c r="AR51" s="56"/>
+      <c r="AS51" s="56"/>
+      <c r="AT51" s="56"/>
+      <c r="AU51" s="56"/>
+      <c r="AV51" s="56"/>
+      <c r="AW51" s="56"/>
+      <c r="AX51" s="56"/>
     </row>
     <row r="52" spans="1:50" ht="41.25" customHeight="1">
       <c r="A52" s="58" t="s">
@@ -10233,23 +10236,23 @@
       <c r="AG52" s="66"/>
       <c r="AH52" s="66"/>
       <c r="AI52" s="66"/>
-      <c r="AJ52" s="67" t="s">
+      <c r="AJ52" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AK52" s="67"/>
-      <c r="AL52" s="67"/>
-      <c r="AM52" s="67"/>
-      <c r="AN52" s="67"/>
-      <c r="AO52" s="67"/>
-      <c r="AP52" s="67"/>
-      <c r="AQ52" s="67"/>
-      <c r="AR52" s="67"/>
-      <c r="AS52" s="67"/>
-      <c r="AT52" s="67"/>
-      <c r="AU52" s="67"/>
-      <c r="AV52" s="67"/>
-      <c r="AW52" s="67"/>
-      <c r="AX52" s="67"/>
+      <c r="AK52" s="56"/>
+      <c r="AL52" s="56"/>
+      <c r="AM52" s="56"/>
+      <c r="AN52" s="56"/>
+      <c r="AO52" s="56"/>
+      <c r="AP52" s="56"/>
+      <c r="AQ52" s="56"/>
+      <c r="AR52" s="56"/>
+      <c r="AS52" s="56"/>
+      <c r="AT52" s="56"/>
+      <c r="AU52" s="56"/>
+      <c r="AV52" s="56"/>
+      <c r="AW52" s="56"/>
+      <c r="AX52" s="56"/>
     </row>
     <row r="53" spans="1:50" ht="30" customHeight="1">
       <c r="A53" s="58" t="s">
@@ -10305,21 +10308,21 @@
       <c r="AG53" s="66"/>
       <c r="AH53" s="66"/>
       <c r="AI53" s="66"/>
-      <c r="AJ53" s="81"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="67"/>
-      <c r="AM53" s="67"/>
-      <c r="AN53" s="67"/>
-      <c r="AO53" s="67"/>
-      <c r="AP53" s="67"/>
-      <c r="AQ53" s="67"/>
-      <c r="AR53" s="67"/>
-      <c r="AS53" s="67"/>
-      <c r="AT53" s="67"/>
-      <c r="AU53" s="67"/>
-      <c r="AV53" s="67"/>
-      <c r="AW53" s="67"/>
-      <c r="AX53" s="67"/>
+      <c r="AJ53" s="70"/>
+      <c r="AK53" s="56"/>
+      <c r="AL53" s="56"/>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56"/>
+      <c r="AP53" s="56"/>
+      <c r="AQ53" s="56"/>
+      <c r="AR53" s="56"/>
+      <c r="AS53" s="56"/>
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
+      <c r="AW53" s="56"/>
+      <c r="AX53" s="56"/>
     </row>
     <row r="54" spans="1:50" ht="30" customHeight="1">
       <c r="A54" s="58" t="s">
@@ -10375,21 +10378,21 @@
       <c r="AG54" s="66"/>
       <c r="AH54" s="66"/>
       <c r="AI54" s="66"/>
-      <c r="AJ54" s="67"/>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="67"/>
-      <c r="AM54" s="67"/>
-      <c r="AN54" s="67"/>
-      <c r="AO54" s="67"/>
-      <c r="AP54" s="67"/>
-      <c r="AQ54" s="67"/>
-      <c r="AR54" s="67"/>
-      <c r="AS54" s="67"/>
-      <c r="AT54" s="67"/>
-      <c r="AU54" s="67"/>
-      <c r="AV54" s="67"/>
-      <c r="AW54" s="67"/>
-      <c r="AX54" s="67"/>
+      <c r="AJ54" s="56"/>
+      <c r="AK54" s="56"/>
+      <c r="AL54" s="56"/>
+      <c r="AM54" s="56"/>
+      <c r="AN54" s="56"/>
+      <c r="AO54" s="56"/>
+      <c r="AP54" s="56"/>
+      <c r="AQ54" s="56"/>
+      <c r="AR54" s="56"/>
+      <c r="AS54" s="56"/>
+      <c r="AT54" s="56"/>
+      <c r="AU54" s="56"/>
+      <c r="AV54" s="56"/>
+      <c r="AW54" s="56"/>
+      <c r="AX54" s="56"/>
     </row>
     <row r="55" spans="1:50" ht="30" customHeight="1">
       <c r="A55" s="58" t="s">
@@ -10445,579 +10448,579 @@
       <c r="AG55" s="66"/>
       <c r="AH55" s="66"/>
       <c r="AI55" s="66"/>
-      <c r="AJ55" s="67"/>
-      <c r="AK55" s="67"/>
-      <c r="AL55" s="67"/>
-      <c r="AM55" s="67"/>
-      <c r="AN55" s="67"/>
-      <c r="AO55" s="67"/>
-      <c r="AP55" s="67"/>
-      <c r="AQ55" s="67"/>
-      <c r="AR55" s="67"/>
-      <c r="AS55" s="67"/>
-      <c r="AT55" s="67"/>
-      <c r="AU55" s="67"/>
-      <c r="AV55" s="67"/>
-      <c r="AW55" s="67"/>
-      <c r="AX55" s="67"/>
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="56"/>
+      <c r="AL55" s="56"/>
+      <c r="AM55" s="56"/>
+      <c r="AN55" s="56"/>
+      <c r="AO55" s="56"/>
+      <c r="AP55" s="56"/>
+      <c r="AQ55" s="56"/>
+      <c r="AR55" s="56"/>
+      <c r="AS55" s="56"/>
+      <c r="AT55" s="56"/>
+      <c r="AU55" s="56"/>
+      <c r="AV55" s="56"/>
+      <c r="AW55" s="56"/>
+      <c r="AX55" s="56"/>
     </row>
     <row r="56" spans="1:50" ht="18.75">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="72"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="72"/>
-      <c r="V56" s="72"/>
-      <c r="W56" s="72"/>
-      <c r="X56" s="72"/>
-      <c r="Y56" s="72"/>
-      <c r="Z56" s="72"/>
-      <c r="AA56" s="72"/>
-      <c r="AB56" s="72"/>
-      <c r="AC56" s="72"/>
-      <c r="AD56" s="72"/>
-      <c r="AE56" s="72"/>
-      <c r="AF56" s="72"/>
-      <c r="AG56" s="72"/>
-      <c r="AH56" s="72"/>
-      <c r="AI56" s="72"/>
-      <c r="AJ56" s="72"/>
-      <c r="AK56" s="72"/>
-      <c r="AL56" s="72"/>
-      <c r="AM56" s="72"/>
-      <c r="AN56" s="72"/>
-      <c r="AO56" s="72"/>
-      <c r="AP56" s="72"/>
-      <c r="AQ56" s="72"/>
-      <c r="AR56" s="72"/>
-      <c r="AS56" s="72"/>
-      <c r="AT56" s="72"/>
-      <c r="AU56" s="72"/>
-      <c r="AV56" s="72"/>
-      <c r="AW56" s="72"/>
-      <c r="AX56" s="72"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
+      <c r="AB56" s="77"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="77"/>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="77"/>
+      <c r="AI56" s="77"/>
+      <c r="AJ56" s="77"/>
+      <c r="AK56" s="77"/>
+      <c r="AL56" s="77"/>
+      <c r="AM56" s="77"/>
+      <c r="AN56" s="77"/>
+      <c r="AO56" s="77"/>
+      <c r="AP56" s="77"/>
+      <c r="AQ56" s="77"/>
+      <c r="AR56" s="77"/>
+      <c r="AS56" s="77"/>
+      <c r="AT56" s="77"/>
+      <c r="AU56" s="77"/>
+      <c r="AV56" s="77"/>
+      <c r="AW56" s="77"/>
+      <c r="AX56" s="77"/>
     </row>
     <row r="57" spans="1:50" ht="18.75">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="74" t="s">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
-      <c r="T57" s="74"/>
-      <c r="U57" s="74"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
-      <c r="X57" s="74"/>
-      <c r="Y57" s="74"/>
-      <c r="Z57" s="74"/>
-      <c r="AA57" s="74"/>
-      <c r="AB57" s="74"/>
-      <c r="AC57" s="74"/>
-      <c r="AD57" s="74"/>
-      <c r="AE57" s="74"/>
-      <c r="AF57" s="74"/>
-      <c r="AG57" s="74"/>
-      <c r="AH57" s="74"/>
-      <c r="AI57" s="74"/>
-      <c r="AJ57" s="74"/>
-      <c r="AK57" s="74"/>
-      <c r="AL57" s="74"/>
-      <c r="AM57" s="74"/>
-      <c r="AN57" s="74"/>
-      <c r="AO57" s="74"/>
-      <c r="AP57" s="74"/>
-      <c r="AQ57" s="74"/>
-      <c r="AR57" s="74"/>
-      <c r="AS57" s="74"/>
-      <c r="AT57" s="74"/>
-      <c r="AU57" s="74"/>
-      <c r="AV57" s="74"/>
-      <c r="AW57" s="74"/>
-      <c r="AX57" s="74"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="69"/>
+      <c r="AD57" s="69"/>
+      <c r="AE57" s="69"/>
+      <c r="AF57" s="69"/>
+      <c r="AG57" s="69"/>
+      <c r="AH57" s="69"/>
+      <c r="AI57" s="69"/>
+      <c r="AJ57" s="69"/>
+      <c r="AK57" s="69"/>
+      <c r="AL57" s="69"/>
+      <c r="AM57" s="69"/>
+      <c r="AN57" s="69"/>
+      <c r="AO57" s="69"/>
+      <c r="AP57" s="69"/>
+      <c r="AQ57" s="69"/>
+      <c r="AR57" s="69"/>
+      <c r="AS57" s="69"/>
+      <c r="AT57" s="69"/>
+      <c r="AU57" s="69"/>
+      <c r="AV57" s="69"/>
+      <c r="AW57" s="69"/>
+      <c r="AX57" s="69"/>
     </row>
     <row r="58" spans="1:50" ht="18.75">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="74" t="s">
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="74"/>
-      <c r="T58" s="74"/>
-      <c r="U58" s="74"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
-      <c r="X58" s="74"/>
-      <c r="Y58" s="74"/>
-      <c r="Z58" s="74"/>
-      <c r="AA58" s="74"/>
-      <c r="AB58" s="74"/>
-      <c r="AC58" s="74"/>
-      <c r="AD58" s="74"/>
-      <c r="AE58" s="74"/>
-      <c r="AF58" s="74"/>
-      <c r="AG58" s="74"/>
-      <c r="AH58" s="74"/>
-      <c r="AI58" s="74"/>
-      <c r="AJ58" s="74"/>
-      <c r="AK58" s="74"/>
-      <c r="AL58" s="74"/>
-      <c r="AM58" s="74"/>
-      <c r="AN58" s="74"/>
-      <c r="AO58" s="74"/>
-      <c r="AP58" s="74"/>
-      <c r="AQ58" s="74"/>
-      <c r="AR58" s="74"/>
-      <c r="AS58" s="74"/>
-      <c r="AT58" s="74"/>
-      <c r="AU58" s="74"/>
-      <c r="AV58" s="74"/>
-      <c r="AW58" s="74"/>
-      <c r="AX58" s="74"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="69"/>
+      <c r="W58" s="69"/>
+      <c r="X58" s="69"/>
+      <c r="Y58" s="69"/>
+      <c r="Z58" s="69"/>
+      <c r="AA58" s="69"/>
+      <c r="AB58" s="69"/>
+      <c r="AC58" s="69"/>
+      <c r="AD58" s="69"/>
+      <c r="AE58" s="69"/>
+      <c r="AF58" s="69"/>
+      <c r="AG58" s="69"/>
+      <c r="AH58" s="69"/>
+      <c r="AI58" s="69"/>
+      <c r="AJ58" s="69"/>
+      <c r="AK58" s="69"/>
+      <c r="AL58" s="69"/>
+      <c r="AM58" s="69"/>
+      <c r="AN58" s="69"/>
+      <c r="AO58" s="69"/>
+      <c r="AP58" s="69"/>
+      <c r="AQ58" s="69"/>
+      <c r="AR58" s="69"/>
+      <c r="AS58" s="69"/>
+      <c r="AT58" s="69"/>
+      <c r="AU58" s="69"/>
+      <c r="AV58" s="69"/>
+      <c r="AW58" s="69"/>
+      <c r="AX58" s="69"/>
     </row>
     <row r="59" spans="1:50" ht="161.25" customHeight="1">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="74" t="s">
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
-      <c r="AB59" s="74"/>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="74"/>
-      <c r="AE59" s="74"/>
-      <c r="AF59" s="74"/>
-      <c r="AG59" s="74"/>
-      <c r="AH59" s="74"/>
-      <c r="AI59" s="74"/>
-      <c r="AJ59" s="74"/>
-      <c r="AK59" s="74"/>
-      <c r="AL59" s="74"/>
-      <c r="AM59" s="74"/>
-      <c r="AN59" s="74"/>
-      <c r="AO59" s="74"/>
-      <c r="AP59" s="74"/>
-      <c r="AQ59" s="74"/>
-      <c r="AR59" s="74"/>
-      <c r="AS59" s="74"/>
-      <c r="AT59" s="74"/>
-      <c r="AU59" s="74"/>
-      <c r="AV59" s="74"/>
-      <c r="AW59" s="74"/>
-      <c r="AX59" s="74"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="69"/>
+      <c r="W59" s="69"/>
+      <c r="X59" s="69"/>
+      <c r="Y59" s="69"/>
+      <c r="Z59" s="69"/>
+      <c r="AA59" s="69"/>
+      <c r="AB59" s="69"/>
+      <c r="AC59" s="69"/>
+      <c r="AD59" s="69"/>
+      <c r="AE59" s="69"/>
+      <c r="AF59" s="69"/>
+      <c r="AG59" s="69"/>
+      <c r="AH59" s="69"/>
+      <c r="AI59" s="69"/>
+      <c r="AJ59" s="69"/>
+      <c r="AK59" s="69"/>
+      <c r="AL59" s="69"/>
+      <c r="AM59" s="69"/>
+      <c r="AN59" s="69"/>
+      <c r="AO59" s="69"/>
+      <c r="AP59" s="69"/>
+      <c r="AQ59" s="69"/>
+      <c r="AR59" s="69"/>
+      <c r="AS59" s="69"/>
+      <c r="AT59" s="69"/>
+      <c r="AU59" s="69"/>
+      <c r="AV59" s="69"/>
+      <c r="AW59" s="69"/>
+      <c r="AX59" s="69"/>
     </row>
     <row r="60" spans="1:50" ht="98.25" customHeight="1">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70" t="s">
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="70"/>
-      <c r="S60" s="70"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="70"/>
-      <c r="AE60" s="70"/>
-      <c r="AF60" s="70"/>
-      <c r="AG60" s="70"/>
-      <c r="AH60" s="70"/>
-      <c r="AI60" s="70"/>
-      <c r="AJ60" s="70"/>
-      <c r="AK60" s="70"/>
-      <c r="AL60" s="70"/>
-      <c r="AM60" s="70"/>
-      <c r="AN60" s="70"/>
-      <c r="AO60" s="70"/>
-      <c r="AP60" s="70"/>
-      <c r="AQ60" s="70"/>
-      <c r="AR60" s="70"/>
-      <c r="AS60" s="70"/>
-      <c r="AT60" s="70"/>
-      <c r="AU60" s="70"/>
-      <c r="AV60" s="70"/>
-      <c r="AW60" s="70"/>
-      <c r="AX60" s="70"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="57"/>
+      <c r="AF60" s="57"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="57"/>
+      <c r="AI60" s="57"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="57"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="57"/>
+      <c r="AN60" s="57"/>
+      <c r="AO60" s="57"/>
+      <c r="AP60" s="57"/>
+      <c r="AQ60" s="57"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="57"/>
+      <c r="AT60" s="57"/>
+      <c r="AU60" s="57"/>
+      <c r="AV60" s="57"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="57"/>
     </row>
     <row r="61" spans="1:50" ht="117" customHeight="1">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70" t="s">
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
-      <c r="Q61" s="70"/>
-      <c r="R61" s="70"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="70"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="70"/>
-      <c r="AE61" s="70"/>
-      <c r="AF61" s="70"/>
-      <c r="AG61" s="70"/>
-      <c r="AH61" s="70"/>
-      <c r="AI61" s="70"/>
-      <c r="AJ61" s="70"/>
-      <c r="AK61" s="70"/>
-      <c r="AL61" s="70"/>
-      <c r="AM61" s="70"/>
-      <c r="AN61" s="70"/>
-      <c r="AO61" s="70"/>
-      <c r="AP61" s="70"/>
-      <c r="AQ61" s="70"/>
-      <c r="AR61" s="70"/>
-      <c r="AS61" s="70"/>
-      <c r="AT61" s="70"/>
-      <c r="AU61" s="70"/>
-      <c r="AV61" s="70"/>
-      <c r="AW61" s="70"/>
-      <c r="AX61" s="70"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="57"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="57"/>
+      <c r="W61" s="57"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="57"/>
+      <c r="Z61" s="57"/>
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="57"/>
+      <c r="AC61" s="57"/>
+      <c r="AD61" s="57"/>
+      <c r="AE61" s="57"/>
+      <c r="AF61" s="57"/>
+      <c r="AG61" s="57"/>
+      <c r="AH61" s="57"/>
+      <c r="AI61" s="57"/>
+      <c r="AJ61" s="57"/>
+      <c r="AK61" s="57"/>
+      <c r="AL61" s="57"/>
+      <c r="AM61" s="57"/>
+      <c r="AN61" s="57"/>
+      <c r="AO61" s="57"/>
+      <c r="AP61" s="57"/>
+      <c r="AQ61" s="57"/>
+      <c r="AR61" s="57"/>
+      <c r="AS61" s="57"/>
+      <c r="AT61" s="57"/>
+      <c r="AU61" s="57"/>
+      <c r="AV61" s="57"/>
+      <c r="AW61" s="57"/>
+      <c r="AX61" s="57"/>
     </row>
     <row r="62" spans="1:50" ht="107.25" customHeight="1">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="71" t="s">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="M62" s="70"/>
-      <c r="N62" s="70"/>
-      <c r="O62" s="70"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="70"/>
-      <c r="R62" s="70"/>
-      <c r="S62" s="70"/>
-      <c r="T62" s="70"/>
-      <c r="U62" s="70"/>
-      <c r="V62" s="70"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="70"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="70"/>
-      <c r="AA62" s="70"/>
-      <c r="AB62" s="70"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="70"/>
-      <c r="AE62" s="70"/>
-      <c r="AF62" s="70"/>
-      <c r="AG62" s="70"/>
-      <c r="AH62" s="70"/>
-      <c r="AI62" s="70"/>
-      <c r="AJ62" s="70"/>
-      <c r="AK62" s="70"/>
-      <c r="AL62" s="70"/>
-      <c r="AM62" s="70"/>
-      <c r="AN62" s="70"/>
-      <c r="AO62" s="70"/>
-      <c r="AP62" s="70"/>
-      <c r="AQ62" s="70"/>
-      <c r="AR62" s="70"/>
-      <c r="AS62" s="70"/>
-      <c r="AT62" s="70"/>
-      <c r="AU62" s="70"/>
-      <c r="AV62" s="70"/>
-      <c r="AW62" s="70"/>
-      <c r="AX62" s="70"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="57"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="57"/>
+      <c r="Z62" s="57"/>
+      <c r="AA62" s="57"/>
+      <c r="AB62" s="57"/>
+      <c r="AC62" s="57"/>
+      <c r="AD62" s="57"/>
+      <c r="AE62" s="57"/>
+      <c r="AF62" s="57"/>
+      <c r="AG62" s="57"/>
+      <c r="AH62" s="57"/>
+      <c r="AI62" s="57"/>
+      <c r="AJ62" s="57"/>
+      <c r="AK62" s="57"/>
+      <c r="AL62" s="57"/>
+      <c r="AM62" s="57"/>
+      <c r="AN62" s="57"/>
+      <c r="AO62" s="57"/>
+      <c r="AP62" s="57"/>
+      <c r="AQ62" s="57"/>
+      <c r="AR62" s="57"/>
+      <c r="AS62" s="57"/>
+      <c r="AT62" s="57"/>
+      <c r="AU62" s="57"/>
+      <c r="AV62" s="57"/>
+      <c r="AW62" s="57"/>
+      <c r="AX62" s="57"/>
     </row>
     <row r="63" spans="1:50" ht="107.25" customHeight="1">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="71" t="s">
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="70"/>
-      <c r="S63" s="70"/>
-      <c r="T63" s="70"/>
-      <c r="U63" s="70"/>
-      <c r="V63" s="70"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="70"/>
-      <c r="Y63" s="70"/>
-      <c r="Z63" s="70"/>
-      <c r="AA63" s="70"/>
-      <c r="AB63" s="70"/>
-      <c r="AC63" s="70"/>
-      <c r="AD63" s="70"/>
-      <c r="AE63" s="70"/>
-      <c r="AF63" s="70"/>
-      <c r="AG63" s="70"/>
-      <c r="AH63" s="70"/>
-      <c r="AI63" s="70"/>
-      <c r="AJ63" s="70"/>
-      <c r="AK63" s="70"/>
-      <c r="AL63" s="70"/>
-      <c r="AM63" s="70"/>
-      <c r="AN63" s="70"/>
-      <c r="AO63" s="70"/>
-      <c r="AP63" s="70"/>
-      <c r="AQ63" s="70"/>
-      <c r="AR63" s="70"/>
-      <c r="AS63" s="70"/>
-      <c r="AT63" s="70"/>
-      <c r="AU63" s="70"/>
-      <c r="AV63" s="70"/>
-      <c r="AW63" s="70"/>
-      <c r="AX63" s="70"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="57"/>
+      <c r="AD63" s="57"/>
+      <c r="AE63" s="57"/>
+      <c r="AF63" s="57"/>
+      <c r="AG63" s="57"/>
+      <c r="AH63" s="57"/>
+      <c r="AI63" s="57"/>
+      <c r="AJ63" s="57"/>
+      <c r="AK63" s="57"/>
+      <c r="AL63" s="57"/>
+      <c r="AM63" s="57"/>
+      <c r="AN63" s="57"/>
+      <c r="AO63" s="57"/>
+      <c r="AP63" s="57"/>
+      <c r="AQ63" s="57"/>
+      <c r="AR63" s="57"/>
+      <c r="AS63" s="57"/>
+      <c r="AT63" s="57"/>
+      <c r="AU63" s="57"/>
+      <c r="AV63" s="57"/>
+      <c r="AW63" s="57"/>
+      <c r="AX63" s="57"/>
     </row>
     <row r="64" spans="1:50" ht="107.25" customHeight="1">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="71" t="s">
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
-      <c r="S64" s="70"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="70"/>
-      <c r="V64" s="70"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="70"/>
-      <c r="Y64" s="70"/>
-      <c r="Z64" s="70"/>
-      <c r="AA64" s="70"/>
-      <c r="AB64" s="70"/>
-      <c r="AC64" s="70"/>
-      <c r="AD64" s="70"/>
-      <c r="AE64" s="70"/>
-      <c r="AF64" s="70"/>
-      <c r="AG64" s="70"/>
-      <c r="AH64" s="70"/>
-      <c r="AI64" s="70"/>
-      <c r="AJ64" s="70"/>
-      <c r="AK64" s="70"/>
-      <c r="AL64" s="70"/>
-      <c r="AM64" s="70"/>
-      <c r="AN64" s="70"/>
-      <c r="AO64" s="70"/>
-      <c r="AP64" s="70"/>
-      <c r="AQ64" s="70"/>
-      <c r="AR64" s="70"/>
-      <c r="AS64" s="70"/>
-      <c r="AT64" s="70"/>
-      <c r="AU64" s="70"/>
-      <c r="AV64" s="70"/>
-      <c r="AW64" s="70"/>
-      <c r="AX64" s="70"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="57"/>
+      <c r="AE64" s="57"/>
+      <c r="AF64" s="57"/>
+      <c r="AG64" s="57"/>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="57"/>
+      <c r="AJ64" s="57"/>
+      <c r="AK64" s="57"/>
+      <c r="AL64" s="57"/>
+      <c r="AM64" s="57"/>
+      <c r="AN64" s="57"/>
+      <c r="AO64" s="57"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="57"/>
+      <c r="AR64" s="57"/>
+      <c r="AS64" s="57"/>
+      <c r="AT64" s="57"/>
+      <c r="AU64" s="57"/>
+      <c r="AV64" s="57"/>
+      <c r="AW64" s="57"/>
+      <c r="AX64" s="57"/>
     </row>
     <row r="65" spans="1:50" ht="107.25" customHeight="1">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="71" t="s">
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="M65" s="70"/>
-      <c r="N65" s="70"/>
-      <c r="O65" s="70"/>
-      <c r="P65" s="70"/>
-      <c r="Q65" s="70"/>
-      <c r="R65" s="70"/>
-      <c r="S65" s="70"/>
-      <c r="T65" s="70"/>
-      <c r="U65" s="70"/>
-      <c r="V65" s="70"/>
-      <c r="W65" s="70"/>
-      <c r="X65" s="70"/>
-      <c r="Y65" s="70"/>
-      <c r="Z65" s="70"/>
-      <c r="AA65" s="70"/>
-      <c r="AB65" s="70"/>
-      <c r="AC65" s="70"/>
-      <c r="AD65" s="70"/>
-      <c r="AE65" s="70"/>
-      <c r="AF65" s="70"/>
-      <c r="AG65" s="70"/>
-      <c r="AH65" s="70"/>
-      <c r="AI65" s="70"/>
-      <c r="AJ65" s="70"/>
-      <c r="AK65" s="70"/>
-      <c r="AL65" s="70"/>
-      <c r="AM65" s="70"/>
-      <c r="AN65" s="70"/>
-      <c r="AO65" s="70"/>
-      <c r="AP65" s="70"/>
-      <c r="AQ65" s="70"/>
-      <c r="AR65" s="70"/>
-      <c r="AS65" s="70"/>
-      <c r="AT65" s="70"/>
-      <c r="AU65" s="70"/>
-      <c r="AV65" s="70"/>
-      <c r="AW65" s="70"/>
-      <c r="AX65" s="70"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
+      <c r="U65" s="57"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="57"/>
+      <c r="Z65" s="57"/>
+      <c r="AA65" s="57"/>
+      <c r="AB65" s="57"/>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="57"/>
+      <c r="AE65" s="57"/>
+      <c r="AF65" s="57"/>
+      <c r="AG65" s="57"/>
+      <c r="AH65" s="57"/>
+      <c r="AI65" s="57"/>
+      <c r="AJ65" s="57"/>
+      <c r="AK65" s="57"/>
+      <c r="AL65" s="57"/>
+      <c r="AM65" s="57"/>
+      <c r="AN65" s="57"/>
+      <c r="AO65" s="57"/>
+      <c r="AP65" s="57"/>
+      <c r="AQ65" s="57"/>
+      <c r="AR65" s="57"/>
+      <c r="AS65" s="57"/>
+      <c r="AT65" s="57"/>
+      <c r="AU65" s="57"/>
+      <c r="AV65" s="57"/>
+      <c r="AW65" s="57"/>
+      <c r="AX65" s="57"/>
     </row>
     <row r="66" spans="1:50" ht="18.75"/>
     <row r="67" spans="1:50" ht="18.75"/>
@@ -11025,6 +11028,201 @@
     <row r="69" spans="1:50" ht="18.75"/>
   </sheetData>
   <mergeCells count="219">
+    <mergeCell ref="A3:AX3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AX1"/>
+    <mergeCell ref="A2:AX2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AF39:AI39"/>
+    <mergeCell ref="AJ39:AX39"/>
+    <mergeCell ref="A4:AX4"/>
+    <mergeCell ref="A5:AX34"/>
+    <mergeCell ref="A35:AX35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AI36"/>
+    <mergeCell ref="AJ36:AX36"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AI37"/>
+    <mergeCell ref="AJ37:AX37"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="L65:AX65"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AI38"/>
+    <mergeCell ref="AJ38:AX38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A56:AX56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="L57:AX57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="AF41:AI41"/>
+    <mergeCell ref="AJ41:AX41"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="AA42:AC42"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AF42:AI42"/>
+    <mergeCell ref="AJ42:AX42"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AF40:AI40"/>
+    <mergeCell ref="AJ40:AX40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="X44:Z44"/>
+    <mergeCell ref="AA44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AJ44:AX44"/>
+    <mergeCell ref="L44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AI43"/>
+    <mergeCell ref="AJ43:AX43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X45:Z45"/>
+    <mergeCell ref="AA45:AC45"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="AJ45:AX45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="L47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
+    <mergeCell ref="AJ46:AX46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AF49:AI49"/>
+    <mergeCell ref="AJ49:AX49"/>
+    <mergeCell ref="L49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A40:B49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AA48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AI48"/>
+    <mergeCell ref="AJ48:AX48"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="L48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AA47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AJ47:AX47"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AI51"/>
+    <mergeCell ref="AJ51:AX51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AJ52:AX52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="L64:AX64"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AF55:AI55"/>
+    <mergeCell ref="AJ55:AX55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="L59:AX59"/>
+    <mergeCell ref="L58:AX58"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AC53"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="L61:AX61"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="L63:AX63"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:AX62"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="AF53:AI53"/>
+    <mergeCell ref="AJ53:AX53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:W53"/>
     <mergeCell ref="C42:K42"/>
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="C44:K44"/>
@@ -11049,201 +11247,6 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="C54:K54"/>
     <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA53:AC53"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="L61:AX61"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="L63:AX63"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L62:AX62"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="L64:AX64"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="AF55:AI55"/>
-    <mergeCell ref="AJ55:AX55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="L55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="L59:AX59"/>
-    <mergeCell ref="L58:AX58"/>
-    <mergeCell ref="AD53:AE53"/>
-    <mergeCell ref="AF53:AI53"/>
-    <mergeCell ref="AJ53:AX53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AF52:AI52"/>
-    <mergeCell ref="AJ52:AX52"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AI51"/>
-    <mergeCell ref="AJ51:AX51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="L51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AF49:AI49"/>
-    <mergeCell ref="AJ49:AX49"/>
-    <mergeCell ref="L49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="A40:B49"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AA48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AF48:AI48"/>
-    <mergeCell ref="AJ48:AX48"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="L48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AA47:AC47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="AJ47:AX47"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="L47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="AF46:AI46"/>
-    <mergeCell ref="AJ46:AX46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="AA45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="AJ45:AX45"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="AA44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AJ44:AX44"/>
-    <mergeCell ref="L44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AI43"/>
-    <mergeCell ref="AJ43:AX43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AJ40:AX40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AJ41:AX41"/>
-    <mergeCell ref="L42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="AA42:AC42"/>
-    <mergeCell ref="AD42:AE42"/>
-    <mergeCell ref="AF42:AI42"/>
-    <mergeCell ref="AJ42:AX42"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="L65:AX65"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="AJ38:AX38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A56:AX56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="L57:AX57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:Q41"/>
-    <mergeCell ref="AF41:AI41"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AI36"/>
-    <mergeCell ref="AJ36:AX36"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AI37"/>
-    <mergeCell ref="AJ37:AX37"/>
-    <mergeCell ref="A3:AX3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AX1"/>
-    <mergeCell ref="A2:AX2"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="AJ39:AX39"/>
-    <mergeCell ref="A4:AX4"/>
-    <mergeCell ref="A5:AX34"/>
-    <mergeCell ref="A35:AX35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:W36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">

--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="982" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E7C68ED-64BD-4D02-AB0F-F0F7695628A3}"/>
+  <xr:revisionPtr revIDLastSave="1127" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B79BB4-5ABE-41CB-8ACB-6FC19F15A14E}"/>
   <bookViews>
-    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11412" yWindow="0" windowWidth="11724" windowHeight="12336" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="114">
   <si>
     <t>電卓アプリ</t>
   </si>
@@ -329,16 +329,22 @@
     <t>⑥</t>
   </si>
   <si>
-    <t>オールクリアボタン</t>
+    <t>エラー表示欄</t>
   </si>
   <si>
     <t>⑦</t>
   </si>
   <si>
+    <t>オールクリアボタン</t>
+  </si>
+  <si>
+    <t>⑧</t>
+  </si>
+  <si>
     <t>クリアボタン</t>
   </si>
   <si>
-    <t>⑧</t>
+    <t>⑨</t>
   </si>
   <si>
     <t>数字ボタン（1）</t>
@@ -371,19 +377,19 @@
     <t>数字ボタン（0）</t>
   </si>
   <si>
-    <t>⑨</t>
+    <t>⑩</t>
   </si>
   <si>
     <t>小数点ボタン</t>
   </si>
   <si>
-    <t>⑩</t>
+    <t>⑪</t>
   </si>
   <si>
     <t>等号ボタン</t>
   </si>
   <si>
-    <t>⑪</t>
+    <t>⑫</t>
   </si>
   <si>
     <t>除算ボタン</t>
@@ -392,19 +398,19 @@
     <t>「0」で除算を行なった場合、⑤計算結果表示欄に、「Error」を表示する。</t>
   </si>
   <si>
-    <t>⑫</t>
+    <t>⑬</t>
   </si>
   <si>
     <t>乗算ボタン</t>
   </si>
   <si>
-    <t>⑬</t>
+    <t>⑭</t>
   </si>
   <si>
     <t>減算ボタン</t>
   </si>
   <si>
-    <t>⑭</t>
+    <t>⑮</t>
   </si>
   <si>
     <t>加算ボタン</t>
@@ -438,40 +444,58 @@
     <t>④計算過程表示欄</t>
   </si>
   <si>
-    <t>計算過程を表示する。</t>
+    <t xml:space="preserve">1) ⑫～⑮のいずれかのボタンを押下。
+→⑤計算結果表示欄の値と、押下した⑫～⑮のボタンの演算子の値を結合して④計算過程表示欄に出力する。
+例：⑤計算結果表示欄の値 が「 1 」、加算ボタン押下の場合
+　　④計算過程表示欄は、「 1+ 」になる。
+2) ⑤計算結果表示欄に、⑨数字ボタン押下で値を出力。
+→④計算過程表示欄は変更なし。
+例：計算結果表示欄に、⑨数字ボタン（2）を押下で、「 2 」を出力。
+　　④計算過程表示欄は、「 1+ 」のまま。
+3) ⑪～⑮のいずれかのボタンを押下。
+　　3-1 ) ⑪の等号ボタンを押下した場合
+　　　　→④計算過程表示欄と、⑤計算過程表示欄の値との演算結果で、④計算過程表示欄を上書きする。
+              例：④計算過程表示欄は、「 1+ 」、計算結果表示欄は、「 2 」の場合
+　　　　　　④計算過程表示欄は、「 1+ 」⇒「 3 」に上書きされる。（1+2の結果）
+　　3-2）⑫～⑮のいずれかのボタンを押下した場合
+　　　　→④計算過程表示欄と、⑤計算過程表示欄の値との演算結果と、押下した⑫～⑮のボタンの演算子の値
+　　　　　を結合して、④計算過程表示欄を上書きする。
+              例：④計算過程表示欄は、「 1+ 」、計算結果表示欄は、「 2 」、加算ボタン押下の場合
+　　　　　　④計算過程表示欄は、「 1+ 」⇒「 3+ 」に上書きされる。（1+2の結果）
+</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄</t>
+    <t>⑥エラー表示欄</t>
   </si>
   <si>
-    <t>＜数値が計算結果表示欄に表示できる桁数を超えた場合＞
-⑤計算結果表示欄に、「Error」を表示する。</t>
+    <t>＜⑤計算結果表示欄の値が、⑤計算結果表示欄の最大桁数を超えた場合＞
+⑥エラー表示欄に、「E」を表示。</t>
   </si>
   <si>
-    <t>⑥オールクリアボタン押下</t>
+    <t>⑦オールクリアボタン押下</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄に表示されている数値、計算過程を全て消去する。</t>
+    <t>④計算過程表示欄、⑤計算結果表示欄に表示されている値を全て消去する。</t>
   </si>
   <si>
-    <t>⑦クリアボタン押下</t>
+    <t>⑧クリアボタン押下</t>
   </si>
   <si>
     <t>⑤計算結果表示欄に表示されている数値のみを消去する。</t>
   </si>
   <si>
-    <t>⑧数字ボタン押下</t>
+    <t>⑨数字ボタン押下</t>
   </si>
   <si>
     <t>＜⑤計算結果表示欄に、「0」のみが入力されている場合＞
 →「0」を上書きして、「押下した数字ボタンの値」を出力する。
 ＜⑤計算結果表示欄に、「0」以外の数値が入力されている場合＞
 →⑤計算結果表示欄に表示されている数値の末尾に、「押下した数字ボタンの値」を結合して出力する。
-＜事前に⑩～⑭のいずれかのボタンを押下している場合＞
+＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
 →⑤計算結果表示欄に、「押下した数字ボタンの値」を出力する。</t>
   </si>
   <si>
-    <t>⑨小数点ボタン押下</t>
+    <t>⑩小数点ボタン押下</t>
   </si>
   <si>
     <t>⑤計算結果表示欄に表示されている数値の末尾に、「.」を結合して出力する。
@@ -479,43 +503,43 @@
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑩等号ボタン押下</t>
+    <t>⑪等号ボタン押下</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄に入力されている値と、⑪～⑭のいずれかのボタン押下後に、⑤計算結果表示欄に入力した値の演算結果を、等号ボタン押下することで、⑤計算結果表示欄に出力する。
+    <t>⑤計算結果表示欄に入力されている値と、⑫～⑮のいずれかのボタン押下後に、⑤計算結果表示欄に入力した値の演算結果を、等号ボタン押下することで、⑤計算結果表示欄に出力する。
 ＜上記以外の場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑪除算ボタン押下</t>
+    <t>⑫除算ボタン押下</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄に入力されている値を、除算ボタン押下後に、⑤計算結果表示欄に入力した値で除算した結果を、⑩～⑭のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
-＜事前に⑩～⑭のいずれかのボタンを押下している場合＞
+    <t>⑤計算結果表示欄に入力されている値を、除算ボタン押下後に、⑤計算結果表示欄に入力した値で除算した結果を、⑪～⑮のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
+＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑫乗算ボタン押下</t>
+    <t>⑬乗算ボタン押下</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄に入力されている値と、乗算ボタン押下後に、⑤計算結果表示欄に入力した値を乗算した結果を、⑩～⑭のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
-＜事前に⑩～⑭のいずれかのボタンを押下している場合＞
+    <t>⑤計算結果表示欄に入力されている値と、乗算ボタン押下後に、⑤計算結果表示欄に入力した値を乗算した結果を、⑪～⑮のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
+＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑬減算ボタン押下</t>
+    <t>⑭減算ボタン押下</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄に入力されている値と、減算ボタン押下後に、⑤計算結果表示欄に入力した値を減算した結果を、⑩～⑭のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
-＜事前に⑩～⑭のいずれかのボタンを押下している場合＞
+    <t>⑤計算結果表示欄に入力されている値と、減算ボタン押下後に、⑤計算結果表示欄に入力した値を減算した結果を、⑪～⑮のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
+＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
   <si>
-    <t>⑭加算ボタン押下</t>
+    <t>⑮加算ボタン押下</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄に入力されている値と、加算ボタン押下後に、⑤計算結果表示欄に入力した値を加算した結果を、⑩～⑭のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
-＜事前に⑩～⑭のいずれかのボタンを押下している場合＞
+    <t>⑤計算結果表示欄に入力されている値と、加算ボタン押下後に、⑤計算結果表示欄に入力した値を加算した結果を、⑪～⑮のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
+＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
 →何も処理を行わない。</t>
   </si>
 </sst>
@@ -1267,9 +1291,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,10 +1303,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2619,14 +2643,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
@@ -2644,7 +2668,7 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="2" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
           <a:endCxn id="17" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
@@ -2654,9 +2678,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2000250" y="2328863"/>
-          <a:ext cx="695325" cy="361950"/>
+        <a:xfrm flipV="1">
+          <a:off x="5114925" y="2433638"/>
+          <a:ext cx="733425" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2681,16 +2705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2708,8 +2732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981200" y="2476500"/>
-          <a:ext cx="361950" cy="333375"/>
+          <a:off x="5543550" y="2295525"/>
+          <a:ext cx="304800" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2920,7 +2944,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑪</a:t>
+            <a:t>⑫</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3401,7 +3425,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑫</a:t>
+            <a:t>⑬</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3572,7 +3596,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑬</a:t>
+            <a:t>⑭</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3743,7 +3767,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑭</a:t>
+            <a:t>⑮</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3914,7 +3938,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑥</a:t>
+            <a:t>⑦</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4085,7 +4109,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑧</a:t>
+            <a:t>⑨</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4379,7 +4403,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑦</a:t>
+            <a:t>⑧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5167,7 +5191,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑩</a:t>
+            <a:t>⑪</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5338,7 +5362,7 @@
               <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>⑨</a:t>
+            <a:t>⑩</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6945,6 +6969,451 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2028825" y="1852613"/>
           <a:ext cx="685800" cy="414337"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431BD106-21CC-DB83-64E4-77FE3171A9F0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A8F81D8A-5294-40FB-B926-4EB62826EF79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="2628900"/>
+          <a:ext cx="209550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9D14C2-AF73-40AA-BE64-E30723009D50}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{431BD106-21CC-DB83-64E4-77FE3171A9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="2600325"/>
+          <a:ext cx="228600" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288AB992-5BC5-4D6D-9463-E5C24085D366}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ED9D14C2-AF73-40AA-BE64-E30723009D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="2628900"/>
+          <a:ext cx="323850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Yu Gothic" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60AC6B7-F611-4EBC-8B38-B99C39E3919C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{288AB992-5BC5-4D6D-9463-E5C24085D366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="50" idx="1"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{288AB992-5BC5-4D6D-9463-E5C24085D366}" end="{431BD106-21CC-DB83-64E4-77FE3171A9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="2776538"/>
+          <a:ext cx="438150" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7293,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239406D8-248F-4C31-A5B1-C0AF7D79A972}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="18"/>
   <cols>
@@ -8915,10 +9384,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY78"/>
+  <dimension ref="A1:AY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AY34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10875,10 +11344,10 @@
       <c r="AY36" s="81"/>
     </row>
     <row r="37" spans="1:51" ht="30" customHeight="1">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="66"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="58" t="s">
         <v>39</v>
       </c>
@@ -10929,27 +11398,27 @@
       <c r="AH37" s="65"/>
       <c r="AI37" s="65"/>
       <c r="AJ37" s="65"/>
-      <c r="AK37" s="70"/>
-      <c r="AL37" s="70"/>
-      <c r="AM37" s="70"/>
-      <c r="AN37" s="70"/>
-      <c r="AO37" s="70"/>
-      <c r="AP37" s="70"/>
-      <c r="AQ37" s="70"/>
-      <c r="AR37" s="70"/>
-      <c r="AS37" s="70"/>
-      <c r="AT37" s="70"/>
-      <c r="AU37" s="70"/>
-      <c r="AV37" s="70"/>
-      <c r="AW37" s="70"/>
-      <c r="AX37" s="70"/>
-      <c r="AY37" s="70"/>
+      <c r="AK37" s="69"/>
+      <c r="AL37" s="69"/>
+      <c r="AM37" s="69"/>
+      <c r="AN37" s="69"/>
+      <c r="AO37" s="69"/>
+      <c r="AP37" s="69"/>
+      <c r="AQ37" s="69"/>
+      <c r="AR37" s="69"/>
+      <c r="AS37" s="69"/>
+      <c r="AT37" s="69"/>
+      <c r="AU37" s="69"/>
+      <c r="AV37" s="69"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="69"/>
+      <c r="AY37" s="69"/>
     </row>
     <row r="38" spans="1:51" ht="30" customHeight="1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="66"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="58" t="s">
         <v>44</v>
       </c>
@@ -11000,27 +11469,27 @@
       <c r="AH38" s="65"/>
       <c r="AI38" s="65"/>
       <c r="AJ38" s="65"/>
-      <c r="AK38" s="70"/>
-      <c r="AL38" s="70"/>
-      <c r="AM38" s="70"/>
-      <c r="AN38" s="70"/>
-      <c r="AO38" s="70"/>
-      <c r="AP38" s="70"/>
-      <c r="AQ38" s="70"/>
-      <c r="AR38" s="70"/>
-      <c r="AS38" s="70"/>
-      <c r="AT38" s="70"/>
-      <c r="AU38" s="70"/>
-      <c r="AV38" s="70"/>
-      <c r="AW38" s="70"/>
-      <c r="AX38" s="70"/>
-      <c r="AY38" s="70"/>
+      <c r="AK38" s="69"/>
+      <c r="AL38" s="69"/>
+      <c r="AM38" s="69"/>
+      <c r="AN38" s="69"/>
+      <c r="AO38" s="69"/>
+      <c r="AP38" s="69"/>
+      <c r="AQ38" s="69"/>
+      <c r="AR38" s="69"/>
+      <c r="AS38" s="69"/>
+      <c r="AT38" s="69"/>
+      <c r="AU38" s="69"/>
+      <c r="AV38" s="69"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="69"/>
+      <c r="AY38" s="69"/>
     </row>
     <row r="39" spans="1:51" ht="30" customHeight="1">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="66"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="58" t="s">
         <v>46</v>
       </c>
@@ -11071,21 +11540,21 @@
       <c r="AH39" s="65"/>
       <c r="AI39" s="65"/>
       <c r="AJ39" s="65"/>
-      <c r="AK39" s="70"/>
-      <c r="AL39" s="70"/>
-      <c r="AM39" s="70"/>
-      <c r="AN39" s="70"/>
-      <c r="AO39" s="70"/>
-      <c r="AP39" s="70"/>
-      <c r="AQ39" s="70"/>
-      <c r="AR39" s="70"/>
-      <c r="AS39" s="70"/>
-      <c r="AT39" s="70"/>
-      <c r="AU39" s="70"/>
-      <c r="AV39" s="70"/>
-      <c r="AW39" s="70"/>
-      <c r="AX39" s="70"/>
-      <c r="AY39" s="70"/>
+      <c r="AK39" s="69"/>
+      <c r="AL39" s="69"/>
+      <c r="AM39" s="69"/>
+      <c r="AN39" s="69"/>
+      <c r="AO39" s="69"/>
+      <c r="AP39" s="69"/>
+      <c r="AQ39" s="69"/>
+      <c r="AR39" s="69"/>
+      <c r="AS39" s="69"/>
+      <c r="AT39" s="69"/>
+      <c r="AU39" s="69"/>
+      <c r="AV39" s="69"/>
+      <c r="AW39" s="69"/>
+      <c r="AX39" s="69"/>
+      <c r="AY39" s="69"/>
     </row>
     <row r="40" spans="1:51" ht="30" customHeight="1">
       <c r="A40" s="56" t="s">
@@ -11142,21 +11611,21 @@
       <c r="AH40" s="65"/>
       <c r="AI40" s="65"/>
       <c r="AJ40" s="65"/>
-      <c r="AK40" s="70"/>
-      <c r="AL40" s="70"/>
-      <c r="AM40" s="70"/>
-      <c r="AN40" s="70"/>
-      <c r="AO40" s="70"/>
-      <c r="AP40" s="70"/>
-      <c r="AQ40" s="70"/>
-      <c r="AR40" s="70"/>
-      <c r="AS40" s="70"/>
-      <c r="AT40" s="70"/>
-      <c r="AU40" s="70"/>
-      <c r="AV40" s="70"/>
-      <c r="AW40" s="70"/>
-      <c r="AX40" s="70"/>
-      <c r="AY40" s="70"/>
+      <c r="AK40" s="69"/>
+      <c r="AL40" s="69"/>
+      <c r="AM40" s="69"/>
+      <c r="AN40" s="69"/>
+      <c r="AO40" s="69"/>
+      <c r="AP40" s="69"/>
+      <c r="AQ40" s="69"/>
+      <c r="AR40" s="69"/>
+      <c r="AS40" s="69"/>
+      <c r="AT40" s="69"/>
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="69"/>
+      <c r="AW40" s="69"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="69"/>
     </row>
     <row r="41" spans="1:51" ht="36.75" customHeight="1">
       <c r="A41" s="56" t="s">
@@ -11213,23 +11682,23 @@
       <c r="AH41" s="65"/>
       <c r="AI41" s="65"/>
       <c r="AJ41" s="65"/>
-      <c r="AK41" s="70" t="s">
+      <c r="AK41" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="AL41" s="70"/>
-      <c r="AM41" s="70"/>
-      <c r="AN41" s="70"/>
-      <c r="AO41" s="70"/>
-      <c r="AP41" s="70"/>
-      <c r="AQ41" s="70"/>
-      <c r="AR41" s="70"/>
-      <c r="AS41" s="70"/>
-      <c r="AT41" s="70"/>
-      <c r="AU41" s="70"/>
-      <c r="AV41" s="70"/>
-      <c r="AW41" s="70"/>
-      <c r="AX41" s="70"/>
-      <c r="AY41" s="70"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="69"/>
+      <c r="AN41" s="69"/>
+      <c r="AO41" s="69"/>
+      <c r="AP41" s="69"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="69"/>
+      <c r="AS41" s="69"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="69"/>
+      <c r="AV41" s="69"/>
+      <c r="AW41" s="69"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="69"/>
     </row>
     <row r="42" spans="1:51" ht="30" customHeight="1">
       <c r="A42" s="56" t="s">
@@ -11248,7 +11717,7 @@
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
       <c r="L42" s="59" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M42" s="59"/>
       <c r="N42" s="59"/>
@@ -11257,22 +11726,22 @@
       <c r="Q42" s="59"/>
       <c r="R42" s="59"/>
       <c r="S42" s="59" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="T42" s="59"/>
       <c r="U42" s="60" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V42" s="61"/>
       <c r="W42" s="61"/>
       <c r="X42" s="62"/>
-      <c r="Y42" s="63" t="s">
-        <v>42</v>
+      <c r="Y42" s="63">
+        <v>1</v>
       </c>
       <c r="Z42" s="63"/>
       <c r="AA42" s="63"/>
-      <c r="AB42" s="63" t="s">
-        <v>42</v>
+      <c r="AB42" s="63">
+        <v>0</v>
       </c>
       <c r="AC42" s="63"/>
       <c r="AD42" s="63"/>
@@ -11286,21 +11755,21 @@
       <c r="AH42" s="65"/>
       <c r="AI42" s="65"/>
       <c r="AJ42" s="65"/>
-      <c r="AK42" s="70"/>
-      <c r="AL42" s="70"/>
-      <c r="AM42" s="70"/>
-      <c r="AN42" s="70"/>
-      <c r="AO42" s="70"/>
-      <c r="AP42" s="70"/>
-      <c r="AQ42" s="70"/>
-      <c r="AR42" s="70"/>
-      <c r="AS42" s="70"/>
-      <c r="AT42" s="70"/>
-      <c r="AU42" s="70"/>
-      <c r="AV42" s="70"/>
-      <c r="AW42" s="70"/>
-      <c r="AX42" s="70"/>
-      <c r="AY42" s="70"/>
+      <c r="AK42" s="69"/>
+      <c r="AL42" s="69"/>
+      <c r="AM42" s="69"/>
+      <c r="AN42" s="69"/>
+      <c r="AO42" s="69"/>
+      <c r="AP42" s="69"/>
+      <c r="AQ42" s="69"/>
+      <c r="AR42" s="69"/>
+      <c r="AS42" s="69"/>
+      <c r="AT42" s="69"/>
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="69"/>
+      <c r="AY42" s="69"/>
     </row>
     <row r="43" spans="1:51" ht="30" customHeight="1">
       <c r="A43" s="56" t="s">
@@ -11357,27 +11826,27 @@
       <c r="AH43" s="65"/>
       <c r="AI43" s="65"/>
       <c r="AJ43" s="65"/>
-      <c r="AK43" s="70"/>
-      <c r="AL43" s="70"/>
-      <c r="AM43" s="70"/>
-      <c r="AN43" s="70"/>
-      <c r="AO43" s="70"/>
-      <c r="AP43" s="70"/>
-      <c r="AQ43" s="70"/>
-      <c r="AR43" s="70"/>
-      <c r="AS43" s="70"/>
-      <c r="AT43" s="70"/>
-      <c r="AU43" s="70"/>
-      <c r="AV43" s="70"/>
-      <c r="AW43" s="70"/>
-      <c r="AX43" s="70"/>
-      <c r="AY43" s="70"/>
+      <c r="AK43" s="69"/>
+      <c r="AL43" s="69"/>
+      <c r="AM43" s="69"/>
+      <c r="AN43" s="69"/>
+      <c r="AO43" s="69"/>
+      <c r="AP43" s="69"/>
+      <c r="AQ43" s="69"/>
+      <c r="AR43" s="69"/>
+      <c r="AS43" s="69"/>
+      <c r="AT43" s="69"/>
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="69"/>
+      <c r="AW43" s="69"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="69"/>
     </row>
     <row r="44" spans="1:51" ht="30" customHeight="1">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="74"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="58" t="s">
         <v>60</v>
       </c>
@@ -11428,36 +11897,38 @@
       <c r="AH44" s="65"/>
       <c r="AI44" s="65"/>
       <c r="AJ44" s="65"/>
-      <c r="AK44" s="70"/>
-      <c r="AL44" s="70"/>
-      <c r="AM44" s="70"/>
-      <c r="AN44" s="70"/>
-      <c r="AO44" s="70"/>
-      <c r="AP44" s="70"/>
-      <c r="AQ44" s="70"/>
-      <c r="AR44" s="70"/>
-      <c r="AS44" s="70"/>
-      <c r="AT44" s="70"/>
-      <c r="AU44" s="70"/>
-      <c r="AV44" s="70"/>
-      <c r="AW44" s="70"/>
-      <c r="AX44" s="70"/>
-      <c r="AY44" s="70"/>
+      <c r="AK44" s="69"/>
+      <c r="AL44" s="69"/>
+      <c r="AM44" s="69"/>
+      <c r="AN44" s="69"/>
+      <c r="AO44" s="69"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="69"/>
+      <c r="AR44" s="69"/>
+      <c r="AS44" s="69"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="69"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="69"/>
+      <c r="AY44" s="69"/>
     </row>
     <row r="45" spans="1:51" ht="30" customHeight="1">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="67" t="s">
+      <c r="A45" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="69"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
       <c r="L45" s="59" t="s">
         <v>40</v>
       </c>
@@ -11497,36 +11968,36 @@
       <c r="AH45" s="65"/>
       <c r="AI45" s="65"/>
       <c r="AJ45" s="65"/>
-      <c r="AK45" s="70"/>
-      <c r="AL45" s="70"/>
-      <c r="AM45" s="70"/>
-      <c r="AN45" s="70"/>
-      <c r="AO45" s="70"/>
-      <c r="AP45" s="70"/>
-      <c r="AQ45" s="70"/>
-      <c r="AR45" s="70"/>
-      <c r="AS45" s="70"/>
-      <c r="AT45" s="70"/>
-      <c r="AU45" s="70"/>
-      <c r="AV45" s="70"/>
-      <c r="AW45" s="70"/>
-      <c r="AX45" s="70"/>
-      <c r="AY45" s="70"/>
+      <c r="AK45" s="69"/>
+      <c r="AL45" s="69"/>
+      <c r="AM45" s="69"/>
+      <c r="AN45" s="69"/>
+      <c r="AO45" s="69"/>
+      <c r="AP45" s="69"/>
+      <c r="AQ45" s="69"/>
+      <c r="AR45" s="69"/>
+      <c r="AS45" s="69"/>
+      <c r="AT45" s="69"/>
+      <c r="AU45" s="69"/>
+      <c r="AV45" s="69"/>
+      <c r="AW45" s="69"/>
+      <c r="AX45" s="69"/>
+      <c r="AY45" s="69"/>
     </row>
     <row r="46" spans="1:51" ht="30" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="76"/>
-      <c r="C46" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="69"/>
+      <c r="C46" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
       <c r="L46" s="59" t="s">
         <v>40</v>
       </c>
@@ -11566,36 +12037,36 @@
       <c r="AH46" s="65"/>
       <c r="AI46" s="65"/>
       <c r="AJ46" s="65"/>
-      <c r="AK46" s="70"/>
-      <c r="AL46" s="70"/>
-      <c r="AM46" s="70"/>
-      <c r="AN46" s="70"/>
-      <c r="AO46" s="70"/>
-      <c r="AP46" s="70"/>
-      <c r="AQ46" s="70"/>
-      <c r="AR46" s="70"/>
-      <c r="AS46" s="70"/>
-      <c r="AT46" s="70"/>
-      <c r="AU46" s="70"/>
-      <c r="AV46" s="70"/>
-      <c r="AW46" s="70"/>
-      <c r="AX46" s="70"/>
-      <c r="AY46" s="70"/>
+      <c r="AK46" s="69"/>
+      <c r="AL46" s="69"/>
+      <c r="AM46" s="69"/>
+      <c r="AN46" s="69"/>
+      <c r="AO46" s="69"/>
+      <c r="AP46" s="69"/>
+      <c r="AQ46" s="69"/>
+      <c r="AR46" s="69"/>
+      <c r="AS46" s="69"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="69"/>
+      <c r="AX46" s="69"/>
+      <c r="AY46" s="69"/>
     </row>
     <row r="47" spans="1:51" ht="30" customHeight="1">
       <c r="A47" s="75"/>
       <c r="B47" s="76"/>
-      <c r="C47" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="69"/>
+      <c r="C47" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="68"/>
       <c r="L47" s="59" t="s">
         <v>40</v>
       </c>
@@ -11635,36 +12106,36 @@
       <c r="AH47" s="65"/>
       <c r="AI47" s="65"/>
       <c r="AJ47" s="65"/>
-      <c r="AK47" s="70"/>
-      <c r="AL47" s="70"/>
-      <c r="AM47" s="70"/>
-      <c r="AN47" s="70"/>
-      <c r="AO47" s="70"/>
-      <c r="AP47" s="70"/>
-      <c r="AQ47" s="70"/>
-      <c r="AR47" s="70"/>
-      <c r="AS47" s="70"/>
-      <c r="AT47" s="70"/>
-      <c r="AU47" s="70"/>
-      <c r="AV47" s="70"/>
-      <c r="AW47" s="70"/>
-      <c r="AX47" s="70"/>
-      <c r="AY47" s="70"/>
+      <c r="AK47" s="69"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="69"/>
+      <c r="AO47" s="69"/>
+      <c r="AP47" s="69"/>
+      <c r="AQ47" s="69"/>
+      <c r="AR47" s="69"/>
+      <c r="AS47" s="69"/>
+      <c r="AT47" s="69"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="69"/>
+      <c r="AW47" s="69"/>
+      <c r="AX47" s="69"/>
+      <c r="AY47" s="69"/>
     </row>
     <row r="48" spans="1:51" ht="30" customHeight="1">
       <c r="A48" s="75"/>
       <c r="B48" s="76"/>
-      <c r="C48" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="69"/>
+      <c r="C48" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
       <c r="L48" s="59" t="s">
         <v>40</v>
       </c>
@@ -11704,36 +12175,36 @@
       <c r="AH48" s="65"/>
       <c r="AI48" s="65"/>
       <c r="AJ48" s="65"/>
-      <c r="AK48" s="70"/>
-      <c r="AL48" s="70"/>
-      <c r="AM48" s="70"/>
-      <c r="AN48" s="70"/>
-      <c r="AO48" s="70"/>
-      <c r="AP48" s="70"/>
-      <c r="AQ48" s="70"/>
-      <c r="AR48" s="70"/>
-      <c r="AS48" s="70"/>
-      <c r="AT48" s="70"/>
-      <c r="AU48" s="70"/>
-      <c r="AV48" s="70"/>
-      <c r="AW48" s="70"/>
-      <c r="AX48" s="70"/>
-      <c r="AY48" s="70"/>
+      <c r="AK48" s="69"/>
+      <c r="AL48" s="69"/>
+      <c r="AM48" s="69"/>
+      <c r="AN48" s="69"/>
+      <c r="AO48" s="69"/>
+      <c r="AP48" s="69"/>
+      <c r="AQ48" s="69"/>
+      <c r="AR48" s="69"/>
+      <c r="AS48" s="69"/>
+      <c r="AT48" s="69"/>
+      <c r="AU48" s="69"/>
+      <c r="AV48" s="69"/>
+      <c r="AW48" s="69"/>
+      <c r="AX48" s="69"/>
+      <c r="AY48" s="69"/>
     </row>
     <row r="49" spans="1:51" ht="30" customHeight="1">
       <c r="A49" s="75"/>
       <c r="B49" s="76"/>
-      <c r="C49" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="C49" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
       <c r="L49" s="59" t="s">
         <v>40</v>
       </c>
@@ -11773,36 +12244,36 @@
       <c r="AH49" s="65"/>
       <c r="AI49" s="65"/>
       <c r="AJ49" s="65"/>
-      <c r="AK49" s="70"/>
-      <c r="AL49" s="70"/>
-      <c r="AM49" s="70"/>
-      <c r="AN49" s="70"/>
-      <c r="AO49" s="70"/>
-      <c r="AP49" s="70"/>
-      <c r="AQ49" s="70"/>
-      <c r="AR49" s="70"/>
-      <c r="AS49" s="70"/>
-      <c r="AT49" s="70"/>
-      <c r="AU49" s="70"/>
-      <c r="AV49" s="70"/>
-      <c r="AW49" s="70"/>
-      <c r="AX49" s="70"/>
-      <c r="AY49" s="70"/>
+      <c r="AK49" s="69"/>
+      <c r="AL49" s="69"/>
+      <c r="AM49" s="69"/>
+      <c r="AN49" s="69"/>
+      <c r="AO49" s="69"/>
+      <c r="AP49" s="69"/>
+      <c r="AQ49" s="69"/>
+      <c r="AR49" s="69"/>
+      <c r="AS49" s="69"/>
+      <c r="AT49" s="69"/>
+      <c r="AU49" s="69"/>
+      <c r="AV49" s="69"/>
+      <c r="AW49" s="69"/>
+      <c r="AX49" s="69"/>
+      <c r="AY49" s="69"/>
     </row>
     <row r="50" spans="1:51" ht="30" customHeight="1">
       <c r="A50" s="75"/>
       <c r="B50" s="76"/>
-      <c r="C50" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69"/>
+      <c r="C50" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
       <c r="L50" s="59" t="s">
         <v>40</v>
       </c>
@@ -11842,36 +12313,36 @@
       <c r="AH50" s="65"/>
       <c r="AI50" s="65"/>
       <c r="AJ50" s="65"/>
-      <c r="AK50" s="70"/>
-      <c r="AL50" s="70"/>
-      <c r="AM50" s="70"/>
-      <c r="AN50" s="70"/>
-      <c r="AO50" s="70"/>
-      <c r="AP50" s="70"/>
-      <c r="AQ50" s="70"/>
-      <c r="AR50" s="70"/>
-      <c r="AS50" s="70"/>
-      <c r="AT50" s="70"/>
-      <c r="AU50" s="70"/>
-      <c r="AV50" s="70"/>
-      <c r="AW50" s="70"/>
-      <c r="AX50" s="70"/>
-      <c r="AY50" s="70"/>
+      <c r="AK50" s="69"/>
+      <c r="AL50" s="69"/>
+      <c r="AM50" s="69"/>
+      <c r="AN50" s="69"/>
+      <c r="AO50" s="69"/>
+      <c r="AP50" s="69"/>
+      <c r="AQ50" s="69"/>
+      <c r="AR50" s="69"/>
+      <c r="AS50" s="69"/>
+      <c r="AT50" s="69"/>
+      <c r="AU50" s="69"/>
+      <c r="AV50" s="69"/>
+      <c r="AW50" s="69"/>
+      <c r="AX50" s="69"/>
+      <c r="AY50" s="69"/>
     </row>
     <row r="51" spans="1:51" ht="30" customHeight="1">
       <c r="A51" s="75"/>
       <c r="B51" s="76"/>
-      <c r="C51" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69"/>
+      <c r="C51" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
       <c r="L51" s="59" t="s">
         <v>40</v>
       </c>
@@ -11911,36 +12382,36 @@
       <c r="AH51" s="65"/>
       <c r="AI51" s="65"/>
       <c r="AJ51" s="65"/>
-      <c r="AK51" s="70"/>
-      <c r="AL51" s="70"/>
-      <c r="AM51" s="70"/>
-      <c r="AN51" s="70"/>
-      <c r="AO51" s="70"/>
-      <c r="AP51" s="70"/>
-      <c r="AQ51" s="70"/>
-      <c r="AR51" s="70"/>
-      <c r="AS51" s="70"/>
-      <c r="AT51" s="70"/>
-      <c r="AU51" s="70"/>
-      <c r="AV51" s="70"/>
-      <c r="AW51" s="70"/>
-      <c r="AX51" s="70"/>
-      <c r="AY51" s="70"/>
+      <c r="AK51" s="69"/>
+      <c r="AL51" s="69"/>
+      <c r="AM51" s="69"/>
+      <c r="AN51" s="69"/>
+      <c r="AO51" s="69"/>
+      <c r="AP51" s="69"/>
+      <c r="AQ51" s="69"/>
+      <c r="AR51" s="69"/>
+      <c r="AS51" s="69"/>
+      <c r="AT51" s="69"/>
+      <c r="AU51" s="69"/>
+      <c r="AV51" s="69"/>
+      <c r="AW51" s="69"/>
+      <c r="AX51" s="69"/>
+      <c r="AY51" s="69"/>
     </row>
     <row r="52" spans="1:51" ht="30" customHeight="1">
       <c r="A52" s="75"/>
       <c r="B52" s="76"/>
-      <c r="C52" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="69"/>
+      <c r="C52" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="68"/>
       <c r="L52" s="59" t="s">
         <v>40</v>
       </c>
@@ -11980,36 +12451,36 @@
       <c r="AH52" s="65"/>
       <c r="AI52" s="65"/>
       <c r="AJ52" s="65"/>
-      <c r="AK52" s="70"/>
-      <c r="AL52" s="70"/>
-      <c r="AM52" s="70"/>
-      <c r="AN52" s="70"/>
-      <c r="AO52" s="70"/>
-      <c r="AP52" s="70"/>
-      <c r="AQ52" s="70"/>
-      <c r="AR52" s="70"/>
-      <c r="AS52" s="70"/>
-      <c r="AT52" s="70"/>
-      <c r="AU52" s="70"/>
-      <c r="AV52" s="70"/>
-      <c r="AW52" s="70"/>
-      <c r="AX52" s="70"/>
-      <c r="AY52" s="70"/>
+      <c r="AK52" s="69"/>
+      <c r="AL52" s="69"/>
+      <c r="AM52" s="69"/>
+      <c r="AN52" s="69"/>
+      <c r="AO52" s="69"/>
+      <c r="AP52" s="69"/>
+      <c r="AQ52" s="69"/>
+      <c r="AR52" s="69"/>
+      <c r="AS52" s="69"/>
+      <c r="AT52" s="69"/>
+      <c r="AU52" s="69"/>
+      <c r="AV52" s="69"/>
+      <c r="AW52" s="69"/>
+      <c r="AX52" s="69"/>
+      <c r="AY52" s="69"/>
     </row>
     <row r="53" spans="1:51" ht="30" customHeight="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="69"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="68"/>
       <c r="L53" s="59" t="s">
         <v>40</v>
       </c>
@@ -12049,38 +12520,36 @@
       <c r="AH53" s="65"/>
       <c r="AI53" s="65"/>
       <c r="AJ53" s="65"/>
-      <c r="AK53" s="70"/>
-      <c r="AL53" s="70"/>
-      <c r="AM53" s="70"/>
-      <c r="AN53" s="70"/>
-      <c r="AO53" s="70"/>
-      <c r="AP53" s="70"/>
-      <c r="AQ53" s="70"/>
-      <c r="AR53" s="70"/>
-      <c r="AS53" s="70"/>
-      <c r="AT53" s="70"/>
-      <c r="AU53" s="70"/>
-      <c r="AV53" s="70"/>
-      <c r="AW53" s="70"/>
-      <c r="AX53" s="70"/>
-      <c r="AY53" s="70"/>
+      <c r="AK53" s="69"/>
+      <c r="AL53" s="69"/>
+      <c r="AM53" s="69"/>
+      <c r="AN53" s="69"/>
+      <c r="AO53" s="69"/>
+      <c r="AP53" s="69"/>
+      <c r="AQ53" s="69"/>
+      <c r="AR53" s="69"/>
+      <c r="AS53" s="69"/>
+      <c r="AT53" s="69"/>
+      <c r="AU53" s="69"/>
+      <c r="AV53" s="69"/>
+      <c r="AW53" s="69"/>
+      <c r="AX53" s="69"/>
+      <c r="AY53" s="69"/>
     </row>
     <row r="54" spans="1:51" ht="30" customHeight="1">
-      <c r="A54" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="66"/>
-      <c r="C54" s="58" t="s">
+      <c r="A54" s="77"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="68"/>
       <c r="L54" s="59" t="s">
         <v>40</v>
       </c>
@@ -12120,27 +12589,27 @@
       <c r="AH54" s="65"/>
       <c r="AI54" s="65"/>
       <c r="AJ54" s="65"/>
-      <c r="AK54" s="70"/>
-      <c r="AL54" s="70"/>
-      <c r="AM54" s="70"/>
-      <c r="AN54" s="70"/>
-      <c r="AO54" s="70"/>
-      <c r="AP54" s="70"/>
-      <c r="AQ54" s="70"/>
-      <c r="AR54" s="70"/>
-      <c r="AS54" s="70"/>
-      <c r="AT54" s="70"/>
-      <c r="AU54" s="70"/>
-      <c r="AV54" s="70"/>
-      <c r="AW54" s="70"/>
-      <c r="AX54" s="70"/>
-      <c r="AY54" s="70"/>
+      <c r="AK54" s="69"/>
+      <c r="AL54" s="69"/>
+      <c r="AM54" s="69"/>
+      <c r="AN54" s="69"/>
+      <c r="AO54" s="69"/>
+      <c r="AP54" s="69"/>
+      <c r="AQ54" s="69"/>
+      <c r="AR54" s="69"/>
+      <c r="AS54" s="69"/>
+      <c r="AT54" s="69"/>
+      <c r="AU54" s="69"/>
+      <c r="AV54" s="69"/>
+      <c r="AW54" s="69"/>
+      <c r="AX54" s="69"/>
+      <c r="AY54" s="69"/>
     </row>
     <row r="55" spans="1:51" ht="30" customHeight="1">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="66"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="58" t="s">
         <v>73</v>
       </c>
@@ -12191,27 +12660,27 @@
       <c r="AH55" s="65"/>
       <c r="AI55" s="65"/>
       <c r="AJ55" s="65"/>
-      <c r="AK55" s="70"/>
-      <c r="AL55" s="70"/>
-      <c r="AM55" s="70"/>
-      <c r="AN55" s="70"/>
-      <c r="AO55" s="70"/>
-      <c r="AP55" s="70"/>
-      <c r="AQ55" s="70"/>
-      <c r="AR55" s="70"/>
-      <c r="AS55" s="70"/>
-      <c r="AT55" s="70"/>
-      <c r="AU55" s="70"/>
-      <c r="AV55" s="70"/>
-      <c r="AW55" s="70"/>
-      <c r="AX55" s="70"/>
-      <c r="AY55" s="70"/>
+      <c r="AK55" s="69"/>
+      <c r="AL55" s="69"/>
+      <c r="AM55" s="69"/>
+      <c r="AN55" s="69"/>
+      <c r="AO55" s="69"/>
+      <c r="AP55" s="69"/>
+      <c r="AQ55" s="69"/>
+      <c r="AR55" s="69"/>
+      <c r="AS55" s="69"/>
+      <c r="AT55" s="69"/>
+      <c r="AU55" s="69"/>
+      <c r="AV55" s="69"/>
+      <c r="AW55" s="69"/>
+      <c r="AX55" s="69"/>
+      <c r="AY55" s="69"/>
     </row>
-    <row r="56" spans="1:51" ht="41.25" customHeight="1">
-      <c r="A56" s="66" t="s">
+    <row r="56" spans="1:51" ht="30" customHeight="1">
+      <c r="A56" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="66"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="58" t="s">
         <v>75</v>
       </c>
@@ -12262,31 +12731,29 @@
       <c r="AH56" s="65"/>
       <c r="AI56" s="65"/>
       <c r="AJ56" s="65"/>
-      <c r="AK56" s="70" t="s">
+      <c r="AK56" s="69"/>
+      <c r="AL56" s="69"/>
+      <c r="AM56" s="69"/>
+      <c r="AN56" s="69"/>
+      <c r="AO56" s="69"/>
+      <c r="AP56" s="69"/>
+      <c r="AQ56" s="69"/>
+      <c r="AR56" s="69"/>
+      <c r="AS56" s="69"/>
+      <c r="AT56" s="69"/>
+      <c r="AU56" s="69"/>
+      <c r="AV56" s="69"/>
+      <c r="AW56" s="69"/>
+      <c r="AX56" s="69"/>
+      <c r="AY56" s="69"/>
+    </row>
+    <row r="57" spans="1:51" ht="41.25" customHeight="1">
+      <c r="A57" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="AL56" s="70"/>
-      <c r="AM56" s="70"/>
-      <c r="AN56" s="70"/>
-      <c r="AO56" s="70"/>
-      <c r="AP56" s="70"/>
-      <c r="AQ56" s="70"/>
-      <c r="AR56" s="70"/>
-      <c r="AS56" s="70"/>
-      <c r="AT56" s="70"/>
-      <c r="AU56" s="70"/>
-      <c r="AV56" s="70"/>
-      <c r="AW56" s="70"/>
-      <c r="AX56" s="70"/>
-      <c r="AY56" s="70"/>
-    </row>
-    <row r="57" spans="1:51" ht="30" customHeight="1">
-      <c r="A57" s="66" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="58" t="s">
         <v>77</v>
-      </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="58" t="s">
-        <v>78</v>
       </c>
       <c r="D57" s="58"/>
       <c r="E57" s="58"/>
@@ -12335,27 +12802,29 @@
       <c r="AH57" s="65"/>
       <c r="AI57" s="65"/>
       <c r="AJ57" s="65"/>
-      <c r="AK57" s="72"/>
-      <c r="AL57" s="70"/>
-      <c r="AM57" s="70"/>
-      <c r="AN57" s="70"/>
-      <c r="AO57" s="70"/>
-      <c r="AP57" s="70"/>
-      <c r="AQ57" s="70"/>
-      <c r="AR57" s="70"/>
-      <c r="AS57" s="70"/>
-      <c r="AT57" s="70"/>
-      <c r="AU57" s="70"/>
-      <c r="AV57" s="70"/>
-      <c r="AW57" s="70"/>
-      <c r="AX57" s="70"/>
-      <c r="AY57" s="70"/>
+      <c r="AK57" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL57" s="69"/>
+      <c r="AM57" s="69"/>
+      <c r="AN57" s="69"/>
+      <c r="AO57" s="69"/>
+      <c r="AP57" s="69"/>
+      <c r="AQ57" s="69"/>
+      <c r="AR57" s="69"/>
+      <c r="AS57" s="69"/>
+      <c r="AT57" s="69"/>
+      <c r="AU57" s="69"/>
+      <c r="AV57" s="69"/>
+      <c r="AW57" s="69"/>
+      <c r="AX57" s="69"/>
+      <c r="AY57" s="69"/>
     </row>
     <row r="58" spans="1:51" ht="30" customHeight="1">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="66"/>
+      <c r="B58" s="70"/>
       <c r="C58" s="58" t="s">
         <v>80</v>
       </c>
@@ -12406,27 +12875,27 @@
       <c r="AH58" s="65"/>
       <c r="AI58" s="65"/>
       <c r="AJ58" s="65"/>
-      <c r="AK58" s="70"/>
-      <c r="AL58" s="70"/>
-      <c r="AM58" s="70"/>
-      <c r="AN58" s="70"/>
-      <c r="AO58" s="70"/>
-      <c r="AP58" s="70"/>
-      <c r="AQ58" s="70"/>
-      <c r="AR58" s="70"/>
-      <c r="AS58" s="70"/>
-      <c r="AT58" s="70"/>
-      <c r="AU58" s="70"/>
-      <c r="AV58" s="70"/>
-      <c r="AW58" s="70"/>
-      <c r="AX58" s="70"/>
-      <c r="AY58" s="70"/>
+      <c r="AK58" s="71"/>
+      <c r="AL58" s="69"/>
+      <c r="AM58" s="69"/>
+      <c r="AN58" s="69"/>
+      <c r="AO58" s="69"/>
+      <c r="AP58" s="69"/>
+      <c r="AQ58" s="69"/>
+      <c r="AR58" s="69"/>
+      <c r="AS58" s="69"/>
+      <c r="AT58" s="69"/>
+      <c r="AU58" s="69"/>
+      <c r="AV58" s="69"/>
+      <c r="AW58" s="69"/>
+      <c r="AX58" s="69"/>
+      <c r="AY58" s="69"/>
     </row>
     <row r="59" spans="1:51" ht="30" customHeight="1">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="66"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="58" t="s">
         <v>82</v>
       </c>
@@ -12477,133 +12946,147 @@
       <c r="AH59" s="65"/>
       <c r="AI59" s="65"/>
       <c r="AJ59" s="65"/>
-      <c r="AK59" s="70"/>
-      <c r="AL59" s="70"/>
-      <c r="AM59" s="70"/>
-      <c r="AN59" s="70"/>
-      <c r="AO59" s="70"/>
-      <c r="AP59" s="70"/>
-      <c r="AQ59" s="70"/>
-      <c r="AR59" s="70"/>
-      <c r="AS59" s="70"/>
-      <c r="AT59" s="70"/>
-      <c r="AU59" s="70"/>
-      <c r="AV59" s="70"/>
-      <c r="AW59" s="70"/>
-      <c r="AX59" s="70"/>
-      <c r="AY59" s="70"/>
+      <c r="AK59" s="69"/>
+      <c r="AL59" s="69"/>
+      <c r="AM59" s="69"/>
+      <c r="AN59" s="69"/>
+      <c r="AO59" s="69"/>
+      <c r="AP59" s="69"/>
+      <c r="AQ59" s="69"/>
+      <c r="AR59" s="69"/>
+      <c r="AS59" s="69"/>
+      <c r="AT59" s="69"/>
+      <c r="AU59" s="69"/>
+      <c r="AV59" s="69"/>
+      <c r="AW59" s="69"/>
+      <c r="AX59" s="69"/>
+      <c r="AY59" s="69"/>
     </row>
-    <row r="60" spans="1:51">
-      <c r="A60" s="79" t="s">
+    <row r="60" spans="1:51" ht="30" customHeight="1">
+      <c r="A60" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="79"/>
-      <c r="S60" s="79"/>
-      <c r="T60" s="79"/>
-      <c r="U60" s="79"/>
-      <c r="V60" s="79"/>
-      <c r="W60" s="79"/>
-      <c r="X60" s="79"/>
-      <c r="Y60" s="79"/>
-      <c r="Z60" s="79"/>
-      <c r="AA60" s="79"/>
-      <c r="AB60" s="79"/>
-      <c r="AC60" s="79"/>
-      <c r="AD60" s="79"/>
-      <c r="AE60" s="79"/>
-      <c r="AF60" s="79"/>
-      <c r="AG60" s="79"/>
-      <c r="AH60" s="79"/>
-      <c r="AI60" s="79"/>
-      <c r="AJ60" s="79"/>
-      <c r="AK60" s="79"/>
-      <c r="AL60" s="79"/>
-      <c r="AM60" s="79"/>
-      <c r="AN60" s="79"/>
-      <c r="AO60" s="79"/>
-      <c r="AP60" s="79"/>
-      <c r="AQ60" s="79"/>
-      <c r="AR60" s="79"/>
-      <c r="AS60" s="79"/>
-      <c r="AT60" s="79"/>
-      <c r="AU60" s="79"/>
-      <c r="AV60" s="79"/>
-      <c r="AW60" s="79"/>
-      <c r="AX60" s="79"/>
-      <c r="AY60" s="79"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" s="59"/>
+      <c r="U60" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="62"/>
+      <c r="Y60" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z60" s="63"/>
+      <c r="AA60" s="63"/>
+      <c r="AB60" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC60" s="63"/>
+      <c r="AD60" s="63"/>
+      <c r="AE60" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF60" s="64"/>
+      <c r="AG60" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH60" s="65"/>
+      <c r="AI60" s="65"/>
+      <c r="AJ60" s="65"/>
+      <c r="AK60" s="69"/>
+      <c r="AL60" s="69"/>
+      <c r="AM60" s="69"/>
+      <c r="AN60" s="69"/>
+      <c r="AO60" s="69"/>
+      <c r="AP60" s="69"/>
+      <c r="AQ60" s="69"/>
+      <c r="AR60" s="69"/>
+      <c r="AS60" s="69"/>
+      <c r="AT60" s="69"/>
+      <c r="AU60" s="69"/>
+      <c r="AV60" s="69"/>
+      <c r="AW60" s="69"/>
+      <c r="AX60" s="69"/>
+      <c r="AY60" s="69"/>
     </row>
-    <row r="61" spans="1:51" ht="43.5" customHeight="1">
-      <c r="A61" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55" t="s">
+    <row r="61" spans="1:51">
+      <c r="A61" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="55"/>
-      <c r="AI61" s="55"/>
-      <c r="AJ61" s="55"/>
-      <c r="AK61" s="55"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="55"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="55"/>
-      <c r="AP61" s="55"/>
-      <c r="AQ61" s="55"/>
-      <c r="AR61" s="55"/>
-      <c r="AS61" s="55"/>
-      <c r="AT61" s="55"/>
-      <c r="AU61" s="55"/>
-      <c r="AV61" s="55"/>
-      <c r="AW61" s="55"/>
-      <c r="AX61" s="55"/>
-      <c r="AY61" s="55"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="79"/>
+      <c r="Q61" s="79"/>
+      <c r="R61" s="79"/>
+      <c r="S61" s="79"/>
+      <c r="T61" s="79"/>
+      <c r="U61" s="79"/>
+      <c r="V61" s="79"/>
+      <c r="W61" s="79"/>
+      <c r="X61" s="79"/>
+      <c r="Y61" s="79"/>
+      <c r="Z61" s="79"/>
+      <c r="AA61" s="79"/>
+      <c r="AB61" s="79"/>
+      <c r="AC61" s="79"/>
+      <c r="AD61" s="79"/>
+      <c r="AE61" s="79"/>
+      <c r="AF61" s="79"/>
+      <c r="AG61" s="79"/>
+      <c r="AH61" s="79"/>
+      <c r="AI61" s="79"/>
+      <c r="AJ61" s="79"/>
+      <c r="AK61" s="79"/>
+      <c r="AL61" s="79"/>
+      <c r="AM61" s="79"/>
+      <c r="AN61" s="79"/>
+      <c r="AO61" s="79"/>
+      <c r="AP61" s="79"/>
+      <c r="AQ61" s="79"/>
+      <c r="AR61" s="79"/>
+      <c r="AS61" s="79"/>
+      <c r="AT61" s="79"/>
+      <c r="AU61" s="79"/>
+      <c r="AV61" s="79"/>
+      <c r="AW61" s="79"/>
+      <c r="AX61" s="79"/>
+      <c r="AY61" s="79"/>
     </row>
     <row r="62" spans="1:51" ht="43.5" customHeight="1">
       <c r="A62" s="55" t="s">
@@ -12719,7 +13202,7 @@
       <c r="AX63" s="55"/>
       <c r="AY63" s="55"/>
     </row>
-    <row r="64" spans="1:51" ht="21.75" customHeight="1">
+    <row r="64" spans="1:51" ht="43.5" customHeight="1">
       <c r="A64" s="55" t="s">
         <v>90</v>
       </c>
@@ -12776,7 +13259,7 @@
       <c r="AX64" s="55"/>
       <c r="AY64" s="55"/>
     </row>
-    <row r="65" spans="1:51" ht="65.25" customHeight="1">
+    <row r="65" spans="1:51" ht="409.5" customHeight="1">
       <c r="A65" s="55" t="s">
         <v>92</v>
       </c>
@@ -12833,7 +13316,7 @@
       <c r="AX65" s="55"/>
       <c r="AY65" s="55"/>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:51" ht="65.25" customHeight="1">
       <c r="A66" s="55" t="s">
         <v>94</v>
       </c>
@@ -12947,7 +13430,7 @@
       <c r="AX67" s="55"/>
       <c r="AY67" s="55"/>
     </row>
-    <row r="68" spans="1:51" ht="161.25" customHeight="1">
+    <row r="68" spans="1:51">
       <c r="A68" s="55" t="s">
         <v>98</v>
       </c>
@@ -13004,7 +13487,7 @@
       <c r="AX68" s="55"/>
       <c r="AY68" s="55"/>
     </row>
-    <row r="69" spans="1:51" ht="98.25" customHeight="1">
+    <row r="69" spans="1:51" ht="161.25" customHeight="1">
       <c r="A69" s="55" t="s">
         <v>100</v>
       </c>
@@ -13061,7 +13544,7 @@
       <c r="AX69" s="55"/>
       <c r="AY69" s="55"/>
     </row>
-    <row r="70" spans="1:51" ht="117" customHeight="1">
+    <row r="70" spans="1:51" ht="98.25" customHeight="1">
       <c r="A70" s="55" t="s">
         <v>102</v>
       </c>
@@ -13118,7 +13601,7 @@
       <c r="AX70" s="55"/>
       <c r="AY70" s="55"/>
     </row>
-    <row r="71" spans="1:51" ht="107.25" customHeight="1">
+    <row r="71" spans="1:51" ht="117" customHeight="1">
       <c r="A71" s="55" t="s">
         <v>104</v>
       </c>
@@ -13132,7 +13615,7 @@
       <c r="I71" s="55"/>
       <c r="J71" s="55"/>
       <c r="K71" s="55"/>
-      <c r="L71" s="71" t="s">
+      <c r="L71" s="55" t="s">
         <v>105</v>
       </c>
       <c r="M71" s="55"/>
@@ -13189,7 +13672,7 @@
       <c r="I72" s="55"/>
       <c r="J72" s="55"/>
       <c r="K72" s="55"/>
-      <c r="L72" s="71" t="s">
+      <c r="L72" s="72" t="s">
         <v>107</v>
       </c>
       <c r="M72" s="55"/>
@@ -13246,7 +13729,7 @@
       <c r="I73" s="55"/>
       <c r="J73" s="55"/>
       <c r="K73" s="55"/>
-      <c r="L73" s="71" t="s">
+      <c r="L73" s="72" t="s">
         <v>109</v>
       </c>
       <c r="M73" s="55"/>
@@ -13303,7 +13786,7 @@
       <c r="I74" s="55"/>
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
-      <c r="L74" s="71" t="s">
+      <c r="L74" s="72" t="s">
         <v>111</v>
       </c>
       <c r="M74" s="55"/>
@@ -13346,28 +13829,95 @@
       <c r="AX74" s="55"/>
       <c r="AY74" s="55"/>
     </row>
-    <row r="75" spans="1:51"/>
+    <row r="75" spans="1:51" ht="107.25" customHeight="1">
+      <c r="A75" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="55"/>
+      <c r="W75" s="55"/>
+      <c r="X75" s="55"/>
+      <c r="Y75" s="55"/>
+      <c r="Z75" s="55"/>
+      <c r="AA75" s="55"/>
+      <c r="AB75" s="55"/>
+      <c r="AC75" s="55"/>
+      <c r="AD75" s="55"/>
+      <c r="AE75" s="55"/>
+      <c r="AF75" s="55"/>
+      <c r="AG75" s="55"/>
+      <c r="AH75" s="55"/>
+      <c r="AI75" s="55"/>
+      <c r="AJ75" s="55"/>
+      <c r="AK75" s="55"/>
+      <c r="AL75" s="55"/>
+      <c r="AM75" s="55"/>
+      <c r="AN75" s="55"/>
+      <c r="AO75" s="55"/>
+      <c r="AP75" s="55"/>
+      <c r="AQ75" s="55"/>
+      <c r="AR75" s="55"/>
+      <c r="AS75" s="55"/>
+      <c r="AT75" s="55"/>
+      <c r="AU75" s="55"/>
+      <c r="AV75" s="55"/>
+      <c r="AW75" s="55"/>
+      <c r="AX75" s="55"/>
+      <c r="AY75" s="55"/>
+    </row>
     <row r="76" spans="1:51"/>
     <row r="77" spans="1:51"/>
     <row r="78" spans="1:51"/>
+    <row r="79" spans="1:51"/>
   </sheetData>
-  <mergeCells count="269">
+  <mergeCells count="279">
+    <mergeCell ref="AK42:AY42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
     <mergeCell ref="A3:AY3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AY1"/>
     <mergeCell ref="A2:AY2"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="AK43:AY43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="AK44:AY44"/>
     <mergeCell ref="A4:AY4"/>
     <mergeCell ref="A5:AY34"/>
     <mergeCell ref="A35:AY35"/>
@@ -13395,48 +13945,56 @@
     <mergeCell ref="L41:R41"/>
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="U41:X41"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="L74:AY74"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AK42:AY42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="A60:AY60"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="L66:AY66"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="L75:AY75"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="AK43:AY43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="A61:AY61"/>
     <mergeCell ref="A67:K67"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="AK45:AY45"/>
+    <mergeCell ref="L67:AY67"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="C46:K46"/>
     <mergeCell ref="L46:R46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="AK46:AY46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="AK47:AY47"/>
     <mergeCell ref="S46:T46"/>
     <mergeCell ref="U46:X46"/>
     <mergeCell ref="Y46:AA46"/>
     <mergeCell ref="AB46:AD46"/>
     <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="AK46:AY46"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="AK45:AY45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:R45"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="U45:X45"/>
     <mergeCell ref="Y45:AA45"/>
     <mergeCell ref="AB45:AD45"/>
     <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="AK44:AY44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AK49:AY49"/>
+    <mergeCell ref="L49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:X49"/>
     <mergeCell ref="Y48:AA48"/>
     <mergeCell ref="AB48:AD48"/>
     <mergeCell ref="AE48:AF48"/>
@@ -13445,26 +14003,6 @@
     <mergeCell ref="L48:R48"/>
     <mergeCell ref="S48:T48"/>
     <mergeCell ref="U48:X48"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="AK47:AY47"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AK49:AY49"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="L51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
     <mergeCell ref="Y50:AA50"/>
     <mergeCell ref="AB50:AD50"/>
     <mergeCell ref="AE50:AF50"/>
@@ -13474,21 +14012,6 @@
     <mergeCell ref="L50:R50"/>
     <mergeCell ref="S50:T50"/>
     <mergeCell ref="U50:X50"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AK53:AY53"/>
-    <mergeCell ref="L53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="A44:B53"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="AB52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AK52:AY52"/>
-    <mergeCell ref="C52:K52"/>
     <mergeCell ref="L52:R52"/>
     <mergeCell ref="S52:T52"/>
     <mergeCell ref="U52:X52"/>
@@ -13498,25 +14021,79 @@
     <mergeCell ref="AG51:AJ51"/>
     <mergeCell ref="AK51:AY51"/>
     <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="AB54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AK54:AY54"/>
+    <mergeCell ref="L54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="A45:B54"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AK53:AY53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AB52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AK52:AY52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:X57"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AE56:AF56"/>
     <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AK56:AY56"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="C56:K56"/>
     <mergeCell ref="L56:R56"/>
     <mergeCell ref="S56:T56"/>
     <mergeCell ref="U56:X56"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AK55:AY55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="L55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="L74:AY74"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="AK60:AY60"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="L60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="L69:AY69"/>
+    <mergeCell ref="L68:AY68"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="L71:AY71"/>
     <mergeCell ref="A73:K73"/>
     <mergeCell ref="L73:AY73"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="L72:AY72"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="L70:AY70"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="L58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:X58"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="L66:AY66"/>
     <mergeCell ref="Y59:AA59"/>
     <mergeCell ref="AB59:AD59"/>
     <mergeCell ref="AE59:AF59"/>
@@ -13527,49 +14104,22 @@
     <mergeCell ref="L59:R59"/>
     <mergeCell ref="S59:T59"/>
     <mergeCell ref="U59:X59"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="L68:AY68"/>
-    <mergeCell ref="L67:AY67"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="L70:AY70"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="L72:AY72"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="L71:AY71"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="AK57:AY57"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:X57"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="L65:AY65"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="L69:AY69"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
     <mergeCell ref="Y58:AA58"/>
     <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:AY62"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
     <mergeCell ref="AE58:AF58"/>
     <mergeCell ref="AG58:AJ58"/>
     <mergeCell ref="AK58:AY58"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="L58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:X58"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="AK57:AY57"/>
+    <mergeCell ref="AK56:AY56"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:K38"/>
     <mergeCell ref="L38:R38"/>
@@ -13597,14 +14147,11 @@
     <mergeCell ref="AB37:AD37"/>
     <mergeCell ref="AE37:AF37"/>
     <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="L61:AY61"/>
+    <mergeCell ref="L65:AY65"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="L63:AY63"/>
     <mergeCell ref="A64:K64"/>
     <mergeCell ref="L64:AY64"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L62:AY62"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="L63:AY63"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="L40:R40"/>
@@ -13614,26 +14161,29 @@
     <mergeCell ref="AB40:AD40"/>
     <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="C46:K46"/>
     <mergeCell ref="C47:K47"/>
     <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="AK54:AY54"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="AK55:AY55"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="L55:R55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:R59" xr:uid="{F24F39D4-4BA3-4A39-88C7-FF6A3C30C493}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:R60" xr:uid="{F24F39D4-4BA3-4A39-88C7-FF6A3C30C493}">
       <formula1>"テキストボックス,パスワードボックス,プルダウン,ラジオボタン,チェックボックス,ボタン,リンク,その他,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S37:T59" xr:uid="{F64BAE96-527A-4B10-B40B-A3CBB9B1AE4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S37:T60" xr:uid="{F64BAE96-527A-4B10-B40B-A3CBB9B1AE4D}">
       <formula1>"I,O,IO,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37:X59" xr:uid="{2ED97478-D6AD-4D56-886D-F85E55D7E1C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U37:X60" xr:uid="{2ED97478-D6AD-4D56-886D-F85E55D7E1C8}">
       <formula1>"全角文字列,半角文字列,全角半角文字列,整数,小数,日付,時刻,その他,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AE37:AF59" xr:uid="{27AA91BD-0E59-41D8-A2F2-CF2E17D303BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AE37:AF60" xr:uid="{27AA91BD-0E59-41D8-A2F2-CF2E17D303BC}">
       <formula1>"〇,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1227" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C6E6A9-C8D0-4E29-8B7E-EC605B5517F2}"/>
+  <xr:revisionPtr revIDLastSave="1236" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BA9582-0CF2-4F83-9EFB-94A6F3B9EFC1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="132">
   <si>
     <t>電卓アプリ</t>
   </si>
@@ -333,9 +333,6 @@
     <t>⑦</t>
   </si>
   <si>
-    <t>オールクリアボタン</t>
-  </si>
-  <si>
     <t>⑧</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>除算ボタン</t>
   </si>
   <si>
-    <t>「0」で除算を行なった場合、⑤計算結果表示欄に、「Error」を表示する。</t>
-  </si>
-  <si>
     <t>⑬</t>
   </si>
   <si>
@@ -445,10 +439,6 @@
     <t>⑥エラー表示欄</t>
   </si>
   <si>
-    <t>＜⑤計算結果表示欄の値が、⑤計算結果表示欄の最大桁数を超えた場合＞
-⑥エラー表示欄に、「E」を表示。</t>
-  </si>
-  <si>
     <t>⑦オールクリアボタン押下</t>
   </si>
   <si>
@@ -467,20 +457,10 @@
     <t>⑩小数点ボタン押下</t>
   </si>
   <si>
-    <t>⑤計算結果表示欄に表示されている数値の末尾に、「.」を結合して出力する。
-＜⑤計算結果表示欄の値に、小数点ボタン押下によって結合された小数点が含まれている場合＞
-→何も処理を行わない。</t>
-  </si>
-  <si>
     <t>⑪等号ボタン押下</t>
   </si>
   <si>
     <t>⑫除算ボタン押下</t>
-  </si>
-  <si>
-    <t>⑤計算結果表示欄に入力されている値を、除算ボタン押下後に、⑤計算結果表示欄に入力した値で除算した結果を、⑪～⑮のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
-＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
-→何も処理を行わない。</t>
   </si>
   <si>
     <t>⑬乗算ボタン押下</t>
@@ -565,32 +545,6 @@
 ＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
 →⑤計算結果表示欄に、「押下した数字ボタンの値」を出力する。</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) ⑫～⑮のいずれかのボタンを押下。
-→⑤計算結果表示欄の値と、押下した⑫～⑮のボタンの演算子の値を結合して④計算過程表示欄に出力する。
-例：⑤計算結果表示欄の値 が「 1 」、加算ボタン押下の場合
-　　④計算過程表示欄は、「 1+ 」になる。
-2) ⑤計算結果表示欄に、⑨数字ボタン押下で値を出力。
-→④計算過程表示欄は変更なし。
-例：計算結果表示欄に、⑨数字ボタン（2）を押下で、「 2 」を出力。
-　　④計算過程表示欄は、「 1+ 」のまま。
-3) ⑪～⑮のいずれかのボタンを押下。
-　　3-1 ) ⑪の等号ボタンを押下した場合
-　　　　→④計算過程表示欄と、⑤計算過程表示欄の値との計算結果で、④計算過程表示欄を上書きする。
-              例：④計算過程表示欄は、「 1+ 」、計算結果表示欄は、「 2 」の場合
-　　　　　　④計算過程表示欄は、「 1+ 」⇒「 3 」に上書きされる。（1+2の結果）
-　　3-2）⑫～⑮のいずれかのボタンを押下した場合
-　　　　→④計算過程表示欄と、⑤計算過程表示欄の値との計算結果と、押下した⑫～⑮のボタンの演算子の値
-　　　　　を結合して、④計算過程表示欄を上書きする。
-              例：④計算過程表示欄は、「 1+ 」、計算結果表示欄は、「 2 」、加算ボタン押下の場合
-　　　　　　④計算過程表示欄は、「 1+ 」⇒「 3+ 」に上書きされる。（1+2の結果）
-</t>
-  </si>
-  <si>
-    <t>⑤計算結果表示欄に入力されている値と、⑫～⑮のいずれかのボタン押下後に、⑤計算結果表示欄に入力した値の計算結果を、等号ボタン押下することで、⑤計算結果表示欄に出力する。
-＜上記以外の場合＞
-→何も処理を行わない。</t>
   </si>
   <si>
     <t xml:space="preserve">■⑨の数字ボタン押下時の処理
@@ -723,6 +677,57 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>＜⑤計算結果表示欄の値が、⑤計算結果表示欄の最大桁数を超えた場合＞
+⑥エラー表示欄に、「E」を表示。
+&lt;「0」で除算を行なった場合&gt;
+⑥エラー表示欄に、「E」を表示。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オールクリアボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤計算結果表示欄に表示されている数値の末尾に、「.」を結合して出力する。
+＜⑤計算結果表示欄の値に、小数点ボタン押下によって結合された小数点が含まれている場合＞
+→何も処理を行わない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤計算結果表示欄に入力されている値を、除算ボタン押下後に、⑤計算結果表示欄に入力した値で除算した結果を、⑪～⑮のいずれかのボタンを押下することで、⑤計算結果表示欄に出力する。
+＜事前に⑪～⑮のいずれかのボタンを押下している場合＞
+→何も処理を行わない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) ⑫～⑮のいずれかのボタンを押下。
+→⑤計算結果表示欄の値と、押下した⑫～⑮のボタンの演算子の値を結合して④計算過程表示欄に出力する。
+例：⑤計算結果表示欄の値 が「 1 」、加算ボタン押下の場合
+　　④計算過程表示欄は、「 1+ 」になる。
+2) ⑤計算結果表示欄に、⑨数字ボタン押下で値を出力。
+→④計算過程表示欄は変更なし。
+例：計算結果表示欄に、⑨数字ボタン（2）を押下で、「 2 」を出力。
+　　④計算過程表示欄は、「 1+ 」のまま。
+3) ⑪～⑮のいずれかのボタンを押下。
+　　3-1 ) ⑪の等号ボタンを押下した場合
+　　　　→④計算過程表示欄と、⑤計算過程表示欄の値との計算結果で、④計算過程表示欄を上書きする。
+              例：④計算過程表示欄は、「 1+ 」、計算結果表示欄は、「 2 」の場合
+　　　　　　④計算過程表示欄は、「 1+ 」⇒「 3 」に上書きされる。（1+2の結果）
+　　3-2）⑫～⑮のいずれかのボタンを押下した場合
+　　　　→④計算過程表示欄と、⑤計算過程表示欄の値との計算結果と、押下した⑫～⑮のボタンの演算子の値
+　　　　　を結合して、④計算過程表示欄を上書きする。
+              例：④計算過程表示欄は、「 1+ 」、計算結果表示欄は、「 2 」、加算ボタン押下の場合
+　　　　　　④計算過程表示欄は、「 1+ 」⇒「 3+ 」に上書きされる。（1+2の結果）
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤計算結果表示欄に入力されている値と、⑫～⑮のいずれかのボタン押下後に、⑤計算結果表示欄に入力した値の計算結果を、等号ボタン押下することで、⑤計算結果表示欄に出力する。
+＜上記以外の場合＞
+→何も処理を行わない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -732,7 +737,7 @@
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1454,6 +1459,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,6 +1492,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1492,18 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1523,26 +1543,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7220,7 +7225,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>62865</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -7657,6 +7662,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7999,14 +8008,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239406D8-248F-4C31-A5B1-C0AF7D79A972}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13.5" customHeight="1">
+    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8041,7 +8050,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:34" ht="13.5" customHeight="1">
+    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8077,7 +8086,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:34" ht="13.5" customHeight="1">
+    <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8113,7 +8122,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:34" ht="13.5" customHeight="1">
+    <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8149,7 +8158,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" ht="13.5" customHeight="1">
+    <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8185,7 +8194,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:34" ht="13.5" customHeight="1">
+    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8221,7 +8230,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" ht="13.5" customHeight="1">
+    <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8259,7 +8268,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" ht="13.5" customHeight="1">
+    <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8295,7 +8304,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:34" ht="13.5" customHeight="1">
+    <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8331,7 +8340,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" spans="1:34" ht="13.5" customHeight="1">
+    <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8367,7 +8376,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:34" ht="13.5" customHeight="1">
+    <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8403,7 +8412,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" ht="13.5" customHeight="1">
+    <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8439,7 +8448,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" ht="13.5" customHeight="1">
+    <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8477,7 +8486,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:34" ht="13.5" customHeight="1">
+    <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8513,7 +8522,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" spans="1:34" ht="13.5" customHeight="1">
+    <row r="15" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8549,7 +8558,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:34" ht="13.5" customHeight="1">
+    <row r="16" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8585,7 +8594,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" ht="13.5" customHeight="1">
+    <row r="17" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8621,7 +8630,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34" ht="13.5" customHeight="1">
+    <row r="18" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8657,7 +8666,7 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" spans="1:34" ht="13.5" customHeight="1">
+    <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8693,7 +8702,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="1:34" ht="13.5" customHeight="1">
+    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8729,7 +8738,7 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" ht="13.5" customHeight="1">
+    <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8765,7 +8774,7 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="1:34" ht="13.5" customHeight="1">
+    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8801,7 +8810,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" spans="1:34" ht="13.5" customHeight="1">
+    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8837,7 +8846,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" spans="1:34" ht="13.5" customHeight="1">
+    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8869,7 +8878,7 @@
       <c r="AG24" s="4"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:34" ht="13.5" customHeight="1">
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8899,7 +8908,7 @@
       <c r="AG25" s="4"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:34" ht="13.5" customHeight="1">
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8918,7 +8927,7 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:34" ht="13.5" customHeight="1">
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8936,7 +8945,7 @@
       <c r="O27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:34" ht="13.5" customHeight="1">
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8954,7 +8963,7 @@
       <c r="O28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:34" ht="13.5" customHeight="1">
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8972,7 +8981,7 @@
       <c r="O29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:34" ht="13.5" customHeight="1">
+    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8996,7 +9005,7 @@
       <c r="U30" s="2"/>
       <c r="AH30" s="4"/>
     </row>
-    <row r="31" spans="1:34" ht="13.5" customHeight="1">
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9020,7 +9029,7 @@
       <c r="U31" s="2"/>
       <c r="AH31" s="4"/>
     </row>
-    <row r="32" spans="1:34" ht="13.5" customHeight="1">
+    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9079,7 +9088,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="1"/>
     <col min="2" max="2" width="8.109375" style="1" customWidth="1"/>
@@ -9090,7 +9099,7 @@
     <col min="7" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.8">
+    <row r="1" spans="1:28" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9101,7 +9110,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9111,7 +9120,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="18.600000000000001" thickBot="1">
+    <row r="3" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="19" t="s">
         <v>4</v>
@@ -9131,7 +9140,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="18.600000000000001" thickTop="1">
+    <row r="4" spans="1:28" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="27">
         <v>1</v>
@@ -9151,7 +9160,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="60" customHeight="1">
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="31">
         <v>1.1000000000000001</v>
@@ -9171,7 +9180,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="66.75" customHeight="1">
+    <row r="6" spans="1:28" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
@@ -9187,7 +9196,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="60.75" customHeight="1">
+    <row r="7" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
@@ -9203,7 +9212,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="36">
+    <row r="8" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="31">
         <v>1.2</v>
@@ -9215,7 +9224,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>11</v>
@@ -9223,7 +9232,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="36">
+    <row r="9" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
@@ -9231,7 +9240,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>11</v>
@@ -9239,7 +9248,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="36">
+    <row r="10" spans="1:28" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="31">
         <v>1.3</v>
@@ -9251,7 +9260,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>11</v>
@@ -9259,7 +9268,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
@@ -9269,7 +9278,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
@@ -9279,7 +9288,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
@@ -9289,7 +9298,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="18.600000000000001" thickBot="1">
+    <row r="14" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
@@ -9299,7 +9308,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9328,7 +9337,7 @@
       <c r="AA15" s="24"/>
       <c r="AB15" s="24"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="24"/>
@@ -9351,7 +9360,7 @@
       <c r="AA16" s="24"/>
       <c r="AB16" s="24"/>
     </row>
-    <row r="17" spans="7:8">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -9379,7 +9388,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="6"/>
     <col min="2" max="2" width="9.6640625" style="6" customWidth="1"/>
@@ -9390,13 +9399,13 @@
     <col min="7" max="16384" width="2.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.8">
+    <row r="1" spans="1:26" ht="19.8" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18.600000000000001" thickBot="1"/>
-    <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1">
+    <row r="2" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
@@ -9410,7 +9419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B4" s="10">
         <f>ROW()-3</f>
         <v>1</v>
@@ -9423,7 +9432,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B5" s="41">
         <f>ROW()-3</f>
         <v>2</v>
@@ -9432,7 +9441,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B6" s="41">
         <f t="shared" ref="B6:B13" si="0">ROW()-3</f>
         <v>3</v>
@@ -9441,7 +9450,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B7" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9469,7 +9478,7 @@
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B8" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9497,7 +9506,7 @@
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B9" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9525,7 +9534,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B10" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9553,7 +9562,7 @@
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B11" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9581,7 +9590,7 @@
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9590,7 +9599,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="18.600000000000001" thickBot="1">
+    <row r="13" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9608,7 +9617,7 @@
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -9619,7 +9628,7 @@
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -9647,3711 +9656,3709 @@
   </sheetPr>
   <dimension ref="A1:AY80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72:AY72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="53" width="2.44140625" style="6"/>
     <col min="54" max="54" width="2.44140625" style="6" customWidth="1"/>
     <col min="55" max="16384" width="2.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="18">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84" t="str">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="69" t="str">
         <f>画面一覧表!C4</f>
         <v>電卓画面</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="83" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="84" t="str">
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="69" t="str">
         <f>画面一覧表!D4</f>
         <v>calculator</v>
       </c>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-    </row>
-    <row r="2" spans="1:51" ht="18">
-      <c r="A2" s="86" t="s">
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+    </row>
+    <row r="2" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-    </row>
-    <row r="3" spans="1:51" ht="18">
-      <c r="A3" s="84" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+    </row>
+    <row r="3" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-    </row>
-    <row r="4" spans="1:51" ht="18">
-      <c r="A4" s="86" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+    </row>
+    <row r="4" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86"/>
-    </row>
-    <row r="5" spans="1:51" ht="18">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="65"/>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="65"/>
-      <c r="AP5" s="65"/>
-      <c r="AQ5" s="65"/>
-      <c r="AR5" s="65"/>
-      <c r="AS5" s="65"/>
-      <c r="AT5" s="65"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-    </row>
-    <row r="6" spans="1:51" ht="18">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="65"/>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="65"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-    </row>
-    <row r="7" spans="1:51" ht="18">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-    </row>
-    <row r="8" spans="1:51" ht="18">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-    </row>
-    <row r="9" spans="1:51" ht="18">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-    </row>
-    <row r="10" spans="1:51" ht="18">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-    </row>
-    <row r="11" spans="1:51" ht="18">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="65"/>
-      <c r="AP11" s="65"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="65"/>
-      <c r="AS11" s="65"/>
-      <c r="AT11" s="65"/>
-      <c r="AU11" s="65"/>
-      <c r="AV11" s="65"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="65"/>
-      <c r="AY11" s="65"/>
-    </row>
-    <row r="12" spans="1:51" ht="18">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="65"/>
-      <c r="AP12" s="65"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="65"/>
-      <c r="AT12" s="65"/>
-      <c r="AU12" s="65"/>
-      <c r="AV12" s="65"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="65"/>
-      <c r="AY12" s="65"/>
-    </row>
-    <row r="13" spans="1:51" ht="18">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-    </row>
-    <row r="14" spans="1:51" ht="18">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="65"/>
-      <c r="AP14" s="65"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-    </row>
-    <row r="15" spans="1:51" ht="18">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-    </row>
-    <row r="16" spans="1:51" ht="18">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-    </row>
-    <row r="17" spans="1:51" ht="18">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-    </row>
-    <row r="18" spans="1:51" ht="18">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-    </row>
-    <row r="19" spans="1:51" ht="18">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-    </row>
-    <row r="20" spans="1:51" ht="18">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-    </row>
-    <row r="21" spans="1:51" ht="18">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-    </row>
-    <row r="22" spans="1:51" ht="18">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="65"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
-    </row>
-    <row r="23" spans="1:51" ht="18">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="65"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="65"/>
-      <c r="AY23" s="65"/>
-    </row>
-    <row r="24" spans="1:51" ht="18">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="65"/>
-      <c r="AY24" s="65"/>
-    </row>
-    <row r="25" spans="1:51" ht="18">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
-      <c r="AP25" s="65"/>
-      <c r="AQ25" s="65"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="65"/>
-      <c r="AT25" s="65"/>
-      <c r="AU25" s="65"/>
-      <c r="AV25" s="65"/>
-      <c r="AW25" s="65"/>
-      <c r="AX25" s="65"/>
-      <c r="AY25" s="65"/>
-    </row>
-    <row r="26" spans="1:51" ht="18">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="65"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="65"/>
-      <c r="AU26" s="65"/>
-      <c r="AV26" s="65"/>
-      <c r="AW26" s="65"/>
-      <c r="AX26" s="65"/>
-      <c r="AY26" s="65"/>
-    </row>
-    <row r="27" spans="1:51" ht="18">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="65"/>
-      <c r="AT27" s="65"/>
-      <c r="AU27" s="65"/>
-      <c r="AV27" s="65"/>
-      <c r="AW27" s="65"/>
-      <c r="AX27" s="65"/>
-      <c r="AY27" s="65"/>
-    </row>
-    <row r="28" spans="1:51" ht="18">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="65"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
-    </row>
-    <row r="29" spans="1:51" ht="18">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="65"/>
-      <c r="AJ29" s="65"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="65"/>
-      <c r="AM29" s="65"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="65"/>
-      <c r="AP29" s="65"/>
-      <c r="AQ29" s="65"/>
-      <c r="AR29" s="65"/>
-      <c r="AS29" s="65"/>
-      <c r="AT29" s="65"/>
-      <c r="AU29" s="65"/>
-      <c r="AV29" s="65"/>
-      <c r="AW29" s="65"/>
-      <c r="AX29" s="65"/>
-      <c r="AY29" s="65"/>
-    </row>
-    <row r="30" spans="1:51" ht="18">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="65"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="65"/>
-      <c r="AS30" s="65"/>
-      <c r="AT30" s="65"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="65"/>
-      <c r="AW30" s="65"/>
-      <c r="AX30" s="65"/>
-      <c r="AY30" s="65"/>
-    </row>
-    <row r="31" spans="1:51" ht="18">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
-      <c r="AR31" s="65"/>
-      <c r="AS31" s="65"/>
-      <c r="AT31" s="65"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="65"/>
-      <c r="AX31" s="65"/>
-      <c r="AY31" s="65"/>
-    </row>
-    <row r="32" spans="1:51" ht="18">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
-      <c r="AR32" s="65"/>
-      <c r="AS32" s="65"/>
-      <c r="AT32" s="65"/>
-      <c r="AU32" s="65"/>
-      <c r="AV32" s="65"/>
-      <c r="AW32" s="65"/>
-      <c r="AX32" s="65"/>
-      <c r="AY32" s="65"/>
-    </row>
-    <row r="33" spans="1:51" ht="18">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
-      <c r="AR33" s="65"/>
-      <c r="AS33" s="65"/>
-      <c r="AT33" s="65"/>
-      <c r="AU33" s="65"/>
-      <c r="AV33" s="65"/>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="65"/>
-      <c r="AY33" s="65"/>
-    </row>
-    <row r="34" spans="1:51" ht="18">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
-      <c r="AR34" s="65"/>
-      <c r="AS34" s="65"/>
-      <c r="AT34" s="65"/>
-      <c r="AU34" s="65"/>
-      <c r="AV34" s="65"/>
-      <c r="AW34" s="65"/>
-      <c r="AX34" s="65"/>
-      <c r="AY34" s="65"/>
-    </row>
-    <row r="35" spans="1:51" ht="18">
-      <c r="A35" s="86" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+    </row>
+    <row r="5" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+    </row>
+    <row r="6" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="66"/>
+      <c r="AY6" s="66"/>
+    </row>
+    <row r="7" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+    </row>
+    <row r="8" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+    </row>
+    <row r="9" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+    </row>
+    <row r="10" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+    </row>
+    <row r="11" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="66"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="66"/>
+      <c r="AY11" s="66"/>
+    </row>
+    <row r="12" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+    </row>
+    <row r="13" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="66"/>
+      <c r="AY13" s="66"/>
+    </row>
+    <row r="14" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="66"/>
+    </row>
+    <row r="15" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+    </row>
+    <row r="16" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="66"/>
+    </row>
+    <row r="17" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+    </row>
+    <row r="18" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
+    </row>
+    <row r="19" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+    </row>
+    <row r="20" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+    </row>
+    <row r="21" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+    </row>
+    <row r="22" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+    </row>
+    <row r="23" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="66"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="66"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="66"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="66"/>
+      <c r="AX23" s="66"/>
+      <c r="AY23" s="66"/>
+    </row>
+    <row r="24" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="66"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="66"/>
+      <c r="AV24" s="66"/>
+      <c r="AW24" s="66"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="66"/>
+    </row>
+    <row r="25" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="66"/>
+      <c r="AV25" s="66"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="66"/>
+    </row>
+    <row r="26" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="66"/>
+    </row>
+    <row r="27" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="66"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="66"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="66"/>
+      <c r="AV27" s="66"/>
+      <c r="AW27" s="66"/>
+      <c r="AX27" s="66"/>
+      <c r="AY27" s="66"/>
+    </row>
+    <row r="28" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="66"/>
+      <c r="AV28" s="66"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="66"/>
+    </row>
+    <row r="29" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+    </row>
+    <row r="30" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="66"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="66"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="66"/>
+      <c r="AV30" s="66"/>
+      <c r="AW30" s="66"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="66"/>
+    </row>
+    <row r="31" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="66"/>
+      <c r="AV31" s="66"/>
+      <c r="AW31" s="66"/>
+      <c r="AX31" s="66"/>
+      <c r="AY31" s="66"/>
+    </row>
+    <row r="32" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="66"/>
+      <c r="AV32" s="66"/>
+      <c r="AW32" s="66"/>
+      <c r="AX32" s="66"/>
+      <c r="AY32" s="66"/>
+    </row>
+    <row r="33" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+    </row>
+    <row r="34" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="66"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="66"/>
+      <c r="AV34" s="66"/>
+      <c r="AW34" s="66"/>
+      <c r="AX34" s="66"/>
+      <c r="AY34" s="66"/>
+    </row>
+    <row r="35" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="86"/>
-      <c r="AC35" s="86"/>
-      <c r="AD35" s="86"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="86"/>
-      <c r="AG35" s="86"/>
-      <c r="AH35" s="86"/>
-      <c r="AI35" s="86"/>
-      <c r="AJ35" s="86"/>
-      <c r="AK35" s="86"/>
-      <c r="AL35" s="86"/>
-      <c r="AM35" s="86"/>
-      <c r="AN35" s="86"/>
-      <c r="AO35" s="86"/>
-      <c r="AP35" s="86"/>
-      <c r="AQ35" s="86"/>
-      <c r="AR35" s="86"/>
-      <c r="AS35" s="86"/>
-      <c r="AT35" s="86"/>
-      <c r="AU35" s="86"/>
-      <c r="AV35" s="86"/>
-      <c r="AW35" s="86"/>
-      <c r="AX35" s="86"/>
-      <c r="AY35" s="86"/>
-    </row>
-    <row r="36" spans="1:51" ht="18">
-      <c r="A36" s="83" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="72"/>
+      <c r="AN35" s="72"/>
+      <c r="AO35" s="72"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+    </row>
+    <row r="36" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83" t="s">
+      <c r="B36" s="71"/>
+      <c r="C36" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="83" t="s">
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="T36" s="83"/>
-      <c r="U36" s="83" t="s">
+      <c r="T36" s="71"/>
+      <c r="U36" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="V36" s="83"/>
-      <c r="W36" s="83"/>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="82" t="s">
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82" t="s">
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="83" t="s">
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="AF36" s="83"/>
-      <c r="AG36" s="83" t="s">
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="AH36" s="83"/>
-      <c r="AI36" s="83"/>
-      <c r="AJ36" s="83"/>
-      <c r="AK36" s="83" t="s">
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="71"/>
+      <c r="AK36" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AL36" s="83"/>
-      <c r="AM36" s="83"/>
-      <c r="AN36" s="83"/>
-      <c r="AO36" s="83"/>
-      <c r="AP36" s="83"/>
-      <c r="AQ36" s="83"/>
-      <c r="AR36" s="83"/>
-      <c r="AS36" s="83"/>
-      <c r="AT36" s="83"/>
-      <c r="AU36" s="83"/>
-      <c r="AV36" s="83"/>
-      <c r="AW36" s="83"/>
-      <c r="AX36" s="83"/>
-      <c r="AY36" s="83"/>
-    </row>
-    <row r="37" spans="1:51" ht="30" customHeight="1">
-      <c r="A37" s="72" t="s">
+      <c r="AL36" s="71"/>
+      <c r="AM36" s="71"/>
+      <c r="AN36" s="71"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="71"/>
+      <c r="AQ36" s="71"/>
+      <c r="AR36" s="71"/>
+      <c r="AS36" s="71"/>
+      <c r="AT36" s="71"/>
+      <c r="AU36" s="71"/>
+      <c r="AV36" s="71"/>
+      <c r="AW36" s="71"/>
+      <c r="AX36" s="71"/>
+      <c r="AY36" s="71"/>
+    </row>
+    <row r="37" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="60" t="s">
+      <c r="B37" s="86"/>
+      <c r="C37" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="61" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61" t="s">
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T37" s="61"/>
-      <c r="U37" s="62" t="s">
+      <c r="T37" s="62"/>
+      <c r="U37" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="65" t="s">
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="65" t="s">
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="65"/>
-      <c r="AE37" s="66" t="s">
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="67" t="s">
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="71"/>
-      <c r="AL37" s="71"/>
-      <c r="AM37" s="71"/>
-      <c r="AN37" s="71"/>
-      <c r="AO37" s="71"/>
-      <c r="AP37" s="71"/>
-      <c r="AQ37" s="71"/>
-      <c r="AR37" s="71"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="71"/>
-      <c r="AU37" s="71"/>
-      <c r="AV37" s="71"/>
-      <c r="AW37" s="71"/>
-      <c r="AX37" s="71"/>
-      <c r="AY37" s="71"/>
-    </row>
-    <row r="38" spans="1:51" ht="30" customHeight="1">
-      <c r="A38" s="72" t="s">
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="68"/>
+      <c r="AK37" s="58"/>
+      <c r="AL37" s="58"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="58"/>
+      <c r="AO37" s="58"/>
+      <c r="AP37" s="58"/>
+      <c r="AQ37" s="58"/>
+      <c r="AR37" s="58"/>
+      <c r="AS37" s="58"/>
+      <c r="AT37" s="58"/>
+      <c r="AU37" s="58"/>
+      <c r="AV37" s="58"/>
+      <c r="AW37" s="58"/>
+      <c r="AX37" s="58"/>
+      <c r="AY37" s="58"/>
+    </row>
+    <row r="38" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="86"/>
+      <c r="C38" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="61" t="s">
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61" t="s">
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T38" s="61"/>
-      <c r="U38" s="62" t="s">
+      <c r="T38" s="62"/>
+      <c r="U38" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="65" t="s">
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65" t="s">
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="66" t="s">
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="67" t="s">
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="71"/>
-      <c r="AM38" s="71"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="71"/>
-      <c r="AR38" s="71"/>
-      <c r="AS38" s="71"/>
-      <c r="AT38" s="71"/>
-      <c r="AU38" s="71"/>
-      <c r="AV38" s="71"/>
-      <c r="AW38" s="71"/>
-      <c r="AX38" s="71"/>
-      <c r="AY38" s="71"/>
-    </row>
-    <row r="39" spans="1:51" ht="30" customHeight="1">
-      <c r="A39" s="72" t="s">
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="68"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="58"/>
+      <c r="AX38" s="58"/>
+      <c r="AY38" s="58"/>
+    </row>
+    <row r="39" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="86"/>
+      <c r="C39" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="61" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61" t="s">
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T39" s="61"/>
-      <c r="U39" s="62" t="s">
+      <c r="T39" s="62"/>
+      <c r="U39" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="65" t="s">
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z39" s="65"/>
-      <c r="AA39" s="65"/>
-      <c r="AB39" s="65" t="s">
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="66" t="s">
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="67" t="s">
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="67"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="71"/>
-      <c r="AM39" s="71"/>
-      <c r="AN39" s="71"/>
-      <c r="AO39" s="71"/>
-      <c r="AP39" s="71"/>
-      <c r="AQ39" s="71"/>
-      <c r="AR39" s="71"/>
-      <c r="AS39" s="71"/>
-      <c r="AT39" s="71"/>
-      <c r="AU39" s="71"/>
-      <c r="AV39" s="71"/>
-      <c r="AW39" s="71"/>
-      <c r="AX39" s="71"/>
-      <c r="AY39" s="71"/>
-    </row>
-    <row r="40" spans="1:51" ht="30" customHeight="1">
-      <c r="A40" s="58" t="s">
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
+    </row>
+    <row r="40" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60" t="s">
+      <c r="B40" s="60"/>
+      <c r="C40" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="61" t="s">
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61" t="s">
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="T40" s="61"/>
-      <c r="U40" s="62" t="s">
+      <c r="T40" s="62"/>
+      <c r="U40" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="65">
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="66">
         <v>13</v>
       </c>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="65">
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66">
         <v>0</v>
       </c>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="66" t="s">
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="67" t="s">
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="71"/>
-      <c r="AQ40" s="71"/>
-      <c r="AR40" s="71"/>
-      <c r="AS40" s="71"/>
-      <c r="AT40" s="71"/>
-      <c r="AU40" s="71"/>
-      <c r="AV40" s="71"/>
-      <c r="AW40" s="71"/>
-      <c r="AX40" s="71"/>
-      <c r="AY40" s="71"/>
-    </row>
-    <row r="41" spans="1:51" ht="36.75" customHeight="1">
-      <c r="A41" s="58" t="s">
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="68"/>
+      <c r="AK40" s="58"/>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="58"/>
+      <c r="AN40" s="58"/>
+      <c r="AO40" s="58"/>
+      <c r="AP40" s="58"/>
+      <c r="AQ40" s="58"/>
+      <c r="AR40" s="58"/>
+      <c r="AS40" s="58"/>
+      <c r="AT40" s="58"/>
+      <c r="AU40" s="58"/>
+      <c r="AV40" s="58"/>
+      <c r="AW40" s="58"/>
+      <c r="AX40" s="58"/>
+      <c r="AY40" s="58"/>
+    </row>
+    <row r="41" spans="1:51" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="61" t="s">
+      <c r="B41" s="60"/>
+      <c r="C41" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61" t="s">
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="T41" s="61"/>
-      <c r="U41" s="62" t="s">
+      <c r="T41" s="62"/>
+      <c r="U41" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="65">
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="66">
         <v>12</v>
       </c>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65">
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66">
         <v>1</v>
       </c>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="66" t="s">
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="67">
+      <c r="AF41" s="67"/>
+      <c r="AG41" s="68">
         <v>0</v>
       </c>
-      <c r="AH41" s="67"/>
-      <c r="AI41" s="67"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="71" t="s">
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="68"/>
+      <c r="AK41" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="AL41" s="71"/>
-      <c r="AM41" s="71"/>
-      <c r="AN41" s="71"/>
-      <c r="AO41" s="71"/>
-      <c r="AP41" s="71"/>
-      <c r="AQ41" s="71"/>
-      <c r="AR41" s="71"/>
-      <c r="AS41" s="71"/>
-      <c r="AT41" s="71"/>
-      <c r="AU41" s="71"/>
-      <c r="AV41" s="71"/>
-      <c r="AW41" s="71"/>
-      <c r="AX41" s="71"/>
-      <c r="AY41" s="71"/>
-    </row>
-    <row r="42" spans="1:51" ht="30" customHeight="1">
-      <c r="A42" s="58" t="s">
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="58"/>
+      <c r="AO41" s="58"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="58"/>
+      <c r="AS41" s="58"/>
+      <c r="AT41" s="58"/>
+      <c r="AU41" s="58"/>
+      <c r="AV41" s="58"/>
+      <c r="AW41" s="58"/>
+      <c r="AX41" s="58"/>
+      <c r="AY41" s="58"/>
+    </row>
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60" t="s">
+      <c r="B42" s="60"/>
+      <c r="C42" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61" t="s">
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="61" t="s">
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="61"/>
-      <c r="U42" s="62" t="s">
+      <c r="T42" s="62"/>
+      <c r="U42" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="V42" s="63"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="65">
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="66">
         <v>1</v>
       </c>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65">
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66">
         <v>0</v>
       </c>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="66" t="s">
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="67" t="s">
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="71"/>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="71"/>
-      <c r="AQ42" s="71"/>
-      <c r="AR42" s="71"/>
-      <c r="AS42" s="71"/>
-      <c r="AT42" s="71"/>
-      <c r="AU42" s="71"/>
-      <c r="AV42" s="71"/>
-      <c r="AW42" s="71"/>
-      <c r="AX42" s="71"/>
-      <c r="AY42" s="71"/>
-    </row>
-    <row r="43" spans="1:51" ht="30" customHeight="1">
-      <c r="A43" s="58" t="s">
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="58"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="58"/>
+      <c r="AS42" s="58"/>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="58"/>
+      <c r="AV42" s="58"/>
+      <c r="AW42" s="58"/>
+      <c r="AX42" s="58"/>
+      <c r="AY42" s="58"/>
+    </row>
+    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="60"/>
+      <c r="C43" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" s="62"/>
+      <c r="U43" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF43" s="67"/>
+      <c r="AG43" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="58"/>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="58"/>
+      <c r="AQ43" s="58"/>
+      <c r="AR43" s="58"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="58"/>
+      <c r="AX43" s="58"/>
+      <c r="AY43" s="58"/>
+    </row>
+    <row r="44" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="61" t="s">
+      <c r="B44" s="60"/>
+      <c r="C44" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61" t="s">
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T43" s="61"/>
-      <c r="U43" s="62" t="s">
+      <c r="T44" s="62"/>
+      <c r="U44" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="65" t="s">
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="65" t="s">
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="66" t="s">
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="67" t="s">
+      <c r="AF44" s="67"/>
+      <c r="AG44" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="71"/>
-      <c r="AL43" s="71"/>
-      <c r="AM43" s="71"/>
-      <c r="AN43" s="71"/>
-      <c r="AO43" s="71"/>
-      <c r="AP43" s="71"/>
-      <c r="AQ43" s="71"/>
-      <c r="AR43" s="71"/>
-      <c r="AS43" s="71"/>
-      <c r="AT43" s="71"/>
-      <c r="AU43" s="71"/>
-      <c r="AV43" s="71"/>
-      <c r="AW43" s="71"/>
-      <c r="AX43" s="71"/>
-      <c r="AY43" s="71"/>
-    </row>
-    <row r="44" spans="1:51" ht="30" customHeight="1">
-      <c r="A44" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60" t="s">
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="58"/>
+      <c r="AL44" s="58"/>
+      <c r="AM44" s="58"/>
+      <c r="AN44" s="58"/>
+      <c r="AO44" s="58"/>
+      <c r="AP44" s="58"/>
+      <c r="AQ44" s="58"/>
+      <c r="AR44" s="58"/>
+      <c r="AS44" s="58"/>
+      <c r="AT44" s="58"/>
+      <c r="AU44" s="58"/>
+      <c r="AV44" s="58"/>
+      <c r="AW44" s="58"/>
+      <c r="AX44" s="58"/>
+      <c r="AY44" s="58"/>
+    </row>
+    <row r="45" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="61" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61" t="s">
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T44" s="61"/>
-      <c r="U44" s="62" t="s">
+      <c r="T45" s="62"/>
+      <c r="U45" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V44" s="63"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="65" t="s">
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65" t="s">
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="66" t="s">
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="67" t="s">
+      <c r="AF45" s="67"/>
+      <c r="AG45" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="71"/>
-      <c r="AM44" s="71"/>
-      <c r="AN44" s="71"/>
-      <c r="AO44" s="71"/>
-      <c r="AP44" s="71"/>
-      <c r="AQ44" s="71"/>
-      <c r="AR44" s="71"/>
-      <c r="AS44" s="71"/>
-      <c r="AT44" s="71"/>
-      <c r="AU44" s="71"/>
-      <c r="AV44" s="71"/>
-      <c r="AW44" s="71"/>
-      <c r="AX44" s="71"/>
-      <c r="AY44" s="71"/>
-    </row>
-    <row r="45" spans="1:51" ht="30" customHeight="1">
-      <c r="A45" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="60" t="s">
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="68"/>
+      <c r="AK45" s="58"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="58"/>
+      <c r="AN45" s="58"/>
+      <c r="AO45" s="58"/>
+      <c r="AP45" s="58"/>
+      <c r="AQ45" s="58"/>
+      <c r="AR45" s="58"/>
+      <c r="AS45" s="58"/>
+      <c r="AT45" s="58"/>
+      <c r="AU45" s="58"/>
+      <c r="AV45" s="58"/>
+      <c r="AW45" s="58"/>
+      <c r="AX45" s="58"/>
+      <c r="AY45" s="58"/>
+    </row>
+    <row r="46" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="82"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="61" t="s">
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="61" t="s">
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T45" s="61"/>
-      <c r="U45" s="62" t="s">
+      <c r="T46" s="62"/>
+      <c r="U46" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V45" s="63"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="65" t="s">
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="65" t="s">
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="66"/>
+      <c r="AB46" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="65"/>
-      <c r="AE45" s="66" t="s">
+      <c r="AC46" s="66"/>
+      <c r="AD46" s="66"/>
+      <c r="AE46" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="67" t="s">
+      <c r="AF46" s="67"/>
+      <c r="AG46" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="71"/>
-      <c r="AL45" s="71"/>
-      <c r="AM45" s="71"/>
-      <c r="AN45" s="71"/>
-      <c r="AO45" s="71"/>
-      <c r="AP45" s="71"/>
-      <c r="AQ45" s="71"/>
-      <c r="AR45" s="71"/>
-      <c r="AS45" s="71"/>
-      <c r="AT45" s="71"/>
-      <c r="AU45" s="71"/>
-      <c r="AV45" s="71"/>
-      <c r="AW45" s="71"/>
-      <c r="AX45" s="71"/>
-      <c r="AY45" s="71"/>
-    </row>
-    <row r="46" spans="1:51" ht="30" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="68" t="s">
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="68"/>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="58"/>
+      <c r="AM46" s="58"/>
+      <c r="AN46" s="58"/>
+      <c r="AO46" s="58"/>
+      <c r="AP46" s="58"/>
+      <c r="AQ46" s="58"/>
+      <c r="AR46" s="58"/>
+      <c r="AS46" s="58"/>
+      <c r="AT46" s="58"/>
+      <c r="AU46" s="58"/>
+      <c r="AV46" s="58"/>
+      <c r="AW46" s="58"/>
+      <c r="AX46" s="58"/>
+      <c r="AY46" s="58"/>
+    </row>
+    <row r="47" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="82"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="61" t="s">
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61" t="s">
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T46" s="61"/>
-      <c r="U46" s="62" t="s">
+      <c r="T47" s="62"/>
+      <c r="U47" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V46" s="63"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="65" t="s">
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="65"/>
+      <c r="Y47" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="65" t="s">
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="66"/>
+      <c r="AB47" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="65"/>
-      <c r="AE46" s="66" t="s">
+      <c r="AC47" s="66"/>
+      <c r="AD47" s="66"/>
+      <c r="AE47" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="67" t="s">
+      <c r="AF47" s="67"/>
+      <c r="AG47" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH46" s="67"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="71"/>
-      <c r="AL46" s="71"/>
-      <c r="AM46" s="71"/>
-      <c r="AN46" s="71"/>
-      <c r="AO46" s="71"/>
-      <c r="AP46" s="71"/>
-      <c r="AQ46" s="71"/>
-      <c r="AR46" s="71"/>
-      <c r="AS46" s="71"/>
-      <c r="AT46" s="71"/>
-      <c r="AU46" s="71"/>
-      <c r="AV46" s="71"/>
-      <c r="AW46" s="71"/>
-      <c r="AX46" s="71"/>
-      <c r="AY46" s="71"/>
-    </row>
-    <row r="47" spans="1:51" ht="30" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="68" t="s">
+      <c r="AH47" s="68"/>
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="68"/>
+      <c r="AK47" s="58"/>
+      <c r="AL47" s="58"/>
+      <c r="AM47" s="58"/>
+      <c r="AN47" s="58"/>
+      <c r="AO47" s="58"/>
+      <c r="AP47" s="58"/>
+      <c r="AQ47" s="58"/>
+      <c r="AR47" s="58"/>
+      <c r="AS47" s="58"/>
+      <c r="AT47" s="58"/>
+      <c r="AU47" s="58"/>
+      <c r="AV47" s="58"/>
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="58"/>
+      <c r="AY47" s="58"/>
+    </row>
+    <row r="48" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="61" t="s">
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61" t="s">
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T47" s="61"/>
-      <c r="U47" s="62" t="s">
+      <c r="T48" s="62"/>
+      <c r="U48" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V47" s="63"/>
-      <c r="W47" s="63"/>
-      <c r="X47" s="64"/>
-      <c r="Y47" s="65" t="s">
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="65" t="s">
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC47" s="65"/>
-      <c r="AD47" s="65"/>
-      <c r="AE47" s="66" t="s">
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="67" t="s">
+      <c r="AF48" s="67"/>
+      <c r="AG48" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="71"/>
-      <c r="AL47" s="71"/>
-      <c r="AM47" s="71"/>
-      <c r="AN47" s="71"/>
-      <c r="AO47" s="71"/>
-      <c r="AP47" s="71"/>
-      <c r="AQ47" s="71"/>
-      <c r="AR47" s="71"/>
-      <c r="AS47" s="71"/>
-      <c r="AT47" s="71"/>
-      <c r="AU47" s="71"/>
-      <c r="AV47" s="71"/>
-      <c r="AW47" s="71"/>
-      <c r="AX47" s="71"/>
-      <c r="AY47" s="71"/>
-    </row>
-    <row r="48" spans="1:51" ht="30" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="68" t="s">
+      <c r="AH48" s="68"/>
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="68"/>
+      <c r="AK48" s="58"/>
+      <c r="AL48" s="58"/>
+      <c r="AM48" s="58"/>
+      <c r="AN48" s="58"/>
+      <c r="AO48" s="58"/>
+      <c r="AP48" s="58"/>
+      <c r="AQ48" s="58"/>
+      <c r="AR48" s="58"/>
+      <c r="AS48" s="58"/>
+      <c r="AT48" s="58"/>
+      <c r="AU48" s="58"/>
+      <c r="AV48" s="58"/>
+      <c r="AW48" s="58"/>
+      <c r="AX48" s="58"/>
+      <c r="AY48" s="58"/>
+    </row>
+    <row r="49" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="61" t="s">
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="61" t="s">
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T48" s="61"/>
-      <c r="U48" s="62" t="s">
+      <c r="T49" s="62"/>
+      <c r="U49" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V48" s="63"/>
-      <c r="W48" s="63"/>
-      <c r="X48" s="64"/>
-      <c r="Y48" s="65" t="s">
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="65" t="s">
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="66"/>
+      <c r="AB49" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC48" s="65"/>
-      <c r="AD48" s="65"/>
-      <c r="AE48" s="66" t="s">
+      <c r="AC49" s="66"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="67" t="s">
+      <c r="AF49" s="67"/>
+      <c r="AG49" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="71"/>
-      <c r="AL48" s="71"/>
-      <c r="AM48" s="71"/>
-      <c r="AN48" s="71"/>
-      <c r="AO48" s="71"/>
-      <c r="AP48" s="71"/>
-      <c r="AQ48" s="71"/>
-      <c r="AR48" s="71"/>
-      <c r="AS48" s="71"/>
-      <c r="AT48" s="71"/>
-      <c r="AU48" s="71"/>
-      <c r="AV48" s="71"/>
-      <c r="AW48" s="71"/>
-      <c r="AX48" s="71"/>
-      <c r="AY48" s="71"/>
-    </row>
-    <row r="49" spans="1:51" ht="30" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="68" t="s">
+      <c r="AH49" s="68"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="68"/>
+      <c r="AK49" s="58"/>
+      <c r="AL49" s="58"/>
+      <c r="AM49" s="58"/>
+      <c r="AN49" s="58"/>
+      <c r="AO49" s="58"/>
+      <c r="AP49" s="58"/>
+      <c r="AQ49" s="58"/>
+      <c r="AR49" s="58"/>
+      <c r="AS49" s="58"/>
+      <c r="AT49" s="58"/>
+      <c r="AU49" s="58"/>
+      <c r="AV49" s="58"/>
+      <c r="AW49" s="58"/>
+      <c r="AX49" s="58"/>
+      <c r="AY49" s="58"/>
+    </row>
+    <row r="50" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="82"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="61" t="s">
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61" t="s">
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T49" s="61"/>
-      <c r="U49" s="62" t="s">
+      <c r="T50" s="62"/>
+      <c r="U50" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="64"/>
-      <c r="Y49" s="65" t="s">
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="X50" s="65"/>
+      <c r="Y50" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="65" t="s">
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="66"/>
+      <c r="AB50" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC49" s="65"/>
-      <c r="AD49" s="65"/>
-      <c r="AE49" s="66" t="s">
+      <c r="AC50" s="66"/>
+      <c r="AD50" s="66"/>
+      <c r="AE50" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF49" s="66"/>
-      <c r="AG49" s="67" t="s">
+      <c r="AF50" s="67"/>
+      <c r="AG50" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="71"/>
-      <c r="AM49" s="71"/>
-      <c r="AN49" s="71"/>
-      <c r="AO49" s="71"/>
-      <c r="AP49" s="71"/>
-      <c r="AQ49" s="71"/>
-      <c r="AR49" s="71"/>
-      <c r="AS49" s="71"/>
-      <c r="AT49" s="71"/>
-      <c r="AU49" s="71"/>
-      <c r="AV49" s="71"/>
-      <c r="AW49" s="71"/>
-      <c r="AX49" s="71"/>
-      <c r="AY49" s="71"/>
-    </row>
-    <row r="50" spans="1:51" ht="30" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="68" t="s">
+      <c r="AH50" s="68"/>
+      <c r="AI50" s="68"/>
+      <c r="AJ50" s="68"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="58"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="58"/>
+      <c r="AQ50" s="58"/>
+      <c r="AR50" s="58"/>
+      <c r="AS50" s="58"/>
+      <c r="AT50" s="58"/>
+      <c r="AU50" s="58"/>
+      <c r="AV50" s="58"/>
+      <c r="AW50" s="58"/>
+      <c r="AX50" s="58"/>
+      <c r="AY50" s="58"/>
+    </row>
+    <row r="51" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="82"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="61" t="s">
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61" t="s">
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T50" s="61"/>
-      <c r="U50" s="62" t="s">
+      <c r="T51" s="62"/>
+      <c r="U51" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="65" t="s">
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="65"/>
+      <c r="Y51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="65" t="s">
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="66"/>
+      <c r="AB51" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC50" s="65"/>
-      <c r="AD50" s="65"/>
-      <c r="AE50" s="66" t="s">
+      <c r="AC51" s="66"/>
+      <c r="AD51" s="66"/>
+      <c r="AE51" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF50" s="66"/>
-      <c r="AG50" s="67" t="s">
+      <c r="AF51" s="67"/>
+      <c r="AG51" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH50" s="67"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="71"/>
-      <c r="AL50" s="71"/>
-      <c r="AM50" s="71"/>
-      <c r="AN50" s="71"/>
-      <c r="AO50" s="71"/>
-      <c r="AP50" s="71"/>
-      <c r="AQ50" s="71"/>
-      <c r="AR50" s="71"/>
-      <c r="AS50" s="71"/>
-      <c r="AT50" s="71"/>
-      <c r="AU50" s="71"/>
-      <c r="AV50" s="71"/>
-      <c r="AW50" s="71"/>
-      <c r="AX50" s="71"/>
-      <c r="AY50" s="71"/>
-    </row>
-    <row r="51" spans="1:51" ht="30" customHeight="1">
-      <c r="A51" s="77"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="68" t="s">
+      <c r="AH51" s="68"/>
+      <c r="AI51" s="68"/>
+      <c r="AJ51" s="68"/>
+      <c r="AK51" s="58"/>
+      <c r="AL51" s="58"/>
+      <c r="AM51" s="58"/>
+      <c r="AN51" s="58"/>
+      <c r="AO51" s="58"/>
+      <c r="AP51" s="58"/>
+      <c r="AQ51" s="58"/>
+      <c r="AR51" s="58"/>
+      <c r="AS51" s="58"/>
+      <c r="AT51" s="58"/>
+      <c r="AU51" s="58"/>
+      <c r="AV51" s="58"/>
+      <c r="AW51" s="58"/>
+      <c r="AX51" s="58"/>
+      <c r="AY51" s="58"/>
+    </row>
+    <row r="52" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="82"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="61" t="s">
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61" t="s">
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T51" s="61"/>
-      <c r="U51" s="62" t="s">
+      <c r="T52" s="62"/>
+      <c r="U52" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V51" s="63"/>
-      <c r="W51" s="63"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="65" t="s">
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="65" t="s">
+      <c r="Z52" s="66"/>
+      <c r="AA52" s="66"/>
+      <c r="AB52" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC51" s="65"/>
-      <c r="AD51" s="65"/>
-      <c r="AE51" s="66" t="s">
+      <c r="AC52" s="66"/>
+      <c r="AD52" s="66"/>
+      <c r="AE52" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF51" s="66"/>
-      <c r="AG51" s="67" t="s">
+      <c r="AF52" s="67"/>
+      <c r="AG52" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="67"/>
-      <c r="AJ51" s="67"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="71"/>
-      <c r="AM51" s="71"/>
-      <c r="AN51" s="71"/>
-      <c r="AO51" s="71"/>
-      <c r="AP51" s="71"/>
-      <c r="AQ51" s="71"/>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="71"/>
-      <c r="AT51" s="71"/>
-      <c r="AU51" s="71"/>
-      <c r="AV51" s="71"/>
-      <c r="AW51" s="71"/>
-      <c r="AX51" s="71"/>
-      <c r="AY51" s="71"/>
-    </row>
-    <row r="52" spans="1:51" ht="30" customHeight="1">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="68" t="s">
+      <c r="AH52" s="68"/>
+      <c r="AI52" s="68"/>
+      <c r="AJ52" s="68"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="58"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="58"/>
+      <c r="AO52" s="58"/>
+      <c r="AP52" s="58"/>
+      <c r="AQ52" s="58"/>
+      <c r="AR52" s="58"/>
+      <c r="AS52" s="58"/>
+      <c r="AT52" s="58"/>
+      <c r="AU52" s="58"/>
+      <c r="AV52" s="58"/>
+      <c r="AW52" s="58"/>
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="58"/>
+    </row>
+    <row r="53" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="82"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="61" t="s">
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61" t="s">
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T52" s="61"/>
-      <c r="U52" s="62" t="s">
+      <c r="T53" s="62"/>
+      <c r="U53" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V52" s="63"/>
-      <c r="W52" s="63"/>
-      <c r="X52" s="64"/>
-      <c r="Y52" s="65" t="s">
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="65"/>
-      <c r="AB52" s="65" t="s">
+      <c r="Z53" s="66"/>
+      <c r="AA53" s="66"/>
+      <c r="AB53" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC52" s="65"/>
-      <c r="AD52" s="65"/>
-      <c r="AE52" s="66" t="s">
+      <c r="AC53" s="66"/>
+      <c r="AD53" s="66"/>
+      <c r="AE53" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF52" s="66"/>
-      <c r="AG52" s="67" t="s">
+      <c r="AF53" s="67"/>
+      <c r="AG53" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH52" s="67"/>
-      <c r="AI52" s="67"/>
-      <c r="AJ52" s="67"/>
-      <c r="AK52" s="71"/>
-      <c r="AL52" s="71"/>
-      <c r="AM52" s="71"/>
-      <c r="AN52" s="71"/>
-      <c r="AO52" s="71"/>
-      <c r="AP52" s="71"/>
-      <c r="AQ52" s="71"/>
-      <c r="AR52" s="71"/>
-      <c r="AS52" s="71"/>
-      <c r="AT52" s="71"/>
-      <c r="AU52" s="71"/>
-      <c r="AV52" s="71"/>
-      <c r="AW52" s="71"/>
-      <c r="AX52" s="71"/>
-      <c r="AY52" s="71"/>
-    </row>
-    <row r="53" spans="1:51" ht="30" customHeight="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="68" t="s">
+      <c r="AH53" s="68"/>
+      <c r="AI53" s="68"/>
+      <c r="AJ53" s="68"/>
+      <c r="AK53" s="58"/>
+      <c r="AL53" s="58"/>
+      <c r="AM53" s="58"/>
+      <c r="AN53" s="58"/>
+      <c r="AO53" s="58"/>
+      <c r="AP53" s="58"/>
+      <c r="AQ53" s="58"/>
+      <c r="AR53" s="58"/>
+      <c r="AS53" s="58"/>
+      <c r="AT53" s="58"/>
+      <c r="AU53" s="58"/>
+      <c r="AV53" s="58"/>
+      <c r="AW53" s="58"/>
+      <c r="AX53" s="58"/>
+      <c r="AY53" s="58"/>
+    </row>
+    <row r="54" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="61" t="s">
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61" t="s">
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T53" s="61"/>
-      <c r="U53" s="62" t="s">
+      <c r="T54" s="62"/>
+      <c r="U54" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V53" s="63"/>
-      <c r="W53" s="63"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="65" t="s">
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z53" s="65"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="65" t="s">
+      <c r="Z54" s="66"/>
+      <c r="AA54" s="66"/>
+      <c r="AB54" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC53" s="65"/>
-      <c r="AD53" s="65"/>
-      <c r="AE53" s="66" t="s">
+      <c r="AC54" s="66"/>
+      <c r="AD54" s="66"/>
+      <c r="AE54" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF53" s="66"/>
-      <c r="AG53" s="67" t="s">
+      <c r="AF54" s="67"/>
+      <c r="AG54" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="71"/>
-      <c r="AL53" s="71"/>
-      <c r="AM53" s="71"/>
-      <c r="AN53" s="71"/>
-      <c r="AO53" s="71"/>
-      <c r="AP53" s="71"/>
-      <c r="AQ53" s="71"/>
-      <c r="AR53" s="71"/>
-      <c r="AS53" s="71"/>
-      <c r="AT53" s="71"/>
-      <c r="AU53" s="71"/>
-      <c r="AV53" s="71"/>
-      <c r="AW53" s="71"/>
-      <c r="AX53" s="71"/>
-      <c r="AY53" s="71"/>
-    </row>
-    <row r="54" spans="1:51" ht="30" customHeight="1">
-      <c r="A54" s="79"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="68" t="s">
+      <c r="AH54" s="68"/>
+      <c r="AI54" s="68"/>
+      <c r="AJ54" s="68"/>
+      <c r="AK54" s="58"/>
+      <c r="AL54" s="58"/>
+      <c r="AM54" s="58"/>
+      <c r="AN54" s="58"/>
+      <c r="AO54" s="58"/>
+      <c r="AP54" s="58"/>
+      <c r="AQ54" s="58"/>
+      <c r="AR54" s="58"/>
+      <c r="AS54" s="58"/>
+      <c r="AT54" s="58"/>
+      <c r="AU54" s="58"/>
+      <c r="AV54" s="58"/>
+      <c r="AW54" s="58"/>
+      <c r="AX54" s="58"/>
+      <c r="AY54" s="58"/>
+    </row>
+    <row r="55" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="61" t="s">
+      <c r="B55" s="86"/>
+      <c r="C55" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61" t="s">
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T54" s="61"/>
-      <c r="U54" s="62" t="s">
+      <c r="T55" s="62"/>
+      <c r="U55" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V54" s="63"/>
-      <c r="W54" s="63"/>
-      <c r="X54" s="64"/>
-      <c r="Y54" s="65" t="s">
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z54" s="65"/>
-      <c r="AA54" s="65"/>
-      <c r="AB54" s="65" t="s">
+      <c r="Z55" s="66"/>
+      <c r="AA55" s="66"/>
+      <c r="AB55" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC54" s="65"/>
-      <c r="AD54" s="65"/>
-      <c r="AE54" s="66" t="s">
+      <c r="AC55" s="66"/>
+      <c r="AD55" s="66"/>
+      <c r="AE55" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF54" s="66"/>
-      <c r="AG54" s="67" t="s">
+      <c r="AF55" s="67"/>
+      <c r="AG55" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="67"/>
-      <c r="AK54" s="71"/>
-      <c r="AL54" s="71"/>
-      <c r="AM54" s="71"/>
-      <c r="AN54" s="71"/>
-      <c r="AO54" s="71"/>
-      <c r="AP54" s="71"/>
-      <c r="AQ54" s="71"/>
-      <c r="AR54" s="71"/>
-      <c r="AS54" s="71"/>
-      <c r="AT54" s="71"/>
-      <c r="AU54" s="71"/>
-      <c r="AV54" s="71"/>
-      <c r="AW54" s="71"/>
-      <c r="AX54" s="71"/>
-      <c r="AY54" s="71"/>
-    </row>
-    <row r="55" spans="1:51" ht="30" customHeight="1">
-      <c r="A55" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="72"/>
-      <c r="C55" s="60" t="s">
+      <c r="AH55" s="68"/>
+      <c r="AI55" s="68"/>
+      <c r="AJ55" s="68"/>
+      <c r="AK55" s="58"/>
+      <c r="AL55" s="58"/>
+      <c r="AM55" s="58"/>
+      <c r="AN55" s="58"/>
+      <c r="AO55" s="58"/>
+      <c r="AP55" s="58"/>
+      <c r="AQ55" s="58"/>
+      <c r="AR55" s="58"/>
+      <c r="AS55" s="58"/>
+      <c r="AT55" s="58"/>
+      <c r="AU55" s="58"/>
+      <c r="AV55" s="58"/>
+      <c r="AW55" s="58"/>
+      <c r="AX55" s="58"/>
+      <c r="AY55" s="58"/>
+    </row>
+    <row r="56" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="61" t="s">
+      <c r="B56" s="86"/>
+      <c r="C56" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="61" t="s">
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T55" s="61"/>
-      <c r="U55" s="62" t="s">
+      <c r="T56" s="62"/>
+      <c r="U56" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V55" s="63"/>
-      <c r="W55" s="63"/>
-      <c r="X55" s="64"/>
-      <c r="Y55" s="65" t="s">
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65" t="s">
+      <c r="Z56" s="66"/>
+      <c r="AA56" s="66"/>
+      <c r="AB56" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC55" s="65"/>
-      <c r="AD55" s="65"/>
-      <c r="AE55" s="66" t="s">
+      <c r="AC56" s="66"/>
+      <c r="AD56" s="66"/>
+      <c r="AE56" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF55" s="66"/>
-      <c r="AG55" s="67" t="s">
+      <c r="AF56" s="67"/>
+      <c r="AG56" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH55" s="67"/>
-      <c r="AI55" s="67"/>
-      <c r="AJ55" s="67"/>
-      <c r="AK55" s="71"/>
-      <c r="AL55" s="71"/>
-      <c r="AM55" s="71"/>
-      <c r="AN55" s="71"/>
-      <c r="AO55" s="71"/>
-      <c r="AP55" s="71"/>
-      <c r="AQ55" s="71"/>
-      <c r="AR55" s="71"/>
-      <c r="AS55" s="71"/>
-      <c r="AT55" s="71"/>
-      <c r="AU55" s="71"/>
-      <c r="AV55" s="71"/>
-      <c r="AW55" s="71"/>
-      <c r="AX55" s="71"/>
-      <c r="AY55" s="71"/>
-    </row>
-    <row r="56" spans="1:51" ht="30" customHeight="1">
-      <c r="A56" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="60" t="s">
+      <c r="AH56" s="68"/>
+      <c r="AI56" s="68"/>
+      <c r="AJ56" s="68"/>
+      <c r="AK56" s="58"/>
+      <c r="AL56" s="58"/>
+      <c r="AM56" s="58"/>
+      <c r="AN56" s="58"/>
+      <c r="AO56" s="58"/>
+      <c r="AP56" s="58"/>
+      <c r="AQ56" s="58"/>
+      <c r="AR56" s="58"/>
+      <c r="AS56" s="58"/>
+      <c r="AT56" s="58"/>
+      <c r="AU56" s="58"/>
+      <c r="AV56" s="58"/>
+      <c r="AW56" s="58"/>
+      <c r="AX56" s="58"/>
+      <c r="AY56" s="58"/>
+    </row>
+    <row r="57" spans="1:51" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="61" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61" t="s">
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="61"/>
-      <c r="U56" s="62" t="s">
+      <c r="T57" s="62"/>
+      <c r="U57" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V56" s="63"/>
-      <c r="W56" s="63"/>
-      <c r="X56" s="64"/>
-      <c r="Y56" s="65" t="s">
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z56" s="65"/>
-      <c r="AA56" s="65"/>
-      <c r="AB56" s="65" t="s">
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC56" s="65"/>
-      <c r="AD56" s="65"/>
-      <c r="AE56" s="66" t="s">
+      <c r="AC57" s="66"/>
+      <c r="AD57" s="66"/>
+      <c r="AE57" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF56" s="66"/>
-      <c r="AG56" s="67" t="s">
+      <c r="AF57" s="67"/>
+      <c r="AG57" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH56" s="67"/>
-      <c r="AI56" s="67"/>
-      <c r="AJ56" s="67"/>
-      <c r="AK56" s="71"/>
-      <c r="AL56" s="71"/>
-      <c r="AM56" s="71"/>
-      <c r="AN56" s="71"/>
-      <c r="AO56" s="71"/>
-      <c r="AP56" s="71"/>
-      <c r="AQ56" s="71"/>
-      <c r="AR56" s="71"/>
-      <c r="AS56" s="71"/>
-      <c r="AT56" s="71"/>
-      <c r="AU56" s="71"/>
-      <c r="AV56" s="71"/>
-      <c r="AW56" s="71"/>
-      <c r="AX56" s="71"/>
-      <c r="AY56" s="71"/>
-    </row>
-    <row r="57" spans="1:51" ht="41.25" customHeight="1">
-      <c r="A57" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="60" t="s">
+      <c r="AH57" s="68"/>
+      <c r="AI57" s="68"/>
+      <c r="AJ57" s="68"/>
+      <c r="AK57" s="58"/>
+      <c r="AL57" s="58"/>
+      <c r="AM57" s="58"/>
+      <c r="AN57" s="58"/>
+      <c r="AO57" s="58"/>
+      <c r="AP57" s="58"/>
+      <c r="AQ57" s="58"/>
+      <c r="AR57" s="58"/>
+      <c r="AS57" s="58"/>
+      <c r="AT57" s="58"/>
+      <c r="AU57" s="58"/>
+      <c r="AV57" s="58"/>
+      <c r="AW57" s="58"/>
+      <c r="AX57" s="58"/>
+      <c r="AY57" s="58"/>
+    </row>
+    <row r="58" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="61" t="s">
+      <c r="B58" s="86"/>
+      <c r="C58" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61" t="s">
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T57" s="61"/>
-      <c r="U57" s="62" t="s">
+      <c r="T58" s="62"/>
+      <c r="U58" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V57" s="63"/>
-      <c r="W57" s="63"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="65" t="s">
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z57" s="65"/>
-      <c r="AA57" s="65"/>
-      <c r="AB57" s="65" t="s">
+      <c r="Z58" s="66"/>
+      <c r="AA58" s="66"/>
+      <c r="AB58" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC57" s="65"/>
-      <c r="AD57" s="65"/>
-      <c r="AE57" s="66" t="s">
+      <c r="AC58" s="66"/>
+      <c r="AD58" s="66"/>
+      <c r="AE58" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF57" s="66"/>
-      <c r="AG57" s="67" t="s">
+      <c r="AF58" s="67"/>
+      <c r="AG58" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AJ57" s="67"/>
-      <c r="AK57" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL57" s="71"/>
-      <c r="AM57" s="71"/>
-      <c r="AN57" s="71"/>
-      <c r="AO57" s="71"/>
-      <c r="AP57" s="71"/>
-      <c r="AQ57" s="71"/>
-      <c r="AR57" s="71"/>
-      <c r="AS57" s="71"/>
-      <c r="AT57" s="71"/>
-      <c r="AU57" s="71"/>
-      <c r="AV57" s="71"/>
-      <c r="AW57" s="71"/>
-      <c r="AX57" s="71"/>
-      <c r="AY57" s="71"/>
-    </row>
-    <row r="58" spans="1:51" ht="30" customHeight="1">
-      <c r="A58" s="72" t="s">
+      <c r="AH58" s="68"/>
+      <c r="AI58" s="68"/>
+      <c r="AJ58" s="68"/>
+      <c r="AK58" s="87"/>
+      <c r="AL58" s="58"/>
+      <c r="AM58" s="58"/>
+      <c r="AN58" s="58"/>
+      <c r="AO58" s="58"/>
+      <c r="AP58" s="58"/>
+      <c r="AQ58" s="58"/>
+      <c r="AR58" s="58"/>
+      <c r="AS58" s="58"/>
+      <c r="AT58" s="58"/>
+      <c r="AU58" s="58"/>
+      <c r="AV58" s="58"/>
+      <c r="AW58" s="58"/>
+      <c r="AX58" s="58"/>
+      <c r="AY58" s="58"/>
+    </row>
+    <row r="59" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="72"/>
-      <c r="C58" s="60" t="s">
+      <c r="B59" s="86"/>
+      <c r="C59" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="61" t="s">
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="61" t="s">
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T58" s="61"/>
-      <c r="U58" s="62" t="s">
+      <c r="T59" s="62"/>
+      <c r="U59" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V58" s="63"/>
-      <c r="W58" s="63"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="65" t="s">
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z58" s="65"/>
-      <c r="AA58" s="65"/>
-      <c r="AB58" s="65" t="s">
+      <c r="Z59" s="66"/>
+      <c r="AA59" s="66"/>
+      <c r="AB59" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC58" s="65"/>
-      <c r="AD58" s="65"/>
-      <c r="AE58" s="66" t="s">
+      <c r="AC59" s="66"/>
+      <c r="AD59" s="66"/>
+      <c r="AE59" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF58" s="66"/>
-      <c r="AG58" s="67" t="s">
+      <c r="AF59" s="67"/>
+      <c r="AG59" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH58" s="67"/>
-      <c r="AI58" s="67"/>
-      <c r="AJ58" s="67"/>
-      <c r="AK58" s="73"/>
-      <c r="AL58" s="71"/>
-      <c r="AM58" s="71"/>
-      <c r="AN58" s="71"/>
-      <c r="AO58" s="71"/>
-      <c r="AP58" s="71"/>
-      <c r="AQ58" s="71"/>
-      <c r="AR58" s="71"/>
-      <c r="AS58" s="71"/>
-      <c r="AT58" s="71"/>
-      <c r="AU58" s="71"/>
-      <c r="AV58" s="71"/>
-      <c r="AW58" s="71"/>
-      <c r="AX58" s="71"/>
-      <c r="AY58" s="71"/>
-    </row>
-    <row r="59" spans="1:51" ht="30" customHeight="1">
-      <c r="A59" s="72" t="s">
+      <c r="AH59" s="68"/>
+      <c r="AI59" s="68"/>
+      <c r="AJ59" s="68"/>
+      <c r="AK59" s="58"/>
+      <c r="AL59" s="58"/>
+      <c r="AM59" s="58"/>
+      <c r="AN59" s="58"/>
+      <c r="AO59" s="58"/>
+      <c r="AP59" s="58"/>
+      <c r="AQ59" s="58"/>
+      <c r="AR59" s="58"/>
+      <c r="AS59" s="58"/>
+      <c r="AT59" s="58"/>
+      <c r="AU59" s="58"/>
+      <c r="AV59" s="58"/>
+      <c r="AW59" s="58"/>
+      <c r="AX59" s="58"/>
+      <c r="AY59" s="58"/>
+    </row>
+    <row r="60" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="60" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="61" t="s">
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61" t="s">
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T59" s="61"/>
-      <c r="U59" s="62" t="s">
+      <c r="T60" s="62"/>
+      <c r="U60" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V59" s="63"/>
-      <c r="W59" s="63"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="65" t="s">
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Z59" s="65"/>
-      <c r="AA59" s="65"/>
-      <c r="AB59" s="65" t="s">
+      <c r="Z60" s="66"/>
+      <c r="AA60" s="66"/>
+      <c r="AB60" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="AC59" s="65"/>
-      <c r="AD59" s="65"/>
-      <c r="AE59" s="66" t="s">
+      <c r="AC60" s="66"/>
+      <c r="AD60" s="66"/>
+      <c r="AE60" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="AF59" s="66"/>
-      <c r="AG59" s="67" t="s">
+      <c r="AF60" s="67"/>
+      <c r="AG60" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AH59" s="67"/>
-      <c r="AI59" s="67"/>
-      <c r="AJ59" s="67"/>
-      <c r="AK59" s="71"/>
-      <c r="AL59" s="71"/>
-      <c r="AM59" s="71"/>
-      <c r="AN59" s="71"/>
-      <c r="AO59" s="71"/>
-      <c r="AP59" s="71"/>
-      <c r="AQ59" s="71"/>
-      <c r="AR59" s="71"/>
-      <c r="AS59" s="71"/>
-      <c r="AT59" s="71"/>
-      <c r="AU59" s="71"/>
-      <c r="AV59" s="71"/>
-      <c r="AW59" s="71"/>
-      <c r="AX59" s="71"/>
-      <c r="AY59" s="71"/>
-    </row>
-    <row r="60" spans="1:51" ht="30" customHeight="1">
-      <c r="A60" s="72" t="s">
+      <c r="AH60" s="68"/>
+      <c r="AI60" s="68"/>
+      <c r="AJ60" s="68"/>
+      <c r="AK60" s="58"/>
+      <c r="AL60" s="58"/>
+      <c r="AM60" s="58"/>
+      <c r="AN60" s="58"/>
+      <c r="AO60" s="58"/>
+      <c r="AP60" s="58"/>
+      <c r="AQ60" s="58"/>
+      <c r="AR60" s="58"/>
+      <c r="AS60" s="58"/>
+      <c r="AT60" s="58"/>
+      <c r="AU60" s="58"/>
+      <c r="AV60" s="58"/>
+      <c r="AW60" s="58"/>
+      <c r="AX60" s="58"/>
+      <c r="AY60" s="58"/>
+    </row>
+    <row r="61" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="72"/>
-      <c r="C60" s="60" t="s">
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="76"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="76"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="76"/>
+      <c r="V61" s="76"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="76"/>
+      <c r="Y61" s="76"/>
+      <c r="Z61" s="76"/>
+      <c r="AA61" s="76"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="76"/>
+      <c r="AD61" s="76"/>
+      <c r="AE61" s="76"/>
+      <c r="AF61" s="76"/>
+      <c r="AG61" s="76"/>
+      <c r="AH61" s="76"/>
+      <c r="AI61" s="76"/>
+      <c r="AJ61" s="76"/>
+      <c r="AK61" s="76"/>
+      <c r="AL61" s="76"/>
+      <c r="AM61" s="76"/>
+      <c r="AN61" s="76"/>
+      <c r="AO61" s="76"/>
+      <c r="AP61" s="76"/>
+      <c r="AQ61" s="76"/>
+      <c r="AR61" s="76"/>
+      <c r="AS61" s="76"/>
+      <c r="AT61" s="76"/>
+      <c r="AU61" s="76"/>
+      <c r="AV61" s="76"/>
+      <c r="AW61" s="76"/>
+      <c r="AX61" s="76"/>
+      <c r="AY61" s="76"/>
+    </row>
+    <row r="62" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="57" t="s">
         <v>83</v>
-      </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="T60" s="61"/>
-      <c r="U60" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="V60" s="63"/>
-      <c r="W60" s="63"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z60" s="65"/>
-      <c r="AA60" s="65"/>
-      <c r="AB60" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC60" s="65"/>
-      <c r="AD60" s="65"/>
-      <c r="AE60" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF60" s="66"/>
-      <c r="AG60" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH60" s="67"/>
-      <c r="AI60" s="67"/>
-      <c r="AJ60" s="67"/>
-      <c r="AK60" s="71"/>
-      <c r="AL60" s="71"/>
-      <c r="AM60" s="71"/>
-      <c r="AN60" s="71"/>
-      <c r="AO60" s="71"/>
-      <c r="AP60" s="71"/>
-      <c r="AQ60" s="71"/>
-      <c r="AR60" s="71"/>
-      <c r="AS60" s="71"/>
-      <c r="AT60" s="71"/>
-      <c r="AU60" s="71"/>
-      <c r="AV60" s="71"/>
-      <c r="AW60" s="71"/>
-      <c r="AX60" s="71"/>
-      <c r="AY60" s="71"/>
-    </row>
-    <row r="61" spans="1:51" ht="18">
-      <c r="A61" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
-      <c r="U61" s="81"/>
-      <c r="V61" s="81"/>
-      <c r="W61" s="81"/>
-      <c r="X61" s="81"/>
-      <c r="Y61" s="81"/>
-      <c r="Z61" s="81"/>
-      <c r="AA61" s="81"/>
-      <c r="AB61" s="81"/>
-      <c r="AC61" s="81"/>
-      <c r="AD61" s="81"/>
-      <c r="AE61" s="81"/>
-      <c r="AF61" s="81"/>
-      <c r="AG61" s="81"/>
-      <c r="AH61" s="81"/>
-      <c r="AI61" s="81"/>
-      <c r="AJ61" s="81"/>
-      <c r="AK61" s="81"/>
-      <c r="AL61" s="81"/>
-      <c r="AM61" s="81"/>
-      <c r="AN61" s="81"/>
-      <c r="AO61" s="81"/>
-      <c r="AP61" s="81"/>
-      <c r="AQ61" s="81"/>
-      <c r="AR61" s="81"/>
-      <c r="AS61" s="81"/>
-      <c r="AT61" s="81"/>
-      <c r="AU61" s="81"/>
-      <c r="AV61" s="81"/>
-      <c r="AW61" s="81"/>
-      <c r="AX61" s="81"/>
-      <c r="AY61" s="81"/>
-    </row>
-    <row r="62" spans="1:51" ht="43.5" customHeight="1">
-      <c r="A62" s="57" t="s">
-        <v>85</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -13364,7 +13371,7 @@
       <c r="J62" s="57"/>
       <c r="K62" s="57"/>
       <c r="L62" s="57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M62" s="57"/>
       <c r="N62" s="57"/>
@@ -13406,9 +13413,9 @@
       <c r="AX62" s="57"/>
       <c r="AY62" s="57"/>
     </row>
-    <row r="63" spans="1:51" ht="43.5" customHeight="1">
+    <row r="63" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -13421,7 +13428,7 @@
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
       <c r="L63" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M63" s="57"/>
       <c r="N63" s="57"/>
@@ -13463,9 +13470,9 @@
       <c r="AX63" s="57"/>
       <c r="AY63" s="57"/>
     </row>
-    <row r="64" spans="1:51" ht="43.5" customHeight="1">
+    <row r="64" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -13478,7 +13485,7 @@
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
       <c r="L64" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M64" s="57"/>
       <c r="N64" s="57"/>
@@ -13520,9 +13527,9 @@
       <c r="AX64" s="57"/>
       <c r="AY64" s="57"/>
     </row>
-    <row r="65" spans="1:51" ht="409.5" customHeight="1">
+    <row r="65" spans="1:51" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -13535,7 +13542,7 @@
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
       <c r="L65" s="57" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M65" s="57"/>
       <c r="N65" s="57"/>
@@ -13577,9 +13584,9 @@
       <c r="AX65" s="57"/>
       <c r="AY65" s="57"/>
     </row>
-    <row r="66" spans="1:51" ht="298.8" customHeight="1">
+    <row r="66" spans="1:51" ht="298.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="57" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -13592,7 +13599,7 @@
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
       <c r="L66" s="57" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M66" s="57"/>
       <c r="N66" s="57"/>
@@ -13634,9 +13641,9 @@
       <c r="AX66" s="57"/>
       <c r="AY66" s="57"/>
     </row>
-    <row r="67" spans="1:51" ht="65.25" customHeight="1">
+    <row r="67" spans="1:51" ht="96.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -13649,7 +13656,7 @@
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M67" s="57"/>
       <c r="N67" s="57"/>
@@ -13691,9 +13698,9 @@
       <c r="AX67" s="57"/>
       <c r="AY67" s="57"/>
     </row>
-    <row r="68" spans="1:51" ht="18">
+    <row r="68" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -13706,7 +13713,7 @@
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M68" s="57"/>
       <c r="N68" s="57"/>
@@ -13748,9 +13755,9 @@
       <c r="AX68" s="57"/>
       <c r="AY68" s="57"/>
     </row>
-    <row r="69" spans="1:51" ht="18">
+    <row r="69" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -13763,7 +13770,7 @@
       <c r="J69" s="57"/>
       <c r="K69" s="57"/>
       <c r="L69" s="57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M69" s="57"/>
       <c r="N69" s="57"/>
@@ -13805,9 +13812,9 @@
       <c r="AX69" s="57"/>
       <c r="AY69" s="57"/>
     </row>
-    <row r="70" spans="1:51" ht="161.25" customHeight="1">
+    <row r="70" spans="1:51" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -13820,7 +13827,7 @@
       <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M70" s="57"/>
       <c r="N70" s="57"/>
@@ -13862,9 +13869,9 @@
       <c r="AX70" s="57"/>
       <c r="AY70" s="57"/>
     </row>
-    <row r="71" spans="1:51" ht="98.25" customHeight="1">
+    <row r="71" spans="1:51" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -13877,7 +13884,7 @@
       <c r="J71" s="57"/>
       <c r="K71" s="57"/>
       <c r="L71" s="57" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="M71" s="57"/>
       <c r="N71" s="57"/>
@@ -13919,9 +13926,9 @@
       <c r="AX71" s="57"/>
       <c r="AY71" s="57"/>
     </row>
-    <row r="72" spans="1:51" ht="117" customHeight="1">
+    <row r="72" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -13934,7 +13941,7 @@
       <c r="J72" s="57"/>
       <c r="K72" s="57"/>
       <c r="L72" s="57" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M72" s="57"/>
       <c r="N72" s="57"/>
@@ -13976,9 +13983,9 @@
       <c r="AX72" s="57"/>
       <c r="AY72" s="57"/>
     </row>
-    <row r="73" spans="1:51" ht="107.25" customHeight="1">
+    <row r="73" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -13990,8 +13997,8 @@
       <c r="I73" s="57"/>
       <c r="J73" s="57"/>
       <c r="K73" s="57"/>
-      <c r="L73" s="74" t="s">
-        <v>103</v>
+      <c r="L73" s="57" t="s">
+        <v>129</v>
       </c>
       <c r="M73" s="57"/>
       <c r="N73" s="57"/>
@@ -14033,9 +14040,9 @@
       <c r="AX73" s="57"/>
       <c r="AY73" s="57"/>
     </row>
-    <row r="74" spans="1:51" ht="107.25" customHeight="1">
+    <row r="74" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -14047,8 +14054,8 @@
       <c r="I74" s="57"/>
       <c r="J74" s="57"/>
       <c r="K74" s="57"/>
-      <c r="L74" s="74" t="s">
-        <v>105</v>
+      <c r="L74" s="75" t="s">
+        <v>100</v>
       </c>
       <c r="M74" s="57"/>
       <c r="N74" s="57"/>
@@ -14090,9 +14097,9 @@
       <c r="AX74" s="57"/>
       <c r="AY74" s="57"/>
     </row>
-    <row r="75" spans="1:51" ht="107.25" customHeight="1">
+    <row r="75" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -14104,8 +14111,8 @@
       <c r="I75" s="57"/>
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
-      <c r="L75" s="74" t="s">
-        <v>107</v>
+      <c r="L75" s="75" t="s">
+        <v>102</v>
       </c>
       <c r="M75" s="57"/>
       <c r="N75" s="57"/>
@@ -14147,9 +14154,9 @@
       <c r="AX75" s="57"/>
       <c r="AY75" s="57"/>
     </row>
-    <row r="76" spans="1:51" ht="107.25" customHeight="1">
+    <row r="76" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -14161,8 +14168,8 @@
       <c r="I76" s="57"/>
       <c r="J76" s="57"/>
       <c r="K76" s="57"/>
-      <c r="L76" s="74" t="s">
-        <v>109</v>
+      <c r="L76" s="75" t="s">
+        <v>104</v>
       </c>
       <c r="M76" s="57"/>
       <c r="N76" s="57"/>
@@ -14204,24 +14211,245 @@
       <c r="AX76" s="57"/>
       <c r="AY76" s="57"/>
     </row>
-    <row r="77" spans="1:51" ht="18"/>
-    <row r="78" spans="1:51" ht="18"/>
-    <row r="79" spans="1:51" ht="18"/>
-    <row r="80" spans="1:51" ht="18"/>
+    <row r="77" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="L66:AY66"/>
-    <mergeCell ref="AK42:AY42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="L64:AY64"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="AK55:AY55"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="L55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="AK58:AY58"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="AK57:AY57"/>
+    <mergeCell ref="AK56:AY56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="L58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:X58"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="L67:AY67"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="AK59:AY59"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="L59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:X59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:AY62"/>
+    <mergeCell ref="L65:AY65"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="L63:AY63"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="L75:AY75"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="AK60:AY60"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="L60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="L70:AY70"/>
+    <mergeCell ref="L69:AY69"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="L72:AY72"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="L74:AY74"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="L73:AY73"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="L71:AY71"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:X57"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="L56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="AB54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AK54:AY54"/>
+    <mergeCell ref="L54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="A45:B54"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AK53:AY53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AB52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AK52:AY52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AK51:AY51"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AB50:AD50"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AK50:AY50"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AK49:AY49"/>
+    <mergeCell ref="L49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="AK48:AY48"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="AK45:AY45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="L76:AY76"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="AK43:AY43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="A61:AY61"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="L68:AY68"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AK36:AY36"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AK41:AY41"/>
+    <mergeCell ref="AK38:AY38"/>
+    <mergeCell ref="AK39:AY39"/>
+    <mergeCell ref="AK37:AY37"/>
+    <mergeCell ref="AK40:AY40"/>
     <mergeCell ref="A3:AY3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:AH1"/>
@@ -14246,44 +14474,18 @@
     <mergeCell ref="L36:R36"/>
     <mergeCell ref="S36:T36"/>
     <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AK36:AY36"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AK41:AY41"/>
-    <mergeCell ref="AK38:AY38"/>
-    <mergeCell ref="AK39:AY39"/>
-    <mergeCell ref="AK37:AY37"/>
-    <mergeCell ref="AK40:AY40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="L76:AY76"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="AK43:AY43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="A61:AY61"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="L68:AY68"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="L66:AY66"/>
+    <mergeCell ref="AK42:AY42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
     <mergeCell ref="AK46:AY46"/>
     <mergeCell ref="L47:R47"/>
     <mergeCell ref="S47:T47"/>
@@ -14296,201 +14498,6 @@
     <mergeCell ref="S46:T46"/>
     <mergeCell ref="U46:X46"/>
     <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="AK45:AY45"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AK49:AY49"/>
-    <mergeCell ref="L49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="AK48:AY48"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:X48"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AK50:AY50"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="L50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="L52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AK51:AY51"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="L51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AK54:AY54"/>
-    <mergeCell ref="L54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="A45:B54"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AK53:AY53"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="L53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="AB52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AK52:AY52"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:X57"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="L56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="L75:AY75"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="AK60:AY60"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="L60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="L70:AY70"/>
-    <mergeCell ref="L69:AY69"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="L72:AY72"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="L74:AY74"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="L73:AY73"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="L71:AY71"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="L58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:X58"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="L67:AY67"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="AK59:AY59"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="L59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:X59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L62:AY62"/>
-    <mergeCell ref="L65:AY65"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="L63:AY63"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="AK58:AY58"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="AK57:AY57"/>
-    <mergeCell ref="AK56:AY56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="L64:AY64"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="AK55:AY55"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="L55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
@@ -14524,7 +14531,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.109375" style="45"/>
     <col min="3" max="3" width="32.6640625" style="45" customWidth="1"/>
@@ -14535,135 +14542,135 @@
     <col min="8" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="26.4">
+    </row>
+    <row r="3" spans="2:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B3" s="45">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E3" s="46">
         <v>45522</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G3" s="46">
         <v>45529</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="26.4">
+    <row r="4" spans="2:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B4" s="45">
         <f t="shared" ref="B4:B12" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E4" s="46">
         <v>45522</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G4" s="46">
         <v>45529</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="26.4">
+    <row r="5" spans="2:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B5" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" s="46">
         <v>45522</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G5" s="46">
         <v>45529</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="26.4">
+    <row r="6" spans="2:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B6" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E6" s="46">
         <v>45536</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="45">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="45">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="45">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14679,6 +14686,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EA33B2329A96D4479E9B802CC9E5A0B5" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52d2914cf4ca7a40289baa0855df37e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf5160749d23804eda78bf15a97dfad" ns2:_="">
     <xsd:import namespace="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0"/>
@@ -14822,22 +14844,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C78481E-A33B-48BC-A720-91807D4235A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C89A913-7ED1-4BF6-8E4A-916015E940D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14853,21 +14877,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C78481E-A33B-48BC-A720-91807D4235A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/画面設計書/画面設計書_電卓.xlsx
+++ b/画面設計書/画面設計書_電卓.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1236" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87BA9582-0CF2-4F83-9EFB-94A6F3B9EFC1}"/>
+  <xr:revisionPtr revIDLastSave="1237" documentId="13_ncr:1_{ED602519-6854-4F6E-8808-F0A4B242F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2E430A-7B61-4883-8D3B-CA84AFE19E57}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>④</t>
-  </si>
-  <si>
-    <t>計算過程表示欄</t>
   </si>
   <si>
     <t>テキストボックス</t>
@@ -726,6 +723,10 @@
     <t>⑤計算結果表示欄に入力されている値と、⑫～⑮のいずれかのボタン押下後に、⑤計算結果表示欄に入力した値の計算結果を、等号ボタン押下することで、⑤計算結果表示欄に出力する。
 ＜上記以外の場合＞
 →何も処理を行わない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算過程表示欄</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1459,9 +1460,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1492,30 +1490,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1524,6 +1498,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1543,11 +1529,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9224,7 +9225,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>11</v>
@@ -9240,7 +9241,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>11</v>
@@ -9260,7 +9261,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>11</v>
@@ -9656,8 +9657,8 @@
   </sheetPr>
   <dimension ref="A1:AY80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72:AY72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73:AY73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9668,3697 +9669,3697 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="69" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84" t="str">
         <f>画面一覧表!C4</f>
         <v>電卓画面</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="71" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="69" t="str">
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="84" t="str">
         <f>画面一覧表!D4</f>
         <v>calculator</v>
       </c>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
     </row>
     <row r="2" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86"/>
     </row>
     <row r="3" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="84"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
     </row>
     <row r="4" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86"/>
     </row>
     <row r="5" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="65"/>
+      <c r="AM5" s="65"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="65"/>
+      <c r="AR5" s="65"/>
+      <c r="AS5" s="65"/>
+      <c r="AT5" s="65"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
     </row>
     <row r="6" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
     </row>
     <row r="7" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="65"/>
+      <c r="AY7" s="65"/>
     </row>
     <row r="8" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
     </row>
     <row r="9" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="65"/>
     </row>
     <row r="10" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
     </row>
     <row r="11" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
     </row>
     <row r="12" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
     </row>
     <row r="13" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
     </row>
     <row r="14" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AJ14" s="65"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="65"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="65"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="65"/>
     </row>
     <row r="15" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
     </row>
     <row r="16" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
     </row>
     <row r="17" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
     </row>
     <row r="18" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
     </row>
     <row r="19" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
     </row>
     <row r="20" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
     </row>
     <row r="21" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
     </row>
     <row r="22" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
     </row>
     <row r="23" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
     </row>
     <row r="24" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
     </row>
     <row r="25" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="65"/>
+      <c r="AS25" s="65"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="65"/>
+      <c r="AY25" s="65"/>
     </row>
     <row r="26" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="66"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="65"/>
+      <c r="AU26" s="65"/>
+      <c r="AV26" s="65"/>
+      <c r="AW26" s="65"/>
+      <c r="AX26" s="65"/>
+      <c r="AY26" s="65"/>
     </row>
     <row r="27" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
-      <c r="AU27" s="66"/>
-      <c r="AV27" s="66"/>
-      <c r="AW27" s="66"/>
-      <c r="AX27" s="66"/>
-      <c r="AY27" s="66"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="65"/>
+      <c r="AR27" s="65"/>
+      <c r="AS27" s="65"/>
+      <c r="AT27" s="65"/>
+      <c r="AU27" s="65"/>
+      <c r="AV27" s="65"/>
+      <c r="AW27" s="65"/>
+      <c r="AX27" s="65"/>
+      <c r="AY27" s="65"/>
     </row>
     <row r="28" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="66"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
-      <c r="AU28" s="66"/>
-      <c r="AV28" s="66"/>
-      <c r="AW28" s="66"/>
-      <c r="AX28" s="66"/>
-      <c r="AY28" s="66"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="65"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
     </row>
     <row r="29" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="65"/>
+      <c r="AL29" s="65"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="65"/>
+      <c r="AR29" s="65"/>
+      <c r="AS29" s="65"/>
+      <c r="AT29" s="65"/>
+      <c r="AU29" s="65"/>
+      <c r="AV29" s="65"/>
+      <c r="AW29" s="65"/>
+      <c r="AX29" s="65"/>
+      <c r="AY29" s="65"/>
     </row>
     <row r="30" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="66"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="66"/>
-      <c r="AU30" s="66"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="66"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="66"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="65"/>
+      <c r="AQ30" s="65"/>
+      <c r="AR30" s="65"/>
+      <c r="AS30" s="65"/>
+      <c r="AT30" s="65"/>
+      <c r="AU30" s="65"/>
+      <c r="AV30" s="65"/>
+      <c r="AW30" s="65"/>
+      <c r="AX30" s="65"/>
+      <c r="AY30" s="65"/>
     </row>
     <row r="31" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="65"/>
+      <c r="AS31" s="65"/>
+      <c r="AT31" s="65"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="65"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="65"/>
+      <c r="AY31" s="65"/>
     </row>
     <row r="32" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="65"/>
+      <c r="AY32" s="65"/>
     </row>
     <row r="33" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="65"/>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="65"/>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="65"/>
     </row>
     <row r="34" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
-      <c r="AU34" s="66"/>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="66"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="66"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="65"/>
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="65"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="65"/>
+      <c r="AY34" s="65"/>
     </row>
     <row r="35" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="72"/>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="72"/>
-      <c r="AN35" s="72"/>
-      <c r="AO35" s="72"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="72"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="86"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="86"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="86"/>
+      <c r="AO35" s="86"/>
+      <c r="AP35" s="86"/>
+      <c r="AQ35" s="86"/>
+      <c r="AR35" s="86"/>
+      <c r="AS35" s="86"/>
+      <c r="AT35" s="86"/>
+      <c r="AU35" s="86"/>
+      <c r="AV35" s="86"/>
+      <c r="AW35" s="86"/>
+      <c r="AX35" s="86"/>
+      <c r="AY35" s="86"/>
     </row>
     <row r="36" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71" t="s">
+      <c r="B36" s="83"/>
+      <c r="C36" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71" t="s">
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71" t="s">
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71" t="s">
+      <c r="T36" s="83"/>
+      <c r="U36" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="74" t="s">
+      <c r="V36" s="83"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="83"/>
+      <c r="Y36" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74" t="s">
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="71" t="s">
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71" t="s">
+      <c r="AF36" s="83"/>
+      <c r="AG36" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71" t="s">
+      <c r="AH36" s="83"/>
+      <c r="AI36" s="83"/>
+      <c r="AJ36" s="83"/>
+      <c r="AK36" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AL36" s="71"/>
-      <c r="AM36" s="71"/>
-      <c r="AN36" s="71"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="71"/>
-      <c r="AQ36" s="71"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="71"/>
-      <c r="AT36" s="71"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="71"/>
-      <c r="AW36" s="71"/>
-      <c r="AX36" s="71"/>
-      <c r="AY36" s="71"/>
+      <c r="AL36" s="83"/>
+      <c r="AM36" s="83"/>
+      <c r="AN36" s="83"/>
+      <c r="AO36" s="83"/>
+      <c r="AP36" s="83"/>
+      <c r="AQ36" s="83"/>
+      <c r="AR36" s="83"/>
+      <c r="AS36" s="83"/>
+      <c r="AT36" s="83"/>
+      <c r="AU36" s="83"/>
+      <c r="AV36" s="83"/>
+      <c r="AW36" s="83"/>
+      <c r="AX36" s="83"/>
+      <c r="AY36" s="83"/>
     </row>
     <row r="37" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="61" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="62" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62" t="s">
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T37" s="62"/>
-      <c r="U37" s="63" t="s">
+      <c r="T37" s="61"/>
+      <c r="U37" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="66" t="s">
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66" t="s">
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="67" t="s">
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="68" t="s">
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="68"/>
-      <c r="AJ37" s="68"/>
-      <c r="AK37" s="58"/>
-      <c r="AL37" s="58"/>
-      <c r="AM37" s="58"/>
-      <c r="AN37" s="58"/>
-      <c r="AO37" s="58"/>
-      <c r="AP37" s="58"/>
-      <c r="AQ37" s="58"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="58"/>
-      <c r="AU37" s="58"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="58"/>
-      <c r="AX37" s="58"/>
-      <c r="AY37" s="58"/>
+      <c r="AH37" s="67"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="71"/>
+      <c r="AL37" s="71"/>
+      <c r="AM37" s="71"/>
+      <c r="AN37" s="71"/>
+      <c r="AO37" s="71"/>
+      <c r="AP37" s="71"/>
+      <c r="AQ37" s="71"/>
+      <c r="AR37" s="71"/>
+      <c r="AS37" s="71"/>
+      <c r="AT37" s="71"/>
+      <c r="AU37" s="71"/>
+      <c r="AV37" s="71"/>
+      <c r="AW37" s="71"/>
+      <c r="AX37" s="71"/>
+      <c r="AY37" s="71"/>
     </row>
     <row r="38" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="61" t="s">
+      <c r="B38" s="72"/>
+      <c r="C38" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="62" t="s">
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62" t="s">
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T38" s="62"/>
-      <c r="U38" s="63" t="s">
+      <c r="T38" s="61"/>
+      <c r="U38" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="66" t="s">
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66" t="s">
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="67" t="s">
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="68" t="s">
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="68"/>
-      <c r="AJ38" s="68"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="58"/>
-      <c r="AM38" s="58"/>
-      <c r="AN38" s="58"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="58"/>
-      <c r="AQ38" s="58"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="58"/>
-      <c r="AX38" s="58"/>
-      <c r="AY38" s="58"/>
+      <c r="AH38" s="67"/>
+      <c r="AI38" s="67"/>
+      <c r="AJ38" s="67"/>
+      <c r="AK38" s="71"/>
+      <c r="AL38" s="71"/>
+      <c r="AM38" s="71"/>
+      <c r="AN38" s="71"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="71"/>
+      <c r="AQ38" s="71"/>
+      <c r="AR38" s="71"/>
+      <c r="AS38" s="71"/>
+      <c r="AT38" s="71"/>
+      <c r="AU38" s="71"/>
+      <c r="AV38" s="71"/>
+      <c r="AW38" s="71"/>
+      <c r="AX38" s="71"/>
+      <c r="AY38" s="71"/>
     </row>
     <row r="39" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="61" t="s">
+      <c r="B39" s="72"/>
+      <c r="C39" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="62" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62" t="s">
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T39" s="62"/>
-      <c r="U39" s="63" t="s">
+      <c r="T39" s="61"/>
+      <c r="U39" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="66" t="s">
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66" t="s">
+      <c r="Z39" s="65"/>
+      <c r="AA39" s="65"/>
+      <c r="AB39" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="67" t="s">
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF39" s="67"/>
-      <c r="AG39" s="68" t="s">
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="68"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="58"/>
-      <c r="AP39" s="58"/>
-      <c r="AQ39" s="58"/>
-      <c r="AR39" s="58"/>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="58"/>
-      <c r="AU39" s="58"/>
-      <c r="AV39" s="58"/>
-      <c r="AW39" s="58"/>
-      <c r="AX39" s="58"/>
-      <c r="AY39" s="58"/>
+      <c r="AH39" s="67"/>
+      <c r="AI39" s="67"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="71"/>
+      <c r="AL39" s="71"/>
+      <c r="AM39" s="71"/>
+      <c r="AN39" s="71"/>
+      <c r="AO39" s="71"/>
+      <c r="AP39" s="71"/>
+      <c r="AQ39" s="71"/>
+      <c r="AR39" s="71"/>
+      <c r="AS39" s="71"/>
+      <c r="AT39" s="71"/>
+      <c r="AU39" s="71"/>
+      <c r="AV39" s="71"/>
+      <c r="AW39" s="71"/>
+      <c r="AX39" s="71"/>
+      <c r="AY39" s="71"/>
     </row>
     <row r="40" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61" t="s">
+      <c r="B40" s="59"/>
+      <c r="C40" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="62" t="s">
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62" t="s">
+      <c r="T40" s="61"/>
+      <c r="U40" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="T40" s="62"/>
-      <c r="U40" s="63" t="s">
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="65">
+        <v>13</v>
+      </c>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH40" s="67"/>
+      <c r="AI40" s="67"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="71"/>
+      <c r="AL40" s="71"/>
+      <c r="AM40" s="71"/>
+      <c r="AN40" s="71"/>
+      <c r="AO40" s="71"/>
+      <c r="AP40" s="71"/>
+      <c r="AQ40" s="71"/>
+      <c r="AR40" s="71"/>
+      <c r="AS40" s="71"/>
+      <c r="AT40" s="71"/>
+      <c r="AU40" s="71"/>
+      <c r="AV40" s="71"/>
+      <c r="AW40" s="71"/>
+      <c r="AX40" s="71"/>
+      <c r="AY40" s="71"/>
+    </row>
+    <row r="41" spans="1:51" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="66">
-        <v>13</v>
-      </c>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66">
+      <c r="B41" s="59"/>
+      <c r="C41" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="T41" s="61"/>
+      <c r="U41" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="65">
+        <v>12</v>
+      </c>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="67">
         <v>0</v>
       </c>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="67" t="s">
+      <c r="AH41" s="67"/>
+      <c r="AI41" s="67"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL41" s="71"/>
+      <c r="AM41" s="71"/>
+      <c r="AN41" s="71"/>
+      <c r="AO41" s="71"/>
+      <c r="AP41" s="71"/>
+      <c r="AQ41" s="71"/>
+      <c r="AR41" s="71"/>
+      <c r="AS41" s="71"/>
+      <c r="AT41" s="71"/>
+      <c r="AU41" s="71"/>
+      <c r="AV41" s="71"/>
+      <c r="AW41" s="71"/>
+      <c r="AX41" s="71"/>
+      <c r="AY41" s="71"/>
+    </row>
+    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="T42" s="61"/>
+      <c r="U42" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="68" t="s">
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="68"/>
-      <c r="AJ40" s="68"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="58"/>
-      <c r="AN40" s="58"/>
-      <c r="AO40" s="58"/>
-      <c r="AP40" s="58"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="58"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="58"/>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="58"/>
-    </row>
-    <row r="41" spans="1:51" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="T41" s="62"/>
-      <c r="U41" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="66">
-        <v>12</v>
-      </c>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="67" t="s">
+      <c r="AH42" s="67"/>
+      <c r="AI42" s="67"/>
+      <c r="AJ42" s="67"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="71"/>
+      <c r="AM42" s="71"/>
+      <c r="AN42" s="71"/>
+      <c r="AO42" s="71"/>
+      <c r="AP42" s="71"/>
+      <c r="AQ42" s="71"/>
+      <c r="AR42" s="71"/>
+      <c r="AS42" s="71"/>
+      <c r="AT42" s="71"/>
+      <c r="AU42" s="71"/>
+      <c r="AV42" s="71"/>
+      <c r="AW42" s="71"/>
+      <c r="AX42" s="71"/>
+      <c r="AY42" s="71"/>
+    </row>
+    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="68">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="68"/>
-      <c r="AI41" s="68"/>
-      <c r="AJ41" s="68"/>
-      <c r="AK41" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="58"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="58"/>
-      <c r="AX41" s="58"/>
-      <c r="AY41" s="58"/>
-    </row>
-    <row r="42" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="T42" s="62"/>
-      <c r="U42" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="66">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="67" t="s">
+      <c r="T43" s="61"/>
+      <c r="U43" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AF42" s="67"/>
-      <c r="AG42" s="68" t="s">
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AH42" s="68"/>
-      <c r="AI42" s="68"/>
-      <c r="AJ42" s="68"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="58"/>
-      <c r="AM42" s="58"/>
-      <c r="AN42" s="58"/>
-      <c r="AO42" s="58"/>
-      <c r="AP42" s="58"/>
-      <c r="AQ42" s="58"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="58"/>
-      <c r="AX42" s="58"/>
-      <c r="AY42" s="58"/>
-    </row>
-    <row r="43" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC43" s="65"/>
+      <c r="AD43" s="65"/>
+      <c r="AE43" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH43" s="67"/>
+      <c r="AI43" s="67"/>
+      <c r="AJ43" s="67"/>
+      <c r="AK43" s="71"/>
+      <c r="AL43" s="71"/>
+      <c r="AM43" s="71"/>
+      <c r="AN43" s="71"/>
+      <c r="AO43" s="71"/>
+      <c r="AP43" s="71"/>
+      <c r="AQ43" s="71"/>
+      <c r="AR43" s="71"/>
+      <c r="AS43" s="71"/>
+      <c r="AT43" s="71"/>
+      <c r="AU43" s="71"/>
+      <c r="AV43" s="71"/>
+      <c r="AW43" s="71"/>
+      <c r="AX43" s="71"/>
+      <c r="AY43" s="71"/>
+    </row>
+    <row r="44" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="62" t="s">
+      <c r="B44" s="59"/>
+      <c r="C44" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62" t="s">
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T43" s="62"/>
-      <c r="U43" s="63" t="s">
+      <c r="T44" s="61"/>
+      <c r="U44" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="66" t="s">
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="66" t="s">
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="67" t="s">
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="68" t="s">
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH43" s="68"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="68"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="58"/>
-      <c r="AM43" s="58"/>
-      <c r="AN43" s="58"/>
-      <c r="AO43" s="58"/>
-      <c r="AP43" s="58"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="58"/>
-      <c r="AX43" s="58"/>
-      <c r="AY43" s="58"/>
-    </row>
-    <row r="44" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61" t="s">
+      <c r="AH44" s="67"/>
+      <c r="AI44" s="67"/>
+      <c r="AJ44" s="67"/>
+      <c r="AK44" s="71"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="71"/>
+      <c r="AN44" s="71"/>
+      <c r="AO44" s="71"/>
+      <c r="AP44" s="71"/>
+      <c r="AQ44" s="71"/>
+      <c r="AR44" s="71"/>
+      <c r="AS44" s="71"/>
+      <c r="AT44" s="71"/>
+      <c r="AU44" s="71"/>
+      <c r="AV44" s="71"/>
+      <c r="AW44" s="71"/>
+      <c r="AX44" s="71"/>
+      <c r="AY44" s="71"/>
+    </row>
+    <row r="45" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="62" t="s">
+      <c r="B45" s="76"/>
+      <c r="C45" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62" t="s">
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T44" s="62"/>
-      <c r="U44" s="63" t="s">
+      <c r="T45" s="61"/>
+      <c r="U45" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="66" t="s">
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66" t="s">
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="67" t="s">
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF44" s="67"/>
-      <c r="AG44" s="68" t="s">
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH44" s="68"/>
-      <c r="AI44" s="68"/>
-      <c r="AJ44" s="68"/>
-      <c r="AK44" s="58"/>
-      <c r="AL44" s="58"/>
-      <c r="AM44" s="58"/>
-      <c r="AN44" s="58"/>
-      <c r="AO44" s="58"/>
-      <c r="AP44" s="58"/>
-      <c r="AQ44" s="58"/>
-      <c r="AR44" s="58"/>
-      <c r="AS44" s="58"/>
-      <c r="AT44" s="58"/>
-      <c r="AU44" s="58"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="58"/>
-      <c r="AX44" s="58"/>
-      <c r="AY44" s="58"/>
-    </row>
-    <row r="45" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="61" t="s">
+      <c r="AH45" s="67"/>
+      <c r="AI45" s="67"/>
+      <c r="AJ45" s="67"/>
+      <c r="AK45" s="71"/>
+      <c r="AL45" s="71"/>
+      <c r="AM45" s="71"/>
+      <c r="AN45" s="71"/>
+      <c r="AO45" s="71"/>
+      <c r="AP45" s="71"/>
+      <c r="AQ45" s="71"/>
+      <c r="AR45" s="71"/>
+      <c r="AS45" s="71"/>
+      <c r="AT45" s="71"/>
+      <c r="AU45" s="71"/>
+      <c r="AV45" s="71"/>
+      <c r="AW45" s="71"/>
+      <c r="AX45" s="71"/>
+      <c r="AY45" s="71"/>
+    </row>
+    <row r="46" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="77"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="62" t="s">
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62" t="s">
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T45" s="62"/>
-      <c r="U45" s="63" t="s">
+      <c r="T46" s="61"/>
+      <c r="U46" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="66" t="s">
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="66" t="s">
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="67" t="s">
+      <c r="AC46" s="65"/>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF45" s="67"/>
-      <c r="AG45" s="68" t="s">
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH45" s="68"/>
-      <c r="AI45" s="68"/>
-      <c r="AJ45" s="68"/>
-      <c r="AK45" s="58"/>
-      <c r="AL45" s="58"/>
-      <c r="AM45" s="58"/>
-      <c r="AN45" s="58"/>
-      <c r="AO45" s="58"/>
-      <c r="AP45" s="58"/>
-      <c r="AQ45" s="58"/>
-      <c r="AR45" s="58"/>
-      <c r="AS45" s="58"/>
-      <c r="AT45" s="58"/>
-      <c r="AU45" s="58"/>
-      <c r="AV45" s="58"/>
-      <c r="AW45" s="58"/>
-      <c r="AX45" s="58"/>
-      <c r="AY45" s="58"/>
-    </row>
-    <row r="46" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="82"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="77" t="s">
+      <c r="AH46" s="67"/>
+      <c r="AI46" s="67"/>
+      <c r="AJ46" s="67"/>
+      <c r="AK46" s="71"/>
+      <c r="AL46" s="71"/>
+      <c r="AM46" s="71"/>
+      <c r="AN46" s="71"/>
+      <c r="AO46" s="71"/>
+      <c r="AP46" s="71"/>
+      <c r="AQ46" s="71"/>
+      <c r="AR46" s="71"/>
+      <c r="AS46" s="71"/>
+      <c r="AT46" s="71"/>
+      <c r="AU46" s="71"/>
+      <c r="AV46" s="71"/>
+      <c r="AW46" s="71"/>
+      <c r="AX46" s="71"/>
+      <c r="AY46" s="71"/>
+    </row>
+    <row r="47" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="77"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="62" t="s">
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62" t="s">
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T46" s="62"/>
-      <c r="U46" s="63" t="s">
+      <c r="T47" s="61"/>
+      <c r="U47" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V46" s="64"/>
-      <c r="W46" s="64"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="66" t="s">
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z46" s="66"/>
-      <c r="AA46" s="66"/>
-      <c r="AB46" s="66" t="s">
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="67" t="s">
+      <c r="AC47" s="65"/>
+      <c r="AD47" s="65"/>
+      <c r="AE47" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="68" t="s">
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="68"/>
-      <c r="AJ46" s="68"/>
-      <c r="AK46" s="58"/>
-      <c r="AL46" s="58"/>
-      <c r="AM46" s="58"/>
-      <c r="AN46" s="58"/>
-      <c r="AO46" s="58"/>
-      <c r="AP46" s="58"/>
-      <c r="AQ46" s="58"/>
-      <c r="AR46" s="58"/>
-      <c r="AS46" s="58"/>
-      <c r="AT46" s="58"/>
-      <c r="AU46" s="58"/>
-      <c r="AV46" s="58"/>
-      <c r="AW46" s="58"/>
-      <c r="AX46" s="58"/>
-      <c r="AY46" s="58"/>
-    </row>
-    <row r="47" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="77" t="s">
+      <c r="AH47" s="67"/>
+      <c r="AI47" s="67"/>
+      <c r="AJ47" s="67"/>
+      <c r="AK47" s="71"/>
+      <c r="AL47" s="71"/>
+      <c r="AM47" s="71"/>
+      <c r="AN47" s="71"/>
+      <c r="AO47" s="71"/>
+      <c r="AP47" s="71"/>
+      <c r="AQ47" s="71"/>
+      <c r="AR47" s="71"/>
+      <c r="AS47" s="71"/>
+      <c r="AT47" s="71"/>
+      <c r="AU47" s="71"/>
+      <c r="AV47" s="71"/>
+      <c r="AW47" s="71"/>
+      <c r="AX47" s="71"/>
+      <c r="AY47" s="71"/>
+    </row>
+    <row r="48" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="77"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="62" t="s">
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62" t="s">
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T47" s="62"/>
-      <c r="U47" s="63" t="s">
+      <c r="T48" s="61"/>
+      <c r="U48" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="66" t="s">
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z47" s="66"/>
-      <c r="AA47" s="66"/>
-      <c r="AB47" s="66" t="s">
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="65"/>
+      <c r="AB48" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="67" t="s">
+      <c r="AC48" s="65"/>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF47" s="67"/>
-      <c r="AG47" s="68" t="s">
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="68"/>
-      <c r="AJ47" s="68"/>
-      <c r="AK47" s="58"/>
-      <c r="AL47" s="58"/>
-      <c r="AM47" s="58"/>
-      <c r="AN47" s="58"/>
-      <c r="AO47" s="58"/>
-      <c r="AP47" s="58"/>
-      <c r="AQ47" s="58"/>
-      <c r="AR47" s="58"/>
-      <c r="AS47" s="58"/>
-      <c r="AT47" s="58"/>
-      <c r="AU47" s="58"/>
-      <c r="AV47" s="58"/>
-      <c r="AW47" s="58"/>
-      <c r="AX47" s="58"/>
-      <c r="AY47" s="58"/>
-    </row>
-    <row r="48" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="77" t="s">
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="67"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="71"/>
+      <c r="AL48" s="71"/>
+      <c r="AM48" s="71"/>
+      <c r="AN48" s="71"/>
+      <c r="AO48" s="71"/>
+      <c r="AP48" s="71"/>
+      <c r="AQ48" s="71"/>
+      <c r="AR48" s="71"/>
+      <c r="AS48" s="71"/>
+      <c r="AT48" s="71"/>
+      <c r="AU48" s="71"/>
+      <c r="AV48" s="71"/>
+      <c r="AW48" s="71"/>
+      <c r="AX48" s="71"/>
+      <c r="AY48" s="71"/>
+    </row>
+    <row r="49" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="77"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="62" t="s">
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62" t="s">
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T48" s="62"/>
-      <c r="U48" s="63" t="s">
+      <c r="T49" s="61"/>
+      <c r="U49" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="66" t="s">
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="66"/>
-      <c r="AB48" s="66" t="s">
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="65"/>
+      <c r="AB49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="67" t="s">
+      <c r="AC49" s="65"/>
+      <c r="AD49" s="65"/>
+      <c r="AE49" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF48" s="67"/>
-      <c r="AG48" s="68" t="s">
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="68"/>
-      <c r="AK48" s="58"/>
-      <c r="AL48" s="58"/>
-      <c r="AM48" s="58"/>
-      <c r="AN48" s="58"/>
-      <c r="AO48" s="58"/>
-      <c r="AP48" s="58"/>
-      <c r="AQ48" s="58"/>
-      <c r="AR48" s="58"/>
-      <c r="AS48" s="58"/>
-      <c r="AT48" s="58"/>
-      <c r="AU48" s="58"/>
-      <c r="AV48" s="58"/>
-      <c r="AW48" s="58"/>
-      <c r="AX48" s="58"/>
-      <c r="AY48" s="58"/>
-    </row>
-    <row r="49" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="77" t="s">
+      <c r="AH49" s="67"/>
+      <c r="AI49" s="67"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="71"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="71"/>
+      <c r="AN49" s="71"/>
+      <c r="AO49" s="71"/>
+      <c r="AP49" s="71"/>
+      <c r="AQ49" s="71"/>
+      <c r="AR49" s="71"/>
+      <c r="AS49" s="71"/>
+      <c r="AT49" s="71"/>
+      <c r="AU49" s="71"/>
+      <c r="AV49" s="71"/>
+      <c r="AW49" s="71"/>
+      <c r="AX49" s="71"/>
+      <c r="AY49" s="71"/>
+    </row>
+    <row r="50" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="77"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="62" t="s">
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62" t="s">
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T49" s="62"/>
-      <c r="U49" s="63" t="s">
+      <c r="T50" s="61"/>
+      <c r="U50" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="66" t="s">
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z49" s="66"/>
-      <c r="AA49" s="66"/>
-      <c r="AB49" s="66" t="s">
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="65"/>
+      <c r="AB50" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC49" s="66"/>
-      <c r="AD49" s="66"/>
-      <c r="AE49" s="67" t="s">
+      <c r="AC50" s="65"/>
+      <c r="AD50" s="65"/>
+      <c r="AE50" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF49" s="67"/>
-      <c r="AG49" s="68" t="s">
+      <c r="AF50" s="66"/>
+      <c r="AG50" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH49" s="68"/>
-      <c r="AI49" s="68"/>
-      <c r="AJ49" s="68"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="58"/>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="58"/>
-      <c r="AO49" s="58"/>
-      <c r="AP49" s="58"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="58"/>
-      <c r="AU49" s="58"/>
-      <c r="AV49" s="58"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="58"/>
-    </row>
-    <row r="50" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="82"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="77" t="s">
+      <c r="AH50" s="67"/>
+      <c r="AI50" s="67"/>
+      <c r="AJ50" s="67"/>
+      <c r="AK50" s="71"/>
+      <c r="AL50" s="71"/>
+      <c r="AM50" s="71"/>
+      <c r="AN50" s="71"/>
+      <c r="AO50" s="71"/>
+      <c r="AP50" s="71"/>
+      <c r="AQ50" s="71"/>
+      <c r="AR50" s="71"/>
+      <c r="AS50" s="71"/>
+      <c r="AT50" s="71"/>
+      <c r="AU50" s="71"/>
+      <c r="AV50" s="71"/>
+      <c r="AW50" s="71"/>
+      <c r="AX50" s="71"/>
+      <c r="AY50" s="71"/>
+    </row>
+    <row r="51" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="77"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="62" t="s">
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62" t="s">
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T50" s="62"/>
-      <c r="U50" s="63" t="s">
+      <c r="T51" s="61"/>
+      <c r="U51" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="65"/>
-      <c r="Y50" s="66" t="s">
+      <c r="V51" s="63"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z50" s="66"/>
-      <c r="AA50" s="66"/>
-      <c r="AB50" s="66" t="s">
+      <c r="Z51" s="65"/>
+      <c r="AA51" s="65"/>
+      <c r="AB51" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC50" s="66"/>
-      <c r="AD50" s="66"/>
-      <c r="AE50" s="67" t="s">
+      <c r="AC51" s="65"/>
+      <c r="AD51" s="65"/>
+      <c r="AE51" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF50" s="67"/>
-      <c r="AG50" s="68" t="s">
+      <c r="AF51" s="66"/>
+      <c r="AG51" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH50" s="68"/>
-      <c r="AI50" s="68"/>
-      <c r="AJ50" s="68"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="58"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="58"/>
-      <c r="AO50" s="58"/>
-      <c r="AP50" s="58"/>
-      <c r="AQ50" s="58"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="58"/>
-      <c r="AT50" s="58"/>
-      <c r="AU50" s="58"/>
-      <c r="AV50" s="58"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="58"/>
-    </row>
-    <row r="51" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="77" t="s">
+      <c r="AH51" s="67"/>
+      <c r="AI51" s="67"/>
+      <c r="AJ51" s="67"/>
+      <c r="AK51" s="71"/>
+      <c r="AL51" s="71"/>
+      <c r="AM51" s="71"/>
+      <c r="AN51" s="71"/>
+      <c r="AO51" s="71"/>
+      <c r="AP51" s="71"/>
+      <c r="AQ51" s="71"/>
+      <c r="AR51" s="71"/>
+      <c r="AS51" s="71"/>
+      <c r="AT51" s="71"/>
+      <c r="AU51" s="71"/>
+      <c r="AV51" s="71"/>
+      <c r="AW51" s="71"/>
+      <c r="AX51" s="71"/>
+      <c r="AY51" s="71"/>
+    </row>
+    <row r="52" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="77"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="62" t="s">
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62" t="s">
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T51" s="62"/>
-      <c r="U51" s="63" t="s">
+      <c r="T52" s="61"/>
+      <c r="U52" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="66" t="s">
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z51" s="66"/>
-      <c r="AA51" s="66"/>
-      <c r="AB51" s="66" t="s">
+      <c r="Z52" s="65"/>
+      <c r="AA52" s="65"/>
+      <c r="AB52" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC51" s="66"/>
-      <c r="AD51" s="66"/>
-      <c r="AE51" s="67" t="s">
+      <c r="AC52" s="65"/>
+      <c r="AD52" s="65"/>
+      <c r="AE52" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF51" s="67"/>
-      <c r="AG51" s="68" t="s">
+      <c r="AF52" s="66"/>
+      <c r="AG52" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH51" s="68"/>
-      <c r="AI51" s="68"/>
-      <c r="AJ51" s="68"/>
-      <c r="AK51" s="58"/>
-      <c r="AL51" s="58"/>
-      <c r="AM51" s="58"/>
-      <c r="AN51" s="58"/>
-      <c r="AO51" s="58"/>
-      <c r="AP51" s="58"/>
-      <c r="AQ51" s="58"/>
-      <c r="AR51" s="58"/>
-      <c r="AS51" s="58"/>
-      <c r="AT51" s="58"/>
-      <c r="AU51" s="58"/>
-      <c r="AV51" s="58"/>
-      <c r="AW51" s="58"/>
-      <c r="AX51" s="58"/>
-      <c r="AY51" s="58"/>
-    </row>
-    <row r="52" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="82"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="77" t="s">
+      <c r="AH52" s="67"/>
+      <c r="AI52" s="67"/>
+      <c r="AJ52" s="67"/>
+      <c r="AK52" s="71"/>
+      <c r="AL52" s="71"/>
+      <c r="AM52" s="71"/>
+      <c r="AN52" s="71"/>
+      <c r="AO52" s="71"/>
+      <c r="AP52" s="71"/>
+      <c r="AQ52" s="71"/>
+      <c r="AR52" s="71"/>
+      <c r="AS52" s="71"/>
+      <c r="AT52" s="71"/>
+      <c r="AU52" s="71"/>
+      <c r="AV52" s="71"/>
+      <c r="AW52" s="71"/>
+      <c r="AX52" s="71"/>
+      <c r="AY52" s="71"/>
+    </row>
+    <row r="53" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="77"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="62" t="s">
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62" t="s">
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T52" s="62"/>
-      <c r="U52" s="63" t="s">
+      <c r="T53" s="61"/>
+      <c r="U53" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="66" t="s">
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z52" s="66"/>
-      <c r="AA52" s="66"/>
-      <c r="AB52" s="66" t="s">
+      <c r="Z53" s="65"/>
+      <c r="AA53" s="65"/>
+      <c r="AB53" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC52" s="66"/>
-      <c r="AD52" s="66"/>
-      <c r="AE52" s="67" t="s">
+      <c r="AC53" s="65"/>
+      <c r="AD53" s="65"/>
+      <c r="AE53" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF52" s="67"/>
-      <c r="AG52" s="68" t="s">
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH52" s="68"/>
-      <c r="AI52" s="68"/>
-      <c r="AJ52" s="68"/>
-      <c r="AK52" s="58"/>
-      <c r="AL52" s="58"/>
-      <c r="AM52" s="58"/>
-      <c r="AN52" s="58"/>
-      <c r="AO52" s="58"/>
-      <c r="AP52" s="58"/>
-      <c r="AQ52" s="58"/>
-      <c r="AR52" s="58"/>
-      <c r="AS52" s="58"/>
-      <c r="AT52" s="58"/>
-      <c r="AU52" s="58"/>
-      <c r="AV52" s="58"/>
-      <c r="AW52" s="58"/>
-      <c r="AX52" s="58"/>
-      <c r="AY52" s="58"/>
-    </row>
-    <row r="53" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="82"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="77" t="s">
+      <c r="AH53" s="67"/>
+      <c r="AI53" s="67"/>
+      <c r="AJ53" s="67"/>
+      <c r="AK53" s="71"/>
+      <c r="AL53" s="71"/>
+      <c r="AM53" s="71"/>
+      <c r="AN53" s="71"/>
+      <c r="AO53" s="71"/>
+      <c r="AP53" s="71"/>
+      <c r="AQ53" s="71"/>
+      <c r="AR53" s="71"/>
+      <c r="AS53" s="71"/>
+      <c r="AT53" s="71"/>
+      <c r="AU53" s="71"/>
+      <c r="AV53" s="71"/>
+      <c r="AW53" s="71"/>
+      <c r="AX53" s="71"/>
+      <c r="AY53" s="71"/>
+    </row>
+    <row r="54" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="62" t="s">
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62" t="s">
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T53" s="62"/>
-      <c r="U53" s="63" t="s">
+      <c r="T54" s="61"/>
+      <c r="U54" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V53" s="64"/>
-      <c r="W53" s="64"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="66" t="s">
+      <c r="V54" s="63"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="64"/>
+      <c r="Y54" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z53" s="66"/>
-      <c r="AA53" s="66"/>
-      <c r="AB53" s="66" t="s">
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="65"/>
+      <c r="AB54" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC53" s="66"/>
-      <c r="AD53" s="66"/>
-      <c r="AE53" s="67" t="s">
+      <c r="AC54" s="65"/>
+      <c r="AD54" s="65"/>
+      <c r="AE54" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF53" s="67"/>
-      <c r="AG53" s="68" t="s">
+      <c r="AF54" s="66"/>
+      <c r="AG54" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH53" s="68"/>
-      <c r="AI53" s="68"/>
-      <c r="AJ53" s="68"/>
-      <c r="AK53" s="58"/>
-      <c r="AL53" s="58"/>
-      <c r="AM53" s="58"/>
-      <c r="AN53" s="58"/>
-      <c r="AO53" s="58"/>
-      <c r="AP53" s="58"/>
-      <c r="AQ53" s="58"/>
-      <c r="AR53" s="58"/>
-      <c r="AS53" s="58"/>
-      <c r="AT53" s="58"/>
-      <c r="AU53" s="58"/>
-      <c r="AV53" s="58"/>
-      <c r="AW53" s="58"/>
-      <c r="AX53" s="58"/>
-      <c r="AY53" s="58"/>
-    </row>
-    <row r="54" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="84"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="77" t="s">
+      <c r="AH54" s="67"/>
+      <c r="AI54" s="67"/>
+      <c r="AJ54" s="67"/>
+      <c r="AK54" s="71"/>
+      <c r="AL54" s="71"/>
+      <c r="AM54" s="71"/>
+      <c r="AN54" s="71"/>
+      <c r="AO54" s="71"/>
+      <c r="AP54" s="71"/>
+      <c r="AQ54" s="71"/>
+      <c r="AR54" s="71"/>
+      <c r="AS54" s="71"/>
+      <c r="AT54" s="71"/>
+      <c r="AU54" s="71"/>
+      <c r="AV54" s="71"/>
+      <c r="AW54" s="71"/>
+      <c r="AX54" s="71"/>
+      <c r="AY54" s="71"/>
+    </row>
+    <row r="55" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="62" t="s">
+      <c r="B55" s="72"/>
+      <c r="C55" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62" t="s">
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T54" s="62"/>
-      <c r="U54" s="63" t="s">
+      <c r="T55" s="61"/>
+      <c r="U55" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V54" s="64"/>
-      <c r="W54" s="64"/>
-      <c r="X54" s="65"/>
-      <c r="Y54" s="66" t="s">
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z54" s="66"/>
-      <c r="AA54" s="66"/>
-      <c r="AB54" s="66" t="s">
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC54" s="66"/>
-      <c r="AD54" s="66"/>
-      <c r="AE54" s="67" t="s">
+      <c r="AC55" s="65"/>
+      <c r="AD55" s="65"/>
+      <c r="AE55" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF54" s="67"/>
-      <c r="AG54" s="68" t="s">
+      <c r="AF55" s="66"/>
+      <c r="AG55" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH54" s="68"/>
-      <c r="AI54" s="68"/>
-      <c r="AJ54" s="68"/>
-      <c r="AK54" s="58"/>
-      <c r="AL54" s="58"/>
-      <c r="AM54" s="58"/>
-      <c r="AN54" s="58"/>
-      <c r="AO54" s="58"/>
-      <c r="AP54" s="58"/>
-      <c r="AQ54" s="58"/>
-      <c r="AR54" s="58"/>
-      <c r="AS54" s="58"/>
-      <c r="AT54" s="58"/>
-      <c r="AU54" s="58"/>
-      <c r="AV54" s="58"/>
-      <c r="AW54" s="58"/>
-      <c r="AX54" s="58"/>
-      <c r="AY54" s="58"/>
-    </row>
-    <row r="55" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="61" t="s">
+      <c r="AH55" s="67"/>
+      <c r="AI55" s="67"/>
+      <c r="AJ55" s="67"/>
+      <c r="AK55" s="71"/>
+      <c r="AL55" s="71"/>
+      <c r="AM55" s="71"/>
+      <c r="AN55" s="71"/>
+      <c r="AO55" s="71"/>
+      <c r="AP55" s="71"/>
+      <c r="AQ55" s="71"/>
+      <c r="AR55" s="71"/>
+      <c r="AS55" s="71"/>
+      <c r="AT55" s="71"/>
+      <c r="AU55" s="71"/>
+      <c r="AV55" s="71"/>
+      <c r="AW55" s="71"/>
+      <c r="AX55" s="71"/>
+      <c r="AY55" s="71"/>
+    </row>
+    <row r="56" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="62" t="s">
+      <c r="B56" s="72"/>
+      <c r="C56" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62" t="s">
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T55" s="62"/>
-      <c r="U55" s="63" t="s">
+      <c r="T56" s="61"/>
+      <c r="U56" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V55" s="64"/>
-      <c r="W55" s="64"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="66" t="s">
+      <c r="V56" s="63"/>
+      <c r="W56" s="63"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="66"/>
-      <c r="AB55" s="66" t="s">
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC55" s="66"/>
-      <c r="AD55" s="66"/>
-      <c r="AE55" s="67" t="s">
+      <c r="AC56" s="65"/>
+      <c r="AD56" s="65"/>
+      <c r="AE56" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF55" s="67"/>
-      <c r="AG55" s="68" t="s">
+      <c r="AF56" s="66"/>
+      <c r="AG56" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH55" s="68"/>
-      <c r="AI55" s="68"/>
-      <c r="AJ55" s="68"/>
-      <c r="AK55" s="58"/>
-      <c r="AL55" s="58"/>
-      <c r="AM55" s="58"/>
-      <c r="AN55" s="58"/>
-      <c r="AO55" s="58"/>
-      <c r="AP55" s="58"/>
-      <c r="AQ55" s="58"/>
-      <c r="AR55" s="58"/>
-      <c r="AS55" s="58"/>
-      <c r="AT55" s="58"/>
-      <c r="AU55" s="58"/>
-      <c r="AV55" s="58"/>
-      <c r="AW55" s="58"/>
-      <c r="AX55" s="58"/>
-      <c r="AY55" s="58"/>
-    </row>
-    <row r="56" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="61" t="s">
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="71"/>
+      <c r="AL56" s="71"/>
+      <c r="AM56" s="71"/>
+      <c r="AN56" s="71"/>
+      <c r="AO56" s="71"/>
+      <c r="AP56" s="71"/>
+      <c r="AQ56" s="71"/>
+      <c r="AR56" s="71"/>
+      <c r="AS56" s="71"/>
+      <c r="AT56" s="71"/>
+      <c r="AU56" s="71"/>
+      <c r="AV56" s="71"/>
+      <c r="AW56" s="71"/>
+      <c r="AX56" s="71"/>
+      <c r="AY56" s="71"/>
+    </row>
+    <row r="57" spans="1:51" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="62" t="s">
+      <c r="B57" s="72"/>
+      <c r="C57" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62" t="s">
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="62"/>
-      <c r="U56" s="63" t="s">
+      <c r="T57" s="61"/>
+      <c r="U57" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V56" s="64"/>
-      <c r="W56" s="64"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="66" t="s">
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z56" s="66"/>
-      <c r="AA56" s="66"/>
-      <c r="AB56" s="66" t="s">
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="65"/>
+      <c r="AB57" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC56" s="66"/>
-      <c r="AD56" s="66"/>
-      <c r="AE56" s="67" t="s">
+      <c r="AC57" s="65"/>
+      <c r="AD57" s="65"/>
+      <c r="AE57" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF56" s="67"/>
-      <c r="AG56" s="68" t="s">
+      <c r="AF57" s="66"/>
+      <c r="AG57" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH56" s="68"/>
-      <c r="AI56" s="68"/>
-      <c r="AJ56" s="68"/>
-      <c r="AK56" s="58"/>
-      <c r="AL56" s="58"/>
-      <c r="AM56" s="58"/>
-      <c r="AN56" s="58"/>
-      <c r="AO56" s="58"/>
-      <c r="AP56" s="58"/>
-      <c r="AQ56" s="58"/>
-      <c r="AR56" s="58"/>
-      <c r="AS56" s="58"/>
-      <c r="AT56" s="58"/>
-      <c r="AU56" s="58"/>
-      <c r="AV56" s="58"/>
-      <c r="AW56" s="58"/>
-      <c r="AX56" s="58"/>
-      <c r="AY56" s="58"/>
-    </row>
-    <row r="57" spans="1:51" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="61" t="s">
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+      <c r="AJ57" s="67"/>
+      <c r="AK57" s="71"/>
+      <c r="AL57" s="71"/>
+      <c r="AM57" s="71"/>
+      <c r="AN57" s="71"/>
+      <c r="AO57" s="71"/>
+      <c r="AP57" s="71"/>
+      <c r="AQ57" s="71"/>
+      <c r="AR57" s="71"/>
+      <c r="AS57" s="71"/>
+      <c r="AT57" s="71"/>
+      <c r="AU57" s="71"/>
+      <c r="AV57" s="71"/>
+      <c r="AW57" s="71"/>
+      <c r="AX57" s="71"/>
+      <c r="AY57" s="71"/>
+    </row>
+    <row r="58" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="62" t="s">
+      <c r="B58" s="72"/>
+      <c r="C58" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62" t="s">
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="R58" s="61"/>
+      <c r="S58" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T57" s="62"/>
-      <c r="U57" s="63" t="s">
+      <c r="T58" s="61"/>
+      <c r="U58" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V57" s="64"/>
-      <c r="W57" s="64"/>
-      <c r="X57" s="65"/>
-      <c r="Y57" s="66" t="s">
+      <c r="V58" s="63"/>
+      <c r="W58" s="63"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66" t="s">
+      <c r="Z58" s="65"/>
+      <c r="AA58" s="65"/>
+      <c r="AB58" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC57" s="66"/>
-      <c r="AD57" s="66"/>
-      <c r="AE57" s="67" t="s">
+      <c r="AC58" s="65"/>
+      <c r="AD58" s="65"/>
+      <c r="AE58" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF57" s="67"/>
-      <c r="AG57" s="68" t="s">
+      <c r="AF58" s="66"/>
+      <c r="AG58" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH57" s="68"/>
-      <c r="AI57" s="68"/>
-      <c r="AJ57" s="68"/>
-      <c r="AK57" s="58"/>
-      <c r="AL57" s="58"/>
-      <c r="AM57" s="58"/>
-      <c r="AN57" s="58"/>
-      <c r="AO57" s="58"/>
-      <c r="AP57" s="58"/>
-      <c r="AQ57" s="58"/>
-      <c r="AR57" s="58"/>
-      <c r="AS57" s="58"/>
-      <c r="AT57" s="58"/>
-      <c r="AU57" s="58"/>
-      <c r="AV57" s="58"/>
-      <c r="AW57" s="58"/>
-      <c r="AX57" s="58"/>
-      <c r="AY57" s="58"/>
-    </row>
-    <row r="58" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="86"/>
-      <c r="C58" s="61" t="s">
+      <c r="AH58" s="67"/>
+      <c r="AI58" s="67"/>
+      <c r="AJ58" s="67"/>
+      <c r="AK58" s="73"/>
+      <c r="AL58" s="71"/>
+      <c r="AM58" s="71"/>
+      <c r="AN58" s="71"/>
+      <c r="AO58" s="71"/>
+      <c r="AP58" s="71"/>
+      <c r="AQ58" s="71"/>
+      <c r="AR58" s="71"/>
+      <c r="AS58" s="71"/>
+      <c r="AT58" s="71"/>
+      <c r="AU58" s="71"/>
+      <c r="AV58" s="71"/>
+      <c r="AW58" s="71"/>
+      <c r="AX58" s="71"/>
+      <c r="AY58" s="71"/>
+    </row>
+    <row r="59" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="62" t="s">
+      <c r="B59" s="72"/>
+      <c r="C59" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="62"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="62"/>
-      <c r="S58" s="62" t="s">
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T58" s="62"/>
-      <c r="U58" s="63" t="s">
+      <c r="T59" s="61"/>
+      <c r="U59" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V58" s="64"/>
-      <c r="W58" s="64"/>
-      <c r="X58" s="65"/>
-      <c r="Y58" s="66" t="s">
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z58" s="66"/>
-      <c r="AA58" s="66"/>
-      <c r="AB58" s="66" t="s">
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="65"/>
+      <c r="AB59" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC58" s="66"/>
-      <c r="AD58" s="66"/>
-      <c r="AE58" s="67" t="s">
+      <c r="AC59" s="65"/>
+      <c r="AD59" s="65"/>
+      <c r="AE59" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF58" s="67"/>
-      <c r="AG58" s="68" t="s">
+      <c r="AF59" s="66"/>
+      <c r="AG59" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH58" s="68"/>
-      <c r="AI58" s="68"/>
-      <c r="AJ58" s="68"/>
-      <c r="AK58" s="87"/>
-      <c r="AL58" s="58"/>
-      <c r="AM58" s="58"/>
-      <c r="AN58" s="58"/>
-      <c r="AO58" s="58"/>
-      <c r="AP58" s="58"/>
-      <c r="AQ58" s="58"/>
-      <c r="AR58" s="58"/>
-      <c r="AS58" s="58"/>
-      <c r="AT58" s="58"/>
-      <c r="AU58" s="58"/>
-      <c r="AV58" s="58"/>
-      <c r="AW58" s="58"/>
-      <c r="AX58" s="58"/>
-      <c r="AY58" s="58"/>
-    </row>
-    <row r="59" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="61" t="s">
+      <c r="AH59" s="67"/>
+      <c r="AI59" s="67"/>
+      <c r="AJ59" s="67"/>
+      <c r="AK59" s="71"/>
+      <c r="AL59" s="71"/>
+      <c r="AM59" s="71"/>
+      <c r="AN59" s="71"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
+      <c r="AR59" s="71"/>
+      <c r="AS59" s="71"/>
+      <c r="AT59" s="71"/>
+      <c r="AU59" s="71"/>
+      <c r="AV59" s="71"/>
+      <c r="AW59" s="71"/>
+      <c r="AX59" s="71"/>
+      <c r="AY59" s="71"/>
+    </row>
+    <row r="60" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="62" t="s">
+      <c r="B60" s="72"/>
+      <c r="C60" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62" t="s">
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="T59" s="62"/>
-      <c r="U59" s="63" t="s">
+      <c r="T60" s="61"/>
+      <c r="U60" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="V59" s="64"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="66" t="s">
+      <c r="V60" s="63"/>
+      <c r="W60" s="63"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="66"/>
-      <c r="AB59" s="66" t="s">
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="65"/>
+      <c r="AB60" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AC59" s="66"/>
-      <c r="AD59" s="66"/>
-      <c r="AE59" s="67" t="s">
+      <c r="AC60" s="65"/>
+      <c r="AD60" s="65"/>
+      <c r="AE60" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF59" s="67"/>
-      <c r="AG59" s="68" t="s">
+      <c r="AF60" s="66"/>
+      <c r="AG60" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AH59" s="68"/>
-      <c r="AI59" s="68"/>
-      <c r="AJ59" s="68"/>
-      <c r="AK59" s="58"/>
-      <c r="AL59" s="58"/>
-      <c r="AM59" s="58"/>
-      <c r="AN59" s="58"/>
-      <c r="AO59" s="58"/>
-      <c r="AP59" s="58"/>
-      <c r="AQ59" s="58"/>
-      <c r="AR59" s="58"/>
-      <c r="AS59" s="58"/>
-      <c r="AT59" s="58"/>
-      <c r="AU59" s="58"/>
-      <c r="AV59" s="58"/>
-      <c r="AW59" s="58"/>
-      <c r="AX59" s="58"/>
-      <c r="AY59" s="58"/>
-    </row>
-    <row r="60" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="86"/>
-      <c r="C60" s="61" t="s">
+      <c r="AH60" s="67"/>
+      <c r="AI60" s="67"/>
+      <c r="AJ60" s="67"/>
+      <c r="AK60" s="71"/>
+      <c r="AL60" s="71"/>
+      <c r="AM60" s="71"/>
+      <c r="AN60" s="71"/>
+      <c r="AO60" s="71"/>
+      <c r="AP60" s="71"/>
+      <c r="AQ60" s="71"/>
+      <c r="AR60" s="71"/>
+      <c r="AS60" s="71"/>
+      <c r="AT60" s="71"/>
+      <c r="AU60" s="71"/>
+      <c r="AV60" s="71"/>
+      <c r="AW60" s="71"/>
+      <c r="AX60" s="71"/>
+      <c r="AY60" s="71"/>
+    </row>
+    <row r="61" spans="1:51" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="T60" s="62"/>
-      <c r="U60" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="V60" s="64"/>
-      <c r="W60" s="64"/>
-      <c r="X60" s="65"/>
-      <c r="Y60" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="66"/>
-      <c r="AB60" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF60" s="67"/>
-      <c r="AG60" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH60" s="68"/>
-      <c r="AI60" s="68"/>
-      <c r="AJ60" s="68"/>
-      <c r="AK60" s="58"/>
-      <c r="AL60" s="58"/>
-      <c r="AM60" s="58"/>
-      <c r="AN60" s="58"/>
-      <c r="AO60" s="58"/>
-      <c r="AP60" s="58"/>
-      <c r="AQ60" s="58"/>
-      <c r="AR60" s="58"/>
-      <c r="AS60" s="58"/>
-      <c r="AT60" s="58"/>
-      <c r="AU60" s="58"/>
-      <c r="AV60" s="58"/>
-      <c r="AW60" s="58"/>
-      <c r="AX60" s="58"/>
-      <c r="AY60" s="58"/>
-    </row>
-    <row r="61" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="76"/>
-      <c r="S61" s="76"/>
-      <c r="T61" s="76"/>
-      <c r="U61" s="76"/>
-      <c r="V61" s="76"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="76"/>
-      <c r="Y61" s="76"/>
-      <c r="Z61" s="76"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="76"/>
-      <c r="AD61" s="76"/>
-      <c r="AE61" s="76"/>
-      <c r="AF61" s="76"/>
-      <c r="AG61" s="76"/>
-      <c r="AH61" s="76"/>
-      <c r="AI61" s="76"/>
-      <c r="AJ61" s="76"/>
-      <c r="AK61" s="76"/>
-      <c r="AL61" s="76"/>
-      <c r="AM61" s="76"/>
-      <c r="AN61" s="76"/>
-      <c r="AO61" s="76"/>
-      <c r="AP61" s="76"/>
-      <c r="AQ61" s="76"/>
-      <c r="AR61" s="76"/>
-      <c r="AS61" s="76"/>
-      <c r="AT61" s="76"/>
-      <c r="AU61" s="76"/>
-      <c r="AV61" s="76"/>
-      <c r="AW61" s="76"/>
-      <c r="AX61" s="76"/>
-      <c r="AY61" s="76"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="81"/>
+      <c r="S61" s="81"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="81"/>
+      <c r="V61" s="81"/>
+      <c r="W61" s="81"/>
+      <c r="X61" s="81"/>
+      <c r="Y61" s="81"/>
+      <c r="Z61" s="81"/>
+      <c r="AA61" s="81"/>
+      <c r="AB61" s="81"/>
+      <c r="AC61" s="81"/>
+      <c r="AD61" s="81"/>
+      <c r="AE61" s="81"/>
+      <c r="AF61" s="81"/>
+      <c r="AG61" s="81"/>
+      <c r="AH61" s="81"/>
+      <c r="AI61" s="81"/>
+      <c r="AJ61" s="81"/>
+      <c r="AK61" s="81"/>
+      <c r="AL61" s="81"/>
+      <c r="AM61" s="81"/>
+      <c r="AN61" s="81"/>
+      <c r="AO61" s="81"/>
+      <c r="AP61" s="81"/>
+      <c r="AQ61" s="81"/>
+      <c r="AR61" s="81"/>
+      <c r="AS61" s="81"/>
+      <c r="AT61" s="81"/>
+      <c r="AU61" s="81"/>
+      <c r="AV61" s="81"/>
+      <c r="AW61" s="81"/>
+      <c r="AX61" s="81"/>
+      <c r="AY61" s="81"/>
     </row>
     <row r="62" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -13371,7 +13372,7 @@
       <c r="J62" s="57"/>
       <c r="K62" s="57"/>
       <c r="L62" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M62" s="57"/>
       <c r="N62" s="57"/>
@@ -13415,7 +13416,7 @@
     </row>
     <row r="63" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -13428,7 +13429,7 @@
       <c r="J63" s="57"/>
       <c r="K63" s="57"/>
       <c r="L63" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M63" s="57"/>
       <c r="N63" s="57"/>
@@ -13472,7 +13473,7 @@
     </row>
     <row r="64" spans="1:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -13485,7 +13486,7 @@
       <c r="J64" s="57"/>
       <c r="K64" s="57"/>
       <c r="L64" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M64" s="57"/>
       <c r="N64" s="57"/>
@@ -13529,7 +13530,7 @@
     </row>
     <row r="65" spans="1:51" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -13542,7 +13543,7 @@
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
       <c r="L65" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M65" s="57"/>
       <c r="N65" s="57"/>
@@ -13586,7 +13587,7 @@
     </row>
     <row r="66" spans="1:51" ht="298.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -13599,7 +13600,7 @@
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
       <c r="L66" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M66" s="57"/>
       <c r="N66" s="57"/>
@@ -13643,7 +13644,7 @@
     </row>
     <row r="67" spans="1:51" ht="96.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -13656,7 +13657,7 @@
       <c r="J67" s="57"/>
       <c r="K67" s="57"/>
       <c r="L67" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M67" s="57"/>
       <c r="N67" s="57"/>
@@ -13700,7 +13701,7 @@
     </row>
     <row r="68" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -13713,7 +13714,7 @@
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="57"/>
       <c r="N68" s="57"/>
@@ -13757,7 +13758,7 @@
     </row>
     <row r="69" spans="1:51" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -13770,7 +13771,7 @@
       <c r="J69" s="57"/>
       <c r="K69" s="57"/>
       <c r="L69" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M69" s="57"/>
       <c r="N69" s="57"/>
@@ -13814,7 +13815,7 @@
     </row>
     <row r="70" spans="1:51" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -13827,7 +13828,7 @@
       <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M70" s="57"/>
       <c r="N70" s="57"/>
@@ -13871,7 +13872,7 @@
     </row>
     <row r="71" spans="1:51" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -13884,7 +13885,7 @@
       <c r="J71" s="57"/>
       <c r="K71" s="57"/>
       <c r="L71" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M71" s="57"/>
       <c r="N71" s="57"/>
@@ -13928,7 +13929,7 @@
     </row>
     <row r="72" spans="1:51" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -13941,7 +13942,7 @@
       <c r="J72" s="57"/>
       <c r="K72" s="57"/>
       <c r="L72" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M72" s="57"/>
       <c r="N72" s="57"/>
@@ -13985,7 +13986,7 @@
     </row>
     <row r="73" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -13998,7 +13999,7 @@
       <c r="J73" s="57"/>
       <c r="K73" s="57"/>
       <c r="L73" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M73" s="57"/>
       <c r="N73" s="57"/>
@@ -14042,7 +14043,7 @@
     </row>
     <row r="74" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -14054,8 +14055,8 @@
       <c r="I74" s="57"/>
       <c r="J74" s="57"/>
       <c r="K74" s="57"/>
-      <c r="L74" s="75" t="s">
-        <v>100</v>
+      <c r="L74" s="74" t="s">
+        <v>99</v>
       </c>
       <c r="M74" s="57"/>
       <c r="N74" s="57"/>
@@ -14099,7 +14100,7 @@
     </row>
     <row r="75" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -14111,8 +14112,8 @@
       <c r="I75" s="57"/>
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
-      <c r="L75" s="75" t="s">
-        <v>102</v>
+      <c r="L75" s="74" t="s">
+        <v>101</v>
       </c>
       <c r="M75" s="57"/>
       <c r="N75" s="57"/>
@@ -14156,7 +14157,7 @@
     </row>
     <row r="76" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -14168,8 +14169,8 @@
       <c r="I76" s="57"/>
       <c r="J76" s="57"/>
       <c r="K76" s="57"/>
-      <c r="L76" s="75" t="s">
-        <v>104</v>
+      <c r="L76" s="74" t="s">
+        <v>103</v>
       </c>
       <c r="M76" s="57"/>
       <c r="N76" s="57"/>
@@ -14217,6 +14218,263 @@
     <row r="80" spans="1:51" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="L66:AY66"/>
+    <mergeCell ref="AK42:AY42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AK46:AY46"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AG47:AJ47"/>
+    <mergeCell ref="AK47:AY47"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A3:AY3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AY1"/>
+    <mergeCell ref="A2:AY2"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="AK44:AY44"/>
+    <mergeCell ref="A4:AY4"/>
+    <mergeCell ref="A5:AY34"/>
+    <mergeCell ref="A35:AY35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AK36:AY36"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AK41:AY41"/>
+    <mergeCell ref="AK38:AY38"/>
+    <mergeCell ref="AK39:AY39"/>
+    <mergeCell ref="AK37:AY37"/>
+    <mergeCell ref="AK40:AY40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="L76:AY76"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="AK43:AY43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="A61:AY61"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="L68:AY68"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="AK45:AY45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AK49:AY49"/>
+    <mergeCell ref="L49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AJ48"/>
+    <mergeCell ref="AK48:AY48"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AB50:AD50"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AK50:AY50"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="L52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AK51:AY51"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="AB54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AK54:AY54"/>
+    <mergeCell ref="L54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="A45:B54"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AK53:AY53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AB52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AK52:AY52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:X57"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="L56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A75:K75"/>
+    <mergeCell ref="L75:AY75"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AJ60"/>
+    <mergeCell ref="AK60:AY60"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="L60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="L70:AY70"/>
+    <mergeCell ref="L69:AY69"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="L72:AY72"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="L74:AY74"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="L73:AY73"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="L71:AY71"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="L58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:X58"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="L67:AY67"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AJ59"/>
+    <mergeCell ref="AK59:AY59"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="L59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:X59"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="L62:AY62"/>
+    <mergeCell ref="L65:AY65"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="L63:AY63"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AJ58"/>
+    <mergeCell ref="AK58:AY58"/>
+    <mergeCell ref="AG57:AJ57"/>
+    <mergeCell ref="AK57:AY57"/>
+    <mergeCell ref="AK56:AY56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AJ37"/>
     <mergeCell ref="A64:K64"/>
     <mergeCell ref="L64:AY64"/>
     <mergeCell ref="A40:B40"/>
@@ -14241,263 +14499,6 @@
     <mergeCell ref="S55:T55"/>
     <mergeCell ref="U55:X55"/>
     <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AJ58"/>
-    <mergeCell ref="AK58:AY58"/>
-    <mergeCell ref="AG57:AJ57"/>
-    <mergeCell ref="AK57:AY57"/>
-    <mergeCell ref="AK56:AY56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="L58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:X58"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="L67:AY67"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AJ59"/>
-    <mergeCell ref="AK59:AY59"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="L59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:X59"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="L62:AY62"/>
-    <mergeCell ref="L65:AY65"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="L63:AY63"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="L75:AY75"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AJ60"/>
-    <mergeCell ref="AK60:AY60"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="L60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="L70:AY70"/>
-    <mergeCell ref="L69:AY69"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="L72:AY72"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="L74:AY74"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="L73:AY73"/>
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="L71:AY71"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:X57"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="L56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AK54:AY54"/>
-    <mergeCell ref="L54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="A45:B54"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AK53:AY53"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="L53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="AB52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AK52:AY52"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="L52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AK51:AY51"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="L51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AK50:AY50"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="L50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AK49:AY49"/>
-    <mergeCell ref="L49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="AK48:AY48"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:X48"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="AK45:AY45"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="L76:AY76"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="AK43:AY43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="A61:AY61"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="L68:AY68"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AK36:AY36"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AK41:AY41"/>
-    <mergeCell ref="AK38:AY38"/>
-    <mergeCell ref="AK39:AY39"/>
-    <mergeCell ref="AK37:AY37"/>
-    <mergeCell ref="AK40:AY40"/>
-    <mergeCell ref="A3:AY3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AY1"/>
-    <mergeCell ref="A2:AY2"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="AK44:AY44"/>
-    <mergeCell ref="A4:AY4"/>
-    <mergeCell ref="A5:AY34"/>
-    <mergeCell ref="A35:AY35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="L66:AY66"/>
-    <mergeCell ref="AK42:AY42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AK46:AY46"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="AK47:AY47"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="4">
@@ -14544,22 +14545,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="46" t="s">
         <v>109</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="26.4" x14ac:dyDescent="0.2">
@@ -14568,16 +14569,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>112</v>
       </c>
       <c r="E3" s="46">
         <v>45522</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="46">
         <v>45529</v>
@@ -14589,16 +14590,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>114</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>115</v>
       </c>
       <c r="E4" s="46">
         <v>45522</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="46">
         <v>45529</v>
@@ -14610,16 +14611,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>117</v>
       </c>
       <c r="E5" s="46">
         <v>45522</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="46">
         <v>45529</v>
@@ -14631,10 +14632,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="46">
         <v>45536</v>
@@ -14686,21 +14687,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EA33B2329A96D4479E9B802CC9E5A0B5" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52d2914cf4ca7a40289baa0855df37e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf5160749d23804eda78bf15a97dfad" ns2:_="">
     <xsd:import namespace="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0"/>
@@ -14844,24 +14830,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C78481E-A33B-48BC-A720-91807D4235A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C89A913-7ED1-4BF6-8E4A-916015E940D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14877,4 +14861,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1950124-43EE-46CD-BB8C-BA125F43F98E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C78481E-A33B-48BC-A720-91807D4235A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>